--- a/results/Paper/table_4.xlsx
+++ b/results/Paper/table_4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,48 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\Race Disparities in Sepsis\mit-tmle\results\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2F7779E2-B4A8-4260-9FAA-1DAB17576E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9766F1EC-F06E-4666-84B1-65ACBEF9FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTMLE" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="3" r:id="rId2"/>
-    <sheet name="processed" sheetId="2" r:id="rId3"/>
+    <sheet name="table_4" sheetId="2" r:id="rId3"/>
+    <sheet name="normalized" sheetId="4" r:id="rId4"/>
+    <sheet name="table_4_norm" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">temp!$A$1:$L$121</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">temp!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">temp!$B$2:$B$123</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">temp!$B$2:$B$123</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">temp!$B:$D</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">temp!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">temp!$C$2:$C$123</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">temp!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">temp!$D$2:$D$123</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">temp!$G$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">temp!$G$2:$G$123</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">temp!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">temp!$B$2:$B$123</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">temp!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">temp!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">temp!$C$2:$C$123</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">temp!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">temp!$D$2:$D$123</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">temp!$G$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">temp!$G$2:$G$123</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">temp!$C$2:$C$123</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">temp!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">temp!$D$2:$D$123</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">temp!$G$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">temp!$G$2:$G$123</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">temp!$G:$G</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">temp!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="53">
   <si>
     <t>cohort</t>
   </si>
@@ -229,11 +218,24 @@
   <si>
     <t>Average of psi</t>
   </si>
+  <si>
+    <t>ratio_psi</t>
+  </si>
+  <si>
+    <t>ratio_iCI</t>
+  </si>
+  <si>
+    <t>ratio_sCI</t>
+  </si>
+  <si>
+    <t>ATE Ratio
+White vs. Non-White</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,12 +771,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,24 +779,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -860,7 +862,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="João Matos" refreshedDate="44883.845504166668" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="João Matos" refreshedDate="44883.845504166668" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{00000000-000A-0000-FFFF-FFFF26000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:J121" sheet="temp"/>
   </cacheSource>
@@ -2250,7 +2252,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable29" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N4:O47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -2755,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,38 +2771,38 @@
     <col min="4" max="4" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7373,57 +7375,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="126" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="9">
         <v>6</v>
       </c>
     </row>
@@ -7472,10 +7477,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G2, 2), " (", ROUND(temp!H2,2), " - ", ROUND(temp!I2,2),  ")", IF(AND(temp!J2 &lt;0.05, NOT(ISBLANK(temp!J2))), "*", " ") )</f>
         <v>0.5 (0.48 - 0.52)*</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="9">
         <v>10</v>
       </c>
     </row>
@@ -7570,7 +7575,7 @@
         <f>_xlfn.CONCAT(ROUND(temp!G4, 2), " (", ROUND(temp!H4,2), " - ", ROUND(temp!I4,2),  ")", IF(AND(temp!J4 &lt;0.05, NOT(ISBLANK(temp!J4))), "*", " ") )</f>
         <v>0.51 (0.48 - 0.54)*</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O4" t="s">
@@ -7622,10 +7627,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G5, 2), " (", ROUND(temp!H5,2), " - ", ROUND(temp!I5,2),  ")", IF(AND(temp!J5 &lt;0.05, NOT(ISBLANK(temp!J5))), "*", " ") )</f>
         <v>0.63 (0.59 - 0.67)*</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="16">
         <v>0.38408227893435404</v>
       </c>
     </row>
@@ -7674,10 +7679,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G6, 2), " (", ROUND(temp!H6,2), " - ", ROUND(temp!I6,2),  ")", IF(AND(temp!J6 &lt;0.05, NOT(ISBLANK(temp!J6))), "*", " ") )</f>
         <v>0.72 (0.65 - 0.8)*</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="16">
         <v>0.48164705582437051</v>
       </c>
     </row>
@@ -7726,10 +7731,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G7, 2), " (", ROUND(temp!H7,2), " - ", ROUND(temp!I7,2),  ")", IF(AND(temp!J7 &lt;0.05, NOT(ISBLANK(temp!J7))), "*", " ") )</f>
         <v>0.27 (0.25 - 0.29)*</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="16">
         <v>0.51160443995962901</v>
       </c>
     </row>
@@ -7778,10 +7783,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G8, 2), " (", ROUND(temp!H8,2), " - ", ROUND(temp!I8,2),  ")", IF(AND(temp!J8 &lt;0.05, NOT(ISBLANK(temp!J8))), "*", " ") )</f>
         <v>0.19 (0.16 - 0.21)*</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="16">
         <v>0.451689671689112</v>
       </c>
     </row>
@@ -7830,10 +7835,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G9, 2), " (", ROUND(temp!H9,2), " - ", ROUND(temp!I9,2),  ")", IF(AND(temp!J9 &lt;0.05, NOT(ISBLANK(temp!J9))), "*", " ") )</f>
         <v>0.29 (0.26 - 0.31)*</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="16">
         <v>0.28651750204433751</v>
       </c>
     </row>
@@ -7882,10 +7887,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G10, 2), " (", ROUND(temp!H10,2), " - ", ROUND(temp!I10,2),  ")", IF(AND(temp!J10 &lt;0.05, NOT(ISBLANK(temp!J10))), "*", " ") )</f>
         <v>0.53 (0.48 - 0.59)*</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="16">
         <v>0.28655959425226002</v>
       </c>
     </row>
@@ -7934,10 +7939,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G11, 2), " (", ROUND(temp!H11,2), " - ", ROUND(temp!I11,2),  ")", IF(AND(temp!J11 &lt;0.05, NOT(ISBLANK(temp!J11))), "*", " ") )</f>
         <v>0.64 (0.45 - 0.83)*</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="16">
         <v>0.28647540983641501</v>
       </c>
     </row>
@@ -7986,10 +7991,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G12, 2), " (", ROUND(temp!H12,2), " - ", ROUND(temp!I12,2),  ")", IF(AND(temp!J12 &lt;0.05, NOT(ISBLANK(temp!J12))), "*", " ") )</f>
         <v>0.45 (0.44 - 0.46)*</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="16">
         <v>0.37191644982658001</v>
       </c>
     </row>
@@ -8038,10 +8043,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G13, 2), " (", ROUND(temp!H13,2), " - ", ROUND(temp!I13,2),  ")", IF(AND(temp!J13 &lt;0.05, NOT(ISBLANK(temp!J13))), "*", " ") )</f>
         <v>0.29 (0.27 - 0.31)*</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="16">
         <v>0.59614733495410555</v>
       </c>
     </row>
@@ -8090,10 +8095,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G14, 2), " (", ROUND(temp!H14,2), " - ", ROUND(temp!I14,2),  ")", IF(AND(temp!J14 &lt;0.05, NOT(ISBLANK(temp!J14))), "*", " ") )</f>
         <v>0.45 (0.44 - 0.47)*</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="16">
         <v>0.61925795053003196</v>
       </c>
     </row>
@@ -8142,10 +8147,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G15, 2), " (", ROUND(temp!H15,2), " - ", ROUND(temp!I15,2),  ")", IF(AND(temp!J15 &lt;0.05, NOT(ISBLANK(temp!J15))), "*", " ") )</f>
         <v>0.63 (0.61 - 0.65)*</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="16">
         <v>0.57303671937817902</v>
       </c>
     </row>
@@ -8194,10 +8199,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G16, 2), " (", ROUND(temp!H16,2), " - ", ROUND(temp!I16,2),  ")", IF(AND(temp!J16 &lt;0.05, NOT(ISBLANK(temp!J16))), "*", " ") )</f>
         <v>0.75 (0.7 - 0.79)*</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="16">
         <v>0.1476855646990545</v>
       </c>
     </row>
@@ -8246,10 +8251,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G17, 2), " (", ROUND(temp!H17,2), " - ", ROUND(temp!I17,2),  ")", IF(AND(temp!J17 &lt;0.05, NOT(ISBLANK(temp!J17))), "*", " ") )</f>
         <v>0.27 (0.26 - 0.27)*</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="16">
         <v>0.1321499013812</v>
       </c>
     </row>
@@ -8298,10 +8303,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G18, 2), " (", ROUND(temp!H18,2), " - ", ROUND(temp!I18,2),  ")", IF(AND(temp!J18 &lt;0.05, NOT(ISBLANK(temp!J18))), "*", " ") )</f>
         <v>0.19 (0.18 - 0.2)*</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="16">
         <v>0.163221228016909</v>
       </c>
     </row>
@@ -8350,10 +8355,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G19, 2), " (", ROUND(temp!H19,2), " - ", ROUND(temp!I19,2),  ")", IF(AND(temp!J19 &lt;0.05, NOT(ISBLANK(temp!J19))), "*", " ") )</f>
         <v>0.29 (0.27 - 0.3)*</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="16">
         <v>0.46311959728281249</v>
       </c>
     </row>
@@ -8402,10 +8407,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G20, 2), " (", ROUND(temp!H20,2), " - ", ROUND(temp!I20,2),  ")", IF(AND(temp!J20 &lt;0.05, NOT(ISBLANK(temp!J20))), "*", " ") )</f>
         <v>0.5 (0.48 - 0.53)*</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="16">
         <v>0.69002365571811208</v>
       </c>
     </row>
@@ -8454,10 +8459,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G21, 2), " (", ROUND(temp!H21,2), " - ", ROUND(temp!I21,2),  ")", IF(AND(temp!J21 &lt;0.05, NOT(ISBLANK(temp!J21))), "*", " ") )</f>
         <v>0.71 (0.63 - 0.79)*</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="16">
         <v>0.66896551724132902</v>
       </c>
     </row>
@@ -8506,10 +8511,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G22, 2), " (", ROUND(temp!H22,2), " - ", ROUND(temp!I22,2),  ")", IF(AND(temp!J22 &lt;0.05, NOT(ISBLANK(temp!J22))), "*", " ") )</f>
         <v>0.52 (0.5 - 0.54)*</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="16">
         <v>0.71108179419489503</v>
       </c>
     </row>
@@ -8558,10 +8563,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G23, 2), " (", ROUND(temp!H23,2), " - ", ROUND(temp!I23,2),  ")", IF(AND(temp!J23 &lt;0.05, NOT(ISBLANK(temp!J23))), "*", " ") )</f>
         <v>0.44 (0.42 - 0.47)*</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="16">
         <v>0.23621553884751301</v>
       </c>
     </row>
@@ -8610,10 +8615,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G24, 2), " (", ROUND(temp!H24,2), " - ", ROUND(temp!I24,2),  ")", IF(AND(temp!J24 &lt;0.05, NOT(ISBLANK(temp!J24))), "*", " ") )</f>
         <v>0.62 (0.59 - 0.65)*</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="16">
         <v>0.21491228070193999</v>
       </c>
     </row>
@@ -8662,10 +8667,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G25, 2), " (", ROUND(temp!H25,2), " - ", ROUND(temp!I25,2),  ")", IF(AND(temp!J25 &lt;0.05, NOT(ISBLANK(temp!J25))), "*", " ") )</f>
         <v>0.8 (0.73 - 0.87)*</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="16">
         <v>0.257518796993086</v>
       </c>
     </row>
@@ -8714,10 +8719,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G26, 2), " (", ROUND(temp!H26,2), " - ", ROUND(temp!I26,2),  ")", IF(AND(temp!J26 &lt;0.05, NOT(ISBLANK(temp!J26))), "*", " ") )</f>
         <v>0.8 (0.55 - 1)*</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="16">
         <v>0.37006554197770503</v>
       </c>
     </row>
@@ -8766,10 +8771,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G27, 2), " (", ROUND(temp!H27,2), " - ", ROUND(temp!I27,2),  ")", IF(AND(temp!J27 &lt;0.05, NOT(ISBLANK(temp!J27))), "*", " ") )</f>
         <v>0.08 (0.07 - 0.09)*</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="16">
         <v>0.51531660251544653</v>
       </c>
     </row>
@@ -8818,10 +8823,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G28, 2), " (", ROUND(temp!H28,2), " - ", ROUND(temp!I28,2),  ")", IF(AND(temp!J28 &lt;0.05, NOT(ISBLANK(temp!J28))), "*", " ") )</f>
         <v>0.06 (0.05 - 0.07)*</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="16">
         <v>0.54324644544899903</v>
       </c>
     </row>
@@ -8870,10 +8875,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G29, 2), " (", ROUND(temp!H29,2), " - ", ROUND(temp!I29,2),  ")", IF(AND(temp!J29 &lt;0.05, NOT(ISBLANK(temp!J29))), "*", " ") )</f>
         <v>0.13 (0.11 - 0.15)*</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="16">
         <v>0.48738675958189398</v>
       </c>
     </row>
@@ -8922,10 +8927,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G30, 2), " (", ROUND(temp!H30,2), " - ", ROUND(temp!I30,2),  ")", IF(AND(temp!J30 &lt;0.05, NOT(ISBLANK(temp!J30))), "*", " ") )</f>
         <v>0.37 (0.23 - 0.5)*</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="16">
         <v>0.22481448143996349</v>
       </c>
     </row>
@@ -8974,10 +8979,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G31, 2), " (", ROUND(temp!H31,2), " - ", ROUND(temp!I31,2),  ")", IF(AND(temp!J31 &lt;0.05, NOT(ISBLANK(temp!J31))), "*", " ") )</f>
         <v xml:space="preserve">1 (0 - 1) </v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="16">
         <v>0.215393452039258</v>
       </c>
     </row>
@@ -9026,10 +9031,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G32, 2), " (", ROUND(temp!H32,2), " - ", ROUND(temp!I32,2),  ")", IF(AND(temp!J32 &lt;0.05, NOT(ISBLANK(temp!J32))), "*", " ") )</f>
         <v>0.48 (0.48 - 0.49)*</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="16">
         <v>0.23423551084066899</v>
       </c>
     </row>
@@ -9078,10 +9083,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G33, 2), " (", ROUND(temp!H33,2), " - ", ROUND(temp!I33,2),  ")", IF(AND(temp!J33 &lt;0.05, NOT(ISBLANK(temp!J33))), "*", " ") )</f>
         <v>0.42 (0.41 - 0.43)*</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="16">
         <v>0.3935388940891873</v>
       </c>
     </row>
@@ -9130,10 +9135,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G34, 2), " (", ROUND(temp!H34,2), " - ", ROUND(temp!I34,2),  ")", IF(AND(temp!J34 &lt;0.05, NOT(ISBLANK(temp!J34))), "*", " ") )</f>
         <v>0.57 (0.56 - 0.59)*</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="16">
         <v>0.49365482001656452</v>
       </c>
     </row>
@@ -9182,10 +9187,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G35, 2), " (", ROUND(temp!H35,2), " - ", ROUND(temp!I35,2),  ")", IF(AND(temp!J35 &lt;0.05, NOT(ISBLANK(temp!J35))), "*", " ") )</f>
         <v>0.77 (0.73 - 0.81)*</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="16">
         <v>0.52089407191416504</v>
       </c>
     </row>
@@ -9234,10 +9239,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G36, 2), " (", ROUND(temp!H36,2), " - ", ROUND(temp!I36,2),  ")", IF(AND(temp!J36 &lt;0.05, NOT(ISBLANK(temp!J36))), "*", " ") )</f>
         <v>0.88 (0.75 - 1)*</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="16">
         <v>0.46641556811896401</v>
       </c>
     </row>
@@ -9286,10 +9291,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G37, 2), " (", ROUND(temp!H37,2), " - ", ROUND(temp!I37,2),  ")", IF(AND(temp!J37 &lt;0.05, NOT(ISBLANK(temp!J37))), "*", " ") )</f>
         <v>0.09 (0.09 - 0.1)*</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="16">
         <v>0.29342296816181002</v>
       </c>
     </row>
@@ -9338,10 +9343,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G38, 2), " (", ROUND(temp!H38,2), " - ", ROUND(temp!I38,2),  ")", IF(AND(temp!J38 &lt;0.05, NOT(ISBLANK(temp!J38))), "*", " ") )</f>
         <v>0.07 (0.07 - 0.08)*</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="N38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="16">
         <v>0.29179566563500697</v>
       </c>
     </row>
@@ -9390,10 +9395,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G39, 2), " (", ROUND(temp!H39,2), " - ", ROUND(temp!I39,2),  ")", IF(AND(temp!J39 &lt;0.05, NOT(ISBLANK(temp!J39))), "*", " ") )</f>
         <v>0.16 (0.15 - 0.18)*</v>
       </c>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="16">
         <v>0.295050270688613</v>
       </c>
     </row>
@@ -9442,10 +9447,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G40, 2), " (", ROUND(temp!H40,2), " - ", ROUND(temp!I40,2),  ")", IF(AND(temp!J40 &lt;0.05, NOT(ISBLANK(temp!J40))), "*", " ") )</f>
         <v>0.48 (0.41 - 0.55)*</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="16">
         <v>0.35730962902056324</v>
       </c>
     </row>
@@ -9494,10 +9499,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G41, 2), " (", ROUND(temp!H41,2), " - ", ROUND(temp!I41,2),  ")", IF(AND(temp!J41 &lt;0.05, NOT(ISBLANK(temp!J41))), "*", " ") )</f>
         <v>1 (1 - 1)*</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="16">
         <v>0.59359143492087996</v>
       </c>
     </row>
@@ -9546,10 +9551,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G42, 2), " (", ROUND(temp!H42,2), " - ", ROUND(temp!I42,2),  ")", IF(AND(temp!J42 &lt;0.05, NOT(ISBLANK(temp!J42))), "*", " ") )</f>
         <v>0.67 (0.64 - 0.7)*</v>
       </c>
-      <c r="N42" s="16" t="s">
+      <c r="N42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="16">
         <v>0.61425959780623896</v>
       </c>
     </row>
@@ -9598,10 +9603,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G43, 2), " (", ROUND(temp!H43,2), " - ", ROUND(temp!I43,2),  ")", IF(AND(temp!J43 &lt;0.05, NOT(ISBLANK(temp!J43))), "*", " ") )</f>
         <v>0.6 (0.52 - 0.68)*</v>
       </c>
-      <c r="N43" s="16" t="s">
+      <c r="N43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="16">
         <v>0.57292327203552096</v>
       </c>
     </row>
@@ -9650,10 +9655,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G44, 2), " (", ROUND(temp!H44,2), " - ", ROUND(temp!I44,2),  ")", IF(AND(temp!J44 &lt;0.05, NOT(ISBLANK(temp!J44))), "*", " ") )</f>
         <v>0.67 (0.62 - 0.71)*</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="16">
         <v>0.12102782312024651</v>
       </c>
     </row>
@@ -9702,10 +9707,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G45, 2), " (", ROUND(temp!H45,2), " - ", ROUND(temp!I45,2),  ")", IF(AND(temp!J45 &lt;0.05, NOT(ISBLANK(temp!J45))), "*", " ") )</f>
         <v>0.71 (0.65 - 0.77)*</v>
       </c>
-      <c r="N45" s="16" t="s">
+      <c r="N45" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="16">
         <v>0.106077348512377</v>
       </c>
     </row>
@@ -9754,10 +9759,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G46, 2), " (", ROUND(temp!H46,2), " - ", ROUND(temp!I46,2),  ")", IF(AND(temp!J46 &lt;0.05, NOT(ISBLANK(temp!J46))), "*", " ") )</f>
         <v>0.68 (0.57 - 0.78)*</v>
       </c>
-      <c r="N46" s="16" t="s">
+      <c r="N46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="16">
         <v>0.13597829772811601</v>
       </c>
     </row>
@@ -9806,10 +9811,10 @@
         <f>_xlfn.CONCAT(ROUND(temp!G47, 2), " (", ROUND(temp!H47,2), " - ", ROUND(temp!I47,2),  ")", IF(AND(temp!J47 &lt;0.05, NOT(ISBLANK(temp!J47))), "*", " ") )</f>
         <v>0.22 (0.19 - 0.25)*</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="16">
         <v>0.390005398521867</v>
       </c>
     </row>
@@ -13197,10 +13202,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="103" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="103" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:J28"/>
     </sheetView>
   </sheetViews>
@@ -13214,18 +13219,18 @@
   <sheetData>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -13233,28 +13238,28 @@
     </row>
     <row r="4" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="2"/>
@@ -13264,29 +13269,29 @@
     </row>
     <row r="5" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="str" cm="1">
+      <c r="F5" s="4" t="str" cm="1">
         <f t="array" ref="F5:J5">TRANSPOSE(temp!L2:L6)</f>
         <v>0.5 (0.48 - 0.52)*</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="4" t="str">
         <v>0.34 (0.3 - 0.37)*</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="4" t="str">
         <v>0.51 (0.48 - 0.54)*</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="4" t="str">
         <v>0.63 (0.59 - 0.67)*</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="J5" s="4" t="str">
         <v>0.72 (0.65 - 0.8)*</v>
       </c>
       <c r="K5" s="2"/>
@@ -13296,25 +13301,25 @@
     </row>
     <row r="6" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="str" cm="1">
+      <c r="F6" s="4" t="str" cm="1">
         <f t="array" ref="F6:J6">TRANSPOSE(temp!L7:L11)</f>
         <v>0.27 (0.25 - 0.29)*</v>
       </c>
-      <c r="G6" s="6" t="str">
+      <c r="G6" s="4" t="str">
         <v>0.19 (0.16 - 0.21)*</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="H6" s="5" t="str">
         <v>0.29 (0.26 - 0.31)*</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="6" t="str">
         <v>0.53 (0.48 - 0.59)*</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="J6" s="6" t="str">
         <v>0.64 (0.45 - 0.83)*</v>
       </c>
       <c r="K6" s="2"/>
@@ -13324,27 +13329,27 @@
     </row>
     <row r="7" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="str" cm="1">
+      <c r="F7" s="4" t="str" cm="1">
         <f t="array" ref="F7:J7">TRANSPOSE(temp!L12:L16)</f>
         <v>0.45 (0.44 - 0.46)*</v>
       </c>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="4" t="str">
         <v>0.29 (0.27 - 0.31)*</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="H7" s="4" t="str">
         <v>0.45 (0.44 - 0.47)*</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="4" t="str">
         <v>0.63 (0.61 - 0.65)*</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="4" t="str">
         <v>0.75 (0.7 - 0.79)*</v>
       </c>
       <c r="K7" s="2"/>
@@ -13354,25 +13359,25 @@
     </row>
     <row r="8" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="str" cm="1">
+      <c r="F8" s="4" t="str" cm="1">
         <f t="array" ref="F8:J8">TRANSPOSE(temp!L17:L21)</f>
         <v>0.27 (0.26 - 0.27)*</v>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="4" t="str">
         <v>0.19 (0.18 - 0.2)*</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="H8" s="5" t="str">
         <v>0.29 (0.27 - 0.3)*</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="6" t="str">
         <v>0.5 (0.48 - 0.53)*</v>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="6" t="str">
         <v>0.71 (0.63 - 0.79)*</v>
       </c>
       <c r="K8" s="2"/>
@@ -13382,29 +13387,29 @@
     </row>
     <row r="9" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="str" cm="1">
+      <c r="F9" s="4" t="str" cm="1">
         <f t="array" ref="F9:J9">TRANSPOSE(temp!L22:L26)</f>
         <v>0.52 (0.5 - 0.54)*</v>
       </c>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="4" t="str">
         <v>0.44 (0.42 - 0.47)*</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="H9" s="4" t="str">
         <v>0.62 (0.59 - 0.65)*</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="4" t="str">
         <v>0.8 (0.73 - 0.87)*</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="J9" s="4" t="str">
         <v>0.8 (0.55 - 1)*</v>
       </c>
       <c r="K9" s="2"/>
@@ -13414,25 +13419,25 @@
     </row>
     <row r="10" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="str" cm="1">
+      <c r="F10" s="4" t="str" cm="1">
         <f t="array" ref="F10:J10">TRANSPOSE(temp!L27:L31)</f>
         <v>0.08 (0.07 - 0.09)*</v>
       </c>
-      <c r="G10" s="6" t="str">
+      <c r="G10" s="4" t="str">
         <v>0.06 (0.05 - 0.07)*</v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="H10" s="4" t="str">
         <v>0.13 (0.11 - 0.15)*</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="4" t="str">
         <v>0.37 (0.23 - 0.5)*</v>
       </c>
-      <c r="J10" s="6" t="str">
+      <c r="J10" s="4" t="str">
         <v xml:space="preserve">1 (0 - 1) </v>
       </c>
       <c r="K10" s="2"/>
@@ -13442,27 +13447,27 @@
     </row>
     <row r="11" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6" t="str" cm="1">
+      <c r="F11" s="4" t="str" cm="1">
         <f t="array" ref="F11:J11">TRANSPOSE(temp!L32:L36)</f>
         <v>0.48 (0.48 - 0.49)*</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" s="4" t="str">
         <v>0.42 (0.41 - 0.43)*</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="H11" s="4" t="str">
         <v>0.57 (0.56 - 0.59)*</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="4" t="str">
         <v>0.77 (0.73 - 0.81)*</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="J11" s="4" t="str">
         <v>0.88 (0.75 - 1)*</v>
       </c>
       <c r="K11" s="2"/>
@@ -13472,25 +13477,25 @@
     </row>
     <row r="12" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="str" cm="1">
+      <c r="F12" s="4" t="str" cm="1">
         <f t="array" ref="F12:J12">TRANSPOSE(temp!L37:L41)</f>
         <v>0.09 (0.09 - 0.1)*</v>
       </c>
-      <c r="G12" s="6" t="str">
+      <c r="G12" s="4" t="str">
         <v>0.07 (0.07 - 0.08)*</v>
       </c>
-      <c r="H12" s="6" t="str">
+      <c r="H12" s="4" t="str">
         <v>0.16 (0.15 - 0.18)*</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="4" t="str">
         <v>0.48 (0.41 - 0.55)*</v>
       </c>
-      <c r="J12" s="6" t="str">
+      <c r="J12" s="4" t="str">
         <v>1 (1 - 1)*</v>
       </c>
       <c r="K12" s="2"/>
@@ -13500,29 +13505,29 @@
     </row>
     <row r="13" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="str" cm="1">
+      <c r="F13" s="4" t="str" cm="1">
         <f t="array" ref="F13:J13">TRANSPOSE(temp!L42:L46)</f>
         <v>0.67 (0.64 - 0.7)*</v>
       </c>
-      <c r="G13" s="6" t="str">
+      <c r="G13" s="4" t="str">
         <v>0.6 (0.52 - 0.68)*</v>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="4" t="str">
         <v>0.67 (0.62 - 0.71)*</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="4" t="str">
         <v>0.71 (0.65 - 0.77)*</v>
       </c>
-      <c r="J13" s="6" t="str">
+      <c r="J13" s="4" t="str">
         <v>0.68 (0.57 - 0.78)*</v>
       </c>
       <c r="K13" s="2"/>
@@ -13532,25 +13537,25 @@
     </row>
     <row r="14" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="6" t="str" cm="1">
+      <c r="F14" s="4" t="str" cm="1">
         <f t="array" ref="F14:J14">TRANSPOSE(temp!L47:L51)</f>
         <v>0.22 (0.19 - 0.25)*</v>
       </c>
-      <c r="G14" s="6" t="str">
+      <c r="G14" s="4" t="str">
         <v>0.13 (0.09 - 0.17)*</v>
       </c>
-      <c r="H14" s="6" t="str">
+      <c r="H14" s="4" t="str">
         <v>0.21 (0.18 - 0.25)*</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="4" t="str">
         <v>0.39 (0.3 - 0.47)*</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="4" t="str">
         <v>0.67 (0.43 - 0.91)*</v>
       </c>
       <c r="K14" s="2"/>
@@ -13560,27 +13565,27 @@
     </row>
     <row r="15" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="6" t="str" cm="1">
+      <c r="F15" s="4" t="str" cm="1">
         <f t="array" ref="F15:J15">TRANSPOSE(temp!L52:L56)</f>
         <v>0.69 (0.67 - 0.71)*</v>
       </c>
-      <c r="G15" s="6" t="str">
+      <c r="G15" s="4" t="str">
         <v>0.61 (0.55 - 0.68)*</v>
       </c>
-      <c r="H15" s="6" t="str">
+      <c r="H15" s="4" t="str">
         <v>0.71 (0.68 - 0.74)*</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="4" t="str">
         <v>0.69 (0.65 - 0.72)*</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="J15" s="4" t="str">
         <v>0.71 (0.65 - 0.77)*</v>
       </c>
       <c r="K15" s="2"/>
@@ -13590,25 +13595,25 @@
     </row>
     <row r="16" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="6" t="str" cm="1">
+      <c r="F16" s="4" t="str" cm="1">
         <f t="array" ref="F16:J16">TRANSPOSE(temp!L57:L61)</f>
         <v>0.28 (0.26 - 0.3)*</v>
       </c>
-      <c r="G16" s="6" t="str">
+      <c r="G16" s="4" t="str">
         <v>0.19 (0.16 - 0.22)*</v>
       </c>
-      <c r="H16" s="6" t="str">
+      <c r="H16" s="4" t="str">
         <v>0.26 (0.23 - 0.28)*</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="4" t="str">
         <v>0.44 (0.4 - 0.49)*</v>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="J16" s="4" t="str">
         <v>0.62 (0.51 - 0.74)*</v>
       </c>
       <c r="K16" s="2"/>
@@ -13618,29 +13623,29 @@
     </row>
     <row r="17" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="6" t="str" cm="1">
+      <c r="F17" s="4" t="str" cm="1">
         <f t="array" ref="F17:J17">TRANSPOSE(temp!L62:L66)</f>
         <v>0.48 (0.47 - 0.5)*</v>
       </c>
-      <c r="G17" s="6" t="str">
+      <c r="G17" s="4" t="str">
         <v>0.4 (0.38 - 0.42)*</v>
       </c>
-      <c r="H17" s="6" t="str">
+      <c r="H17" s="4" t="str">
         <v>0.54 (0.52 - 0.57)*</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" s="4" t="str">
         <v>0.63 (0.59 - 0.67)*</v>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="J17" s="4" t="str">
         <v>0.79 (0.69 - 0.89)*</v>
       </c>
       <c r="K17" s="2"/>
@@ -13650,25 +13655,25 @@
     </row>
     <row r="18" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="6" t="str" cm="1">
+      <c r="F18" s="4" t="str" cm="1">
         <f t="array" ref="F18:J18">TRANSPOSE(temp!L67:L71)</f>
         <v>0.15 (0.14 - 0.16)*</v>
       </c>
-      <c r="G18" s="6" t="str">
+      <c r="G18" s="4" t="str">
         <v>0.1 (0.09 - 0.11)*</v>
       </c>
-      <c r="H18" s="6" t="str">
+      <c r="H18" s="4" t="str">
         <v>0.22 (0.2 - 0.23)*</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" s="4" t="str">
         <v>0.57 (0.51 - 0.63)*</v>
       </c>
-      <c r="J18" s="6" t="str">
+      <c r="J18" s="4" t="str">
         <v>0.6 (0.3 - 0.9)*</v>
       </c>
       <c r="K18" s="2"/>
@@ -13678,27 +13683,27 @@
     </row>
     <row r="19" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="6" t="str" cm="1">
+      <c r="F19" s="4" t="str" cm="1">
         <f t="array" ref="F19:J19">TRANSPOSE(temp!L72:L76)</f>
         <v>0.45 (0.44 - 0.45)*</v>
       </c>
-      <c r="G19" s="6" t="str">
+      <c r="G19" s="4" t="str">
         <v>0.38 (0.37 - 0.39)*</v>
       </c>
-      <c r="H19" s="6" t="str">
+      <c r="H19" s="4" t="str">
         <v>0.49 (0.48 - 0.5)*</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I19" s="4" t="str">
         <v>0.65 (0.63 - 0.67)*</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="J19" s="4" t="str">
         <v>0.81 (0.75 - 0.86)*</v>
       </c>
       <c r="K19" s="2"/>
@@ -13708,25 +13713,25 @@
     </row>
     <row r="20" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="6" t="str" cm="1">
+      <c r="F20" s="4" t="str" cm="1">
         <f t="array" ref="F20:J20">TRANSPOSE(temp!L77:L81)</f>
         <v>0.15 (0.15 - 0.16)*</v>
       </c>
-      <c r="G20" s="6" t="str">
+      <c r="G20" s="4" t="str">
         <v>0.1 (0.1 - 0.11)*</v>
       </c>
-      <c r="H20" s="6" t="str">
+      <c r="H20" s="4" t="str">
         <v>0.23 (0.22 - 0.24)*</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="4" t="str">
         <v>0.52 (0.49 - 0.55)*</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="J20" s="4" t="str">
         <v>0.79 (0.7 - 0.89)*</v>
       </c>
       <c r="K20" s="2"/>
@@ -13736,29 +13741,29 @@
     </row>
     <row r="21" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="6" t="str" cm="1">
+      <c r="F21" s="4" t="str" cm="1">
         <f t="array" ref="F21:J21">TRANSPOSE(temp!L82:L86)</f>
         <v>0.52 (0.5 - 0.54)*</v>
       </c>
-      <c r="G21" s="6" t="str">
+      <c r="G21" s="4" t="str">
         <v>0.29 (0.25 - 0.33)*</v>
       </c>
-      <c r="H21" s="6" t="str">
+      <c r="H21" s="4" t="str">
         <v>0.52 (0.49 - 0.55)*</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I21" s="4" t="str">
         <v>0.67 (0.63 - 0.71)*</v>
       </c>
-      <c r="J21" s="6" t="str">
+      <c r="J21" s="4" t="str">
         <v>0.73 (0.66 - 0.8)*</v>
       </c>
       <c r="K21" s="2"/>
@@ -13768,25 +13773,25 @@
     </row>
     <row r="22" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="6" t="str" cm="1">
+      <c r="F22" s="4" t="str" cm="1">
         <f t="array" ref="F22:J22">TRANSPOSE(temp!L87:L91)</f>
         <v>0.28 (0.27 - 0.3)*</v>
       </c>
-      <c r="G22" s="6" t="str">
+      <c r="G22" s="4" t="str">
         <v>0.2 (0.18 - 0.22)*</v>
       </c>
-      <c r="H22" s="6" t="str">
+      <c r="H22" s="4" t="str">
         <v>0.29 (0.27 - 0.32)*</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="4" t="str">
         <v>0.54 (0.49 - 0.59)*</v>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="J22" s="4" t="str">
         <v>0.64 (0.45 - 0.83)*</v>
       </c>
       <c r="K22" s="2"/>
@@ -13796,27 +13801,27 @@
     </row>
     <row r="23" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="6" t="str" cm="1">
+      <c r="F23" s="4" t="str" cm="1">
         <f t="array" ref="F23:J23">TRANSPOSE(temp!L92:L96)</f>
         <v>0.46 (0.45 - 0.47)*</v>
       </c>
-      <c r="G23" s="6" t="str">
+      <c r="G23" s="4" t="str">
         <v>0.28 (0.27 - 0.3)*</v>
       </c>
-      <c r="H23" s="6" t="str">
+      <c r="H23" s="4" t="str">
         <v>0.47 (0.45 - 0.48)*</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="4" t="str">
         <v>0.66 (0.64 - 0.68)*</v>
       </c>
-      <c r="J23" s="6" t="str">
+      <c r="J23" s="4" t="str">
         <v>0.75 (0.71 - 0.8)*</v>
       </c>
       <c r="K23" s="2"/>
@@ -13826,25 +13831,25 @@
     </row>
     <row r="24" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="6" t="str" cm="1">
+      <c r="F24" s="4" t="str" cm="1">
         <f t="array" ref="F24:J24">TRANSPOSE(temp!L97:L101)</f>
         <v>0.27 (0.26 - 0.28)*</v>
       </c>
-      <c r="G24" s="6" t="str">
+      <c r="G24" s="4" t="str">
         <v>0.19 (0.18 - 0.2)*</v>
       </c>
-      <c r="H24" s="6" t="str">
+      <c r="H24" s="4" t="str">
         <v>0.3 (0.28 - 0.31)*</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="4" t="str">
         <v>0.52 (0.49 - 0.55)*</v>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="J24" s="4" t="str">
         <v>0.72 (0.64 - 0.79)*</v>
       </c>
       <c r="K24" s="2"/>
@@ -13854,29 +13859,29 @@
     </row>
     <row r="25" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="6" t="str" cm="1">
+      <c r="F25" s="4" t="str" cm="1">
         <f t="array" ref="F25:J25">TRANSPOSE(temp!L102:L106)</f>
         <v>0.51 (0.49 - 0.53)*</v>
       </c>
-      <c r="G25" s="6" t="str">
+      <c r="G25" s="4" t="str">
         <v>0.45 (0.43 - 0.47)*</v>
       </c>
-      <c r="H25" s="6" t="str">
+      <c r="H25" s="4" t="str">
         <v>0.61 (0.59 - 0.64)*</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" s="4" t="str">
         <v>0.56 (0.46 - 0.66)*</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="J25" s="4" t="str">
         <v xml:space="preserve">0.67 (0 - 1) </v>
       </c>
       <c r="K25" s="2"/>
@@ -13886,25 +13891,25 @@
     </row>
     <row r="26" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="6" t="str" cm="1">
+      <c r="F26" s="4" t="str" cm="1">
         <f t="array" ref="F26:J26">TRANSPOSE(temp!L107:L111)</f>
         <v>0.07 (0.06 - 0.08)*</v>
       </c>
-      <c r="G26" s="6" t="str">
+      <c r="G26" s="4" t="str">
         <v>0.06 (0.05 - 0.07)*</v>
       </c>
-      <c r="H26" s="6" t="str">
+      <c r="H26" s="4" t="str">
         <v>0.11 (0.09 - 0.13)*</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="4" t="str">
         <v>0.21 (0.07 - 0.34)*</v>
       </c>
-      <c r="J26" s="6" t="str">
+      <c r="J26" s="4" t="str">
         <v xml:space="preserve">0 (0 - 0) </v>
       </c>
       <c r="K26" s="2"/>
@@ -13914,27 +13919,27 @@
     </row>
     <row r="27" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="6" t="str" cm="1">
+      <c r="F27" s="4" t="str" cm="1">
         <f t="array" ref="F27:J27">TRANSPOSE(temp!L112:L116)</f>
         <v>0.47 (0.47 - 0.48)*</v>
       </c>
-      <c r="G27" s="6" t="str">
+      <c r="G27" s="4" t="str">
         <v>0.43 (0.42 - 0.44)*</v>
       </c>
-      <c r="H27" s="6" t="str">
+      <c r="H27" s="4" t="str">
         <v>0.57 (0.56 - 0.59)*</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" s="4" t="str">
         <v>0.67 (0.62 - 0.73)*</v>
       </c>
-      <c r="J27" s="6" t="str">
+      <c r="J27" s="4" t="str">
         <v>0.86 (0.6 - 1)*</v>
       </c>
       <c r="K27" s="2"/>
@@ -13944,25 +13949,25 @@
     </row>
     <row r="28" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="6" t="str" cm="1">
+      <c r="F28" s="4" t="str" cm="1">
         <f t="array" ref="F28:J28">TRANSPOSE(temp!L117:L121)</f>
         <v>0.08 (0.08 - 0.09)*</v>
       </c>
-      <c r="G28" s="6" t="str">
+      <c r="G28" s="4" t="str">
         <v>0.07 (0.07 - 0.07)*</v>
       </c>
-      <c r="H28" s="6" t="str">
+      <c r="H28" s="4" t="str">
         <v>0.14 (0.12 - 0.15)*</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" s="4" t="str">
         <v>0.28 (0.2 - 0.36)*</v>
       </c>
-      <c r="J28" s="6" t="str">
+      <c r="J28" s="4" t="str">
         <v xml:space="preserve">0 (0 - 0) </v>
       </c>
       <c r="K28" s="2"/>
@@ -14167,6 +14172,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="C9:C12"/>
@@ -14183,10 +14192,6933 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F68BBC-1C6E-44E2-9561-9966A635774D}">
+  <dimension ref="A1:Q121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>LTMLE!A77</f>
+        <v>76</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D77)), "", "No "),IF(LTMLE!C77="ventilation_bin","Ventilation",IF(LTMLE!C77="rrt","RRT",IF(LTMLE!C77="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(LTMLE!D77, FIND("&amp;", LTMLE!D77)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D2" t="str">
+        <f>LTMLE!B77</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($A2,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP($A2,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP($A2,LTMLE!$A:$L, 7)</f>
+        <v>0.44674556233304502</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP($A2,LTMLE!$A:$L, 10)</f>
+        <v>0.43690338125406097</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP($A2,LTMLE!$A:$L, 11)</f>
+        <v>0.45658774341202901</v>
+      </c>
+      <c r="J2">
+        <f>VLOOKUP($A2,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR(G2/G3,0)</f>
+        <v>0.88709291526451883</v>
+      </c>
+      <c r="M2">
+        <f>IFERROR(H2/H3, 0)</f>
+        <v>0.90377412845180671</v>
+      </c>
+      <c r="N2">
+        <f>IFERROR(I2/I3, 0)</f>
+        <v>0.8716973858468744</v>
+      </c>
+      <c r="O2">
+        <f>IFERROR(J2/J3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xlfn.CONCAT(ROUND(L2, 2), " (", ROUND(N2,2), " - ", ROUND(M2,2),  ")", IF(AND(O2 &lt;0.05, NOT(ISBLANK(O2))), "*", " ") )</f>
+        <v>0.89 (0.87 - 0.9)*</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>LTMLE!A67</f>
+        <v>66</v>
+      </c>
+      <c r="B3" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D67)), "", "No "),IF(LTMLE!C67="ventilation_bin","Ventilation",IF(LTMLE!C67="rrt","RRT",IF(LTMLE!C67="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LEFT(LTMLE!D67, FIND("&amp;", LTMLE!D67)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D3" t="str">
+        <f>LTMLE!B67</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($A3,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP($A3,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP($A3,LTMLE!$A:$L, 7)</f>
+        <v>0.50360627916843603</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP($A3,LTMLE!$A:$L, 10)</f>
+        <v>0.48342098705844799</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP($A3,LTMLE!$A:$L, 11)</f>
+        <v>0.52379157127842402</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP($A3,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>LTMLE!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D17)), "", "No "),IF(LTMLE!C17="ventilation_bin","Ventilation",IF(LTMLE!C17="rrt","RRT",IF(LTMLE!C17="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LEFT(LTMLE!D17, FIND("&amp;", LTMLE!D17)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D4" t="str">
+        <f>LTMLE!B17</f>
+        <v>eICU</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($A4,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP($A4,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP($A4,LTMLE!$A:$L, 7)</f>
+        <v>0.26708625837208899</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP($A4,LTMLE!$A:$L, 10)</f>
+        <v>0.25929661100963303</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP($A4,LTMLE!$A:$L, 11)</f>
+        <v>0.27487590573454501</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP($A4,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L35" si="0">IFERROR(G4/G5,0)</f>
+        <v>0.98913313936878433</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M35" si="1">IFERROR(H4/H5, 0)</f>
+        <v>1.021163568989035</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N35" si="2">IFERROR(I4/I5, 0)</f>
+        <v>0.96070695596641598</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O35" si="3">IFERROR(J4/J5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q35" si="4">_xlfn.CONCAT(ROUND(L4, 2), " (", ROUND(N4,2), " - ", ROUND(M4,2),  ")", IF(AND(O4 &lt;0.05, NOT(ISBLANK(O4))), "*", " ") )</f>
+        <v>0.99 (0.96 - 1.02)*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>LTMLE!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D7)), "", "No "),IF(LTMLE!C7="ventilation_bin","Ventilation",IF(LTMLE!C7="rrt","RRT",IF(LTMLE!C7="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LEFT(LTMLE!D7, FIND("&amp;", LTMLE!D7)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D5" t="str">
+        <f>LTMLE!B7</f>
+        <v>eICU</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($A5,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP($A5,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP($A5,LTMLE!$A:$L, 7)</f>
+        <v>0.270020533881344</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP($A5,LTMLE!$A:$L, 10)</f>
+        <v>0.25392270042138299</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP($A5,LTMLE!$A:$L, 11)</f>
+        <v>0.28611836734130403</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP($A5,LTMLE!$A:$L, 9)</f>
+        <v>4.8613009837103098E-237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>LTMLE!A78</f>
+        <v>77</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D78)), "", "No "),IF(LTMLE!C78="ventilation_bin","Ventilation",IF(LTMLE!C78="rrt","RRT",IF(LTMLE!C78="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LEFT(LTMLE!D78, FIND("&amp;", LTMLE!D78)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D6" t="str">
+        <f>LTMLE!B78</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($A6,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP($A6,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP($A6,LTMLE!$A:$L, 7)</f>
+        <v>0.289783281734108</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP($A6,LTMLE!$A:$L, 10)</f>
+        <v>0.27413757213858198</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP($A6,LTMLE!$A:$L, 11)</f>
+        <v>0.30542899132963303</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP($A6,LTMLE!$A:$L, 9)</f>
+        <v>1.5247713908139899E-288</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L37" si="5">IFERROR(G6/G7,0)</f>
+        <v>0.86008736587734891</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M37" si="6">IFERROR(H6/H7, 0)</f>
+        <v>0.91201173800737678</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N37" si="7">IFERROR(I6/I7, 0)</f>
+        <v>0.81827283178897692</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O37" si="8">IFERROR(J6/J7, 0)</f>
+        <v>1.801564479619643E-215</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6:Q37" si="9">_xlfn.CONCAT(ROUND(L6, 2), " (", ROUND(N6,2), " - ", ROUND(M6,2),  ")", IF(AND(O6 &lt;0.05, NOT(ISBLANK(O6))), "*", " ") )</f>
+        <v>0.86 (0.82 - 0.91)*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>LTMLE!A68</f>
+        <v>67</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D68)), "", "No "),IF(LTMLE!C68="ventilation_bin","Ventilation",IF(LTMLE!C68="rrt","RRT",IF(LTMLE!C68="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C7" t="str">
+        <f>LEFT(LTMLE!D68, FIND("&amp;", LTMLE!D68)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D7" t="str">
+        <f>LTMLE!B68</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($A7,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP($A7,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP($A7,LTMLE!$A:$L, 7)</f>
+        <v>0.336923076923132</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP($A7,LTMLE!$A:$L, 10)</f>
+        <v>0.30058557441106598</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP($A7,LTMLE!$A:$L, 11)</f>
+        <v>0.37326057943519703</v>
+      </c>
+      <c r="J7">
+        <f>VLOOKUP($A7,LTMLE!$A:$L, 9)</f>
+        <v>8.4635959915012793E-74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>LTMLE!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D18)), "", "No "),IF(LTMLE!C18="ventilation_bin","Ventilation",IF(LTMLE!C18="rrt","RRT",IF(LTMLE!C18="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C8" t="str">
+        <f>LEFT(LTMLE!D18, FIND("&amp;", LTMLE!D18)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D8" t="str">
+        <f>LTMLE!B18</f>
+        <v>eICU</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP($A8,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP($A8,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP($A8,LTMLE!$A:$L, 7)</f>
+        <v>0.19340623469878801</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP($A8,LTMLE!$A:$L, 10)</f>
+        <v>0.183516257294318</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP($A8,LTMLE!$A:$L, 11)</f>
+        <v>0.20329621210325799</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP($A8,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L39" si="10">IFERROR(G8/G9,0)</f>
+        <v>1.0451521231965006</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M39" si="11">IFERROR(H8/H9, 0)</f>
+        <v>1.1152843831263437</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N39" si="12">IFERROR(I8/I9, 0)</f>
+        <v>0.98901130651854641</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O39" si="13">IFERROR(J8/J9, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ref="Q8:Q39" si="14">_xlfn.CONCAT(ROUND(L8, 2), " (", ROUND(N8,2), " - ", ROUND(M8,2),  ")", IF(AND(O8 &lt;0.05, NOT(ISBLANK(O8))), "*", " ") )</f>
+        <v>1.05 (0.99 - 1.12)*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>LTMLE!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D8)), "", "No "),IF(LTMLE!C8="ventilation_bin","Ventilation",IF(LTMLE!C8="rrt","RRT",IF(LTMLE!C8="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C9" t="str">
+        <f>LEFT(LTMLE!D8, FIND("&amp;", LTMLE!D8)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D9" t="str">
+        <f>LTMLE!B8</f>
+        <v>eICU</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP($A9,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP($A9,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP($A9,LTMLE!$A:$L, 7)</f>
+        <v>0.18505079825822199</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP($A9,LTMLE!$A:$L, 10)</f>
+        <v>0.164546603602472</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP($A9,LTMLE!$A:$L, 11)</f>
+        <v>0.205554992913972</v>
+      </c>
+      <c r="J9">
+        <f>VLOOKUP($A9,LTMLE!$A:$L, 9)</f>
+        <v>5.1228447090041097E-70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>LTMLE!A79</f>
+        <v>78</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D79)), "", "No "),IF(LTMLE!C79="ventilation_bin","Ventilation",IF(LTMLE!C79="rrt","RRT",IF(LTMLE!C79="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C10" t="str">
+        <f>LEFT(LTMLE!D79, FIND("&amp;", LTMLE!D79)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D10" t="str">
+        <f>LTMLE!B79</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP($A10,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP($A10,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP($A10,LTMLE!$A:$L, 7)</f>
+        <v>0.451689671689112</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP($A10,LTMLE!$A:$L, 10)</f>
+        <v>0.43664180430284599</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP($A10,LTMLE!$A:$L, 11)</f>
+        <v>0.46673753907537902</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP($A10,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L41" si="15">IFERROR(G10/G11,0)</f>
+        <v>0.88288849042192652</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M41" si="16">IFERROR(H10/H11, 0)</f>
+        <v>0.90875953848640567</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N41" si="17">IFERROR(I10/I11, 0)</f>
+        <v>0.85998464939472907</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O41" si="18">IFERROR(J10/J11, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ref="Q10:Q41" si="19">_xlfn.CONCAT(ROUND(L10, 2), " (", ROUND(N10,2), " - ", ROUND(M10,2),  ")", IF(AND(O10 &lt;0.05, NOT(ISBLANK(O10))), "*", " ") )</f>
+        <v>0.88 (0.86 - 0.91)*</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>LTMLE!A69</f>
+        <v>68</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D69)), "", "No "),IF(LTMLE!C69="ventilation_bin","Ventilation",IF(LTMLE!C69="rrt","RRT",IF(LTMLE!C69="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C11" t="str">
+        <f>LEFT(LTMLE!D69, FIND("&amp;", LTMLE!D69)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D11" t="str">
+        <f>LTMLE!B69</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP($A11,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP($A11,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP($A11,LTMLE!$A:$L, 7)</f>
+        <v>0.51160443995962901</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP($A11,LTMLE!$A:$L, 10)</f>
+        <v>0.48048112378561603</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP($A11,LTMLE!$A:$L, 11)</f>
+        <v>0.54272775613364299</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP($A11,LTMLE!$A:$L, 9)</f>
+        <v>9.9269784579948703E-228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>LTMLE!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D19)), "", "No "),IF(LTMLE!C19="ventilation_bin","Ventilation",IF(LTMLE!C19="rrt","RRT",IF(LTMLE!C19="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C12" t="str">
+        <f>LEFT(LTMLE!D19, FIND("&amp;", LTMLE!D19)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D12" t="str">
+        <f>LTMLE!B19</f>
+        <v>eICU</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP($A12,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP($A12,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP($A12,LTMLE!$A:$L, 7)</f>
+        <v>0.28647540983641501</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP($A12,LTMLE!$A:$L, 10)</f>
+        <v>0.27378991614674802</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP($A12,LTMLE!$A:$L, 11)</f>
+        <v>0.29916090352608199</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP($A12,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L43" si="20">IFERROR(G12/G13,0)</f>
+        <v>0.99970622370517837</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M43" si="21">IFERROR(H12/H13, 0)</f>
+        <v>1.0498375895785585</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N43" si="22">IFERROR(I12/I13, 0)</f>
+        <v>0.95784653781059326</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O43" si="23">IFERROR(J12/J13, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ref="Q12:Q43" si="24">_xlfn.CONCAT(ROUND(L12, 2), " (", ROUND(N12,2), " - ", ROUND(M12,2),  ")", IF(AND(O12 &lt;0.05, NOT(ISBLANK(O12))), "*", " ") )</f>
+        <v>1 (0.96 - 1.05)*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>LTMLE!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D9)), "", "No "),IF(LTMLE!C9="ventilation_bin","Ventilation",IF(LTMLE!C9="rrt","RRT",IF(LTMLE!C9="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C13" t="str">
+        <f>LEFT(LTMLE!D9, FIND("&amp;", LTMLE!D9)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D13" t="str">
+        <f>LTMLE!B9</f>
+        <v>eICU</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP($A13,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP($A13,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP($A13,LTMLE!$A:$L, 7)</f>
+        <v>0.28655959425226002</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP($A13,LTMLE!$A:$L, 10)</f>
+        <v>0.26079263960881499</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP($A13,LTMLE!$A:$L, 11)</f>
+        <v>0.31232654889570499</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP($A13,LTMLE!$A:$L, 9)</f>
+        <v>2.46855905713008E-105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>LTMLE!A80</f>
+        <v>79</v>
+      </c>
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D80)), "", "No "),IF(LTMLE!C80="ventilation_bin","Ventilation",IF(LTMLE!C80="rrt","RRT",IF(LTMLE!C80="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LEFT(LTMLE!D80, FIND("&amp;", LTMLE!D80)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D14" t="str">
+        <f>LTMLE!B80</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP($A14,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP($A14,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP($A14,LTMLE!$A:$L, 7)</f>
+        <v>0.63319878910191096</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP($A14,LTMLE!$A:$L, 10)</f>
+        <v>0.61197850448274804</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP($A14,LTMLE!$A:$L, 11)</f>
+        <v>0.654419073721073</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP($A14,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L45" si="25">IFERROR(G14/G15,0)</f>
+        <v>1.0110476578030458</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M45" si="26">IFERROR(H14/H15, 0)</f>
+        <v>1.0423693731415129</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N45" si="27">IFERROR(I14/I15, 0)</f>
+        <v>0.98341386840112466</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O45" si="28">IFERROR(J14/J15, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" ref="Q14:Q45" si="29">_xlfn.CONCAT(ROUND(L14, 2), " (", ROUND(N14,2), " - ", ROUND(M14,2),  ")", IF(AND(O14 &lt;0.05, NOT(ISBLANK(O14))), "*", " ") )</f>
+        <v>1.01 (0.98 - 1.04)*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>LTMLE!A70</f>
+        <v>69</v>
+      </c>
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D70)), "", "No "),IF(LTMLE!C70="ventilation_bin","Ventilation",IF(LTMLE!C70="rrt","RRT",IF(LTMLE!C70="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C15" t="str">
+        <f>LEFT(LTMLE!D70, FIND("&amp;", LTMLE!D70)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D15" t="str">
+        <f>LTMLE!B70</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP($A15,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP($A15,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP($A15,LTMLE!$A:$L, 7)</f>
+        <v>0.62627986348123199</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP($A15,LTMLE!$A:$L, 10)</f>
+        <v>0.58710330546105305</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP($A15,LTMLE!$A:$L, 11)</f>
+        <v>0.66545642150141204</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP($A15,LTMLE!$A:$L, 9)</f>
+        <v>1.70298655106282E-215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>LTMLE!A20</f>
+        <v>19</v>
+      </c>
+      <c r="B16" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D20)), "", "No "),IF(LTMLE!C20="ventilation_bin","Ventilation",IF(LTMLE!C20="rrt","RRT",IF(LTMLE!C20="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C16" t="str">
+        <f>LEFT(LTMLE!D20, FIND("&amp;", LTMLE!D20)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D16" t="str">
+        <f>LTMLE!B20</f>
+        <v>eICU</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP($A16,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP($A16,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP($A16,LTMLE!$A:$L, 7)</f>
+        <v>0.50439648281374705</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP($A16,LTMLE!$A:$L, 10)</f>
+        <v>0.47668301797742901</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP($A16,LTMLE!$A:$L, 11)</f>
+        <v>0.53210994765006603</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP($A16,LTMLE!$A:$L, 9)</f>
+        <v>1.0687423870702899E-278</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L47" si="30">IFERROR(G16/G17,0)</f>
+        <v>0.94680010183053276</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M47" si="31">IFERROR(H16/H17, 0)</f>
+        <v>0.99438252639995151</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N47" si="32">IFERROR(I16/I17, 0)</f>
+        <v>0.90788207376495345</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O47" si="33">IFERROR(J16/J17, 0)</f>
+        <v>3.6282992833310727E-194</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ref="Q16:Q47" si="34">_xlfn.CONCAT(ROUND(L16, 2), " (", ROUND(N16,2), " - ", ROUND(M16,2),  ")", IF(AND(O16 &lt;0.05, NOT(ISBLANK(O16))), "*", " ") )</f>
+        <v>0.95 (0.91 - 0.99)*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>LTMLE!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D10)), "", "No "),IF(LTMLE!C10="ventilation_bin","Ventilation",IF(LTMLE!C10="rrt","RRT",IF(LTMLE!C10="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C17" t="str">
+        <f>LEFT(LTMLE!D10, FIND("&amp;", LTMLE!D10)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D17" t="str">
+        <f>LTMLE!B10</f>
+        <v>eICU</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP($A17,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP($A17,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP($A17,LTMLE!$A:$L, 7)</f>
+        <v>0.53273809523103399</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP($A17,LTMLE!$A:$L, 10)</f>
+        <v>0.47937589943701597</v>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP($A17,LTMLE!$A:$L, 11)</f>
+        <v>0.58610029102505101</v>
+      </c>
+      <c r="J17">
+        <f>VLOOKUP($A17,LTMLE!$A:$L, 9)</f>
+        <v>2.9455739552143499E-85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>LTMLE!A81</f>
+        <v>80</v>
+      </c>
+      <c r="B18" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D81)), "", "No "),IF(LTMLE!C81="ventilation_bin","Ventilation",IF(LTMLE!C81="rrt","RRT",IF(LTMLE!C81="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C18" t="str">
+        <f>LEFT(LTMLE!D81, FIND("&amp;", LTMLE!D81)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D18" t="str">
+        <f>LTMLE!B81</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP($A18,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP($A18,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP($A18,LTMLE!$A:$L, 7)</f>
+        <v>0.74742268041181503</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP($A18,LTMLE!$A:$L, 10)</f>
+        <v>0.70415082012487595</v>
+      </c>
+      <c r="I18">
+        <f>VLOOKUP($A18,LTMLE!$A:$L, 11)</f>
+        <v>0.790694540698754</v>
+      </c>
+      <c r="J18">
+        <f>VLOOKUP($A18,LTMLE!$A:$L, 9)</f>
+        <v>3.17920637696875E-251</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L49" si="35">IFERROR(G18/G19,0)</f>
+        <v>1.0336696643999663</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M49" si="36">IFERROR(H18/H19, 0)</f>
+        <v>1.0898721784694567</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N49" si="37">IFERROR(I18/I19, 0)</f>
+        <v>0.9882839807425452</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O49" si="38">IFERROR(J18/J19, 0)</f>
+        <v>2.7718956504632462E-176</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18:Q49" si="39">_xlfn.CONCAT(ROUND(L18, 2), " (", ROUND(N18,2), " - ", ROUND(M18,2),  ")", IF(AND(O18 &lt;0.05, NOT(ISBLANK(O18))), "*", " ") )</f>
+        <v>1.03 (0.99 - 1.09)*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>LTMLE!A71</f>
+        <v>70</v>
+      </c>
+      <c r="B19" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D71)), "", "No "),IF(LTMLE!C71="ventilation_bin","Ventilation",IF(LTMLE!C71="rrt","RRT",IF(LTMLE!C71="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C19" t="str">
+        <f>LEFT(LTMLE!D71, FIND("&amp;", LTMLE!D71)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D19" t="str">
+        <f>LTMLE!B71</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP($A19,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP($A19,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP($A19,LTMLE!$A:$L, 7)</f>
+        <v>0.72307692307646998</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP($A19,LTMLE!$A:$L, 10)</f>
+        <v>0.64608569154755202</v>
+      </c>
+      <c r="I19">
+        <f>VLOOKUP($A19,LTMLE!$A:$L, 11)</f>
+        <v>0.80006815460538705</v>
+      </c>
+      <c r="J19">
+        <f>VLOOKUP($A19,LTMLE!$A:$L, 9)</f>
+        <v>1.14694302306706E-75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>LTMLE!A21</f>
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D21)), "", "No "),IF(LTMLE!C21="ventilation_bin","Ventilation",IF(LTMLE!C21="rrt","RRT",IF(LTMLE!C21="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C20" t="str">
+        <f>LEFT(LTMLE!D21, FIND("&amp;", LTMLE!D21)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D20" t="str">
+        <f>LTMLE!B21</f>
+        <v>eICU</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP($A20,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP($A20,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP($A20,LTMLE!$A:$L, 7)</f>
+        <v>0.71111111111077097</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP($A20,LTMLE!$A:$L, 10)</f>
+        <v>0.63441736914085101</v>
+      </c>
+      <c r="I20">
+        <f>VLOOKUP($A20,LTMLE!$A:$L, 11)</f>
+        <v>0.78780485308069004</v>
+      </c>
+      <c r="J20">
+        <f>VLOOKUP($A20,LTMLE!$A:$L, 9)</f>
+        <v>8.45164143897459E-74</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L51" si="40">IFERROR(G20/G21,0)</f>
+        <v>1.1111111111105882</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M51" si="41">IFERROR(H20/H21, 0)</f>
+        <v>1.4058798320176662</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N51" si="42">IFERROR(I20/I21, 0)</f>
+        <v>0.95060559104225184</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O51" si="43">IFERROR(J20/J21, 0)</f>
+        <v>2.8074325514972177E-63</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ref="Q20:Q51" si="44">_xlfn.CONCAT(ROUND(L20, 2), " (", ROUND(N20,2), " - ", ROUND(M20,2),  ")", IF(AND(O20 &lt;0.05, NOT(ISBLANK(O20))), "*", " ") )</f>
+        <v>1.11 (0.95 - 1.41)*</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>LTMLE!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B21" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D11)), "", "No "),IF(LTMLE!C11="ventilation_bin","Ventilation",IF(LTMLE!C11="rrt","RRT",IF(LTMLE!C11="pressor","Vasopressor",""))))</f>
+        <v>Ventilation</v>
+      </c>
+      <c r="C21" t="str">
+        <f>LEFT(LTMLE!D11, FIND("&amp;", LTMLE!D11)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D21" t="str">
+        <f>LTMLE!B11</f>
+        <v>eICU</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP($A21,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP($A21,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP($A21,LTMLE!$A:$L, 7)</f>
+        <v>0.63999999999999502</v>
+      </c>
+      <c r="H21">
+        <f>VLOOKUP($A21,LTMLE!$A:$L, 10)</f>
+        <v>0.45126002570956503</v>
+      </c>
+      <c r="I21">
+        <f>VLOOKUP($A21,LTMLE!$A:$L, 11)</f>
+        <v>0.82873997429042501</v>
+      </c>
+      <c r="J21">
+        <f>VLOOKUP($A21,LTMLE!$A:$L, 9)</f>
+        <v>3.0104521779044301E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>LTMLE!A72</f>
+        <v>71</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D72)), "", "No "),IF(LTMLE!C72="ventilation_bin","Ventilation",IF(LTMLE!C72="rrt","RRT",IF(LTMLE!C72="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C22" t="str">
+        <f>LEFT(LTMLE!D72, FIND("&amp;", LTMLE!D72)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D22" t="str">
+        <f>LTMLE!B72</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP($A22,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP($A22,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP($A22,LTMLE!$A:$L, 7)</f>
+        <v>0.48466257668714602</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP($A22,LTMLE!$A:$L, 10)</f>
+        <v>0.47562063592496501</v>
+      </c>
+      <c r="I22">
+        <f>VLOOKUP($A22,LTMLE!$A:$L, 11)</f>
+        <v>0.49370451744932697</v>
+      </c>
+      <c r="J22">
+        <f>VLOOKUP($A22,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L53" si="45">IFERROR(G22/G23,0)</f>
+        <v>0.92878866191831111</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M53" si="46">IFERROR(H22/H23, 0)</f>
+        <v>0.9430419631429765</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N53" si="47">IFERROR(I22/I23, 0)</f>
+        <v>0.91545906662900145</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O53" si="48">IFERROR(J22/J23, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ref="Q22:Q53" si="49">_xlfn.CONCAT(ROUND(L22, 2), " (", ROUND(N22,2), " - ", ROUND(M22,2),  ")", IF(AND(O22 &lt;0.05, NOT(ISBLANK(O22))), "*", " ") )</f>
+        <v>0.93 (0.92 - 0.94)*</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>LTMLE!A62</f>
+        <v>61</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D62)), "", "No "),IF(LTMLE!C62="ventilation_bin","Ventilation",IF(LTMLE!C62="rrt","RRT",IF(LTMLE!C62="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C23" t="str">
+        <f>LEFT(LTMLE!D62, FIND("&amp;", LTMLE!D62)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D23" t="str">
+        <f>LTMLE!B62</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP($A23,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP($A23,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP($A23,LTMLE!$A:$L, 7)</f>
+        <v>0.521822236380587</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP($A23,LTMLE!$A:$L, 10)</f>
+        <v>0.504347266096</v>
+      </c>
+      <c r="I23">
+        <f>VLOOKUP($A23,LTMLE!$A:$L, 11)</f>
+        <v>0.539297206665173</v>
+      </c>
+      <c r="J23">
+        <f>VLOOKUP($A23,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>LTMLE!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D12)), "", "No "),IF(LTMLE!C12="ventilation_bin","Ventilation",IF(LTMLE!C12="rrt","RRT",IF(LTMLE!C12="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C24" t="str">
+        <f>LEFT(LTMLE!D12, FIND("&amp;", LTMLE!D12)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D24" t="str">
+        <f>LTMLE!B12</f>
+        <v>eICU</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP($A24,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP($A24,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP($A24,LTMLE!$A:$L, 7)</f>
+        <v>9.2572364827782999E-2</v>
+      </c>
+      <c r="H24">
+        <f>VLOOKUP($A24,LTMLE!$A:$L, 10)</f>
+        <v>8.8374230546554897E-2</v>
+      </c>
+      <c r="I24">
+        <f>VLOOKUP($A24,LTMLE!$A:$L, 11)</f>
+        <v>9.6770499109011102E-2</v>
+      </c>
+      <c r="J24">
+        <f>VLOOKUP($A24,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L55" si="50">IFERROR(G24/G25,0)</f>
+        <v>1.1284886860113814</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M55" si="51">IFERROR(H24/H25, 0)</f>
+        <v>1.1971347398672327</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N55" si="52">IFERROR(I24/I25, 0)</f>
+        <v>1.0723340884236823</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O55" si="53">IFERROR(J24/J25, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ref="Q24:Q55" si="54">_xlfn.CONCAT(ROUND(L24, 2), " (", ROUND(N24,2), " - ", ROUND(M24,2),  ")", IF(AND(O24 &lt;0.05, NOT(ISBLANK(O24))), "*", " ") )</f>
+        <v>1.13 (1.07 - 1.2)*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>LTMLE!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B25" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D2)), "", "No "),IF(LTMLE!C2="ventilation_bin","Ventilation",IF(LTMLE!C2="rrt","RRT",IF(LTMLE!C2="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LEFT(LTMLE!D2, FIND("&amp;", LTMLE!D2)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D25" t="str">
+        <f>LTMLE!B2</f>
+        <v>eICU</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP($A25,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP($A25,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP($A25,LTMLE!$A:$L, 7)</f>
+        <v>8.20321603355883E-2</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP($A25,LTMLE!$A:$L, 10)</f>
+        <v>7.3821456853182602E-2</v>
+      </c>
+      <c r="I25">
+        <f>VLOOKUP($A25,LTMLE!$A:$L, 11)</f>
+        <v>9.0242863817993998E-2</v>
+      </c>
+      <c r="J25">
+        <f>VLOOKUP($A25,LTMLE!$A:$L, 9)</f>
+        <v>2.2121358254666101E-85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>LTMLE!A73</f>
+        <v>72</v>
+      </c>
+      <c r="B26" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D73)), "", "No "),IF(LTMLE!C73="ventilation_bin","Ventilation",IF(LTMLE!C73="rrt","RRT",IF(LTMLE!C73="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LEFT(LTMLE!D73, FIND("&amp;", LTMLE!D73)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D26" t="str">
+        <f>LTMLE!B73</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP($A26,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP($A26,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP($A26,LTMLE!$A:$L, 7)</f>
+        <v>0.42321452232673701</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP($A26,LTMLE!$A:$L, 10)</f>
+        <v>0.41206735085421398</v>
+      </c>
+      <c r="I26">
+        <f>VLOOKUP($A26,LTMLE!$A:$L, 11)</f>
+        <v>0.43436169379925899</v>
+      </c>
+      <c r="J26">
+        <f>VLOOKUP($A26,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L57" si="55">IFERROR(G26/G27,0)</f>
+        <v>0.95554700512895863</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M57" si="56">IFERROR(H26/H27, 0)</f>
+        <v>0.98015039498809331</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N57" si="57">IFERROR(I26/I27, 0)</f>
+        <v>0.93332157263150484</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O57" si="58">IFERROR(J26/J27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ref="Q26:Q57" si="59">_xlfn.CONCAT(ROUND(L26, 2), " (", ROUND(N26,2), " - ", ROUND(M26,2),  ")", IF(AND(O26 &lt;0.05, NOT(ISBLANK(O26))), "*", " ") )</f>
+        <v>0.96 (0.93 - 0.98)*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>LTMLE!A63</f>
+        <v>62</v>
+      </c>
+      <c r="B27" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D63)), "", "No "),IF(LTMLE!C63="ventilation_bin","Ventilation",IF(LTMLE!C63="rrt","RRT",IF(LTMLE!C63="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LEFT(LTMLE!D63, FIND("&amp;", LTMLE!D63)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D27" t="str">
+        <f>LTMLE!B63</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP($A27,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP($A27,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP($A27,LTMLE!$A:$L, 7)</f>
+        <v>0.44290288186254201</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP($A27,LTMLE!$A:$L, 10)</f>
+        <v>0.42041237034773599</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP($A27,LTMLE!$A:$L, 11)</f>
+        <v>0.46539339337734797</v>
+      </c>
+      <c r="J27">
+        <f>VLOOKUP($A27,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>LTMLE!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B28" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D13)), "", "No "),IF(LTMLE!C13="ventilation_bin","Ventilation",IF(LTMLE!C13="rrt","RRT",IF(LTMLE!C13="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LEFT(LTMLE!D13, FIND("&amp;", LTMLE!D13)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D28" t="str">
+        <f>LTMLE!B13</f>
+        <v>eICU</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP($A28,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP($A28,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP($A28,LTMLE!$A:$L, 7)</f>
+        <v>7.1779347460662196E-2</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP($A28,LTMLE!$A:$L, 10)</f>
+        <v>6.7629811965779593E-2</v>
+      </c>
+      <c r="I28">
+        <f>VLOOKUP($A28,LTMLE!$A:$L, 11)</f>
+        <v>7.5928882955544702E-2</v>
+      </c>
+      <c r="J28">
+        <f>VLOOKUP($A28,LTMLE!$A:$L, 9)</f>
+        <v>5.8598858583285003E-252</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L59" si="60">IFERROR(G28/G29,0)</f>
+        <v>1.1585186678864134</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M59" si="61">IFERROR(H28/H29, 0)</f>
+        <v>1.2607810339929204</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N59" si="62">IFERROR(I28/I29, 0)</f>
+        <v>1.0804608553856565</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O59" si="63">IFERROR(J28/J29, 0)</f>
+        <v>2.1306950745795402E-204</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ref="Q28:Q59" si="64">_xlfn.CONCAT(ROUND(L28, 2), " (", ROUND(N28,2), " - ", ROUND(M28,2),  ")", IF(AND(O28 &lt;0.05, NOT(ISBLANK(O28))), "*", " ") )</f>
+        <v>1.16 (1.08 - 1.26)*</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>LTMLE!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B29" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D3)), "", "No "),IF(LTMLE!C3="ventilation_bin","Ventilation",IF(LTMLE!C3="rrt","RRT",IF(LTMLE!C3="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LEFT(LTMLE!D3, FIND("&amp;", LTMLE!D3)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D29" t="str">
+        <f>LTMLE!B3</f>
+        <v>eICU</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP($A29,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP($A29,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP($A29,LTMLE!$A:$L, 7)</f>
+        <v>6.1957868656200003E-2</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP($A29,LTMLE!$A:$L, 10)</f>
+        <v>5.3641203462265398E-2</v>
+      </c>
+      <c r="I29">
+        <f>VLOOKUP($A29,LTMLE!$A:$L, 11)</f>
+        <v>7.0274533850134602E-2</v>
+      </c>
+      <c r="J29">
+        <f>VLOOKUP($A29,LTMLE!$A:$L, 9)</f>
+        <v>2.75022265186625E-48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>LTMLE!A74</f>
+        <v>73</v>
+      </c>
+      <c r="B30" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D74)), "", "No "),IF(LTMLE!C74="ventilation_bin","Ventilation",IF(LTMLE!C74="rrt","RRT",IF(LTMLE!C74="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LEFT(LTMLE!D74, FIND("&amp;", LTMLE!D74)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D30" t="str">
+        <f>LTMLE!B74</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP($A30,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP($A30,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP($A30,LTMLE!$A:$L, 7)</f>
+        <v>0.57303671937817902</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP($A30,LTMLE!$A:$L, 10)</f>
+        <v>0.55716428461880696</v>
+      </c>
+      <c r="I30">
+        <f>VLOOKUP($A30,LTMLE!$A:$L, 11)</f>
+        <v>0.58890915413755096</v>
+      </c>
+      <c r="J30">
+        <f>VLOOKUP($A30,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L61" si="65">IFERROR(G30/G31,0)</f>
+        <v>0.92536029434536682</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M61" si="66">IFERROR(H30/H31, 0)</f>
+        <v>0.94279582994576505</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N61" si="67">IFERROR(I30/I31, 0)</f>
+        <v>0.90944808380056863</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O61" si="68">IFERROR(J30/J31, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q61" si="69">_xlfn.CONCAT(ROUND(L30, 2), " (", ROUND(N30,2), " - ", ROUND(M30,2),  ")", IF(AND(O30 &lt;0.05, NOT(ISBLANK(O30))), "*", " ") )</f>
+        <v>0.93 (0.91 - 0.94)*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>LTMLE!A64</f>
+        <v>63</v>
+      </c>
+      <c r="B31" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D64)), "", "No "),IF(LTMLE!C64="ventilation_bin","Ventilation",IF(LTMLE!C64="rrt","RRT",IF(LTMLE!C64="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LEFT(LTMLE!D64, FIND("&amp;", LTMLE!D64)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D31" t="str">
+        <f>LTMLE!B64</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP($A31,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP($A31,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP($A31,LTMLE!$A:$L, 7)</f>
+        <v>0.61925795053003196</v>
+      </c>
+      <c r="H31">
+        <f>VLOOKUP($A31,LTMLE!$A:$L, 10)</f>
+        <v>0.59097024713278401</v>
+      </c>
+      <c r="I31">
+        <f>VLOOKUP($A31,LTMLE!$A:$L, 11)</f>
+        <v>0.64754565392728003</v>
+      </c>
+      <c r="J31">
+        <f>VLOOKUP($A31,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>LTMLE!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D14)), "", "No "),IF(LTMLE!C14="ventilation_bin","Ventilation",IF(LTMLE!C14="rrt","RRT",IF(LTMLE!C14="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LEFT(LTMLE!D14, FIND("&amp;", LTMLE!D14)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D32" t="str">
+        <f>LTMLE!B14</f>
+        <v>eICU</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP($A32,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP($A32,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP($A32,LTMLE!$A:$L, 7)</f>
+        <v>0.163221228016909</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP($A32,LTMLE!$A:$L, 10)</f>
+        <v>0.150497239468079</v>
+      </c>
+      <c r="I32">
+        <f>VLOOKUP($A32,LTMLE!$A:$L, 11)</f>
+        <v>0.175945216565739</v>
+      </c>
+      <c r="J32">
+        <f>VLOOKUP($A32,LTMLE!$A:$L, 9)</f>
+        <v>1.7245181450306901E-139</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L63" si="70">IFERROR(G32/G33,0)</f>
+        <v>1.2351218299140501</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M63" si="71">IFERROR(H32/H33, 0)</f>
+        <v>1.3521192673768416</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N63" si="72">IFERROR(I32/I33, 0)</f>
+        <v>1.1500056010643802</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:O63" si="73">IFERROR(J32/J33, 0)</f>
+        <v>9.0589328275757676E-105</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ref="Q32:Q63" si="74">_xlfn.CONCAT(ROUND(L32, 2), " (", ROUND(N32,2), " - ", ROUND(M32,2),  ")", IF(AND(O32 &lt;0.05, NOT(ISBLANK(O32))), "*", " ") )</f>
+        <v>1.24 (1.15 - 1.35)*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>LTMLE!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B33" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D4)), "", "No "),IF(LTMLE!C4="ventilation_bin","Ventilation",IF(LTMLE!C4="rrt","RRT",IF(LTMLE!C4="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LEFT(LTMLE!D4, FIND("&amp;", LTMLE!D4)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D33" t="str">
+        <f>LTMLE!B4</f>
+        <v>eICU</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP($A33,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP($A33,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP($A33,LTMLE!$A:$L, 7)</f>
+        <v>0.1321499013812</v>
+      </c>
+      <c r="H33">
+        <f>VLOOKUP($A33,LTMLE!$A:$L, 10)</f>
+        <v>0.11130470743165199</v>
+      </c>
+      <c r="I33">
+        <f>VLOOKUP($A33,LTMLE!$A:$L, 11)</f>
+        <v>0.15299509533074801</v>
+      </c>
+      <c r="J33">
+        <f>VLOOKUP($A33,LTMLE!$A:$L, 9)</f>
+        <v>1.9036658929418101E-35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>LTMLE!A75</f>
+        <v>74</v>
+      </c>
+      <c r="B34" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D75)), "", "No "),IF(LTMLE!C75="ventilation_bin","Ventilation",IF(LTMLE!C75="rrt","RRT",IF(LTMLE!C75="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LEFT(LTMLE!D75, FIND("&amp;", LTMLE!D75)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D34" t="str">
+        <f>LTMLE!B75</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP($A34,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP($A34,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP($A34,LTMLE!$A:$L, 7)</f>
+        <v>0.771362586604737</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP($A34,LTMLE!$A:$L, 10)</f>
+        <v>0.731800736084813</v>
+      </c>
+      <c r="I34">
+        <f>VLOOKUP($A34,LTMLE!$A:$L, 11)</f>
+        <v>0.810924437124661</v>
+      </c>
+      <c r="J34">
+        <f>VLOOKUP($A34,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L65" si="75">IFERROR(G34/G35,0)</f>
+        <v>0.95835957729682641</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34:M65" si="76">IFERROR(H34/H35, 0)</f>
+        <v>0.99587478366190563</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N65" si="77">IFERROR(I34/I35, 0)</f>
+        <v>0.92685126755739888</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O65" si="78">IFERROR(J34/J35, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ref="Q34:Q65" si="79">_xlfn.CONCAT(ROUND(L34, 2), " (", ROUND(N34,2), " - ", ROUND(M34,2),  ")", IF(AND(O34 &lt;0.05, NOT(ISBLANK(O34))), "*", " ") )</f>
+        <v>0.96 (0.93 - 1)*</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>LTMLE!A65</f>
+        <v>64</v>
+      </c>
+      <c r="B35" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D65)), "", "No "),IF(LTMLE!C65="ventilation_bin","Ventilation",IF(LTMLE!C65="rrt","RRT",IF(LTMLE!C65="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LEFT(LTMLE!D65, FIND("&amp;", LTMLE!D65)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D35" t="str">
+        <f>LTMLE!B65</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP($A35,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP($A35,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP($A35,LTMLE!$A:$L, 7)</f>
+        <v>0.80487804878046099</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP($A35,LTMLE!$A:$L, 10)</f>
+        <v>0.73483207737616096</v>
+      </c>
+      <c r="I35">
+        <f>VLOOKUP($A35,LTMLE!$A:$L, 11)</f>
+        <v>0.87492402018476101</v>
+      </c>
+      <c r="J35">
+        <f>VLOOKUP($A35,LTMLE!$A:$L, 9)</f>
+        <v>2.5625888110613198E-112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>LTMLE!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B36" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D15)), "", "No "),IF(LTMLE!C15="ventilation_bin","Ventilation",IF(LTMLE!C15="rrt","RRT",IF(LTMLE!C15="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LEFT(LTMLE!D15, FIND("&amp;", LTMLE!D15)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D36" t="str">
+        <f>LTMLE!B15</f>
+        <v>eICU</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP($A36,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP($A36,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP($A36,LTMLE!$A:$L, 7)</f>
+        <v>0.48019801980219201</v>
+      </c>
+      <c r="H36">
+        <f>VLOOKUP($A36,LTMLE!$A:$L, 10)</f>
+        <v>0.41128207271383299</v>
+      </c>
+      <c r="I36">
+        <f>VLOOKUP($A36,LTMLE!$A:$L, 11)</f>
+        <v>0.54911396689055203</v>
+      </c>
+      <c r="J36">
+        <f>VLOOKUP($A36,LTMLE!$A:$L, 9)</f>
+        <v>1.8390630319324302E-42</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36:L67" si="80">IFERROR(G36/G37,0)</f>
+        <v>1.3072057205726311</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36:M67" si="81">IFERROR(H36/H37, 0)</f>
+        <v>1.770251869656674</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:N67" si="82">IFERROR(I36/I37, 0)</f>
+        <v>1.0930595439470863</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:O67" si="83">IFERROR(J36/J37, 0)</f>
+        <v>1.8990560416017504E-35</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" ref="Q36:Q67" si="84">_xlfn.CONCAT(ROUND(L36, 2), " (", ROUND(N36,2), " - ", ROUND(M36,2),  ")", IF(AND(O36 &lt;0.05, NOT(ISBLANK(O36))), "*", " ") )</f>
+        <v>1.31 (1.09 - 1.77)*</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>LTMLE!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B37" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D5)), "", "No "),IF(LTMLE!C5="ventilation_bin","Ventilation",IF(LTMLE!C5="rrt","RRT",IF(LTMLE!C5="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LEFT(LTMLE!D5, FIND("&amp;", LTMLE!D5)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D37" t="str">
+        <f>LTMLE!B5</f>
+        <v>eICU</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP($A37,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP($A37,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP($A37,LTMLE!$A:$L, 7)</f>
+        <v>0.367346938775511</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP($A37,LTMLE!$A:$L, 10)</f>
+        <v>0.232329692606735</v>
+      </c>
+      <c r="I37">
+        <f>VLOOKUP($A37,LTMLE!$A:$L, 11)</f>
+        <v>0.50236418494428703</v>
+      </c>
+      <c r="J37">
+        <f>VLOOKUP($A37,LTMLE!$A:$L, 9)</f>
+        <v>9.6840903672399297E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>LTMLE!A76</f>
+        <v>75</v>
+      </c>
+      <c r="B38" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D76)), "", "No "),IF(LTMLE!C76="ventilation_bin","Ventilation",IF(LTMLE!C76="rrt","RRT",IF(LTMLE!C76="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LEFT(LTMLE!D76, FIND("&amp;", LTMLE!D76)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D38" t="str">
+        <f>LTMLE!B76</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP($A38,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP($A38,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP($A38,LTMLE!$A:$L, 7)</f>
+        <v>0.87999999997515499</v>
+      </c>
+      <c r="H38">
+        <f>VLOOKUP($A38,LTMLE!$A:$L, 10)</f>
+        <v>0.75250208797707496</v>
+      </c>
+      <c r="I38">
+        <f>VLOOKUP($A38,LTMLE!$A:$L, 11)</f>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f>VLOOKUP($A38,LTMLE!$A:$L, 9)</f>
+        <v>1.07160073247481E-41</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:L69" si="85">IFERROR(G38/G39,0)</f>
+        <v>1.099999999969645</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M69" si="86">IFERROR(H38/H39, 0)</f>
+        <v>1.3635803690510457</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N69" si="87">IFERROR(I38/I39, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O69" si="88">IFERROR(J38/J39, 0)</f>
+        <v>4.0661228295695771E-32</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ref="Q38:Q69" si="89">_xlfn.CONCAT(ROUND(L38, 2), " (", ROUND(N38,2), " - ", ROUND(M38,2),  ")", IF(AND(O38 &lt;0.05, NOT(ISBLANK(O38))), "*", " ") )</f>
+        <v>1.1 (1 - 1.36)*</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>LTMLE!A66</f>
+        <v>65</v>
+      </c>
+      <c r="B39" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D66)), "", "No "),IF(LTMLE!C66="ventilation_bin","Ventilation",IF(LTMLE!C66="rrt","RRT",IF(LTMLE!C66="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LEFT(LTMLE!D66, FIND("&amp;", LTMLE!D66)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D39" t="str">
+        <f>LTMLE!B66</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP($A39,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP($A39,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP($A39,LTMLE!$A:$L, 7)</f>
+        <v>0.79999999999949001</v>
+      </c>
+      <c r="H39">
+        <f>VLOOKUP($A39,LTMLE!$A:$L, 10)</f>
+        <v>0.55185752527426202</v>
+      </c>
+      <c r="I39">
+        <f>VLOOKUP($A39,LTMLE!$A:$L, 11)</f>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f>VLOOKUP($A39,LTMLE!$A:$L, 9)</f>
+        <v>2.6354362064075799E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>LTMLE!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B40" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D16)), "", "No "),IF(LTMLE!C16="ventilation_bin","Ventilation",IF(LTMLE!C16="rrt","RRT",IF(LTMLE!C16="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LEFT(LTMLE!D16, FIND("&amp;", LTMLE!D16)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D40" t="str">
+        <f>LTMLE!B16</f>
+        <v>eICU</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP($A40,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <f>VLOOKUP($A40,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <f>VLOOKUP($A40,LTMLE!$A:$L, 7)</f>
+        <v>0.99999999982127097</v>
+      </c>
+      <c r="H40">
+        <f>VLOOKUP($A40,LTMLE!$A:$L, 10)</f>
+        <v>0.99998150316109402</v>
+      </c>
+      <c r="I40">
+        <f>VLOOKUP($A40,LTMLE!$A:$L, 11)</f>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f>VLOOKUP($A40,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:L71" si="90">IFERROR(G40/G41,0)</f>
+        <v>1.0000002402974009</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40:M71" si="91">IFERROR(H40/H41, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:N71" si="92">IFERROR(I40/I41, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ref="O40:O71" si="93">IFERROR(J40/J41, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" ref="Q40:Q71" si="94">_xlfn.CONCAT(ROUND(L40, 2), " (", ROUND(N40,2), " - ", ROUND(M40,2),  ")", IF(AND(O40 &lt;0.05, NOT(ISBLANK(O40))), "*", " ") )</f>
+        <v>1 (1 - 0)*</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>LTMLE!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B41" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D6)), "", "No "),IF(LTMLE!C6="ventilation_bin","Ventilation",IF(LTMLE!C6="rrt","RRT",IF(LTMLE!C6="pressor","Vasopressor",""))))</f>
+        <v>No Ventilation</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LEFT(LTMLE!D6, FIND("&amp;", LTMLE!D6)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D41" t="str">
+        <f>LTMLE!B6</f>
+        <v>eICU</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP($A41,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP($A41,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <f>VLOOKUP($A41,LTMLE!$A:$L, 7)</f>
+        <v>0.99999975952392794</v>
+      </c>
+      <c r="H41">
+        <f>VLOOKUP($A41,LTMLE!$A:$L, 10)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>VLOOKUP($A41,LTMLE!$A:$L, 11)</f>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f>VLOOKUP($A41,LTMLE!$A:$L, 9)</f>
+        <v>0.99999999497421099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>LTMLE!A97</f>
+        <v>96</v>
+      </c>
+      <c r="B42" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D97)), "", "No "),IF(LTMLE!C97="ventilation_bin","Ventilation",IF(LTMLE!C97="rrt","RRT",IF(LTMLE!C97="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LEFT(LTMLE!D97, FIND("&amp;", LTMLE!D97)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D42" t="str">
+        <f>LTMLE!B97</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP($A42,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>VLOOKUP($A42,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <f>VLOOKUP($A42,LTMLE!$A:$L, 7)</f>
+        <v>0.690909090908844</v>
+      </c>
+      <c r="H42">
+        <f>VLOOKUP($A42,LTMLE!$A:$L, 10)</f>
+        <v>0.66964869349648903</v>
+      </c>
+      <c r="I42">
+        <f>VLOOKUP($A42,LTMLE!$A:$L, 11)</f>
+        <v>0.71216948832119897</v>
+      </c>
+      <c r="J42">
+        <f>VLOOKUP($A42,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L73" si="95">IFERROR(G42/G43,0)</f>
+        <v>1.0322158116321629</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42:M73" si="96">IFERROR(H42/H43, 0)</f>
+        <v>1.049438161328645</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42:N73" si="97">IFERROR(I42/I43, 0)</f>
+        <v>1.0165295582937688</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O73" si="98">IFERROR(J42/J43, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ref="Q42:Q73" si="99">_xlfn.CONCAT(ROUND(L42, 2), " (", ROUND(N42,2), " - ", ROUND(M42,2),  ")", IF(AND(O42 &lt;0.05, NOT(ISBLANK(O42))), "*", " ") )</f>
+        <v>1.03 (1.02 - 1.05)*</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>LTMLE!A87</f>
+        <v>86</v>
+      </c>
+      <c r="B43" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D87)), "", "No "),IF(LTMLE!C87="ventilation_bin","Ventilation",IF(LTMLE!C87="rrt","RRT",IF(LTMLE!C87="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LEFT(LTMLE!D87, FIND("&amp;", LTMLE!D87)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D43" t="str">
+        <f>LTMLE!B87</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP($A43,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>VLOOKUP($A43,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <f>VLOOKUP($A43,LTMLE!$A:$L, 7)</f>
+        <v>0.66934557979339904</v>
+      </c>
+      <c r="H43">
+        <f>VLOOKUP($A43,LTMLE!$A:$L, 10)</f>
+        <v>0.63810209898282899</v>
+      </c>
+      <c r="I43">
+        <f>VLOOKUP($A43,LTMLE!$A:$L, 11)</f>
+        <v>0.70058906060396897</v>
+      </c>
+      <c r="J43">
+        <f>VLOOKUP($A43,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>LTMLE!A37</f>
+        <v>36</v>
+      </c>
+      <c r="B44" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D37)), "", "No "),IF(LTMLE!C37="ventilation_bin","Ventilation",IF(LTMLE!C37="rrt","RRT",IF(LTMLE!C37="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C44" t="str">
+        <f>LEFT(LTMLE!D37, FIND("&amp;", LTMLE!D37)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D44" t="str">
+        <f>LTMLE!B37</f>
+        <v>eICU</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP($A44,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP($A44,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <f>VLOOKUP($A44,LTMLE!$A:$L, 7)</f>
+        <v>0.27734711455697297</v>
+      </c>
+      <c r="H44">
+        <f>VLOOKUP($A44,LTMLE!$A:$L, 10)</f>
+        <v>0.25913755644497799</v>
+      </c>
+      <c r="I44">
+        <f>VLOOKUP($A44,LTMLE!$A:$L, 11)</f>
+        <v>0.29555667266896901</v>
+      </c>
+      <c r="J44">
+        <f>VLOOKUP($A44,LTMLE!$A:$L, 9)</f>
+        <v>8.2880721088018199E-196</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44:L75" si="100">IFERROR(G44/G45,0)</f>
+        <v>1.2734734003476409</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44:M75" si="101">IFERROR(H44/H45, 0)</f>
+        <v>1.3605099392037572</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N75" si="102">IFERROR(I44/I45, 0)</f>
+        <v>1.205837353399388</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ref="O44:O75" si="103">IFERROR(J44/J45, 0)</f>
+        <v>1.7123236815032867E-141</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" ref="Q44:Q75" si="104">_xlfn.CONCAT(ROUND(L44, 2), " (", ROUND(N44,2), " - ", ROUND(M44,2),  ")", IF(AND(O44 &lt;0.05, NOT(ISBLANK(O44))), "*", " ") )</f>
+        <v>1.27 (1.21 - 1.36)*</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>LTMLE!A27</f>
+        <v>26</v>
+      </c>
+      <c r="B45" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D27)), "", "No "),IF(LTMLE!C27="ventilation_bin","Ventilation",IF(LTMLE!C27="rrt","RRT",IF(LTMLE!C27="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C45" t="str">
+        <f>LEFT(LTMLE!D27, FIND("&amp;", LTMLE!D27)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D45" t="str">
+        <f>LTMLE!B27</f>
+        <v>eICU</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP($A45,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>VLOOKUP($A45,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <f>VLOOKUP($A45,LTMLE!$A:$L, 7)</f>
+        <v>0.21778791334099401</v>
+      </c>
+      <c r="H45">
+        <f>VLOOKUP($A45,LTMLE!$A:$L, 10)</f>
+        <v>0.190470902841503</v>
+      </c>
+      <c r="I45">
+        <f>VLOOKUP($A45,LTMLE!$A:$L, 11)</f>
+        <v>0.24510492384048499</v>
+      </c>
+      <c r="J45">
+        <f>VLOOKUP($A45,LTMLE!$A:$L, 9)</f>
+        <v>4.8402484870883402E-55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>LTMLE!A98</f>
+        <v>97</v>
+      </c>
+      <c r="B46" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D98)), "", "No "),IF(LTMLE!C98="ventilation_bin","Ventilation",IF(LTMLE!C98="rrt","RRT",IF(LTMLE!C98="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C46" t="str">
+        <f>LEFT(LTMLE!D98, FIND("&amp;", LTMLE!D98)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D46" t="str">
+        <f>LTMLE!B98</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP($A46,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>VLOOKUP($A46,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f>VLOOKUP($A46,LTMLE!$A:$L, 7)</f>
+        <v>0.614718614718607</v>
+      </c>
+      <c r="H46">
+        <f>VLOOKUP($A46,LTMLE!$A:$L, 10)</f>
+        <v>0.55195822644178105</v>
+      </c>
+      <c r="I46">
+        <f>VLOOKUP($A46,LTMLE!$A:$L, 11)</f>
+        <v>0.67747900299543395</v>
+      </c>
+      <c r="J46">
+        <f>VLOOKUP($A46,LTMLE!$A:$L, 9)</f>
+        <v>3.9027411100951802E-82</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:L77" si="105">IFERROR(G46/G47,0)</f>
+        <v>1.026941685765224</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:M77" si="106">IFERROR(H46/H47, 0)</f>
+        <v>1.0656286980069842</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:N77" si="107">IFERROR(I46/I47, 0)</f>
+        <v>0.99743936649098641</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ref="O46:O77" si="108">IFERROR(J46/J47, 0)</f>
+        <v>6.8042557323835812E-35</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ref="Q46:Q77" si="109">_xlfn.CONCAT(ROUND(L46, 2), " (", ROUND(N46,2), " - ", ROUND(M46,2),  ")", IF(AND(O46 &lt;0.05, NOT(ISBLANK(O46))), "*", " ") )</f>
+        <v>1.03 (1 - 1.07)*</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>LTMLE!A88</f>
+        <v>87</v>
+      </c>
+      <c r="B47" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D88)), "", "No "),IF(LTMLE!C88="ventilation_bin","Ventilation",IF(LTMLE!C88="rrt","RRT",IF(LTMLE!C88="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C47" t="str">
+        <f>LEFT(LTMLE!D88, FIND("&amp;", LTMLE!D88)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D47" t="str">
+        <f>LTMLE!B88</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP($A47,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>VLOOKUP($A47,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f>VLOOKUP($A47,LTMLE!$A:$L, 7)</f>
+        <v>0.59859154929576197</v>
+      </c>
+      <c r="H47">
+        <f>VLOOKUP($A47,LTMLE!$A:$L, 10)</f>
+        <v>0.51796486663140096</v>
+      </c>
+      <c r="I47">
+        <f>VLOOKUP($A47,LTMLE!$A:$L, 11)</f>
+        <v>0.67921823196012399</v>
+      </c>
+      <c r="J47">
+        <f>VLOOKUP($A47,LTMLE!$A:$L, 9)</f>
+        <v>5.7357354920109997E-48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>LTMLE!A38</f>
+        <v>37</v>
+      </c>
+      <c r="B48" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D38)), "", "No "),IF(LTMLE!C38="ventilation_bin","Ventilation",IF(LTMLE!C38="rrt","RRT",IF(LTMLE!C38="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C48" t="str">
+        <f>LEFT(LTMLE!D38, FIND("&amp;", LTMLE!D38)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D48" t="str">
+        <f>LTMLE!B38</f>
+        <v>eICU</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP($A48,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>VLOOKUP($A48,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <f>VLOOKUP($A48,LTMLE!$A:$L, 7)</f>
+        <v>0.18822023047368899</v>
+      </c>
+      <c r="H48">
+        <f>VLOOKUP($A48,LTMLE!$A:$L, 10)</f>
+        <v>0.16080554171523401</v>
+      </c>
+      <c r="I48">
+        <f>VLOOKUP($A48,LTMLE!$A:$L, 11)</f>
+        <v>0.21563491923214401</v>
+      </c>
+      <c r="J48">
+        <f>VLOOKUP($A48,LTMLE!$A:$L, 9)</f>
+        <v>2.8208218528763002E-41</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:L79" si="110">IFERROR(G48/G49,0)</f>
+        <v>1.4599785444683031</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M79" si="111">IFERROR(H48/H49, 0)</f>
+        <v>1.7837736079602442</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N79" si="112">IFERROR(I48/I49, 0)</f>
+        <v>1.2859090517476126</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O79" si="113">IFERROR(J48/J49, 0)</f>
+        <v>3.9388370316726923E-31</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" ref="Q48:Q79" si="114">_xlfn.CONCAT(ROUND(L48, 2), " (", ROUND(N48,2), " - ", ROUND(M48,2),  ")", IF(AND(O48 &lt;0.05, NOT(ISBLANK(O48))), "*", " ") )</f>
+        <v>1.46 (1.29 - 1.78)*</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>LTMLE!A28</f>
+        <v>27</v>
+      </c>
+      <c r="B49" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D28)), "", "No "),IF(LTMLE!C28="ventilation_bin","Ventilation",IF(LTMLE!C28="rrt","RRT",IF(LTMLE!C28="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C49" t="str">
+        <f>LEFT(LTMLE!D28, FIND("&amp;", LTMLE!D28)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D49" t="str">
+        <f>LTMLE!B28</f>
+        <v>eICU</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP($A49,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>VLOOKUP($A49,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <f>VLOOKUP($A49,LTMLE!$A:$L, 7)</f>
+        <v>0.12891986062866101</v>
+      </c>
+      <c r="H49">
+        <f>VLOOKUP($A49,LTMLE!$A:$L, 10)</f>
+        <v>9.0149075531572698E-2</v>
+      </c>
+      <c r="I49">
+        <f>VLOOKUP($A49,LTMLE!$A:$L, 11)</f>
+        <v>0.16769064572574999</v>
+      </c>
+      <c r="J49">
+        <f>VLOOKUP($A49,LTMLE!$A:$L, 9)</f>
+        <v>7.1615602021452297E-11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>LTMLE!A99</f>
+        <v>98</v>
+      </c>
+      <c r="B50" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D99)), "", "No "),IF(LTMLE!C99="ventilation_bin","Ventilation",IF(LTMLE!C99="rrt","RRT",IF(LTMLE!C99="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C50" t="str">
+        <f>LEFT(LTMLE!D99, FIND("&amp;", LTMLE!D99)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D50" t="str">
+        <f>LTMLE!B99</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP($A50,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP($A50,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <f>VLOOKUP($A50,LTMLE!$A:$L, 7)</f>
+        <v>0.71108179419489503</v>
+      </c>
+      <c r="H50">
+        <f>VLOOKUP($A50,LTMLE!$A:$L, 10)</f>
+        <v>0.67881303240273205</v>
+      </c>
+      <c r="I50">
+        <f>VLOOKUP($A50,LTMLE!$A:$L, 11)</f>
+        <v>0.74335055598705901</v>
+      </c>
+      <c r="J50">
+        <f>VLOOKUP($A50,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:L81" si="115">IFERROR(G50/G51,0)</f>
+        <v>1.0629573212192529</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50:M81" si="116">IFERROR(H50/H51, 0)</f>
+        <v>1.0865511965874297</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50:N81" si="117">IFERROR(I50/I51, 0)</f>
+        <v>1.042289534802328</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50:O81" si="118">IFERROR(J50/J51, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" ref="Q50:Q81" si="119">_xlfn.CONCAT(ROUND(L50, 2), " (", ROUND(N50,2), " - ", ROUND(M50,2),  ")", IF(AND(O50 &lt;0.05, NOT(ISBLANK(O50))), "*", " ") )</f>
+        <v>1.06 (1.04 - 1.09)*</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>LTMLE!A89</f>
+        <v>88</v>
+      </c>
+      <c r="B51" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D89)), "", "No "),IF(LTMLE!C89="ventilation_bin","Ventilation",IF(LTMLE!C89="rrt","RRT",IF(LTMLE!C89="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C51" t="str">
+        <f>LEFT(LTMLE!D89, FIND("&amp;", LTMLE!D89)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D51" t="str">
+        <f>LTMLE!B89</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP($A51,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP($A51,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <f>VLOOKUP($A51,LTMLE!$A:$L, 7)</f>
+        <v>0.66896551724132902</v>
+      </c>
+      <c r="H51">
+        <f>VLOOKUP($A51,LTMLE!$A:$L, 10)</f>
+        <v>0.62474095517514905</v>
+      </c>
+      <c r="I51">
+        <f>VLOOKUP($A51,LTMLE!$A:$L, 11)</f>
+        <v>0.713190079307509</v>
+      </c>
+      <c r="J51">
+        <f>VLOOKUP($A51,LTMLE!$A:$L, 9)</f>
+        <v>3.6512778663209702E-193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>LTMLE!A39</f>
+        <v>38</v>
+      </c>
+      <c r="B52" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D39)), "", "No "),IF(LTMLE!C39="ventilation_bin","Ventilation",IF(LTMLE!C39="rrt","RRT",IF(LTMLE!C39="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C52" t="str">
+        <f>LEFT(LTMLE!D39, FIND("&amp;", LTMLE!D39)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D52" t="str">
+        <f>LTMLE!B39</f>
+        <v>eICU</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP($A52,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP($A52,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <f>VLOOKUP($A52,LTMLE!$A:$L, 7)</f>
+        <v>0.257518796993086</v>
+      </c>
+      <c r="H52">
+        <f>VLOOKUP($A52,LTMLE!$A:$L, 10)</f>
+        <v>0.231243627716466</v>
+      </c>
+      <c r="I52">
+        <f>VLOOKUP($A52,LTMLE!$A:$L, 11)</f>
+        <v>0.28379396626970599</v>
+      </c>
+      <c r="J52">
+        <f>VLOOKUP($A52,LTMLE!$A:$L, 9)</f>
+        <v>3.0941930923561102E-82</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ref="L52:L83" si="120">IFERROR(G52/G53,0)</f>
+        <v>1.198250728864753</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:M83" si="121">IFERROR(H52/H53, 0)</f>
+        <v>1.3049185986517602</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N83" si="122">IFERROR(I52/I53, 0)</f>
+        <v>1.1234233934540225</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52:O83" si="123">IFERROR(J52/J53, 0)</f>
+        <v>5.5376340334540013E-54</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" ref="Q52:Q83" si="124">_xlfn.CONCAT(ROUND(L52, 2), " (", ROUND(N52,2), " - ", ROUND(M52,2),  ")", IF(AND(O52 &lt;0.05, NOT(ISBLANK(O52))), "*", " ") )</f>
+        <v>1.2 (1.12 - 1.3)*</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>LTMLE!A29</f>
+        <v>28</v>
+      </c>
+      <c r="B53" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D29)), "", "No "),IF(LTMLE!C29="ventilation_bin","Ventilation",IF(LTMLE!C29="rrt","RRT",IF(LTMLE!C29="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C53" t="str">
+        <f>LEFT(LTMLE!D29, FIND("&amp;", LTMLE!D29)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D53" t="str">
+        <f>LTMLE!B29</f>
+        <v>eICU</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP($A53,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP($A53,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <f>VLOOKUP($A53,LTMLE!$A:$L, 7)</f>
+        <v>0.21491228070193999</v>
+      </c>
+      <c r="H53">
+        <f>VLOOKUP($A53,LTMLE!$A:$L, 10)</f>
+        <v>0.17720923585224899</v>
+      </c>
+      <c r="I53">
+        <f>VLOOKUP($A53,LTMLE!$A:$L, 11)</f>
+        <v>0.25261532555163102</v>
+      </c>
+      <c r="J53">
+        <f>VLOOKUP($A53,LTMLE!$A:$L, 9)</f>
+        <v>5.5875723705529199E-29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>LTMLE!A100</f>
+        <v>99</v>
+      </c>
+      <c r="B54" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D100)), "", "No "),IF(LTMLE!C100="ventilation_bin","Ventilation",IF(LTMLE!C100="rrt","RRT",IF(LTMLE!C100="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C54" t="str">
+        <f>LEFT(LTMLE!D100, FIND("&amp;", LTMLE!D100)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D54" t="str">
+        <f>LTMLE!B100</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP($A54,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP($A54,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <f>VLOOKUP($A54,LTMLE!$A:$L, 7)</f>
+        <v>0.68656716417896502</v>
+      </c>
+      <c r="H54">
+        <f>VLOOKUP($A54,LTMLE!$A:$L, 10)</f>
+        <v>0.649535543781674</v>
+      </c>
+      <c r="I54">
+        <f>VLOOKUP($A54,LTMLE!$A:$L, 11)</f>
+        <v>0.72359878457625704</v>
+      </c>
+      <c r="J54">
+        <f>VLOOKUP($A54,LTMLE!$A:$L, 9)</f>
+        <v>4.0980857948529698E-289</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54:L85" si="125">IFERROR(G54/G55,0)</f>
+        <v>0.96119402985107494</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54:M85" si="126">IFERROR(H54/H55, 0)</f>
+        <v>0.99291587271291815</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54:N85" si="127">IFERROR(I54/I55, 0)</f>
+        <v>0.93439725047205591</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54:O85" si="128">IFERROR(J54/J55, 0)</f>
+        <v>6.970081641867964E-170</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" ref="Q54:Q85" si="129">_xlfn.CONCAT(ROUND(L54, 2), " (", ROUND(N54,2), " - ", ROUND(M54,2),  ")", IF(AND(O54 &lt;0.05, NOT(ISBLANK(O54))), "*", " ") )</f>
+        <v>0.96 (0.93 - 0.99)*</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>LTMLE!A90</f>
+        <v>89</v>
+      </c>
+      <c r="B55" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D90)), "", "No "),IF(LTMLE!C90="ventilation_bin","Ventilation",IF(LTMLE!C90="rrt","RRT",IF(LTMLE!C90="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C55" t="str">
+        <f>LEFT(LTMLE!D90, FIND("&amp;", LTMLE!D90)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D55" t="str">
+        <f>LTMLE!B90</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP($A55,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <f>VLOOKUP($A55,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <f>VLOOKUP($A55,LTMLE!$A:$L, 7)</f>
+        <v>0.71428571428532495</v>
+      </c>
+      <c r="H55">
+        <f>VLOOKUP($A55,LTMLE!$A:$L, 10)</f>
+        <v>0.65416976566903395</v>
+      </c>
+      <c r="I55">
+        <f>VLOOKUP($A55,LTMLE!$A:$L, 11)</f>
+        <v>0.77440166290161505</v>
+      </c>
+      <c r="J55">
+        <f>VLOOKUP($A55,LTMLE!$A:$L, 9)</f>
+        <v>5.8795377233984497E-120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>LTMLE!A40</f>
+        <v>39</v>
+      </c>
+      <c r="B56" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D40)), "", "No "),IF(LTMLE!C40="ventilation_bin","Ventilation",IF(LTMLE!C40="rrt","RRT",IF(LTMLE!C40="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C56" t="str">
+        <f>LEFT(LTMLE!D40, FIND("&amp;", LTMLE!D40)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D56" t="str">
+        <f>LTMLE!B40</f>
+        <v>eICU</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP($A56,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <f>VLOOKUP($A56,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <f>VLOOKUP($A56,LTMLE!$A:$L, 7)</f>
+        <v>0.44309927392458898</v>
+      </c>
+      <c r="H56">
+        <f>VLOOKUP($A56,LTMLE!$A:$L, 10)</f>
+        <v>0.39517774653153898</v>
+      </c>
+      <c r="I56">
+        <f>VLOOKUP($A56,LTMLE!$A:$L, 11)</f>
+        <v>0.49102080131763898</v>
+      </c>
+      <c r="J56">
+        <f>VLOOKUP($A56,LTMLE!$A:$L, 9)</f>
+        <v>2.1169174738636902E-73</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ref="L56:L87" si="130">IFERROR(G56/G57,0)</f>
+        <v>1.1462785564570992</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56:M87" si="131">IFERROR(H56/H57, 0)</f>
+        <v>1.3214928584224741</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:N87" si="132">IFERROR(I56/I57, 0)</f>
+        <v>1.0357551128668727</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56:O87" si="133">IFERROR(J56/J57, 0)</f>
+        <v>4.3748093231211315E-56</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" ref="Q56:Q87" si="134">_xlfn.CONCAT(ROUND(L56, 2), " (", ROUND(N56,2), " - ", ROUND(M56,2),  ")", IF(AND(O56 &lt;0.05, NOT(ISBLANK(O56))), "*", " ") )</f>
+        <v>1.15 (1.04 - 1.32)*</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f>LTMLE!A30</f>
+        <v>29</v>
+      </c>
+      <c r="B57" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D30)), "", "No "),IF(LTMLE!C30="ventilation_bin","Ventilation",IF(LTMLE!C30="rrt","RRT",IF(LTMLE!C30="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C57" t="str">
+        <f>LEFT(LTMLE!D30, FIND("&amp;", LTMLE!D30)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D57" t="str">
+        <f>LTMLE!B30</f>
+        <v>eICU</v>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP($A57,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP($A57,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <f>VLOOKUP($A57,LTMLE!$A:$L, 7)</f>
+        <v>0.38655462184873601</v>
+      </c>
+      <c r="H57">
+        <f>VLOOKUP($A57,LTMLE!$A:$L, 10)</f>
+        <v>0.29903888168058701</v>
+      </c>
+      <c r="I57">
+        <f>VLOOKUP($A57,LTMLE!$A:$L, 11)</f>
+        <v>0.47407036201688602</v>
+      </c>
+      <c r="J57">
+        <f>VLOOKUP($A57,LTMLE!$A:$L, 9)</f>
+        <v>4.8388794059563999E-18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>LTMLE!A101</f>
+        <v>100</v>
+      </c>
+      <c r="B58" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D101)), "", "No "),IF(LTMLE!C101="ventilation_bin","Ventilation",IF(LTMLE!C101="rrt","RRT",IF(LTMLE!C101="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C58" t="str">
+        <f>LEFT(LTMLE!D101, FIND("&amp;", LTMLE!D101)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D58" t="str">
+        <f>LTMLE!B101</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP($A58,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP($A58,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <f>VLOOKUP($A58,LTMLE!$A:$L, 7)</f>
+        <v>0.71300448430456798</v>
+      </c>
+      <c r="H58">
+        <f>VLOOKUP($A58,LTMLE!$A:$L, 10)</f>
+        <v>0.65357904890490004</v>
+      </c>
+      <c r="I58">
+        <f>VLOOKUP($A58,LTMLE!$A:$L, 11)</f>
+        <v>0.77242991970423602</v>
+      </c>
+      <c r="J58">
+        <f>VLOOKUP($A58,LTMLE!$A:$L, 9)</f>
+        <v>2.7820948046816102E-122</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58:L89" si="135">IFERROR(G58/G59,0)</f>
+        <v>1.0557951017587985</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ref="M58:M89" si="136">IFERROR(H58/H59, 0)</f>
+        <v>1.1453408118450696</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58:N89" si="137">IFERROR(I58/I59, 0)</f>
+        <v>0.99028485714820214</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ref="O58:O89" si="138">IFERROR(J58/J59, 0)</f>
+        <v>2.3035786174036447E-86</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" ref="Q58:Q89" si="139">_xlfn.CONCAT(ROUND(L58, 2), " (", ROUND(N58,2), " - ", ROUND(M58,2),  ")", IF(AND(O58 &lt;0.05, NOT(ISBLANK(O58))), "*", " ") )</f>
+        <v>1.06 (0.99 - 1.15)*</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>LTMLE!A91</f>
+        <v>90</v>
+      </c>
+      <c r="B59" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D91)), "", "No "),IF(LTMLE!C91="ventilation_bin","Ventilation",IF(LTMLE!C91="rrt","RRT",IF(LTMLE!C91="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C59" t="str">
+        <f>LEFT(LTMLE!D91, FIND("&amp;", LTMLE!D91)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D59" t="str">
+        <f>LTMLE!B91</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP($A59,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP($A59,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <f>VLOOKUP($A59,LTMLE!$A:$L, 7)</f>
+        <v>0.67532467532460405</v>
+      </c>
+      <c r="H59">
+        <f>VLOOKUP($A59,LTMLE!$A:$L, 10)</f>
+        <v>0.57064154367469599</v>
+      </c>
+      <c r="I59">
+        <f>VLOOKUP($A59,LTMLE!$A:$L, 11)</f>
+        <v>0.780007806974511</v>
+      </c>
+      <c r="J59">
+        <f>VLOOKUP($A59,LTMLE!$A:$L, 9)</f>
+        <v>1.20772730900641E-36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>LTMLE!A41</f>
+        <v>40</v>
+      </c>
+      <c r="B60" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D41)), "", "No "),IF(LTMLE!C41="ventilation_bin","Ventilation",IF(LTMLE!C41="rrt","RRT",IF(LTMLE!C41="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C60" t="str">
+        <f>LEFT(LTMLE!D41, FIND("&amp;", LTMLE!D41)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D60" t="str">
+        <f>LTMLE!B41</f>
+        <v>eICU</v>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP($A60,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP($A60,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <f>VLOOKUP($A60,LTMLE!$A:$L, 7)</f>
+        <v>0.62499999999957201</v>
+      </c>
+      <c r="H60">
+        <f>VLOOKUP($A60,LTMLE!$A:$L, 10)</f>
+        <v>0.50602428697042301</v>
+      </c>
+      <c r="I60">
+        <f>VLOOKUP($A60,LTMLE!$A:$L, 11)</f>
+        <v>0.74397571302872201</v>
+      </c>
+      <c r="J60">
+        <f>VLOOKUP($A60,LTMLE!$A:$L, 9)</f>
+        <v>7.3429598082326996E-25</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ref="L60:L91" si="140">IFERROR(G60/G61,0)</f>
+        <v>0.93749999999940259</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ref="M60:M91" si="141">IFERROR(H60/H61, 0)</f>
+        <v>1.1840488957407367</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:N91" si="142">IFERROR(I60/I61, 0)</f>
+        <v>0.82119642184562514</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60:O91" si="143">IFERROR(J60/J61, 0)</f>
+        <v>1.544762222307857E-17</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" ref="Q60:Q91" si="144">_xlfn.CONCAT(ROUND(L60, 2), " (", ROUND(N60,2), " - ", ROUND(M60,2),  ")", IF(AND(O60 &lt;0.05, NOT(ISBLANK(O60))), "*", " ") )</f>
+        <v>0.94 (0.82 - 1.18)*</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>LTMLE!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B61" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D31)), "", "No "),IF(LTMLE!C31="ventilation_bin","Ventilation",IF(LTMLE!C31="rrt","RRT",IF(LTMLE!C31="pressor","Vasopressor",""))))</f>
+        <v>RRT</v>
+      </c>
+      <c r="C61" t="str">
+        <f>LEFT(LTMLE!D31, FIND("&amp;", LTMLE!D31)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D61" t="str">
+        <f>LTMLE!B31</f>
+        <v>eICU</v>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP($A61,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP($A61,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <f>VLOOKUP($A61,LTMLE!$A:$L, 7)</f>
+        <v>0.66666666666663499</v>
+      </c>
+      <c r="H61">
+        <f>VLOOKUP($A61,LTMLE!$A:$L, 10)</f>
+        <v>0.42736772847024701</v>
+      </c>
+      <c r="I61">
+        <f>VLOOKUP($A61,LTMLE!$A:$L, 11)</f>
+        <v>0.90596560486302302</v>
+      </c>
+      <c r="J61">
+        <f>VLOOKUP($A61,LTMLE!$A:$L, 9)</f>
+        <v>4.7534563586507197E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>LTMLE!A92</f>
+        <v>91</v>
+      </c>
+      <c r="B62" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D92)), "", "No "),IF(LTMLE!C92="ventilation_bin","Ventilation",IF(LTMLE!C92="rrt","RRT",IF(LTMLE!C92="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C62" t="str">
+        <f>LEFT(LTMLE!D92, FIND("&amp;", LTMLE!D92)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D62" t="str">
+        <f>LTMLE!B92</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP($A62,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP($A62,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <f>VLOOKUP($A62,LTMLE!$A:$L, 7)</f>
+        <v>0.44683871642010597</v>
+      </c>
+      <c r="H62">
+        <f>VLOOKUP($A62,LTMLE!$A:$L, 10)</f>
+        <v>0.43990013127779298</v>
+      </c>
+      <c r="I62">
+        <f>VLOOKUP($A62,LTMLE!$A:$L, 11)</f>
+        <v>0.45377730156241802</v>
+      </c>
+      <c r="J62">
+        <f>VLOOKUP($A62,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ref="L62:L93" si="145">IFERROR(G62/G63,0)</f>
+        <v>0.92177924328403849</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ref="M62:M93" si="146">IFERROR(H62/H63, 0)</f>
+        <v>0.93525479936324085</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62:N93" si="147">IFERROR(I62/I63, 0)</f>
+        <v>0.90908137453988014</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ref="O62:O93" si="148">IFERROR(J62/J63, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" ref="Q62:Q93" si="149">_xlfn.CONCAT(ROUND(L62, 2), " (", ROUND(N62,2), " - ", ROUND(M62,2),  ")", IF(AND(O62 &lt;0.05, NOT(ISBLANK(O62))), "*", " ") )</f>
+        <v>0.92 (0.91 - 0.94)*</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f>LTMLE!A82</f>
+        <v>81</v>
+      </c>
+      <c r="B63" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D82)), "", "No "),IF(LTMLE!C82="ventilation_bin","Ventilation",IF(LTMLE!C82="rrt","RRT",IF(LTMLE!C82="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C63" t="str">
+        <f>LEFT(LTMLE!D82, FIND("&amp;", LTMLE!D82)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D63" t="str">
+        <f>LTMLE!B82</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP($A63,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP($A63,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <f>VLOOKUP($A63,LTMLE!$A:$L, 7)</f>
+        <v>0.48475675675679802</v>
+      </c>
+      <c r="H63">
+        <f>VLOOKUP($A63,LTMLE!$A:$L, 10)</f>
+        <v>0.47035324659899602</v>
+      </c>
+      <c r="I63">
+        <f>VLOOKUP($A63,LTMLE!$A:$L, 11)</f>
+        <v>0.49916026691460003</v>
+      </c>
+      <c r="J63">
+        <f>VLOOKUP($A63,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f>LTMLE!A32</f>
+        <v>31</v>
+      </c>
+      <c r="B64" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D32)), "", "No "),IF(LTMLE!C32="ventilation_bin","Ventilation",IF(LTMLE!C32="rrt","RRT",IF(LTMLE!C32="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C64" t="str">
+        <f>LEFT(LTMLE!D32, FIND("&amp;", LTMLE!D32)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D64" t="str">
+        <f>LTMLE!B32</f>
+        <v>eICU</v>
+      </c>
+      <c r="E64">
+        <f>VLOOKUP($A64,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP($A64,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <f>VLOOKUP($A64,LTMLE!$A:$L, 7)</f>
+        <v>0.15365913931323699</v>
+      </c>
+      <c r="H64">
+        <f>VLOOKUP($A64,LTMLE!$A:$L, 10)</f>
+        <v>0.14946356109081699</v>
+      </c>
+      <c r="I64">
+        <f>VLOOKUP($A64,LTMLE!$A:$L, 11)</f>
+        <v>0.157854717535658</v>
+      </c>
+      <c r="J64">
+        <f>VLOOKUP($A64,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ref="L64:L95" si="150">IFERROR(G64/G65,0)</f>
+        <v>1.0248255859873261</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64:M95" si="151">IFERROR(H64/H65, 0)</f>
+        <v>1.0589279032683525</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ref="N64:N95" si="152">IFERROR(I64/I65, 0)</f>
+        <v>0.9945006203970127</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ref="O64:O95" si="153">IFERROR(J64/J65, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" ref="Q64:Q95" si="154">_xlfn.CONCAT(ROUND(L64, 2), " (", ROUND(N64,2), " - ", ROUND(M64,2),  ")", IF(AND(O64 &lt;0.05, NOT(ISBLANK(O64))), "*", " ") )</f>
+        <v>1.02 (0.99 - 1.06)*</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f>LTMLE!A22</f>
+        <v>21</v>
+      </c>
+      <c r="B65" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D22)), "", "No "),IF(LTMLE!C22="ventilation_bin","Ventilation",IF(LTMLE!C22="rrt","RRT",IF(LTMLE!C22="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C65" t="str">
+        <f>LEFT(LTMLE!D22, FIND("&amp;", LTMLE!D22)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D65" t="str">
+        <f>LTMLE!B22</f>
+        <v>eICU</v>
+      </c>
+      <c r="E65">
+        <f>VLOOKUP($A65,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP($A65,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <f>VLOOKUP($A65,LTMLE!$A:$L, 7)</f>
+        <v>0.149936868686978</v>
+      </c>
+      <c r="H65">
+        <f>VLOOKUP($A65,LTMLE!$A:$L, 10)</f>
+        <v>0.14114611639706701</v>
+      </c>
+      <c r="I65">
+        <f>VLOOKUP($A65,LTMLE!$A:$L, 11)</f>
+        <v>0.158727620976889</v>
+      </c>
+      <c r="J65">
+        <f>VLOOKUP($A65,LTMLE!$A:$L, 9)</f>
+        <v>5.1035345477359998E-245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>LTMLE!A93</f>
+        <v>92</v>
+      </c>
+      <c r="B66" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D93)), "", "No "),IF(LTMLE!C93="ventilation_bin","Ventilation",IF(LTMLE!C93="rrt","RRT",IF(LTMLE!C93="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C66" t="str">
+        <f>LEFT(LTMLE!D93, FIND("&amp;", LTMLE!D93)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D66" t="str">
+        <f>LTMLE!B93</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP($A66,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP($A66,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <f>VLOOKUP($A66,LTMLE!$A:$L, 7)</f>
+        <v>0.37815285416268202</v>
+      </c>
+      <c r="H66">
+        <f>VLOOKUP($A66,LTMLE!$A:$L, 10)</f>
+        <v>0.368897435942598</v>
+      </c>
+      <c r="I66">
+        <f>VLOOKUP($A66,LTMLE!$A:$L, 11)</f>
+        <v>0.38740827238276598</v>
+      </c>
+      <c r="J66">
+        <f>VLOOKUP($A66,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L97" si="155">IFERROR(G66/G67,0)</f>
+        <v>0.93439844254720539</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:M97" si="156">IFERROR(H66/H67, 0)</f>
+        <v>0.95819996078842606</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:N97" si="157">IFERROR(I66/I67, 0)</f>
+        <v>0.91280784693580808</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66:O97" si="158">IFERROR(J66/J67, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" ref="Q66:Q97" si="159">_xlfn.CONCAT(ROUND(L66, 2), " (", ROUND(N66,2), " - ", ROUND(M66,2),  ")", IF(AND(O66 &lt;0.05, NOT(ISBLANK(O66))), "*", " ") )</f>
+        <v>0.93 (0.91 - 0.96)*</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f>LTMLE!A83</f>
+        <v>82</v>
+      </c>
+      <c r="B67" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D83)), "", "No "),IF(LTMLE!C83="ventilation_bin","Ventilation",IF(LTMLE!C83="rrt","RRT",IF(LTMLE!C83="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C67" t="str">
+        <f>LEFT(LTMLE!D83, FIND("&amp;", LTMLE!D83)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D67" t="str">
+        <f>LTMLE!B83</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E67">
+        <f>VLOOKUP($A67,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP($A67,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <f>VLOOKUP($A67,LTMLE!$A:$L, 7)</f>
+        <v>0.40470193115029501</v>
+      </c>
+      <c r="H67">
+        <f>VLOOKUP($A67,LTMLE!$A:$L, 10)</f>
+        <v>0.38499003447992403</v>
+      </c>
+      <c r="I67">
+        <f>VLOOKUP($A67,LTMLE!$A:$L, 11)</f>
+        <v>0.424413827820665</v>
+      </c>
+      <c r="J67">
+        <f>VLOOKUP($A67,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f>LTMLE!A33</f>
+        <v>32</v>
+      </c>
+      <c r="B68" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D33)), "", "No "),IF(LTMLE!C33="ventilation_bin","Ventilation",IF(LTMLE!C33="rrt","RRT",IF(LTMLE!C33="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C68" t="str">
+        <f>LEFT(LTMLE!D33, FIND("&amp;", LTMLE!D33)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D68" t="str">
+        <f>LTMLE!B33</f>
+        <v>eICU</v>
+      </c>
+      <c r="E68">
+        <f>VLOOKUP($A68,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP($A68,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <f>VLOOKUP($A68,LTMLE!$A:$L, 7)</f>
+        <v>0.104151205451812</v>
+      </c>
+      <c r="H68">
+        <f>VLOOKUP($A68,LTMLE!$A:$L, 10)</f>
+        <v>9.9939944250409599E-2</v>
+      </c>
+      <c r="I68">
+        <f>VLOOKUP($A68,LTMLE!$A:$L, 11)</f>
+        <v>0.108362466653215</v>
+      </c>
+      <c r="J68">
+        <f>VLOOKUP($A68,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L99" si="160">IFERROR(G68/G69,0)</f>
+        <v>1.0761460678154944</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:M99" si="161">IFERROR(H68/H69, 0)</f>
+        <v>1.136147129708754</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N99" si="162">IFERROR(I68/I69, 0)</f>
+        <v>1.0261654116398404</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ref="O68:O99" si="163">IFERROR(J68/J69, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" ref="Q68:Q99" si="164">_xlfn.CONCAT(ROUND(L68, 2), " (", ROUND(N68,2), " - ", ROUND(M68,2),  ")", IF(AND(O68 &lt;0.05, NOT(ISBLANK(O68))), "*", " ") )</f>
+        <v>1.08 (1.03 - 1.14)*</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f>LTMLE!A23</f>
+        <v>22</v>
+      </c>
+      <c r="B69" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D23)), "", "No "),IF(LTMLE!C23="ventilation_bin","Ventilation",IF(LTMLE!C23="rrt","RRT",IF(LTMLE!C23="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C69" t="str">
+        <f>LEFT(LTMLE!D23, FIND("&amp;", LTMLE!D23)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D69" t="str">
+        <f>LTMLE!B23</f>
+        <v>eICU</v>
+      </c>
+      <c r="E69">
+        <f>VLOOKUP($A69,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP($A69,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <f>VLOOKUP($A69,LTMLE!$A:$L, 7)</f>
+        <v>9.6781662421749196E-2</v>
+      </c>
+      <c r="H69">
+        <f>VLOOKUP($A69,LTMLE!$A:$L, 10)</f>
+        <v>8.7963910339701107E-2</v>
+      </c>
+      <c r="I69">
+        <f>VLOOKUP($A69,LTMLE!$A:$L, 11)</f>
+        <v>0.10559941450379701</v>
+      </c>
+      <c r="J69">
+        <f>VLOOKUP($A69,LTMLE!$A:$L, 9)</f>
+        <v>1.19888399365845E-102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f>LTMLE!A94</f>
+        <v>93</v>
+      </c>
+      <c r="B70" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D94)), "", "No "),IF(LTMLE!C94="ventilation_bin","Ventilation",IF(LTMLE!C94="rrt","RRT",IF(LTMLE!C94="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C70" t="str">
+        <f>LEFT(LTMLE!D94, FIND("&amp;", LTMLE!D94)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D70" t="str">
+        <f>LTMLE!B94</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E70">
+        <f>VLOOKUP($A70,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP($A70,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <f>VLOOKUP($A70,LTMLE!$A:$L, 7)</f>
+        <v>0.48738675958189398</v>
+      </c>
+      <c r="H70">
+        <f>VLOOKUP($A70,LTMLE!$A:$L, 10)</f>
+        <v>0.475820564632216</v>
+      </c>
+      <c r="I70">
+        <f>VLOOKUP($A70,LTMLE!$A:$L, 11)</f>
+        <v>0.49895295453157201</v>
+      </c>
+      <c r="J70">
+        <f>VLOOKUP($A70,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ref="L70:L101" si="165">IFERROR(G70/G71,0)</f>
+        <v>0.89717431869998443</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M101" si="166">IFERROR(H70/H71, 0)</f>
+        <v>0.9159515128586988</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N101" si="167">IFERROR(I70/I71, 0)</f>
+        <v>0.87997107976259259</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70:O101" si="168">IFERROR(J70/J71, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" ref="Q70:Q101" si="169">_xlfn.CONCAT(ROUND(L70, 2), " (", ROUND(N70,2), " - ", ROUND(M70,2),  ")", IF(AND(O70 &lt;0.05, NOT(ISBLANK(O70))), "*", " ") )</f>
+        <v>0.9 (0.88 - 0.92)*</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f>LTMLE!A84</f>
+        <v>83</v>
+      </c>
+      <c r="B71" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D84)), "", "No "),IF(LTMLE!C84="ventilation_bin","Ventilation",IF(LTMLE!C84="rrt","RRT",IF(LTMLE!C84="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C71" t="str">
+        <f>LEFT(LTMLE!D84, FIND("&amp;", LTMLE!D84)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D71" t="str">
+        <f>LTMLE!B84</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E71">
+        <f>VLOOKUP($A71,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP($A71,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <f>VLOOKUP($A71,LTMLE!$A:$L, 7)</f>
+        <v>0.54324644544899903</v>
+      </c>
+      <c r="H71">
+        <f>VLOOKUP($A71,LTMLE!$A:$L, 10)</f>
+        <v>0.51948226292805899</v>
+      </c>
+      <c r="I71">
+        <f>VLOOKUP($A71,LTMLE!$A:$L, 11)</f>
+        <v>0.56701062796993795</v>
+      </c>
+      <c r="J71">
+        <f>VLOOKUP($A71,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>LTMLE!A34</f>
+        <v>33</v>
+      </c>
+      <c r="B72" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D34)), "", "No "),IF(LTMLE!C34="ventilation_bin","Ventilation",IF(LTMLE!C34="rrt","RRT",IF(LTMLE!C34="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C72" t="str">
+        <f>LEFT(LTMLE!D34, FIND("&amp;", LTMLE!D34)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D72" t="str">
+        <f>LTMLE!B34</f>
+        <v>eICU</v>
+      </c>
+      <c r="E72">
+        <f>VLOOKUP($A72,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP($A72,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <f>VLOOKUP($A72,LTMLE!$A:$L, 7)</f>
+        <v>0.23423551084066899</v>
+      </c>
+      <c r="H72">
+        <f>VLOOKUP($A72,LTMLE!$A:$L, 10)</f>
+        <v>0.22435377913629301</v>
+      </c>
+      <c r="I72">
+        <f>VLOOKUP($A72,LTMLE!$A:$L, 11)</f>
+        <v>0.24411724254504499</v>
+      </c>
+      <c r="J72">
+        <f>VLOOKUP($A72,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ref="L72:L103" si="170">IFERROR(G72/G73,0)</f>
+        <v>1.0874773983286028</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ref="M72:M103" si="171">IFERROR(H72/H73, 0)</f>
+        <v>1.1441826800033177</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:N103" si="172">IFERROR(I72/I73, 0)</f>
+        <v>1.0401034467307779</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ref="O72:O103" si="173">IFERROR(J72/J73, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" ref="Q72:Q103" si="174">_xlfn.CONCAT(ROUND(L72, 2), " (", ROUND(N72,2), " - ", ROUND(M72,2),  ")", IF(AND(O72 &lt;0.05, NOT(ISBLANK(O72))), "*", " ") )</f>
+        <v>1.09 (1.04 - 1.14)*</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f>LTMLE!A24</f>
+        <v>23</v>
+      </c>
+      <c r="B73" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D24)), "", "No "),IF(LTMLE!C24="ventilation_bin","Ventilation",IF(LTMLE!C24="rrt","RRT",IF(LTMLE!C24="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C73" t="str">
+        <f>LEFT(LTMLE!D24, FIND("&amp;", LTMLE!D24)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D73" t="str">
+        <f>LTMLE!B24</f>
+        <v>eICU</v>
+      </c>
+      <c r="E73">
+        <f>VLOOKUP($A73,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP($A73,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <f>VLOOKUP($A73,LTMLE!$A:$L, 7)</f>
+        <v>0.215393452039258</v>
+      </c>
+      <c r="H73">
+        <f>VLOOKUP($A73,LTMLE!$A:$L, 10)</f>
+        <v>0.19608213186345599</v>
+      </c>
+      <c r="I73">
+        <f>VLOOKUP($A73,LTMLE!$A:$L, 11)</f>
+        <v>0.234704772215059</v>
+      </c>
+      <c r="J73">
+        <f>VLOOKUP($A73,LTMLE!$A:$L, 9)</f>
+        <v>6.11856147717173E-106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f>LTMLE!A95</f>
+        <v>94</v>
+      </c>
+      <c r="B74" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D95)), "", "No "),IF(LTMLE!C95="ventilation_bin","Ventilation",IF(LTMLE!C95="rrt","RRT",IF(LTMLE!C95="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C74" t="str">
+        <f>LEFT(LTMLE!D95, FIND("&amp;", LTMLE!D95)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D74" t="str">
+        <f>LTMLE!B95</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E74">
+        <f>VLOOKUP($A74,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP($A74,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <f>VLOOKUP($A74,LTMLE!$A:$L, 7)</f>
+        <v>0.64845474613685405</v>
+      </c>
+      <c r="H74">
+        <f>VLOOKUP($A74,LTMLE!$A:$L, 10)</f>
+        <v>0.62646759453114298</v>
+      </c>
+      <c r="I74">
+        <f>VLOOKUP($A74,LTMLE!$A:$L, 11)</f>
+        <v>0.67044189774256502</v>
+      </c>
+      <c r="J74">
+        <f>VLOOKUP($A74,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74:L121" si="175">IFERROR(G74/G75,0)</f>
+        <v>1.0258512382615368</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74:M120" si="176">IFERROR(H74/H75, 0)</f>
+        <v>1.0627169760214794</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74:N120" si="177">IFERROR(I74/I75, 0)</f>
+        <v>0.99364255586587502</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ref="O74:O120" si="178">IFERROR(J74/J75, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" ref="Q74:Q120" si="179">_xlfn.CONCAT(ROUND(L74, 2), " (", ROUND(N74,2), " - ", ROUND(M74,2),  ")", IF(AND(O74 &lt;0.05, NOT(ISBLANK(O74))), "*", " ") )</f>
+        <v>1.03 (0.99 - 1.06)*</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f>LTMLE!A85</f>
+        <v>84</v>
+      </c>
+      <c r="B75" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D85)), "", "No "),IF(LTMLE!C85="ventilation_bin","Ventilation",IF(LTMLE!C85="rrt","RRT",IF(LTMLE!C85="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C75" t="str">
+        <f>LEFT(LTMLE!D85, FIND("&amp;", LTMLE!D85)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D75" t="str">
+        <f>LTMLE!B85</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E75">
+        <f>VLOOKUP($A75,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP($A75,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <f>VLOOKUP($A75,LTMLE!$A:$L, 7)</f>
+        <v>0.63211382113820003</v>
+      </c>
+      <c r="H75">
+        <f>VLOOKUP($A75,LTMLE!$A:$L, 10)</f>
+        <v>0.58949617693740597</v>
+      </c>
+      <c r="I75">
+        <f>VLOOKUP($A75,LTMLE!$A:$L, 11)</f>
+        <v>0.67473146533899397</v>
+      </c>
+      <c r="J75">
+        <f>VLOOKUP($A75,LTMLE!$A:$L, 9)</f>
+        <v>8.4515390393597607E-186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f>LTMLE!A35</f>
+        <v>34</v>
+      </c>
+      <c r="B76" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D35)), "", "No "),IF(LTMLE!C35="ventilation_bin","Ventilation",IF(LTMLE!C35="rrt","RRT",IF(LTMLE!C35="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C76" t="str">
+        <f>LEFT(LTMLE!D35, FIND("&amp;", LTMLE!D35)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D76" t="str">
+        <f>LTMLE!B35</f>
+        <v>eICU</v>
+      </c>
+      <c r="E76">
+        <f>VLOOKUP($A76,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP($A76,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <f>VLOOKUP($A76,LTMLE!$A:$L, 7)</f>
+        <v>0.52403846153763201</v>
+      </c>
+      <c r="H76">
+        <f>VLOOKUP($A76,LTMLE!$A:$L, 10)</f>
+        <v>0.49367738909548597</v>
+      </c>
+      <c r="I76">
+        <f>VLOOKUP($A76,LTMLE!$A:$L, 11)</f>
+        <v>0.55439953397977804</v>
+      </c>
+      <c r="J76">
+        <f>VLOOKUP($A76,LTMLE!$A:$L, 9)</f>
+        <v>7.2943952030367593E-251</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ref="L76:L121" si="180">IFERROR(G76/G77,0)</f>
+        <v>0.92314060111927043</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76:M120" si="181">IFERROR(H76/H77, 0)</f>
+        <v>0.97157781228591689</v>
+      </c>
+      <c r="N76">
+        <f t="shared" ref="N76:N120" si="182">IFERROR(I76/I77, 0)</f>
+        <v>0.88390091668631821</v>
+      </c>
+      <c r="O76">
+        <f t="shared" ref="O76:O120" si="183">IFERROR(J76/J77, 0)</f>
+        <v>1.084939084261182E-173</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" ref="Q76:Q120" si="184">_xlfn.CONCAT(ROUND(L76, 2), " (", ROUND(N76,2), " - ", ROUND(M76,2),  ")", IF(AND(O76 &lt;0.05, NOT(ISBLANK(O76))), "*", " ") )</f>
+        <v>0.92 (0.88 - 0.97)*</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>LTMLE!A25</f>
+        <v>24</v>
+      </c>
+      <c r="B77" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D25)), "", "No "),IF(LTMLE!C25="ventilation_bin","Ventilation",IF(LTMLE!C25="rrt","RRT",IF(LTMLE!C25="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C77" t="str">
+        <f>LEFT(LTMLE!D25, FIND("&amp;", LTMLE!D25)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D77" t="str">
+        <f>LTMLE!B25</f>
+        <v>eICU</v>
+      </c>
+      <c r="E77">
+        <f>VLOOKUP($A77,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP($A77,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G77">
+        <f>VLOOKUP($A77,LTMLE!$A:$L, 7)</f>
+        <v>0.56766917293233199</v>
+      </c>
+      <c r="H77">
+        <f>VLOOKUP($A77,LTMLE!$A:$L, 10)</f>
+        <v>0.50811924979427803</v>
+      </c>
+      <c r="I77">
+        <f>VLOOKUP($A77,LTMLE!$A:$L, 11)</f>
+        <v>0.62721909607038595</v>
+      </c>
+      <c r="J77">
+        <f>VLOOKUP($A77,LTMLE!$A:$L, 9)</f>
+        <v>6.72332235869636E-78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>LTMLE!A96</f>
+        <v>95</v>
+      </c>
+      <c r="B78" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D96)), "", "No "),IF(LTMLE!C96="ventilation_bin","Ventilation",IF(LTMLE!C96="rrt","RRT",IF(LTMLE!C96="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C78" t="str">
+        <f>LEFT(LTMLE!D96, FIND("&amp;", LTMLE!D96)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D78" t="str">
+        <f>LTMLE!B96</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E78">
+        <f>VLOOKUP($A78,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP($A78,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <f>VLOOKUP($A78,LTMLE!$A:$L, 7)</f>
+        <v>0.80526315789472203</v>
+      </c>
+      <c r="H78">
+        <f>VLOOKUP($A78,LTMLE!$A:$L, 10)</f>
+        <v>0.74890493455201501</v>
+      </c>
+      <c r="I78">
+        <f>VLOOKUP($A78,LTMLE!$A:$L, 11)</f>
+        <v>0.86162138123742804</v>
+      </c>
+      <c r="J78">
+        <f>VLOOKUP($A78,LTMLE!$A:$L, 9)</f>
+        <v>1.4301001472263699E-172</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:L121" si="185">IFERROR(G78/G79,0)</f>
+        <v>1.0146315789477189</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ref="M78:M120" si="186">IFERROR(H78/H79, 0)</f>
+        <v>1.0796881736601824</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N78:N120" si="187">IFERROR(I78/I79, 0)</f>
+        <v>0.96413730912602147</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78:O120" si="188">IFERROR(J78/J79, 0)</f>
+        <v>9.2959534633768579E-119</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" ref="Q78:Q120" si="189">_xlfn.CONCAT(ROUND(L78, 2), " (", ROUND(N78,2), " - ", ROUND(M78,2),  ")", IF(AND(O78 &lt;0.05, NOT(ISBLANK(O78))), "*", " ") )</f>
+        <v>1.01 (0.96 - 1.08)*</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f>LTMLE!A86</f>
+        <v>85</v>
+      </c>
+      <c r="B79" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D86)), "", "No "),IF(LTMLE!C86="ventilation_bin","Ventilation",IF(LTMLE!C86="rrt","RRT",IF(LTMLE!C86="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C79" t="str">
+        <f>LEFT(LTMLE!D86, FIND("&amp;", LTMLE!D86)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D79" t="str">
+        <f>LTMLE!B86</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E79">
+        <f>VLOOKUP($A79,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP($A79,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G79">
+        <f>VLOOKUP($A79,LTMLE!$A:$L, 7)</f>
+        <v>0.79365079365050495</v>
+      </c>
+      <c r="H79">
+        <f>VLOOKUP($A79,LTMLE!$A:$L, 10)</f>
+        <v>0.69363076564338</v>
+      </c>
+      <c r="I79">
+        <f>VLOOKUP($A79,LTMLE!$A:$L, 11)</f>
+        <v>0.89367082165763001</v>
+      </c>
+      <c r="J79">
+        <f>VLOOKUP($A79,LTMLE!$A:$L, 9)</f>
+        <v>1.5384114742619099E-54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>LTMLE!A36</f>
+        <v>35</v>
+      </c>
+      <c r="B80" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D36)), "", "No "),IF(LTMLE!C36="ventilation_bin","Ventilation",IF(LTMLE!C36="rrt","RRT",IF(LTMLE!C36="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C80" t="str">
+        <f>LEFT(LTMLE!D36, FIND("&amp;", LTMLE!D36)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D80" t="str">
+        <f>LTMLE!B36</f>
+        <v>eICU</v>
+      </c>
+      <c r="E80">
+        <f>VLOOKUP($A80,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP($A80,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G80">
+        <f>VLOOKUP($A80,LTMLE!$A:$L, 7)</f>
+        <v>0.79452054794489602</v>
+      </c>
+      <c r="H80">
+        <f>VLOOKUP($A80,LTMLE!$A:$L, 10)</f>
+        <v>0.70154516049968896</v>
+      </c>
+      <c r="I80">
+        <f>VLOOKUP($A80,LTMLE!$A:$L, 11)</f>
+        <v>0.88749593539010196</v>
+      </c>
+      <c r="J80">
+        <f>VLOOKUP($A80,LTMLE!$A:$L, 9)</f>
+        <v>5.7722744401177402E-63</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ref="L80:L121" si="190">IFERROR(G80/G81,0)</f>
+        <v>1.3242009132415242</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ref="M80:M120" si="191">IFERROR(H80/H81, 0)</f>
+        <v>2.3747207090102829</v>
+      </c>
+      <c r="N80">
+        <f t="shared" ref="N80:N120" si="192">IFERROR(I80/I81, 0)</f>
+        <v>0.98111617636475645</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ref="O80:O120" si="193">IFERROR(J80/J81, 0)</f>
+        <v>5.1118843147823643E-59</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" ref="Q80:Q120" si="194">_xlfn.CONCAT(ROUND(L80, 2), " (", ROUND(N80,2), " - ", ROUND(M80,2),  ")", IF(AND(O80 &lt;0.05, NOT(ISBLANK(O80))), "*", " ") )</f>
+        <v>1.32 (0.98 - 2.37)*</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f>LTMLE!A26</f>
+        <v>25</v>
+      </c>
+      <c r="B81" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D26)), "", "No "),IF(LTMLE!C26="ventilation_bin","Ventilation",IF(LTMLE!C26="rrt","RRT",IF(LTMLE!C26="pressor","Vasopressor",""))))</f>
+        <v>No RRT</v>
+      </c>
+      <c r="C81" t="str">
+        <f>LEFT(LTMLE!D26, FIND("&amp;", LTMLE!D26)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D81" t="str">
+        <f>LTMLE!B26</f>
+        <v>eICU</v>
+      </c>
+      <c r="E81">
+        <f>VLOOKUP($A81,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <f>VLOOKUP($A81,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G81">
+        <f>VLOOKUP($A81,LTMLE!$A:$L, 7)</f>
+        <v>0.59999999999998599</v>
+      </c>
+      <c r="H81">
+        <f>VLOOKUP($A81,LTMLE!$A:$L, 10)</f>
+        <v>0.29542217652705499</v>
+      </c>
+      <c r="I81">
+        <f>VLOOKUP($A81,LTMLE!$A:$L, 11)</f>
+        <v>0.90457782347291704</v>
+      </c>
+      <c r="J81">
+        <f>VLOOKUP($A81,LTMLE!$A:$L, 9)</f>
+        <v>1.12918722034176E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f>LTMLE!A117</f>
+        <v>116</v>
+      </c>
+      <c r="B82" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D117)), "", "No "),IF(LTMLE!C117="ventilation_bin","Ventilation",IF(LTMLE!C117="rrt","RRT",IF(LTMLE!C117="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C82" t="str">
+        <f>LEFT(LTMLE!D117, FIND("&amp;", LTMLE!D117)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D82" t="str">
+        <f>LTMLE!B117</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E82">
+        <f>VLOOKUP($A82,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP($A82,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G82">
+        <f>VLOOKUP($A82,LTMLE!$A:$L, 7)</f>
+        <v>0.459900103694943</v>
+      </c>
+      <c r="H82">
+        <f>VLOOKUP($A82,LTMLE!$A:$L, 10)</f>
+        <v>0.45041708150109899</v>
+      </c>
+      <c r="I82">
+        <f>VLOOKUP($A82,LTMLE!$A:$L, 11)</f>
+        <v>0.469383125888788</v>
+      </c>
+      <c r="J82">
+        <f>VLOOKUP($A82,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82:L121" si="195">IFERROR(G82/G83,0)</f>
+        <v>0.88336108324441998</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ref="M82:M120" si="196">IFERROR(H82/H83, 0)</f>
+        <v>0.90043517651829319</v>
+      </c>
+      <c r="N82">
+        <f t="shared" ref="N82:N120" si="197">IFERROR(I82/I83, 0)</f>
+        <v>0.86757481377795453</v>
+      </c>
+      <c r="O82">
+        <f t="shared" ref="O82:O120" si="198">IFERROR(J82/J83, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" ref="Q82:Q120" si="199">_xlfn.CONCAT(ROUND(L82, 2), " (", ROUND(N82,2), " - ", ROUND(M82,2),  ")", IF(AND(O82 &lt;0.05, NOT(ISBLANK(O82))), "*", " ") )</f>
+        <v>0.88 (0.87 - 0.9)*</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f>LTMLE!A107</f>
+        <v>106</v>
+      </c>
+      <c r="B83" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D107)), "", "No "),IF(LTMLE!C107="ventilation_bin","Ventilation",IF(LTMLE!C107="rrt","RRT",IF(LTMLE!C107="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C83" t="str">
+        <f>LEFT(LTMLE!D107, FIND("&amp;", LTMLE!D107)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D83" t="str">
+        <f>LTMLE!B107</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E83">
+        <f>VLOOKUP($A83,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP($A83,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G83">
+        <f>VLOOKUP($A83,LTMLE!$A:$L, 7)</f>
+        <v>0.52062527138485204</v>
+      </c>
+      <c r="H83">
+        <f>VLOOKUP($A83,LTMLE!$A:$L, 10)</f>
+        <v>0.50022155203079</v>
+      </c>
+      <c r="I83">
+        <f>VLOOKUP($A83,LTMLE!$A:$L, 11)</f>
+        <v>0.54102899073891397</v>
+      </c>
+      <c r="J83">
+        <f>VLOOKUP($A83,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f>LTMLE!A57</f>
+        <v>56</v>
+      </c>
+      <c r="B84" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D57)), "", "No "),IF(LTMLE!C57="ventilation_bin","Ventilation",IF(LTMLE!C57="rrt","RRT",IF(LTMLE!C57="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C84" t="str">
+        <f>LEFT(LTMLE!D57, FIND("&amp;", LTMLE!D57)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D84" t="str">
+        <f>LTMLE!B57</f>
+        <v>eICU</v>
+      </c>
+      <c r="E84">
+        <f>VLOOKUP($A84,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP($A84,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G84">
+        <f>VLOOKUP($A84,LTMLE!$A:$L, 7)</f>
+        <v>0.26943201638039099</v>
+      </c>
+      <c r="H84">
+        <f>VLOOKUP($A84,LTMLE!$A:$L, 10)</f>
+        <v>0.26185957825113598</v>
+      </c>
+      <c r="I84">
+        <f>VLOOKUP($A84,LTMLE!$A:$L, 11)</f>
+        <v>0.277004454509646</v>
+      </c>
+      <c r="J84">
+        <f>VLOOKUP($A84,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" ref="L84:L121" si="200">IFERROR(G84/G85,0)</f>
+        <v>0.95226979249042254</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ref="M84:M120" si="201">IFERROR(H84/H85, 0)</f>
+        <v>0.98158356811466829</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ref="N84:N120" si="202">IFERROR(I84/I85, 0)</f>
+        <v>0.9261243794246915</v>
+      </c>
+      <c r="O84">
+        <f t="shared" ref="O84:O120" si="203">IFERROR(J84/J85, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" ref="Q84:Q120" si="204">_xlfn.CONCAT(ROUND(L84, 2), " (", ROUND(N84,2), " - ", ROUND(M84,2),  ")", IF(AND(O84 &lt;0.05, NOT(ISBLANK(O84))), "*", " ") )</f>
+        <v>0.95 (0.93 - 0.98)*</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f>LTMLE!A47</f>
+        <v>46</v>
+      </c>
+      <c r="B85" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D47)), "", "No "),IF(LTMLE!C47="ventilation_bin","Ventilation",IF(LTMLE!C47="rrt","RRT",IF(LTMLE!C47="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C85" t="str">
+        <f>LEFT(LTMLE!D47, FIND("&amp;", LTMLE!D47)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D85" t="str">
+        <f>LTMLE!B47</f>
+        <v>eICU</v>
+      </c>
+      <c r="E85">
+        <f>VLOOKUP($A85,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP($A85,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G85">
+        <f>VLOOKUP($A85,LTMLE!$A:$L, 7)</f>
+        <v>0.282936640965749</v>
+      </c>
+      <c r="H85">
+        <f>VLOOKUP($A85,LTMLE!$A:$L, 10)</f>
+        <v>0.26677257724891501</v>
+      </c>
+      <c r="I85">
+        <f>VLOOKUP($A85,LTMLE!$A:$L, 11)</f>
+        <v>0.29910070468258398</v>
+      </c>
+      <c r="J85">
+        <f>VLOOKUP($A85,LTMLE!$A:$L, 9)</f>
+        <v>6.1044848175386298E-258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>LTMLE!A118</f>
+        <v>117</v>
+      </c>
+      <c r="B86" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D118)), "", "No "),IF(LTMLE!C118="ventilation_bin","Ventilation",IF(LTMLE!C118="rrt","RRT",IF(LTMLE!C118="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C86" t="str">
+        <f>LEFT(LTMLE!D118, FIND("&amp;", LTMLE!D118)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D86" t="str">
+        <f>LTMLE!B118</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E86">
+        <f>VLOOKUP($A86,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP($A86,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <f>VLOOKUP($A86,LTMLE!$A:$L, 7)</f>
+        <v>0.283435582822466</v>
+      </c>
+      <c r="H86">
+        <f>VLOOKUP($A86,LTMLE!$A:$L, 10)</f>
+        <v>0.26796486652847801</v>
+      </c>
+      <c r="I86">
+        <f>VLOOKUP($A86,LTMLE!$A:$L, 11)</f>
+        <v>0.298906299116454</v>
+      </c>
+      <c r="J86">
+        <f>VLOOKUP($A86,LTMLE!$A:$L, 9)</f>
+        <v>2.2859721815000399E-282</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ref="L86:L121" si="205">IFERROR(G86/G87,0)</f>
+        <v>0.98635582822087542</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86:M120" si="206">IFERROR(H86/H87, 0)</f>
+        <v>1.0781796976857136</v>
+      </c>
+      <c r="N86">
+        <f t="shared" ref="N86:N120" si="207">IFERROR(I86/I87, 0)</f>
+        <v>0.91638976183440757</v>
+      </c>
+      <c r="O86">
+        <f t="shared" ref="O86:O120" si="208">IFERROR(J86/J87, 0)</f>
+        <v>2.1053244919759608E-235</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" ref="Q86:Q120" si="209">_xlfn.CONCAT(ROUND(L86, 2), " (", ROUND(N86,2), " - ", ROUND(M86,2),  ")", IF(AND(O86 &lt;0.05, NOT(ISBLANK(O86))), "*", " ") )</f>
+        <v>0.99 (0.92 - 1.08)*</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f>LTMLE!A108</f>
+        <v>107</v>
+      </c>
+      <c r="B87" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D108)), "", "No "),IF(LTMLE!C108="ventilation_bin","Ventilation",IF(LTMLE!C108="rrt","RRT",IF(LTMLE!C108="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C87" t="str">
+        <f>LEFT(LTMLE!D108, FIND("&amp;", LTMLE!D108)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D87" t="str">
+        <f>LTMLE!B108</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E87">
+        <f>VLOOKUP($A87,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP($A87,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f>VLOOKUP($A87,LTMLE!$A:$L, 7)</f>
+        <v>0.28735632183946103</v>
+      </c>
+      <c r="H87">
+        <f>VLOOKUP($A87,LTMLE!$A:$L, 10)</f>
+        <v>0.24853451340593599</v>
+      </c>
+      <c r="I87">
+        <f>VLOOKUP($A87,LTMLE!$A:$L, 11)</f>
+        <v>0.32617813027298598</v>
+      </c>
+      <c r="J87">
+        <f>VLOOKUP($A87,LTMLE!$A:$L, 9)</f>
+        <v>1.08580515270334E-47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f>LTMLE!A58</f>
+        <v>57</v>
+      </c>
+      <c r="B88" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D58)), "", "No "),IF(LTMLE!C58="ventilation_bin","Ventilation",IF(LTMLE!C58="rrt","RRT",IF(LTMLE!C58="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C88" t="str">
+        <f>LEFT(LTMLE!D58, FIND("&amp;", LTMLE!D58)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D88" t="str">
+        <f>LTMLE!B58</f>
+        <v>eICU</v>
+      </c>
+      <c r="E88">
+        <f>VLOOKUP($A88,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>VLOOKUP($A88,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <f>VLOOKUP($A88,LTMLE!$A:$L, 7)</f>
+        <v>0.18866483348600399</v>
+      </c>
+      <c r="H88">
+        <f>VLOOKUP($A88,LTMLE!$A:$L, 10)</f>
+        <v>0.179186888092564</v>
+      </c>
+      <c r="I88">
+        <f>VLOOKUP($A88,LTMLE!$A:$L, 11)</f>
+        <v>0.19814277887944501</v>
+      </c>
+      <c r="J88">
+        <f>VLOOKUP($A88,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" ref="L88:L121" si="210">IFERROR(G88/G89,0)</f>
+        <v>0.95055270511126289</v>
+      </c>
+      <c r="M88">
+        <f t="shared" ref="M88:M120" si="211">IFERROR(H88/H89, 0)</f>
+        <v>1.0128068536363386</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88:N120" si="212">IFERROR(I88/I89, 0)</f>
+        <v>0.90049718229083053</v>
+      </c>
+      <c r="O88">
+        <f t="shared" ref="O88:O120" si="213">IFERROR(J88/J89, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" ref="Q88:Q120" si="214">_xlfn.CONCAT(ROUND(L88, 2), " (", ROUND(N88,2), " - ", ROUND(M88,2),  ")", IF(AND(O88 &lt;0.05, NOT(ISBLANK(O88))), "*", " ") )</f>
+        <v>0.95 (0.9 - 1.01)*</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f>LTMLE!A48</f>
+        <v>47</v>
+      </c>
+      <c r="B89" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D48)), "", "No "),IF(LTMLE!C48="ventilation_bin","Ventilation",IF(LTMLE!C48="rrt","RRT",IF(LTMLE!C48="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C89" t="str">
+        <f>LEFT(LTMLE!D48, FIND("&amp;", LTMLE!D48)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D89" t="str">
+        <f>LTMLE!B48</f>
+        <v>eICU</v>
+      </c>
+      <c r="E89">
+        <f>VLOOKUP($A89,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP($A89,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <f>VLOOKUP($A89,LTMLE!$A:$L, 7)</f>
+        <v>0.198479087452516</v>
+      </c>
+      <c r="H89">
+        <f>VLOOKUP($A89,LTMLE!$A:$L, 10)</f>
+        <v>0.176921085643545</v>
+      </c>
+      <c r="I89">
+        <f>VLOOKUP($A89,LTMLE!$A:$L, 11)</f>
+        <v>0.22003708926148699</v>
+      </c>
+      <c r="J89">
+        <f>VLOOKUP($A89,LTMLE!$A:$L, 9)</f>
+        <v>8.6529939753608303E-73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f>LTMLE!A119</f>
+        <v>118</v>
+      </c>
+      <c r="B90" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D119)), "", "No "),IF(LTMLE!C119="ventilation_bin","Ventilation",IF(LTMLE!C119="rrt","RRT",IF(LTMLE!C119="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C90" t="str">
+        <f>LEFT(LTMLE!D119, FIND("&amp;", LTMLE!D119)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D90" t="str">
+        <f>LTMLE!B119</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E90">
+        <f>VLOOKUP($A90,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP($A90,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <f>VLOOKUP($A90,LTMLE!$A:$L, 7)</f>
+        <v>0.46641556811896401</v>
+      </c>
+      <c r="H90">
+        <f>VLOOKUP($A90,LTMLE!$A:$L, 10)</f>
+        <v>0.45227101390574198</v>
+      </c>
+      <c r="I90">
+        <f>VLOOKUP($A90,LTMLE!$A:$L, 11)</f>
+        <v>0.48056012233218598</v>
+      </c>
+      <c r="J90">
+        <f>VLOOKUP($A90,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L90:L121" si="215">IFERROR(G90/G91,0)</f>
+        <v>0.89541346939310495</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ref="M90:M120" si="216">IFERROR(H90/H91, 0)</f>
+        <v>0.92230695762096448</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ref="N90:N120" si="217">IFERROR(I90/I91, 0)</f>
+        <v>0.87149745534439615</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ref="O90:O120" si="218">IFERROR(J90/J91, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" ref="Q90:Q120" si="219">_xlfn.CONCAT(ROUND(L90, 2), " (", ROUND(N90,2), " - ", ROUND(M90,2),  ")", IF(AND(O90 &lt;0.05, NOT(ISBLANK(O90))), "*", " ") )</f>
+        <v>0.9 (0.87 - 0.92)*</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f>LTMLE!A109</f>
+        <v>108</v>
+      </c>
+      <c r="B91" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D109)), "", "No "),IF(LTMLE!C109="ventilation_bin","Ventilation",IF(LTMLE!C109="rrt","RRT",IF(LTMLE!C109="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C91" t="str">
+        <f>LEFT(LTMLE!D109, FIND("&amp;", LTMLE!D109)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D91" t="str">
+        <f>LTMLE!B109</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E91">
+        <f>VLOOKUP($A91,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP($A91,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <f>VLOOKUP($A91,LTMLE!$A:$L, 7)</f>
+        <v>0.52089407191416504</v>
+      </c>
+      <c r="H91">
+        <f>VLOOKUP($A91,LTMLE!$A:$L, 10)</f>
+        <v>0.49036929643504801</v>
+      </c>
+      <c r="I91">
+        <f>VLOOKUP($A91,LTMLE!$A:$L, 11)</f>
+        <v>0.55141884739328295</v>
+      </c>
+      <c r="J91">
+        <f>VLOOKUP($A91,LTMLE!$A:$L, 9)</f>
+        <v>2.93616060080857E-245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>LTMLE!A59</f>
+        <v>58</v>
+      </c>
+      <c r="B92" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D59)), "", "No "),IF(LTMLE!C59="ventilation_bin","Ventilation",IF(LTMLE!C59="rrt","RRT",IF(LTMLE!C59="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C92" t="str">
+        <f>LEFT(LTMLE!D59, FIND("&amp;", LTMLE!D59)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D92" t="str">
+        <f>LTMLE!B59</f>
+        <v>eICU</v>
+      </c>
+      <c r="E92">
+        <f>VLOOKUP($A92,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP($A92,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <f>VLOOKUP($A92,LTMLE!$A:$L, 7)</f>
+        <v>0.295050270688613</v>
+      </c>
+      <c r="H92">
+        <f>VLOOKUP($A92,LTMLE!$A:$L, 10)</f>
+        <v>0.28262038993705202</v>
+      </c>
+      <c r="I92">
+        <f>VLOOKUP($A92,LTMLE!$A:$L, 11)</f>
+        <v>0.30748015144017399</v>
+      </c>
+      <c r="J92">
+        <f>VLOOKUP($A92,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ref="L92:L121" si="220">IFERROR(G92/G93,0)</f>
+        <v>1.0111537128096928</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ref="M92:M120" si="221">IFERROR(H92/H93, 0)</f>
+        <v>1.0584763611025949</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ref="N92:N120" si="222">IFERROR(I92/I93, 0)</f>
+        <v>0.97124187897000092</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ref="O92:O120" si="223">IFERROR(J92/J93, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" ref="Q92:Q120" si="224">_xlfn.CONCAT(ROUND(L92, 2), " (", ROUND(N92,2), " - ", ROUND(M92,2),  ")", IF(AND(O92 &lt;0.05, NOT(ISBLANK(O92))), "*", " ") )</f>
+        <v>1.01 (0.97 - 1.06)*</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f>LTMLE!A49</f>
+        <v>48</v>
+      </c>
+      <c r="B93" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D49)), "", "No "),IF(LTMLE!C49="ventilation_bin","Ventilation",IF(LTMLE!C49="rrt","RRT",IF(LTMLE!C49="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C93" t="str">
+        <f>LEFT(LTMLE!D49, FIND("&amp;", LTMLE!D49)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D93" t="str">
+        <f>LTMLE!B49</f>
+        <v>eICU</v>
+      </c>
+      <c r="E93">
+        <f>VLOOKUP($A93,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP($A93,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <f>VLOOKUP($A93,LTMLE!$A:$L, 7)</f>
+        <v>0.29179566563500697</v>
+      </c>
+      <c r="H93">
+        <f>VLOOKUP($A93,LTMLE!$A:$L, 10)</f>
+        <v>0.26700680366886198</v>
+      </c>
+      <c r="I93">
+        <f>VLOOKUP($A93,LTMLE!$A:$L, 11)</f>
+        <v>0.31658452760115302</v>
+      </c>
+      <c r="J93">
+        <f>VLOOKUP($A93,LTMLE!$A:$L, 9)</f>
+        <v>9.0112183483361105E-118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f>LTMLE!A120</f>
+        <v>119</v>
+      </c>
+      <c r="B94" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D120)), "", "No "),IF(LTMLE!C120="ventilation_bin","Ventilation",IF(LTMLE!C120="rrt","RRT",IF(LTMLE!C120="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C94" t="str">
+        <f>LEFT(LTMLE!D120, FIND("&amp;", LTMLE!D120)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D94" t="str">
+        <f>LTMLE!B120</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E94">
+        <f>VLOOKUP($A94,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP($A94,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G94">
+        <f>VLOOKUP($A94,LTMLE!$A:$L, 7)</f>
+        <v>0.65604801477375496</v>
+      </c>
+      <c r="H94">
+        <f>VLOOKUP($A94,LTMLE!$A:$L, 10)</f>
+        <v>0.63603994888938498</v>
+      </c>
+      <c r="I94">
+        <f>VLOOKUP($A94,LTMLE!$A:$L, 11)</f>
+        <v>0.67605608065812595</v>
+      </c>
+      <c r="J94">
+        <f>VLOOKUP($A94,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ref="L94:L121" si="225">IFERROR(G94/G95,0)</f>
+        <v>0.97692379923945527</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ref="M94:M120" si="226">IFERROR(H94/H95, 0)</f>
+        <v>1.0025524217527779</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ref="N94:N120" si="227">IFERROR(I94/I95, 0)</f>
+        <v>0.95398032084906148</v>
+      </c>
+      <c r="O94">
+        <f t="shared" ref="O94:O120" si="228">IFERROR(J94/J95, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" ref="Q94:Q120" si="229">_xlfn.CONCAT(ROUND(L94, 2), " (", ROUND(N94,2), " - ", ROUND(M94,2),  ")", IF(AND(O94 &lt;0.05, NOT(ISBLANK(O94))), "*", " ") )</f>
+        <v>0.98 (0.95 - 1)*</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f>LTMLE!A110</f>
+        <v>109</v>
+      </c>
+      <c r="B95" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D110)), "", "No "),IF(LTMLE!C110="ventilation_bin","Ventilation",IF(LTMLE!C110="rrt","RRT",IF(LTMLE!C110="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C95" t="str">
+        <f>LEFT(LTMLE!D110, FIND("&amp;", LTMLE!D110)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D95" t="str">
+        <f>LTMLE!B110</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E95">
+        <f>VLOOKUP($A95,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <f>VLOOKUP($A95,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G95">
+        <f>VLOOKUP($A95,LTMLE!$A:$L, 7)</f>
+        <v>0.67154471544709504</v>
+      </c>
+      <c r="H95">
+        <f>VLOOKUP($A95,LTMLE!$A:$L, 10)</f>
+        <v>0.63442063984782604</v>
+      </c>
+      <c r="I95">
+        <f>VLOOKUP($A95,LTMLE!$A:$L, 11)</f>
+        <v>0.70866879104636304</v>
+      </c>
+      <c r="J95">
+        <f>VLOOKUP($A95,LTMLE!$A:$L, 9)</f>
+        <v>2.5013429148203E-275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f>LTMLE!A60</f>
+        <v>59</v>
+      </c>
+      <c r="B96" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D60)), "", "No "),IF(LTMLE!C60="ventilation_bin","Ventilation",IF(LTMLE!C60="rrt","RRT",IF(LTMLE!C60="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C96" t="str">
+        <f>LEFT(LTMLE!D60, FIND("&amp;", LTMLE!D60)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D96" t="str">
+        <f>LTMLE!B60</f>
+        <v>eICU</v>
+      </c>
+      <c r="E96">
+        <f>VLOOKUP($A96,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP($A96,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <f>VLOOKUP($A96,LTMLE!$A:$L, 7)</f>
+        <v>0.52102102102069903</v>
+      </c>
+      <c r="H96">
+        <f>VLOOKUP($A96,LTMLE!$A:$L, 10)</f>
+        <v>0.49418611963060999</v>
+      </c>
+      <c r="I96">
+        <f>VLOOKUP($A96,LTMLE!$A:$L, 11)</f>
+        <v>0.54785592241078696</v>
+      </c>
+      <c r="J96">
+        <f>VLOOKUP($A96,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ref="L96:L121" si="230">IFERROR(G96/G97,0)</f>
+        <v>0.96251778100099461</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ref="M96:M120" si="231">IFERROR(H96/H97, 0)</f>
+        <v>1.0102592567033009</v>
+      </c>
+      <c r="N96">
+        <f t="shared" ref="N96:N120" si="232">IFERROR(I96/I97, 0)</f>
+        <v>0.92316577479430117</v>
+      </c>
+      <c r="O96">
+        <f t="shared" ref="O96:O120" si="233">IFERROR(J96/J97, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" ref="Q96:Q120" si="234">_xlfn.CONCAT(ROUND(L96, 2), " (", ROUND(N96,2), " - ", ROUND(M96,2),  ")", IF(AND(O96 &lt;0.05, NOT(ISBLANK(O96))), "*", " ") )</f>
+        <v>0.96 (0.92 - 1.01)*</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f>LTMLE!A50</f>
+        <v>49</v>
+      </c>
+      <c r="B97" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D50)), "", "No "),IF(LTMLE!C50="ventilation_bin","Ventilation",IF(LTMLE!C50="rrt","RRT",IF(LTMLE!C50="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C97" t="str">
+        <f>LEFT(LTMLE!D50, FIND("&amp;", LTMLE!D50)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D97" t="str">
+        <f>LTMLE!B50</f>
+        <v>eICU</v>
+      </c>
+      <c r="E97">
+        <f>VLOOKUP($A97,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <f>VLOOKUP($A97,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <f>VLOOKUP($A97,LTMLE!$A:$L, 7)</f>
+        <v>0.54131054127524802</v>
+      </c>
+      <c r="H97">
+        <f>VLOOKUP($A97,LTMLE!$A:$L, 10)</f>
+        <v>0.48916762341109199</v>
+      </c>
+      <c r="I97">
+        <f>VLOOKUP($A97,LTMLE!$A:$L, 11)</f>
+        <v>0.59345345913940495</v>
+      </c>
+      <c r="J97">
+        <f>VLOOKUP($A97,LTMLE!$A:$L, 9)</f>
+        <v>4.9410967485680802E-92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>LTMLE!A121</f>
+        <v>120</v>
+      </c>
+      <c r="B98" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D121)), "", "No "),IF(LTMLE!C121="ventilation_bin","Ventilation",IF(LTMLE!C121="rrt","RRT",IF(LTMLE!C121="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C98" t="str">
+        <f>LEFT(LTMLE!D121, FIND("&amp;", LTMLE!D121)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D98" t="str">
+        <f>LTMLE!B121</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E98">
+        <f>VLOOKUP($A98,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <f>VLOOKUP($A98,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <f>VLOOKUP($A98,LTMLE!$A:$L, 7)</f>
+        <v>0.75369458128026201</v>
+      </c>
+      <c r="H98">
+        <f>VLOOKUP($A98,LTMLE!$A:$L, 10)</f>
+        <v>0.71174643433448603</v>
+      </c>
+      <c r="I98">
+        <f>VLOOKUP($A98,LTMLE!$A:$L, 11)</f>
+        <v>0.79564272822603799</v>
+      </c>
+      <c r="J98">
+        <f>VLOOKUP($A98,LTMLE!$A:$L, 9)</f>
+        <v>1.1685646151133201E-271</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ref="L98:L121" si="235">IFERROR(G98/G99,0)</f>
+        <v>1.0325615763546705</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ref="M98:M120" si="236">IFERROR(H98/H99, 0)</f>
+        <v>1.0857872106688966</v>
+      </c>
+      <c r="N98">
+        <f t="shared" ref="N98:N120" si="237">IFERROR(I98/I99, 0)</f>
+        <v>0.98918446633315726</v>
+      </c>
+      <c r="O98">
+        <f t="shared" ref="O98:O120" si="238">IFERROR(J98/J99, 0)</f>
+        <v>5.1111583618310273E-190</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" ref="Q98:Q120" si="239">_xlfn.CONCAT(ROUND(L98, 2), " (", ROUND(N98,2), " - ", ROUND(M98,2),  ")", IF(AND(O98 &lt;0.05, NOT(ISBLANK(O98))), "*", " ") )</f>
+        <v>1.03 (0.99 - 1.09)*</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f>LTMLE!A111</f>
+        <v>110</v>
+      </c>
+      <c r="B99" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D111)), "", "No "),IF(LTMLE!C111="ventilation_bin","Ventilation",IF(LTMLE!C111="rrt","RRT",IF(LTMLE!C111="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C99" t="str">
+        <f>LEFT(LTMLE!D111, FIND("&amp;", LTMLE!D111)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D99" t="str">
+        <f>LTMLE!B111</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E99">
+        <f>VLOOKUP($A99,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F99">
+        <f>VLOOKUP($A99,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <f>VLOOKUP($A99,LTMLE!$A:$L, 7)</f>
+        <v>0.72992700729876703</v>
+      </c>
+      <c r="H99">
+        <f>VLOOKUP($A99,LTMLE!$A:$L, 10)</f>
+        <v>0.65551189712026203</v>
+      </c>
+      <c r="I99">
+        <f>VLOOKUP($A99,LTMLE!$A:$L, 11)</f>
+        <v>0.80434211747727302</v>
+      </c>
+      <c r="J99">
+        <f>VLOOKUP($A99,LTMLE!$A:$L, 9)</f>
+        <v>2.2863009368676499E-82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>LTMLE!A61</f>
+        <v>60</v>
+      </c>
+      <c r="B100" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D61)), "", "No "),IF(LTMLE!C61="ventilation_bin","Ventilation",IF(LTMLE!C61="rrt","RRT",IF(LTMLE!C61="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C100" t="str">
+        <f>LEFT(LTMLE!D61, FIND("&amp;", LTMLE!D61)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D100" t="str">
+        <f>LTMLE!B61</f>
+        <v>eICU</v>
+      </c>
+      <c r="E100">
+        <f>VLOOKUP($A100,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F100">
+        <f>VLOOKUP($A100,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G100">
+        <f>VLOOKUP($A100,LTMLE!$A:$L, 7)</f>
+        <v>0.71532846715290199</v>
+      </c>
+      <c r="H100">
+        <f>VLOOKUP($A100,LTMLE!$A:$L, 10)</f>
+        <v>0.63953057103547495</v>
+      </c>
+      <c r="I100">
+        <f>VLOOKUP($A100,LTMLE!$A:$L, 11)</f>
+        <v>0.79112636327032804</v>
+      </c>
+      <c r="J100">
+        <f>VLOOKUP($A100,LTMLE!$A:$L, 9)</f>
+        <v>2.19129240016169E-76</v>
+      </c>
+      <c r="L100">
+        <f t="shared" ref="L100:L121" si="240">IFERROR(G100/G101,0)</f>
+        <v>1.1177007299264181</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ref="M100:M120" si="241">IFERROR(H100/H101, 0)</f>
+        <v>1.4172107749115466</v>
+      </c>
+      <c r="N100">
+        <f t="shared" ref="N100:N120" si="242">IFERROR(I100/I101, 0)</f>
+        <v>0.95461349521427574</v>
+      </c>
+      <c r="O100">
+        <f t="shared" ref="O100:O120" si="243">IFERROR(J100/J101, 0)</f>
+        <v>7.278948099459065E-66</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" ref="Q100:Q120" si="244">_xlfn.CONCAT(ROUND(L100, 2), " (", ROUND(N100,2), " - ", ROUND(M100,2),  ")", IF(AND(O100 &lt;0.05, NOT(ISBLANK(O100))), "*", " ") )</f>
+        <v>1.12 (0.95 - 1.42)*</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f>LTMLE!A51</f>
+        <v>50</v>
+      </c>
+      <c r="B101" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D51)), "", "No "),IF(LTMLE!C51="ventilation_bin","Ventilation",IF(LTMLE!C51="rrt","RRT",IF(LTMLE!C51="pressor","Vasopressor",""))))</f>
+        <v>Vasopressor</v>
+      </c>
+      <c r="C101" t="str">
+        <f>LEFT(LTMLE!D51, FIND("&amp;", LTMLE!D51)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D101" t="str">
+        <f>LTMLE!B51</f>
+        <v>eICU</v>
+      </c>
+      <c r="E101">
+        <f>VLOOKUP($A101,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <f>VLOOKUP($A101,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <f>VLOOKUP($A101,LTMLE!$A:$L, 7)</f>
+        <v>0.63999999999999502</v>
+      </c>
+      <c r="H101">
+        <f>VLOOKUP($A101,LTMLE!$A:$L, 10)</f>
+        <v>0.45126002593043402</v>
+      </c>
+      <c r="I101">
+        <f>VLOOKUP($A101,LTMLE!$A:$L, 11)</f>
+        <v>0.82873997406955702</v>
+      </c>
+      <c r="J101">
+        <f>VLOOKUP($A101,LTMLE!$A:$L, 9)</f>
+        <v>3.0104520189181398E-11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>LTMLE!A112</f>
+        <v>111</v>
+      </c>
+      <c r="B102" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D112)), "", "No "),IF(LTMLE!C112="ventilation_bin","Ventilation",IF(LTMLE!C112="rrt","RRT",IF(LTMLE!C112="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C102" t="str">
+        <f>LEFT(LTMLE!D112, FIND("&amp;", LTMLE!D112)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D102" t="str">
+        <f>LTMLE!B112</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E102">
+        <f>VLOOKUP($A102,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP($A102,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <f>VLOOKUP($A102,LTMLE!$A:$L, 7)</f>
+        <v>0.47469570788076199</v>
+      </c>
+      <c r="H102">
+        <f>VLOOKUP($A102,LTMLE!$A:$L, 10)</f>
+        <v>0.46533262691002197</v>
+      </c>
+      <c r="I102">
+        <f>VLOOKUP($A102,LTMLE!$A:$L, 11)</f>
+        <v>0.484058788851502</v>
+      </c>
+      <c r="J102">
+        <f>VLOOKUP($A102,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ref="L102:L121" si="245">IFERROR(G102/G103,0)</f>
+        <v>0.93216690975601835</v>
+      </c>
+      <c r="M102">
+        <f t="shared" ref="M102:M120" si="246">IFERROR(H102/H103, 0)</f>
+        <v>0.94599255916892344</v>
+      </c>
+      <c r="N102">
+        <f t="shared" ref="N102:N120" si="247">IFERROR(I102/I103, 0)</f>
+        <v>0.91925181168217507</v>
+      </c>
+      <c r="O102">
+        <f t="shared" ref="O102:O120" si="248">IFERROR(J102/J103, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" ref="Q102:Q120" si="249">_xlfn.CONCAT(ROUND(L102, 2), " (", ROUND(N102,2), " - ", ROUND(M102,2),  ")", IF(AND(O102 &lt;0.05, NOT(ISBLANK(O102))), "*", " ") )</f>
+        <v>0.93 (0.92 - 0.95)*</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f>LTMLE!A102</f>
+        <v>101</v>
+      </c>
+      <c r="B103" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D102)), "", "No "),IF(LTMLE!C102="ventilation_bin","Ventilation",IF(LTMLE!C102="rrt","RRT",IF(LTMLE!C102="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C103" t="str">
+        <f>LEFT(LTMLE!D102, FIND("&amp;", LTMLE!D102)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D103" t="str">
+        <f>LTMLE!B102</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E103">
+        <f>VLOOKUP($A103,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f>VLOOKUP($A103,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <f>VLOOKUP($A103,LTMLE!$A:$L, 7)</f>
+        <v>0.50923896022548898</v>
+      </c>
+      <c r="H103">
+        <f>VLOOKUP($A103,LTMLE!$A:$L, 10)</f>
+        <v>0.491898823515935</v>
+      </c>
+      <c r="I103">
+        <f>VLOOKUP($A103,LTMLE!$A:$L, 11)</f>
+        <v>0.52657909693504301</v>
+      </c>
+      <c r="J103">
+        <f>VLOOKUP($A103,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f>LTMLE!A52</f>
+        <v>51</v>
+      </c>
+      <c r="B104" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D52)), "", "No "),IF(LTMLE!C52="ventilation_bin","Ventilation",IF(LTMLE!C52="rrt","RRT",IF(LTMLE!C52="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C104" t="str">
+        <f>LEFT(LTMLE!D52, FIND("&amp;", LTMLE!D52)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D104" t="str">
+        <f>LTMLE!B52</f>
+        <v>eICU</v>
+      </c>
+      <c r="E104">
+        <f>VLOOKUP($A104,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f>VLOOKUP($A104,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G104">
+        <f>VLOOKUP($A104,LTMLE!$A:$L, 7)</f>
+        <v>8.2895638273476596E-2</v>
+      </c>
+      <c r="H104">
+        <f>VLOOKUP($A104,LTMLE!$A:$L, 10)</f>
+        <v>7.8812335635368699E-2</v>
+      </c>
+      <c r="I104">
+        <f>VLOOKUP($A104,LTMLE!$A:$L, 11)</f>
+        <v>8.6978940911584604E-2</v>
+      </c>
+      <c r="J104">
+        <f>VLOOKUP($A104,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f t="shared" ref="L104:L121" si="250">IFERROR(G104/G105,0)</f>
+        <v>1.1806348481308344</v>
+      </c>
+      <c r="M104">
+        <f t="shared" ref="M104:M120" si="251">IFERROR(H104/H105, 0)</f>
+        <v>1.2607372613151104</v>
+      </c>
+      <c r="N104">
+        <f t="shared" ref="N104:N120" si="252">IFERROR(I104/I105, 0)</f>
+        <v>1.1163649954262882</v>
+      </c>
+      <c r="O104">
+        <f t="shared" ref="O104:O120" si="253">IFERROR(J104/J105, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" ref="Q104:Q120" si="254">_xlfn.CONCAT(ROUND(L104, 2), " (", ROUND(N104,2), " - ", ROUND(M104,2),  ")", IF(AND(O104 &lt;0.05, NOT(ISBLANK(O104))), "*", " ") )</f>
+        <v>1.18 (1.12 - 1.26)*</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f>LTMLE!A42</f>
+        <v>41</v>
+      </c>
+      <c r="B105" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D42)), "", "No "),IF(LTMLE!C42="ventilation_bin","Ventilation",IF(LTMLE!C42="rrt","RRT",IF(LTMLE!C42="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C105" t="str">
+        <f>LEFT(LTMLE!D42, FIND("&amp;", LTMLE!D42)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D105" t="str">
+        <f>LTMLE!B42</f>
+        <v>eICU</v>
+      </c>
+      <c r="E105">
+        <f>VLOOKUP($A105,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f>VLOOKUP($A105,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G105">
+        <f>VLOOKUP($A105,LTMLE!$A:$L, 7)</f>
+        <v>7.0212765957836903E-2</v>
+      </c>
+      <c r="H105">
+        <f>VLOOKUP($A105,LTMLE!$A:$L, 10)</f>
+        <v>6.2512894679703002E-2</v>
+      </c>
+      <c r="I105">
+        <f>VLOOKUP($A105,LTMLE!$A:$L, 11)</f>
+        <v>7.7912637235970805E-2</v>
+      </c>
+      <c r="J105">
+        <f>VLOOKUP($A105,LTMLE!$A:$L, 9)</f>
+        <v>1.9379768518562201E-71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f>LTMLE!A113</f>
+        <v>112</v>
+      </c>
+      <c r="B106" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D113)), "", "No "),IF(LTMLE!C113="ventilation_bin","Ventilation",IF(LTMLE!C113="rrt","RRT",IF(LTMLE!C113="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C106" t="str">
+        <f>LEFT(LTMLE!D113, FIND("&amp;", LTMLE!D113)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D106" t="str">
+        <f>LTMLE!B113</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E106">
+        <f>VLOOKUP($A106,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f>VLOOKUP($A106,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <f>VLOOKUP($A106,LTMLE!$A:$L, 7)</f>
+        <v>0.42649993348409898</v>
+      </c>
+      <c r="H106">
+        <f>VLOOKUP($A106,LTMLE!$A:$L, 10)</f>
+        <v>0.41531924976305701</v>
+      </c>
+      <c r="I106">
+        <f>VLOOKUP($A106,LTMLE!$A:$L, 11)</f>
+        <v>0.43768061720514201</v>
+      </c>
+      <c r="J106">
+        <f>VLOOKUP($A106,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f t="shared" ref="L106:L121" si="255">IFERROR(G106/G107,0)</f>
+        <v>0.94978071918837192</v>
+      </c>
+      <c r="M106">
+        <f t="shared" ref="M106:M120" si="256">IFERROR(H106/H107, 0)</f>
+        <v>0.97204813765557285</v>
+      </c>
+      <c r="N106">
+        <f t="shared" ref="N106:N120" si="257">IFERROR(I106/I107, 0)</f>
+        <v>0.92957422737617668</v>
+      </c>
+      <c r="O106">
+        <f t="shared" ref="O106:O120" si="258">IFERROR(J106/J107, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" ref="Q106:Q120" si="259">_xlfn.CONCAT(ROUND(L106, 2), " (", ROUND(N106,2), " - ", ROUND(M106,2),  ")", IF(AND(O106 &lt;0.05, NOT(ISBLANK(O106))), "*", " ") )</f>
+        <v>0.95 (0.93 - 0.97)*</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f>LTMLE!A103</f>
+        <v>102</v>
+      </c>
+      <c r="B107" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D103)), "", "No "),IF(LTMLE!C103="ventilation_bin","Ventilation",IF(LTMLE!C103="rrt","RRT",IF(LTMLE!C103="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C107" t="str">
+        <f>LEFT(LTMLE!D103, FIND("&amp;", LTMLE!D103)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D107" t="str">
+        <f>LTMLE!B103</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E107">
+        <f>VLOOKUP($A107,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f>VLOOKUP($A107,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G107">
+        <f>VLOOKUP($A107,LTMLE!$A:$L, 7)</f>
+        <v>0.44905094920073901</v>
+      </c>
+      <c r="H107">
+        <f>VLOOKUP($A107,LTMLE!$A:$L, 10)</f>
+        <v>0.42726201890036197</v>
+      </c>
+      <c r="I107">
+        <f>VLOOKUP($A107,LTMLE!$A:$L, 11)</f>
+        <v>0.470839879501116</v>
+      </c>
+      <c r="J107">
+        <f>VLOOKUP($A107,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f>LTMLE!A53</f>
+        <v>52</v>
+      </c>
+      <c r="B108" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D53)), "", "No "),IF(LTMLE!C53="ventilation_bin","Ventilation",IF(LTMLE!C53="rrt","RRT",IF(LTMLE!C53="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C108" t="str">
+        <f>LEFT(LTMLE!D53, FIND("&amp;", LTMLE!D53)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D108" t="str">
+        <f>LTMLE!B53</f>
+        <v>eICU</v>
+      </c>
+      <c r="E108">
+        <f>VLOOKUP($A108,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f>VLOOKUP($A108,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <f>VLOOKUP($A108,LTMLE!$A:$L, 7)</f>
+        <v>7.0400110757799006E-2</v>
+      </c>
+      <c r="H108">
+        <f>VLOOKUP($A108,LTMLE!$A:$L, 10)</f>
+        <v>6.6228368469971002E-2</v>
+      </c>
+      <c r="I108">
+        <f>VLOOKUP($A108,LTMLE!$A:$L, 11)</f>
+        <v>7.4571853045627107E-2</v>
+      </c>
+      <c r="J108">
+        <f>VLOOKUP($A108,LTMLE!$A:$L, 9)</f>
+        <v>6.7313073975867797E-240</v>
+      </c>
+      <c r="L108">
+        <f t="shared" ref="L108:L121" si="260">IFERROR(G108/G109,0)</f>
+        <v>1.1942616723432535</v>
+      </c>
+      <c r="M108">
+        <f t="shared" ref="M108:M120" si="261">IFERROR(H108/H109, 0)</f>
+        <v>1.3011056561509595</v>
+      </c>
+      <c r="N108">
+        <f t="shared" ref="N108:N120" si="262">IFERROR(I108/I109, 0)</f>
+        <v>1.1130843527818368</v>
+      </c>
+      <c r="O108">
+        <f t="shared" ref="O108:O120" si="263">IFERROR(J108/J109, 0)</f>
+        <v>7.0632437846777763E-194</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" ref="Q108:Q120" si="264">_xlfn.CONCAT(ROUND(L108, 2), " (", ROUND(N108,2), " - ", ROUND(M108,2),  ")", IF(AND(O108 &lt;0.05, NOT(ISBLANK(O108))), "*", " ") )</f>
+        <v>1.19 (1.11 - 1.3)*</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f>LTMLE!A43</f>
+        <v>42</v>
+      </c>
+      <c r="B109" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D43)), "", "No "),IF(LTMLE!C43="ventilation_bin","Ventilation",IF(LTMLE!C43="rrt","RRT",IF(LTMLE!C43="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C109" t="str">
+        <f>LEFT(LTMLE!D43, FIND("&amp;", LTMLE!D43)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D109" t="str">
+        <f>LTMLE!B43</f>
+        <v>eICU</v>
+      </c>
+      <c r="E109">
+        <f>VLOOKUP($A109,LTMLE!$A:$L, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f>VLOOKUP($A109,LTMLE!$A:$L, 6)</f>
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <f>VLOOKUP($A109,LTMLE!$A:$L, 7)</f>
+        <v>5.8948647845046699E-2</v>
+      </c>
+      <c r="H109">
+        <f>VLOOKUP($A109,LTMLE!$A:$L, 10)</f>
+        <v>5.0901606765659101E-2</v>
+      </c>
+      <c r="I109">
+        <f>VLOOKUP($A109,LTMLE!$A:$L, 11)</f>
+        <v>6.6995688924434194E-2</v>
+      </c>
+      <c r="J109">
+        <f>VLOOKUP($A109,LTMLE!$A:$L, 9)</f>
+        <v>9.5300510683050991E-47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f>LTMLE!A114</f>
+        <v>113</v>
+      </c>
+      <c r="B110" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D114)), "", "No "),IF(LTMLE!C114="ventilation_bin","Ventilation",IF(LTMLE!C114="rrt","RRT",IF(LTMLE!C114="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C110" t="str">
+        <f>LEFT(LTMLE!D114, FIND("&amp;", LTMLE!D114)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D110" t="str">
+        <f>LTMLE!B114</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E110">
+        <f>VLOOKUP($A110,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <f>VLOOKUP($A110,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <f>VLOOKUP($A110,LTMLE!$A:$L, 7)</f>
+        <v>0.57292327203552096</v>
+      </c>
+      <c r="H110">
+        <f>VLOOKUP($A110,LTMLE!$A:$L, 10)</f>
+        <v>0.55565932771953497</v>
+      </c>
+      <c r="I110">
+        <f>VLOOKUP($A110,LTMLE!$A:$L, 11)</f>
+        <v>0.59018721635150695</v>
+      </c>
+      <c r="J110">
+        <f>VLOOKUP($A110,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ref="L110:L121" si="265">IFERROR(G110/G111,0)</f>
+        <v>0.93270544584350623</v>
+      </c>
+      <c r="M110">
+        <f t="shared" ref="M110:M120" si="266">IFERROR(H110/H111, 0)</f>
+        <v>0.94917382274114692</v>
+      </c>
+      <c r="N110">
+        <f t="shared" ref="N110:N120" si="267">IFERROR(I110/I111, 0)</f>
+        <v>0.91771441798786002</v>
+      </c>
+      <c r="O110">
+        <f t="shared" ref="O110:O120" si="268">IFERROR(J110/J111, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" ref="Q110:Q120" si="269">_xlfn.CONCAT(ROUND(L110, 2), " (", ROUND(N110,2), " - ", ROUND(M110,2),  ")", IF(AND(O110 &lt;0.05, NOT(ISBLANK(O110))), "*", " ") )</f>
+        <v>0.93 (0.92 - 0.95)*</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f>LTMLE!A104</f>
+        <v>103</v>
+      </c>
+      <c r="B111" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D104)), "", "No "),IF(LTMLE!C104="ventilation_bin","Ventilation",IF(LTMLE!C104="rrt","RRT",IF(LTMLE!C104="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C111" t="str">
+        <f>LEFT(LTMLE!D104, FIND("&amp;", LTMLE!D104)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D111" t="str">
+        <f>LTMLE!B104</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E111">
+        <f>VLOOKUP($A111,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <f>VLOOKUP($A111,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <f>VLOOKUP($A111,LTMLE!$A:$L, 7)</f>
+        <v>0.61425959780623896</v>
+      </c>
+      <c r="H111">
+        <f>VLOOKUP($A111,LTMLE!$A:$L, 10)</f>
+        <v>0.58541366650297</v>
+      </c>
+      <c r="I111">
+        <f>VLOOKUP($A111,LTMLE!$A:$L, 11)</f>
+        <v>0.64310552910950802</v>
+      </c>
+      <c r="J111">
+        <f>VLOOKUP($A111,LTMLE!$A:$L, 9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f>LTMLE!A54</f>
+        <v>53</v>
+      </c>
+      <c r="B112" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D54)), "", "No "),IF(LTMLE!C54="ventilation_bin","Ventilation",IF(LTMLE!C54="rrt","RRT",IF(LTMLE!C54="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C112" t="str">
+        <f>LEFT(LTMLE!D54, FIND("&amp;", LTMLE!D54)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D112" t="str">
+        <f>LTMLE!B54</f>
+        <v>eICU</v>
+      </c>
+      <c r="E112">
+        <f>VLOOKUP($A112,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP($A112,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <f>VLOOKUP($A112,LTMLE!$A:$L, 7)</f>
+        <v>0.13597829772811601</v>
+      </c>
+      <c r="H112">
+        <f>VLOOKUP($A112,LTMLE!$A:$L, 10)</f>
+        <v>0.123606612070328</v>
+      </c>
+      <c r="I112">
+        <f>VLOOKUP($A112,LTMLE!$A:$L, 11)</f>
+        <v>0.14834998338590399</v>
+      </c>
+      <c r="J112">
+        <f>VLOOKUP($A112,LTMLE!$A:$L, 9)</f>
+        <v>6.2742425957564903E-103</v>
+      </c>
+      <c r="L112">
+        <f t="shared" ref="L112:L121" si="270">IFERROR(G112/G113,0)</f>
+        <v>1.2818787388171773</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ref="M112:M120" si="271">IFERROR(H112/H113, 0)</f>
+        <v>1.4370543543580165</v>
+      </c>
+      <c r="N112">
+        <f t="shared" ref="N112:N120" si="272">IFERROR(I112/I113, 0)</f>
+        <v>1.1760663974561005</v>
+      </c>
+      <c r="O112">
+        <f t="shared" ref="O112:O120" si="273">IFERROR(J112/J113, 0)</f>
+        <v>1.7085291087078754E-78</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" ref="Q112:Q120" si="274">_xlfn.CONCAT(ROUND(L112, 2), " (", ROUND(N112,2), " - ", ROUND(M112,2),  ")", IF(AND(O112 &lt;0.05, NOT(ISBLANK(O112))), "*", " ") )</f>
+        <v>1.28 (1.18 - 1.44)*</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f>LTMLE!A44</f>
+        <v>43</v>
+      </c>
+      <c r="B113" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D44)), "", "No "),IF(LTMLE!C44="ventilation_bin","Ventilation",IF(LTMLE!C44="rrt","RRT",IF(LTMLE!C44="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C113" t="str">
+        <f>LEFT(LTMLE!D44, FIND("&amp;", LTMLE!D44)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D113" t="str">
+        <f>LTMLE!B44</f>
+        <v>eICU</v>
+      </c>
+      <c r="E113">
+        <f>VLOOKUP($A113,LTMLE!$A:$L, 5)</f>
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <f>VLOOKUP($A113,LTMLE!$A:$L, 6)</f>
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <f>VLOOKUP($A113,LTMLE!$A:$L, 7)</f>
+        <v>0.106077348512377</v>
+      </c>
+      <c r="H113">
+        <f>VLOOKUP($A113,LTMLE!$A:$L, 10)</f>
+        <v>8.6013873932797399E-2</v>
+      </c>
+      <c r="I113">
+        <f>VLOOKUP($A113,LTMLE!$A:$L, 11)</f>
+        <v>0.12614082309195601</v>
+      </c>
+      <c r="J113">
+        <f>VLOOKUP($A113,LTMLE!$A:$L, 9)</f>
+        <v>3.6723065259927401E-25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f>LTMLE!A115</f>
+        <v>114</v>
+      </c>
+      <c r="B114" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D115)), "", "No "),IF(LTMLE!C115="ventilation_bin","Ventilation",IF(LTMLE!C115="rrt","RRT",IF(LTMLE!C115="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C114" t="str">
+        <f>LEFT(LTMLE!D115, FIND("&amp;", LTMLE!D115)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D114" t="str">
+        <f>LTMLE!B115</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E114">
+        <f>VLOOKUP($A114,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <f>VLOOKUP($A114,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G114">
+        <f>VLOOKUP($A114,LTMLE!$A:$L, 7)</f>
+        <v>0.67469879518065301</v>
+      </c>
+      <c r="H114">
+        <f>VLOOKUP($A114,LTMLE!$A:$L, 10)</f>
+        <v>0.61649976633810599</v>
+      </c>
+      <c r="I114">
+        <f>VLOOKUP($A114,LTMLE!$A:$L, 11)</f>
+        <v>0.73289782402319903</v>
+      </c>
+      <c r="J114">
+        <f>VLOOKUP($A114,LTMLE!$A:$L, 9)</f>
+        <v>2.7294197558717899E-114</v>
+      </c>
+      <c r="L114">
+        <f t="shared" ref="L114:L121" si="275">IFERROR(G114/G115,0)</f>
+        <v>1.196635600436859</v>
+      </c>
+      <c r="M114">
+        <f t="shared" ref="M114:M120" si="276">IFERROR(H114/H115, 0)</f>
+        <v>1.329914889234068</v>
+      </c>
+      <c r="N114">
+        <f t="shared" ref="N114:N120" si="277">IFERROR(I114/I115, 0)</f>
+        <v>1.1036018117990072</v>
+      </c>
+      <c r="O114">
+        <f t="shared" ref="O114:O120" si="278">IFERROR(J114/J115, 0)</f>
+        <v>9.0670657710544292E-87</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" ref="Q114:Q120" si="279">_xlfn.CONCAT(ROUND(L114, 2), " (", ROUND(N114,2), " - ", ROUND(M114,2),  ")", IF(AND(O114 &lt;0.05, NOT(ISBLANK(O114))), "*", " ") )</f>
+        <v>1.2 (1.1 - 1.33)*</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f>LTMLE!A105</f>
+        <v>104</v>
+      </c>
+      <c r="B115" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D105)), "", "No "),IF(LTMLE!C105="ventilation_bin","Ventilation",IF(LTMLE!C105="rrt","RRT",IF(LTMLE!C105="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C115" t="str">
+        <f>LEFT(LTMLE!D105, FIND("&amp;", LTMLE!D105)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D115" t="str">
+        <f>LTMLE!B105</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E115">
+        <f>VLOOKUP($A115,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <f>VLOOKUP($A115,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <f>VLOOKUP($A115,LTMLE!$A:$L, 7)</f>
+        <v>0.563829786556859</v>
+      </c>
+      <c r="H115">
+        <f>VLOOKUP($A115,LTMLE!$A:$L, 10)</f>
+        <v>0.46356332373507297</v>
+      </c>
+      <c r="I115">
+        <f>VLOOKUP($A115,LTMLE!$A:$L, 11)</f>
+        <v>0.66409624937864598</v>
+      </c>
+      <c r="J115">
+        <f>VLOOKUP($A115,LTMLE!$A:$L, 9)</f>
+        <v>3.0102569285260401E-28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f>LTMLE!A55</f>
+        <v>54</v>
+      </c>
+      <c r="B116" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D55)), "", "No "),IF(LTMLE!C55="ventilation_bin","Ventilation",IF(LTMLE!C55="rrt","RRT",IF(LTMLE!C55="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C116" t="str">
+        <f>LEFT(LTMLE!D55, FIND("&amp;", LTMLE!D55)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D116" t="str">
+        <f>LTMLE!B55</f>
+        <v>eICU</v>
+      </c>
+      <c r="E116">
+        <f>VLOOKUP($A116,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <f>VLOOKUP($A116,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G116">
+        <f>VLOOKUP($A116,LTMLE!$A:$L, 7)</f>
+        <v>0.28099173553760198</v>
+      </c>
+      <c r="H116">
+        <f>VLOOKUP($A116,LTMLE!$A:$L, 10)</f>
+        <v>0.20088163149990601</v>
+      </c>
+      <c r="I116">
+        <f>VLOOKUP($A116,LTMLE!$A:$L, 11)</f>
+        <v>0.36110183957529801</v>
+      </c>
+      <c r="J116">
+        <f>VLOOKUP($A116,LTMLE!$A:$L, 9)</f>
+        <v>6.2116372798042703E-12</v>
+      </c>
+      <c r="L116">
+        <f t="shared" ref="L116:L121" si="280">IFERROR(G116/G117,0)</f>
+        <v>1.3648170011823164</v>
+      </c>
+      <c r="M116">
+        <f t="shared" ref="M116:M120" si="281">IFERROR(H116/H117, 0)</f>
+        <v>2.8725081636660255</v>
+      </c>
+      <c r="N116">
+        <f t="shared" ref="N116:N120" si="282">IFERROR(I116/I117, 0)</f>
+        <v>1.0563715664330831</v>
+      </c>
+      <c r="O116">
+        <f t="shared" ref="O116:O120" si="283">IFERROR(J116/J117, 0)</f>
+        <v>2.0734421893003796E-9</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" ref="Q116:Q120" si="284">_xlfn.CONCAT(ROUND(L116, 2), " (", ROUND(N116,2), " - ", ROUND(M116,2),  ")", IF(AND(O116 &lt;0.05, NOT(ISBLANK(O116))), "*", " ") )</f>
+        <v>1.36 (1.06 - 2.87)*</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f>LTMLE!A45</f>
+        <v>44</v>
+      </c>
+      <c r="B117" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D45)), "", "No "),IF(LTMLE!C45="ventilation_bin","Ventilation",IF(LTMLE!C45="rrt","RRT",IF(LTMLE!C45="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C117" t="str">
+        <f>LEFT(LTMLE!D45, FIND("&amp;", LTMLE!D45)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D117" t="str">
+        <f>LTMLE!B45</f>
+        <v>eICU</v>
+      </c>
+      <c r="E117">
+        <f>VLOOKUP($A117,LTMLE!$A:$L, 5)</f>
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <f>VLOOKUP($A117,LTMLE!$A:$L, 6)</f>
+        <v>15</v>
+      </c>
+      <c r="G117">
+        <f>VLOOKUP($A117,LTMLE!$A:$L, 7)</f>
+        <v>0.20588235294122501</v>
+      </c>
+      <c r="H117">
+        <f>VLOOKUP($A117,LTMLE!$A:$L, 10)</f>
+        <v>6.9932484105991802E-2</v>
+      </c>
+      <c r="I117">
+        <f>VLOOKUP($A117,LTMLE!$A:$L, 11)</f>
+        <v>0.341832221776458</v>
+      </c>
+      <c r="J117">
+        <f>VLOOKUP($A117,LTMLE!$A:$L, 9)</f>
+        <v>2.9958092450603599E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f>LTMLE!A116</f>
+        <v>115</v>
+      </c>
+      <c r="B118" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D116)), "", "No "),IF(LTMLE!C116="ventilation_bin","Ventilation",IF(LTMLE!C116="rrt","RRT",IF(LTMLE!C116="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C118" t="str">
+        <f>LEFT(LTMLE!D116, FIND("&amp;", LTMLE!D116)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D118" t="str">
+        <f>LTMLE!B116</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E118">
+        <f>VLOOKUP($A118,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <f>VLOOKUP($A118,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <f>VLOOKUP($A118,LTMLE!$A:$L, 7)</f>
+        <v>0.85714285714274296</v>
+      </c>
+      <c r="H118">
+        <f>VLOOKUP($A118,LTMLE!$A:$L, 10)</f>
+        <v>0.59768329372724205</v>
+      </c>
+      <c r="I118">
+        <f>VLOOKUP($A118,LTMLE!$A:$L, 11)</f>
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f>VLOOKUP($A118,LTMLE!$A:$L, 9)</f>
+        <v>9.4888310316540696E-11</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ref="L118:L121" si="285">IFERROR(G118/G119,0)</f>
+        <v>1.2857142857141197</v>
+      </c>
+      <c r="M118">
+        <f t="shared" ref="M118:M120" si="286">IFERROR(H118/H119, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" ref="N118:N120" si="287">IFERROR(I118/I119, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <f t="shared" ref="O118:O120" si="288">IFERROR(J118/J119, 0)</f>
+        <v>5.1597294843696462E-10</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" ref="Q118:Q120" si="289">_xlfn.CONCAT(ROUND(L118, 2), " (", ROUND(N118,2), " - ", ROUND(M118,2),  ")", IF(AND(O118 &lt;0.05, NOT(ISBLANK(O118))), "*", " ") )</f>
+        <v>1.29 (1 - 0)*</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f>LTMLE!A106</f>
+        <v>105</v>
+      </c>
+      <c r="B119" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D106)), "", "No "),IF(LTMLE!C106="ventilation_bin","Ventilation",IF(LTMLE!C106="rrt","RRT",IF(LTMLE!C106="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C119" t="str">
+        <f>LEFT(LTMLE!D106, FIND("&amp;", LTMLE!D106)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D119" t="str">
+        <f>LTMLE!B106</f>
+        <v>MIMIC</v>
+      </c>
+      <c r="E119">
+        <f>VLOOKUP($A119,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP($A119,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <f>VLOOKUP($A119,LTMLE!$A:$L, 7)</f>
+        <v>0.66666666666666397</v>
+      </c>
+      <c r="H119">
+        <f>VLOOKUP($A119,LTMLE!$A:$L, 10)</f>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f>VLOOKUP($A119,LTMLE!$A:$L, 11)</f>
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <f>VLOOKUP($A119,LTMLE!$A:$L, 9)</f>
+        <v>0.18390171539803701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f>LTMLE!A56</f>
+        <v>55</v>
+      </c>
+      <c r="B120" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D56)), "", "No "),IF(LTMLE!C56="ventilation_bin","Ventilation",IF(LTMLE!C56="rrt","RRT",IF(LTMLE!C56="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C120" t="str">
+        <f>LEFT(LTMLE!D56, FIND("&amp;", LTMLE!D56)-1)</f>
+        <v xml:space="preserve">White </v>
+      </c>
+      <c r="D120" t="str">
+        <f>LTMLE!B56</f>
+        <v>eICU</v>
+      </c>
+      <c r="E120">
+        <f>VLOOKUP($A120,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F120">
+        <f>VLOOKUP($A120,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+      <c r="L120">
+        <f t="shared" ref="L120:L121" si="290">IFERROR(G120/G121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <f t="shared" ref="M120:N120" si="291">IFERROR(H120/H121, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <f t="shared" ref="O120" si="292">IFERROR(J120/J121, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" ref="Q120" si="293">_xlfn.CONCAT(ROUND(L120, 2), " (", ROUND(N120,2), " - ", ROUND(M120,2),  ")", IF(AND(O120 &lt;0.05, NOT(ISBLANK(O120))), "*", " ") )</f>
+        <v>0 (0 - 0)*</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f>LTMLE!A46</f>
+        <v>45</v>
+      </c>
+      <c r="B121" t="str">
+        <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D46)), "", "No "),IF(LTMLE!C46="ventilation_bin","Ventilation",IF(LTMLE!C46="rrt","RRT",IF(LTMLE!C46="pressor","Vasopressor",""))))</f>
+        <v>No Vasopressor</v>
+      </c>
+      <c r="C121" t="str">
+        <f>LEFT(LTMLE!D46, FIND("&amp;", LTMLE!D46)-1)</f>
+        <v xml:space="preserve">Non-white </v>
+      </c>
+      <c r="D121" t="str">
+        <f>LTMLE!B46</f>
+        <v>eICU</v>
+      </c>
+      <c r="E121">
+        <f>VLOOKUP($A121,LTMLE!$A:$L, 5)</f>
+        <v>16</v>
+      </c>
+      <c r="F121">
+        <f>VLOOKUP($A121,LTMLE!$A:$L, 6)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J130">
+    <sortCondition ref="B2:B130" customList="Ventilation,No Ventilation,RRT,No RRT,Vasopressor,No Vasopressor"/>
+    <sortCondition ref="E2:E130"/>
+    <sortCondition descending="1" ref="F2:F130"/>
+    <sortCondition descending="1" ref="D2:D130"/>
+    <sortCondition descending="1" ref="C2:C130"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F568E0-A4E8-4E96-9684-88B9155E643F}">
+  <dimension ref="B2:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="5" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>normalized!Q2</f>
+        <v>0.89 (0.87 - 0.9)*</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>normalized!Q6</f>
+        <v>0.86 (0.82 - 0.91)*</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>normalized!Q10</f>
+        <v>0.88 (0.86 - 0.91)*</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f>normalized!Q14</f>
+        <v>1.01 (0.98 - 1.04)*</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>normalized!Q18</f>
+        <v>1.03 (0.99 - 1.09)*</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>normalized!Q4</f>
+        <v>0.99 (0.96 - 1.02)*</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f>normalized!Q8</f>
+        <v>1.05 (0.99 - 1.12)*</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>normalized!Q12</f>
+        <v>1 (0.96 - 1.05)*</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f>normalized!Q16</f>
+        <v>0.95 (0.91 - 0.99)*</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>normalized!Q20</f>
+        <v>1.11 (0.95 - 1.41)*</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>normalized!Q22</f>
+        <v>0.93 (0.92 - 0.94)*</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f>normalized!Q26</f>
+        <v>0.96 (0.93 - 0.98)*</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>normalized!Q30</f>
+        <v>0.93 (0.91 - 0.94)*</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>normalized!Q34</f>
+        <v>0.96 (0.93 - 1)*</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>normalized!Q38</f>
+        <v>1.1 (1 - 1.36)*</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>normalized!Q24</f>
+        <v>1.13 (1.07 - 1.2)*</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>normalized!Q28</f>
+        <v>1.16 (1.08 - 1.26)*</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>normalized!Q32</f>
+        <v>1.24 (1.15 - 1.35)*</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f>normalized!Q36</f>
+        <v>1.31 (1.09 - 1.77)*</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>normalized!Q40</f>
+        <v>1 (1 - 0)*</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>normalized!Q42</f>
+        <v>1.03 (1.02 - 1.05)*</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>normalized!Q46</f>
+        <v>1.03 (1 - 1.07)*</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>normalized!Q50</f>
+        <v>1.06 (1.04 - 1.09)*</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>normalized!Q54</f>
+        <v>0.96 (0.93 - 0.99)*</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>normalized!Q58</f>
+        <v>1.06 (0.99 - 1.15)*</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>normalized!Q44</f>
+        <v>1.27 (1.21 - 1.36)*</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>normalized!Q48</f>
+        <v>1.46 (1.29 - 1.78)*</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>normalized!Q52</f>
+        <v>1.2 (1.12 - 1.3)*</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>normalized!Q56</f>
+        <v>1.15 (1.04 - 1.32)*</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>normalized!Q60</f>
+        <v>0.94 (0.82 - 1.18)*</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>normalized!Q62</f>
+        <v>0.92 (0.91 - 0.94)*</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>normalized!Q66</f>
+        <v>0.93 (0.91 - 0.96)*</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>normalized!Q70</f>
+        <v>0.9 (0.88 - 0.92)*</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>normalized!Q74</f>
+        <v>1.03 (0.99 - 1.06)*</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>normalized!Q78</f>
+        <v>1.01 (0.96 - 1.08)*</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>normalized!Q64</f>
+        <v>1.02 (0.99 - 1.06)*</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>normalized!Q68</f>
+        <v>1.08 (1.03 - 1.14)*</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>normalized!Q72</f>
+        <v>1.09 (1.04 - 1.14)*</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>normalized!Q76</f>
+        <v>0.92 (0.88 - 0.97)*</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>normalized!Q80</f>
+        <v>1.32 (0.98 - 2.37)*</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>normalized!Q82</f>
+        <v>0.88 (0.87 - 0.9)*</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>normalized!Q86</f>
+        <v>0.99 (0.92 - 1.08)*</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f>normalized!Q90</f>
+        <v>0.9 (0.87 - 0.92)*</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>normalized!Q94</f>
+        <v>0.98 (0.95 - 1)*</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>normalized!Q98</f>
+        <v>1.03 (0.99 - 1.09)*</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>normalized!Q84</f>
+        <v>0.95 (0.93 - 0.98)*</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>normalized!Q88</f>
+        <v>0.95 (0.9 - 1.01)*</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>normalized!Q92</f>
+        <v>1.01 (0.97 - 1.06)*</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>normalized!Q96</f>
+        <v>0.96 (0.92 - 1.01)*</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>normalized!Q100</f>
+        <v>1.12 (0.95 - 1.42)*</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>normalized!Q102</f>
+        <v>0.93 (0.92 - 0.95)*</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>normalized!Q106</f>
+        <v>0.95 (0.93 - 0.97)*</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>normalized!Q110</f>
+        <v>0.93 (0.92 - 0.95)*</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>normalized!Q114</f>
+        <v>1.2 (1.1 - 1.33)*</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>normalized!Q118</f>
+        <v>1.29 (1 - 0)*</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>normalized!Q104</f>
+        <v>1.18 (1.12 - 1.26)*</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>normalized!Q108</f>
+        <v>1.19 (1.11 - 1.3)*</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>normalized!Q112</f>
+        <v>1.28 (1.18 - 1.44)*</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>normalized!Q116</f>
+        <v>1.36 (1.06 - 2.87)*</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>normalized!Q120</f>
+        <v>0 (0 - 0)*</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/Paper/table_4.xlsx
+++ b/results/Paper/table_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\Race Disparities in Sepsis\mit-tmle\results\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9766F1EC-F06E-4666-84B1-65ACBEF9FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BB2A3-D236-4A0B-8B5D-6BDB4FA48B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTMLE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -765,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -790,19 +790,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2252,7 +2251,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable29" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N4:O47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -7378,8 +7377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7630,7 +7629,7 @@
       <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5">
         <v>0.38408227893435404</v>
       </c>
     </row>
@@ -7682,7 +7681,7 @@
       <c r="N6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6">
         <v>0.48164705582437051</v>
       </c>
     </row>
@@ -7734,7 +7733,7 @@
       <c r="N7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7">
         <v>0.51160443995962901</v>
       </c>
     </row>
@@ -7786,7 +7785,7 @@
       <c r="N8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8">
         <v>0.451689671689112</v>
       </c>
     </row>
@@ -7838,7 +7837,7 @@
       <c r="N9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9">
         <v>0.28651750204433751</v>
       </c>
     </row>
@@ -7890,7 +7889,7 @@
       <c r="N10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10">
         <v>0.28655959425226002</v>
       </c>
     </row>
@@ -7942,7 +7941,7 @@
       <c r="N11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11">
         <v>0.28647540983641501</v>
       </c>
     </row>
@@ -7994,7 +7993,7 @@
       <c r="N12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>0.37191644982658001</v>
       </c>
     </row>
@@ -8046,7 +8045,7 @@
       <c r="N13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13">
         <v>0.59614733495410555</v>
       </c>
     </row>
@@ -8098,7 +8097,7 @@
       <c r="N14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14">
         <v>0.61925795053003196</v>
       </c>
     </row>
@@ -8150,7 +8149,7 @@
       <c r="N15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15">
         <v>0.57303671937817902</v>
       </c>
     </row>
@@ -8202,7 +8201,7 @@
       <c r="N16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16">
         <v>0.1476855646990545</v>
       </c>
     </row>
@@ -8254,7 +8253,7 @@
       <c r="N17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17">
         <v>0.1321499013812</v>
       </c>
     </row>
@@ -8306,7 +8305,7 @@
       <c r="N18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18">
         <v>0.163221228016909</v>
       </c>
     </row>
@@ -8358,7 +8357,7 @@
       <c r="N19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19">
         <v>0.46311959728281249</v>
       </c>
     </row>
@@ -8410,7 +8409,7 @@
       <c r="N20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20">
         <v>0.69002365571811208</v>
       </c>
     </row>
@@ -8462,7 +8461,7 @@
       <c r="N21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21">
         <v>0.66896551724132902</v>
       </c>
     </row>
@@ -8514,7 +8513,7 @@
       <c r="N22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22">
         <v>0.71108179419489503</v>
       </c>
     </row>
@@ -8566,7 +8565,7 @@
       <c r="N23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23">
         <v>0.23621553884751301</v>
       </c>
     </row>
@@ -8618,7 +8617,7 @@
       <c r="N24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24">
         <v>0.21491228070193999</v>
       </c>
     </row>
@@ -8670,7 +8669,7 @@
       <c r="N25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25">
         <v>0.257518796993086</v>
       </c>
     </row>
@@ -8722,7 +8721,7 @@
       <c r="N26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26">
         <v>0.37006554197770503</v>
       </c>
     </row>
@@ -8774,7 +8773,7 @@
       <c r="N27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27">
         <v>0.51531660251544653</v>
       </c>
     </row>
@@ -8826,7 +8825,7 @@
       <c r="N28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28">
         <v>0.54324644544899903</v>
       </c>
     </row>
@@ -8878,7 +8877,7 @@
       <c r="N29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29">
         <v>0.48738675958189398</v>
       </c>
     </row>
@@ -8930,7 +8929,7 @@
       <c r="N30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30">
         <v>0.22481448143996349</v>
       </c>
     </row>
@@ -8982,7 +8981,7 @@
       <c r="N31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31">
         <v>0.215393452039258</v>
       </c>
     </row>
@@ -9034,7 +9033,7 @@
       <c r="N32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32">
         <v>0.23423551084066899</v>
       </c>
     </row>
@@ -9086,7 +9085,7 @@
       <c r="N33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33">
         <v>0.3935388940891873</v>
       </c>
     </row>
@@ -9138,7 +9137,7 @@
       <c r="N34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34">
         <v>0.49365482001656452</v>
       </c>
     </row>
@@ -9190,7 +9189,7 @@
       <c r="N35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35">
         <v>0.52089407191416504</v>
       </c>
     </row>
@@ -9242,7 +9241,7 @@
       <c r="N36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36">
         <v>0.46641556811896401</v>
       </c>
     </row>
@@ -9294,7 +9293,7 @@
       <c r="N37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37">
         <v>0.29342296816181002</v>
       </c>
     </row>
@@ -9346,7 +9345,7 @@
       <c r="N38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38">
         <v>0.29179566563500697</v>
       </c>
     </row>
@@ -9398,7 +9397,7 @@
       <c r="N39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39">
         <v>0.295050270688613</v>
       </c>
     </row>
@@ -9450,7 +9449,7 @@
       <c r="N40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40">
         <v>0.35730962902056324</v>
       </c>
     </row>
@@ -9502,7 +9501,7 @@
       <c r="N41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41">
         <v>0.59359143492087996</v>
       </c>
     </row>
@@ -9554,7 +9553,7 @@
       <c r="N42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42">
         <v>0.61425959780623896</v>
       </c>
     </row>
@@ -9606,7 +9605,7 @@
       <c r="N43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43">
         <v>0.57292327203552096</v>
       </c>
     </row>
@@ -9658,7 +9657,7 @@
       <c r="N44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="16">
+      <c r="O44">
         <v>0.12102782312024651</v>
       </c>
     </row>
@@ -9710,7 +9709,7 @@
       <c r="N45" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45">
         <v>0.106077348512377</v>
       </c>
     </row>
@@ -9762,7 +9761,7 @@
       <c r="N46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O46" s="16">
+      <c r="O46">
         <v>0.13597829772811601</v>
       </c>
     </row>
@@ -9814,7 +9813,7 @@
       <c r="N47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47">
         <v>0.390005398521867</v>
       </c>
     </row>
@@ -13219,18 +13218,18 @@
   <sheetData>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -13269,10 +13268,10 @@
     </row>
     <row r="5" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -13301,8 +13300,8 @@
     </row>
     <row r="6" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
@@ -13329,8 +13328,8 @@
     </row>
     <row r="7" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -13359,8 +13358,8 @@
     </row>
     <row r="8" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
@@ -13387,10 +13386,10 @@
     </row>
     <row r="9" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -13419,8 +13418,8 @@
     </row>
     <row r="10" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
@@ -13447,8 +13446,8 @@
     </row>
     <row r="11" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -13477,8 +13476,8 @@
     </row>
     <row r="12" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
@@ -13505,10 +13504,10 @@
     </row>
     <row r="13" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -13537,8 +13536,8 @@
     </row>
     <row r="14" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
@@ -13565,8 +13564,8 @@
     </row>
     <row r="15" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -13595,8 +13594,8 @@
     </row>
     <row r="16" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
@@ -13623,10 +13622,10 @@
     </row>
     <row r="17" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -13655,8 +13654,8 @@
     </row>
     <row r="18" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
@@ -13683,8 +13682,8 @@
     </row>
     <row r="19" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -13713,8 +13712,8 @@
     </row>
     <row r="20" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
@@ -13741,10 +13740,10 @@
     </row>
     <row r="21" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -13773,8 +13772,8 @@
     </row>
     <row r="22" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
@@ -13801,8 +13800,8 @@
     </row>
     <row r="23" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -13831,8 +13830,8 @@
     </row>
     <row r="24" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
@@ -13859,10 +13858,10 @@
     </row>
     <row r="25" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -13891,8 +13890,8 @@
     </row>
     <row r="26" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
@@ -13919,8 +13918,8 @@
     </row>
     <row r="27" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -13949,8 +13948,8 @@
     </row>
     <row r="28" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
@@ -14172,11 +14171,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C17:C20"/>
@@ -14192,6 +14186,11 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14202,8 +14201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F68BBC-1C6E-44E2-9561-9966A635774D}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14407,23 +14406,23 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L35" si="0">IFERROR(G4/G5,0)</f>
+        <f t="shared" ref="L4" si="0">IFERROR(G4/G5,0)</f>
         <v>0.98913313936878433</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M35" si="1">IFERROR(H4/H5, 0)</f>
+        <f t="shared" ref="M4" si="1">IFERROR(H4/H5, 0)</f>
         <v>1.021163568989035</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N35" si="2">IFERROR(I4/I5, 0)</f>
+        <f t="shared" ref="N4" si="2">IFERROR(I4/I5, 0)</f>
         <v>0.96070695596641598</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O35" si="3">IFERROR(J4/J5, 0)</f>
+        <f t="shared" ref="O4" si="3">IFERROR(J4/J5, 0)</f>
         <v>0</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q35" si="4">_xlfn.CONCAT(ROUND(L4, 2), " (", ROUND(N4,2), " - ", ROUND(M4,2),  ")", IF(AND(O4 &lt;0.05, NOT(ISBLANK(O4))), "*", " ") )</f>
+        <f t="shared" ref="Q4" si="4">_xlfn.CONCAT(ROUND(L4, 2), " (", ROUND(N4,2), " - ", ROUND(M4,2),  ")", IF(AND(O4 &lt;0.05, NOT(ISBLANK(O4))), "*", " ") )</f>
         <v>0.99 (0.96 - 1.02)*</v>
       </c>
     </row>
@@ -14511,23 +14510,23 @@
         <v>1.5247713908139899E-288</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L37" si="5">IFERROR(G6/G7,0)</f>
+        <f t="shared" ref="L6" si="5">IFERROR(G6/G7,0)</f>
         <v>0.86008736587734891</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M37" si="6">IFERROR(H6/H7, 0)</f>
+        <f t="shared" ref="M6" si="6">IFERROR(H6/H7, 0)</f>
         <v>0.91201173800737678</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N37" si="7">IFERROR(I6/I7, 0)</f>
+        <f t="shared" ref="N6" si="7">IFERROR(I6/I7, 0)</f>
         <v>0.81827283178897692</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O37" si="8">IFERROR(J6/J7, 0)</f>
+        <f t="shared" ref="O6" si="8">IFERROR(J6/J7, 0)</f>
         <v>1.801564479619643E-215</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q37" si="9">_xlfn.CONCAT(ROUND(L6, 2), " (", ROUND(N6,2), " - ", ROUND(M6,2),  ")", IF(AND(O6 &lt;0.05, NOT(ISBLANK(O6))), "*", " ") )</f>
+        <f t="shared" ref="Q6" si="9">_xlfn.CONCAT(ROUND(L6, 2), " (", ROUND(N6,2), " - ", ROUND(M6,2),  ")", IF(AND(O6 &lt;0.05, NOT(ISBLANK(O6))), "*", " ") )</f>
         <v>0.86 (0.82 - 0.91)*</v>
       </c>
     </row>
@@ -14615,23 +14614,23 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L39" si="10">IFERROR(G8/G9,0)</f>
+        <f t="shared" ref="L8" si="10">IFERROR(G8/G9,0)</f>
         <v>1.0451521231965006</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M39" si="11">IFERROR(H8/H9, 0)</f>
+        <f t="shared" ref="M8" si="11">IFERROR(H8/H9, 0)</f>
         <v>1.1152843831263437</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N39" si="12">IFERROR(I8/I9, 0)</f>
+        <f t="shared" ref="N8" si="12">IFERROR(I8/I9, 0)</f>
         <v>0.98901130651854641</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O39" si="13">IFERROR(J8/J9, 0)</f>
+        <f t="shared" ref="O8" si="13">IFERROR(J8/J9, 0)</f>
         <v>0</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ref="Q8:Q39" si="14">_xlfn.CONCAT(ROUND(L8, 2), " (", ROUND(N8,2), " - ", ROUND(M8,2),  ")", IF(AND(O8 &lt;0.05, NOT(ISBLANK(O8))), "*", " ") )</f>
+        <f t="shared" ref="Q8" si="14">_xlfn.CONCAT(ROUND(L8, 2), " (", ROUND(N8,2), " - ", ROUND(M8,2),  ")", IF(AND(O8 &lt;0.05, NOT(ISBLANK(O8))), "*", " ") )</f>
         <v>1.05 (0.99 - 1.12)*</v>
       </c>
     </row>
@@ -14719,23 +14718,23 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L41" si="15">IFERROR(G10/G11,0)</f>
+        <f t="shared" ref="L10" si="15">IFERROR(G10/G11,0)</f>
         <v>0.88288849042192652</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M41" si="16">IFERROR(H10/H11, 0)</f>
+        <f t="shared" ref="M10" si="16">IFERROR(H10/H11, 0)</f>
         <v>0.90875953848640567</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N41" si="17">IFERROR(I10/I11, 0)</f>
+        <f t="shared" ref="N10" si="17">IFERROR(I10/I11, 0)</f>
         <v>0.85998464939472907</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O41" si="18">IFERROR(J10/J11, 0)</f>
+        <f t="shared" ref="O10" si="18">IFERROR(J10/J11, 0)</f>
         <v>0</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ref="Q10:Q41" si="19">_xlfn.CONCAT(ROUND(L10, 2), " (", ROUND(N10,2), " - ", ROUND(M10,2),  ")", IF(AND(O10 &lt;0.05, NOT(ISBLANK(O10))), "*", " ") )</f>
+        <f t="shared" ref="Q10" si="19">_xlfn.CONCAT(ROUND(L10, 2), " (", ROUND(N10,2), " - ", ROUND(M10,2),  ")", IF(AND(O10 &lt;0.05, NOT(ISBLANK(O10))), "*", " ") )</f>
         <v>0.88 (0.86 - 0.91)*</v>
       </c>
     </row>
@@ -14823,23 +14822,23 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L43" si="20">IFERROR(G12/G13,0)</f>
+        <f t="shared" ref="L12" si="20">IFERROR(G12/G13,0)</f>
         <v>0.99970622370517837</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M43" si="21">IFERROR(H12/H13, 0)</f>
+        <f t="shared" ref="M12" si="21">IFERROR(H12/H13, 0)</f>
         <v>1.0498375895785585</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N43" si="22">IFERROR(I12/I13, 0)</f>
+        <f t="shared" ref="N12" si="22">IFERROR(I12/I13, 0)</f>
         <v>0.95784653781059326</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O43" si="23">IFERROR(J12/J13, 0)</f>
+        <f t="shared" ref="O12" si="23">IFERROR(J12/J13, 0)</f>
         <v>0</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ref="Q12:Q43" si="24">_xlfn.CONCAT(ROUND(L12, 2), " (", ROUND(N12,2), " - ", ROUND(M12,2),  ")", IF(AND(O12 &lt;0.05, NOT(ISBLANK(O12))), "*", " ") )</f>
+        <f t="shared" ref="Q12" si="24">_xlfn.CONCAT(ROUND(L12, 2), " (", ROUND(N12,2), " - ", ROUND(M12,2),  ")", IF(AND(O12 &lt;0.05, NOT(ISBLANK(O12))), "*", " ") )</f>
         <v>1 (0.96 - 1.05)*</v>
       </c>
     </row>
@@ -14927,23 +14926,23 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L45" si="25">IFERROR(G14/G15,0)</f>
+        <f t="shared" ref="L14" si="25">IFERROR(G14/G15,0)</f>
         <v>1.0110476578030458</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M45" si="26">IFERROR(H14/H15, 0)</f>
+        <f t="shared" ref="M14" si="26">IFERROR(H14/H15, 0)</f>
         <v>1.0423693731415129</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N45" si="27">IFERROR(I14/I15, 0)</f>
+        <f t="shared" ref="N14" si="27">IFERROR(I14/I15, 0)</f>
         <v>0.98341386840112466</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O45" si="28">IFERROR(J14/J15, 0)</f>
+        <f t="shared" ref="O14" si="28">IFERROR(J14/J15, 0)</f>
         <v>0</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ref="Q14:Q45" si="29">_xlfn.CONCAT(ROUND(L14, 2), " (", ROUND(N14,2), " - ", ROUND(M14,2),  ")", IF(AND(O14 &lt;0.05, NOT(ISBLANK(O14))), "*", " ") )</f>
+        <f t="shared" ref="Q14" si="29">_xlfn.CONCAT(ROUND(L14, 2), " (", ROUND(N14,2), " - ", ROUND(M14,2),  ")", IF(AND(O14 &lt;0.05, NOT(ISBLANK(O14))), "*", " ") )</f>
         <v>1.01 (0.98 - 1.04)*</v>
       </c>
     </row>
@@ -15031,23 +15030,23 @@
         <v>1.0687423870702899E-278</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L47" si="30">IFERROR(G16/G17,0)</f>
+        <f t="shared" ref="L16" si="30">IFERROR(G16/G17,0)</f>
         <v>0.94680010183053276</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M47" si="31">IFERROR(H16/H17, 0)</f>
+        <f t="shared" ref="M16" si="31">IFERROR(H16/H17, 0)</f>
         <v>0.99438252639995151</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:N47" si="32">IFERROR(I16/I17, 0)</f>
+        <f t="shared" ref="N16" si="32">IFERROR(I16/I17, 0)</f>
         <v>0.90788207376495345</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O47" si="33">IFERROR(J16/J17, 0)</f>
+        <f t="shared" ref="O16" si="33">IFERROR(J16/J17, 0)</f>
         <v>3.6282992833310727E-194</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ref="Q16:Q47" si="34">_xlfn.CONCAT(ROUND(L16, 2), " (", ROUND(N16,2), " - ", ROUND(M16,2),  ")", IF(AND(O16 &lt;0.05, NOT(ISBLANK(O16))), "*", " ") )</f>
+        <f t="shared" ref="Q16" si="34">_xlfn.CONCAT(ROUND(L16, 2), " (", ROUND(N16,2), " - ", ROUND(M16,2),  ")", IF(AND(O16 &lt;0.05, NOT(ISBLANK(O16))), "*", " ") )</f>
         <v>0.95 (0.91 - 0.99)*</v>
       </c>
     </row>
@@ -15135,23 +15134,23 @@
         <v>3.17920637696875E-251</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L49" si="35">IFERROR(G18/G19,0)</f>
+        <f t="shared" ref="L18" si="35">IFERROR(G18/G19,0)</f>
         <v>1.0336696643999663</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M49" si="36">IFERROR(H18/H19, 0)</f>
+        <f t="shared" ref="M18" si="36">IFERROR(H18/H19, 0)</f>
         <v>1.0898721784694567</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N49" si="37">IFERROR(I18/I19, 0)</f>
+        <f t="shared" ref="N18" si="37">IFERROR(I18/I19, 0)</f>
         <v>0.9882839807425452</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O49" si="38">IFERROR(J18/J19, 0)</f>
+        <f t="shared" ref="O18" si="38">IFERROR(J18/J19, 0)</f>
         <v>2.7718956504632462E-176</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ref="Q18:Q49" si="39">_xlfn.CONCAT(ROUND(L18, 2), " (", ROUND(N18,2), " - ", ROUND(M18,2),  ")", IF(AND(O18 &lt;0.05, NOT(ISBLANK(O18))), "*", " ") )</f>
+        <f t="shared" ref="Q18" si="39">_xlfn.CONCAT(ROUND(L18, 2), " (", ROUND(N18,2), " - ", ROUND(M18,2),  ")", IF(AND(O18 &lt;0.05, NOT(ISBLANK(O18))), "*", " ") )</f>
         <v>1.03 (0.99 - 1.09)*</v>
       </c>
     </row>
@@ -15239,23 +15238,23 @@
         <v>8.45164143897459E-74</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L51" si="40">IFERROR(G20/G21,0)</f>
+        <f t="shared" ref="L20" si="40">IFERROR(G20/G21,0)</f>
         <v>1.1111111111105882</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M51" si="41">IFERROR(H20/H21, 0)</f>
+        <f t="shared" ref="M20" si="41">IFERROR(H20/H21, 0)</f>
         <v>1.4058798320176662</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N51" si="42">IFERROR(I20/I21, 0)</f>
+        <f t="shared" ref="N20" si="42">IFERROR(I20/I21, 0)</f>
         <v>0.95060559104225184</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O51" si="43">IFERROR(J20/J21, 0)</f>
+        <f t="shared" ref="O20" si="43">IFERROR(J20/J21, 0)</f>
         <v>2.8074325514972177E-63</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ref="Q20:Q51" si="44">_xlfn.CONCAT(ROUND(L20, 2), " (", ROUND(N20,2), " - ", ROUND(M20,2),  ")", IF(AND(O20 &lt;0.05, NOT(ISBLANK(O20))), "*", " ") )</f>
+        <f t="shared" ref="Q20" si="44">_xlfn.CONCAT(ROUND(L20, 2), " (", ROUND(N20,2), " - ", ROUND(M20,2),  ")", IF(AND(O20 &lt;0.05, NOT(ISBLANK(O20))), "*", " ") )</f>
         <v>1.11 (0.95 - 1.41)*</v>
       </c>
     </row>
@@ -15343,23 +15342,23 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L53" si="45">IFERROR(G22/G23,0)</f>
+        <f t="shared" ref="L22" si="45">IFERROR(G22/G23,0)</f>
         <v>0.92878866191831111</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M53" si="46">IFERROR(H22/H23, 0)</f>
+        <f t="shared" ref="M22" si="46">IFERROR(H22/H23, 0)</f>
         <v>0.9430419631429765</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N53" si="47">IFERROR(I22/I23, 0)</f>
+        <f t="shared" ref="N22" si="47">IFERROR(I22/I23, 0)</f>
         <v>0.91545906662900145</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O53" si="48">IFERROR(J22/J23, 0)</f>
+        <f t="shared" ref="O22" si="48">IFERROR(J22/J23, 0)</f>
         <v>0</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ref="Q22:Q53" si="49">_xlfn.CONCAT(ROUND(L22, 2), " (", ROUND(N22,2), " - ", ROUND(M22,2),  ")", IF(AND(O22 &lt;0.05, NOT(ISBLANK(O22))), "*", " ") )</f>
+        <f t="shared" ref="Q22" si="49">_xlfn.CONCAT(ROUND(L22, 2), " (", ROUND(N22,2), " - ", ROUND(M22,2),  ")", IF(AND(O22 &lt;0.05, NOT(ISBLANK(O22))), "*", " ") )</f>
         <v>0.93 (0.92 - 0.94)*</v>
       </c>
     </row>
@@ -15447,23 +15446,23 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L55" si="50">IFERROR(G24/G25,0)</f>
+        <f t="shared" ref="L24" si="50">IFERROR(G24/G25,0)</f>
         <v>1.1284886860113814</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M55" si="51">IFERROR(H24/H25, 0)</f>
+        <f t="shared" ref="M24" si="51">IFERROR(H24/H25, 0)</f>
         <v>1.1971347398672327</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N55" si="52">IFERROR(I24/I25, 0)</f>
+        <f t="shared" ref="N24" si="52">IFERROR(I24/I25, 0)</f>
         <v>1.0723340884236823</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O55" si="53">IFERROR(J24/J25, 0)</f>
+        <f t="shared" ref="O24" si="53">IFERROR(J24/J25, 0)</f>
         <v>0</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ref="Q24:Q55" si="54">_xlfn.CONCAT(ROUND(L24, 2), " (", ROUND(N24,2), " - ", ROUND(M24,2),  ")", IF(AND(O24 &lt;0.05, NOT(ISBLANK(O24))), "*", " ") )</f>
+        <f t="shared" ref="Q24" si="54">_xlfn.CONCAT(ROUND(L24, 2), " (", ROUND(N24,2), " - ", ROUND(M24,2),  ")", IF(AND(O24 &lt;0.05, NOT(ISBLANK(O24))), "*", " ") )</f>
         <v>1.13 (1.07 - 1.2)*</v>
       </c>
     </row>
@@ -15551,23 +15550,23 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L57" si="55">IFERROR(G26/G27,0)</f>
+        <f t="shared" ref="L26" si="55">IFERROR(G26/G27,0)</f>
         <v>0.95554700512895863</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M57" si="56">IFERROR(H26/H27, 0)</f>
+        <f t="shared" ref="M26" si="56">IFERROR(H26/H27, 0)</f>
         <v>0.98015039498809331</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N57" si="57">IFERROR(I26/I27, 0)</f>
+        <f t="shared" ref="N26" si="57">IFERROR(I26/I27, 0)</f>
         <v>0.93332157263150484</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O57" si="58">IFERROR(J26/J27, 0)</f>
+        <f t="shared" ref="O26" si="58">IFERROR(J26/J27, 0)</f>
         <v>0</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" ref="Q26:Q57" si="59">_xlfn.CONCAT(ROUND(L26, 2), " (", ROUND(N26,2), " - ", ROUND(M26,2),  ")", IF(AND(O26 &lt;0.05, NOT(ISBLANK(O26))), "*", " ") )</f>
+        <f t="shared" ref="Q26" si="59">_xlfn.CONCAT(ROUND(L26, 2), " (", ROUND(N26,2), " - ", ROUND(M26,2),  ")", IF(AND(O26 &lt;0.05, NOT(ISBLANK(O26))), "*", " ") )</f>
         <v>0.96 (0.93 - 0.98)*</v>
       </c>
     </row>
@@ -15655,23 +15654,23 @@
         <v>5.8598858583285003E-252</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:L59" si="60">IFERROR(G28/G29,0)</f>
+        <f t="shared" ref="L28" si="60">IFERROR(G28/G29,0)</f>
         <v>1.1585186678864134</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M59" si="61">IFERROR(H28/H29, 0)</f>
+        <f t="shared" ref="M28" si="61">IFERROR(H28/H29, 0)</f>
         <v>1.2607810339929204</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N59" si="62">IFERROR(I28/I29, 0)</f>
+        <f t="shared" ref="N28" si="62">IFERROR(I28/I29, 0)</f>
         <v>1.0804608553856565</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O59" si="63">IFERROR(J28/J29, 0)</f>
+        <f t="shared" ref="O28" si="63">IFERROR(J28/J29, 0)</f>
         <v>2.1306950745795402E-204</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" ref="Q28:Q59" si="64">_xlfn.CONCAT(ROUND(L28, 2), " (", ROUND(N28,2), " - ", ROUND(M28,2),  ")", IF(AND(O28 &lt;0.05, NOT(ISBLANK(O28))), "*", " ") )</f>
+        <f t="shared" ref="Q28" si="64">_xlfn.CONCAT(ROUND(L28, 2), " (", ROUND(N28,2), " - ", ROUND(M28,2),  ")", IF(AND(O28 &lt;0.05, NOT(ISBLANK(O28))), "*", " ") )</f>
         <v>1.16 (1.08 - 1.26)*</v>
       </c>
     </row>
@@ -15759,23 +15758,23 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L61" si="65">IFERROR(G30/G31,0)</f>
+        <f t="shared" ref="L30" si="65">IFERROR(G30/G31,0)</f>
         <v>0.92536029434536682</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:M61" si="66">IFERROR(H30/H31, 0)</f>
+        <f t="shared" ref="M30" si="66">IFERROR(H30/H31, 0)</f>
         <v>0.94279582994576505</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N61" si="67">IFERROR(I30/I31, 0)</f>
+        <f t="shared" ref="N30" si="67">IFERROR(I30/I31, 0)</f>
         <v>0.90944808380056863</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O61" si="68">IFERROR(J30/J31, 0)</f>
+        <f t="shared" ref="O30" si="68">IFERROR(J30/J31, 0)</f>
         <v>0</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q61" si="69">_xlfn.CONCAT(ROUND(L30, 2), " (", ROUND(N30,2), " - ", ROUND(M30,2),  ")", IF(AND(O30 &lt;0.05, NOT(ISBLANK(O30))), "*", " ") )</f>
+        <f t="shared" ref="Q30" si="69">_xlfn.CONCAT(ROUND(L30, 2), " (", ROUND(N30,2), " - ", ROUND(M30,2),  ")", IF(AND(O30 &lt;0.05, NOT(ISBLANK(O30))), "*", " ") )</f>
         <v>0.93 (0.91 - 0.94)*</v>
       </c>
     </row>
@@ -15863,23 +15862,23 @@
         <v>1.7245181450306901E-139</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:L63" si="70">IFERROR(G32/G33,0)</f>
+        <f t="shared" ref="L32" si="70">IFERROR(G32/G33,0)</f>
         <v>1.2351218299140501</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M63" si="71">IFERROR(H32/H33, 0)</f>
+        <f t="shared" ref="M32" si="71">IFERROR(H32/H33, 0)</f>
         <v>1.3521192673768416</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N63" si="72">IFERROR(I32/I33, 0)</f>
+        <f t="shared" ref="N32" si="72">IFERROR(I32/I33, 0)</f>
         <v>1.1500056010643802</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O63" si="73">IFERROR(J32/J33, 0)</f>
+        <f t="shared" ref="O32" si="73">IFERROR(J32/J33, 0)</f>
         <v>9.0589328275757676E-105</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" ref="Q32:Q63" si="74">_xlfn.CONCAT(ROUND(L32, 2), " (", ROUND(N32,2), " - ", ROUND(M32,2),  ")", IF(AND(O32 &lt;0.05, NOT(ISBLANK(O32))), "*", " ") )</f>
+        <f t="shared" ref="Q32" si="74">_xlfn.CONCAT(ROUND(L32, 2), " (", ROUND(N32,2), " - ", ROUND(M32,2),  ")", IF(AND(O32 &lt;0.05, NOT(ISBLANK(O32))), "*", " ") )</f>
         <v>1.24 (1.15 - 1.35)*</v>
       </c>
     </row>
@@ -15967,23 +15966,23 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="75">IFERROR(G34/G35,0)</f>
+        <f t="shared" ref="L34" si="75">IFERROR(G34/G35,0)</f>
         <v>0.95835957729682641</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M65" si="76">IFERROR(H34/H35, 0)</f>
+        <f t="shared" ref="M34" si="76">IFERROR(H34/H35, 0)</f>
         <v>0.99587478366190563</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="77">IFERROR(I34/I35, 0)</f>
+        <f t="shared" ref="N34" si="77">IFERROR(I34/I35, 0)</f>
         <v>0.92685126755739888</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="78">IFERROR(J34/J35, 0)</f>
+        <f t="shared" ref="O34" si="78">IFERROR(J34/J35, 0)</f>
         <v>0</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" ref="Q34:Q65" si="79">_xlfn.CONCAT(ROUND(L34, 2), " (", ROUND(N34,2), " - ", ROUND(M34,2),  ")", IF(AND(O34 &lt;0.05, NOT(ISBLANK(O34))), "*", " ") )</f>
+        <f t="shared" ref="Q34" si="79">_xlfn.CONCAT(ROUND(L34, 2), " (", ROUND(N34,2), " - ", ROUND(M34,2),  ")", IF(AND(O34 &lt;0.05, NOT(ISBLANK(O34))), "*", " ") )</f>
         <v>0.96 (0.93 - 1)*</v>
       </c>
     </row>
@@ -16071,23 +16070,23 @@
         <v>1.8390630319324302E-42</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L67" si="80">IFERROR(G36/G37,0)</f>
+        <f t="shared" ref="L36" si="80">IFERROR(G36/G37,0)</f>
         <v>1.3072057205726311</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:M67" si="81">IFERROR(H36/H37, 0)</f>
+        <f t="shared" ref="M36" si="81">IFERROR(H36/H37, 0)</f>
         <v>1.770251869656674</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N67" si="82">IFERROR(I36/I37, 0)</f>
+        <f t="shared" ref="N36" si="82">IFERROR(I36/I37, 0)</f>
         <v>1.0930595439470863</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O67" si="83">IFERROR(J36/J37, 0)</f>
+        <f t="shared" ref="O36" si="83">IFERROR(J36/J37, 0)</f>
         <v>1.8990560416017504E-35</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" ref="Q36:Q67" si="84">_xlfn.CONCAT(ROUND(L36, 2), " (", ROUND(N36,2), " - ", ROUND(M36,2),  ")", IF(AND(O36 &lt;0.05, NOT(ISBLANK(O36))), "*", " ") )</f>
+        <f t="shared" ref="Q36" si="84">_xlfn.CONCAT(ROUND(L36, 2), " (", ROUND(N36,2), " - ", ROUND(M36,2),  ")", IF(AND(O36 &lt;0.05, NOT(ISBLANK(O36))), "*", " ") )</f>
         <v>1.31 (1.09 - 1.77)*</v>
       </c>
     </row>
@@ -16175,23 +16174,23 @@
         <v>1.07160073247481E-41</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L69" si="85">IFERROR(G38/G39,0)</f>
+        <f t="shared" ref="L38" si="85">IFERROR(G38/G39,0)</f>
         <v>1.099999999969645</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:M69" si="86">IFERROR(H38/H39, 0)</f>
+        <f t="shared" ref="M38" si="86">IFERROR(H38/H39, 0)</f>
         <v>1.3635803690510457</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N69" si="87">IFERROR(I38/I39, 0)</f>
+        <f t="shared" ref="N38" si="87">IFERROR(I38/I39, 0)</f>
         <v>1</v>
       </c>
       <c r="O38">
-        <f t="shared" ref="O38:O69" si="88">IFERROR(J38/J39, 0)</f>
+        <f t="shared" ref="O38" si="88">IFERROR(J38/J39, 0)</f>
         <v>4.0661228295695771E-32</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" ref="Q38:Q69" si="89">_xlfn.CONCAT(ROUND(L38, 2), " (", ROUND(N38,2), " - ", ROUND(M38,2),  ")", IF(AND(O38 &lt;0.05, NOT(ISBLANK(O38))), "*", " ") )</f>
+        <f t="shared" ref="Q38" si="89">_xlfn.CONCAT(ROUND(L38, 2), " (", ROUND(N38,2), " - ", ROUND(M38,2),  ")", IF(AND(O38 &lt;0.05, NOT(ISBLANK(O38))), "*", " ") )</f>
         <v>1.1 (1 - 1.36)*</v>
       </c>
     </row>
@@ -16279,23 +16278,23 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:L71" si="90">IFERROR(G40/G41,0)</f>
+        <f t="shared" ref="L40" si="90">IFERROR(G40/G41,0)</f>
         <v>1.0000002402974009</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:M71" si="91">IFERROR(H40/H41, 0)</f>
+        <f t="shared" ref="M40" si="91">IFERROR(H40/H41, 0)</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" ref="N40:N71" si="92">IFERROR(I40/I41, 0)</f>
+        <f t="shared" ref="N40" si="92">IFERROR(I40/I41, 0)</f>
         <v>1</v>
       </c>
       <c r="O40">
-        <f t="shared" ref="O40:O71" si="93">IFERROR(J40/J41, 0)</f>
+        <f t="shared" ref="O40" si="93">IFERROR(J40/J41, 0)</f>
         <v>0</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" ref="Q40:Q71" si="94">_xlfn.CONCAT(ROUND(L40, 2), " (", ROUND(N40,2), " - ", ROUND(M40,2),  ")", IF(AND(O40 &lt;0.05, NOT(ISBLANK(O40))), "*", " ") )</f>
+        <f t="shared" ref="Q40" si="94">_xlfn.CONCAT(ROUND(L40, 2), " (", ROUND(N40,2), " - ", ROUND(M40,2),  ")", IF(AND(O40 &lt;0.05, NOT(ISBLANK(O40))), "*", " ") )</f>
         <v>1 (1 - 0)*</v>
       </c>
     </row>
@@ -16383,23 +16382,23 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:L73" si="95">IFERROR(G42/G43,0)</f>
+        <f t="shared" ref="L42" si="95">IFERROR(G42/G43,0)</f>
         <v>1.0322158116321629</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42:M73" si="96">IFERROR(H42/H43, 0)</f>
+        <f t="shared" ref="M42" si="96">IFERROR(H42/H43, 0)</f>
         <v>1.049438161328645</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42:N73" si="97">IFERROR(I42/I43, 0)</f>
+        <f t="shared" ref="N42" si="97">IFERROR(I42/I43, 0)</f>
         <v>1.0165295582937688</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O73" si="98">IFERROR(J42/J43, 0)</f>
+        <f t="shared" ref="O42" si="98">IFERROR(J42/J43, 0)</f>
         <v>0</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ref="Q42:Q73" si="99">_xlfn.CONCAT(ROUND(L42, 2), " (", ROUND(N42,2), " - ", ROUND(M42,2),  ")", IF(AND(O42 &lt;0.05, NOT(ISBLANK(O42))), "*", " ") )</f>
+        <f t="shared" ref="Q42" si="99">_xlfn.CONCAT(ROUND(L42, 2), " (", ROUND(N42,2), " - ", ROUND(M42,2),  ")", IF(AND(O42 &lt;0.05, NOT(ISBLANK(O42))), "*", " ") )</f>
         <v>1.03 (1.02 - 1.05)*</v>
       </c>
     </row>
@@ -16487,23 +16486,23 @@
         <v>8.2880721088018199E-196</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:L75" si="100">IFERROR(G44/G45,0)</f>
+        <f t="shared" ref="L44" si="100">IFERROR(G44/G45,0)</f>
         <v>1.2734734003476409</v>
       </c>
       <c r="M44">
-        <f t="shared" ref="M44:M75" si="101">IFERROR(H44/H45, 0)</f>
+        <f t="shared" ref="M44" si="101">IFERROR(H44/H45, 0)</f>
         <v>1.3605099392037572</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:N75" si="102">IFERROR(I44/I45, 0)</f>
+        <f t="shared" ref="N44" si="102">IFERROR(I44/I45, 0)</f>
         <v>1.205837353399388</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:O75" si="103">IFERROR(J44/J45, 0)</f>
+        <f t="shared" ref="O44" si="103">IFERROR(J44/J45, 0)</f>
         <v>1.7123236815032867E-141</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" ref="Q44:Q75" si="104">_xlfn.CONCAT(ROUND(L44, 2), " (", ROUND(N44,2), " - ", ROUND(M44,2),  ")", IF(AND(O44 &lt;0.05, NOT(ISBLANK(O44))), "*", " ") )</f>
+        <f t="shared" ref="Q44" si="104">_xlfn.CONCAT(ROUND(L44, 2), " (", ROUND(N44,2), " - ", ROUND(M44,2),  ")", IF(AND(O44 &lt;0.05, NOT(ISBLANK(O44))), "*", " ") )</f>
         <v>1.27 (1.21 - 1.36)*</v>
       </c>
     </row>
@@ -16591,23 +16590,23 @@
         <v>3.9027411100951802E-82</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:L77" si="105">IFERROR(G46/G47,0)</f>
+        <f t="shared" ref="L46" si="105">IFERROR(G46/G47,0)</f>
         <v>1.026941685765224</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:M77" si="106">IFERROR(H46/H47, 0)</f>
+        <f t="shared" ref="M46" si="106">IFERROR(H46/H47, 0)</f>
         <v>1.0656286980069842</v>
       </c>
       <c r="N46">
-        <f t="shared" ref="N46:N77" si="107">IFERROR(I46/I47, 0)</f>
+        <f t="shared" ref="N46" si="107">IFERROR(I46/I47, 0)</f>
         <v>0.99743936649098641</v>
       </c>
       <c r="O46">
-        <f t="shared" ref="O46:O77" si="108">IFERROR(J46/J47, 0)</f>
+        <f t="shared" ref="O46" si="108">IFERROR(J46/J47, 0)</f>
         <v>6.8042557323835812E-35</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" ref="Q46:Q77" si="109">_xlfn.CONCAT(ROUND(L46, 2), " (", ROUND(N46,2), " - ", ROUND(M46,2),  ")", IF(AND(O46 &lt;0.05, NOT(ISBLANK(O46))), "*", " ") )</f>
+        <f t="shared" ref="Q46" si="109">_xlfn.CONCAT(ROUND(L46, 2), " (", ROUND(N46,2), " - ", ROUND(M46,2),  ")", IF(AND(O46 &lt;0.05, NOT(ISBLANK(O46))), "*", " ") )</f>
         <v>1.03 (1 - 1.07)*</v>
       </c>
     </row>
@@ -16695,23 +16694,23 @@
         <v>2.8208218528763002E-41</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:L79" si="110">IFERROR(G48/G49,0)</f>
+        <f t="shared" ref="L48" si="110">IFERROR(G48/G49,0)</f>
         <v>1.4599785444683031</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:M79" si="111">IFERROR(H48/H49, 0)</f>
+        <f t="shared" ref="M48" si="111">IFERROR(H48/H49, 0)</f>
         <v>1.7837736079602442</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48:N79" si="112">IFERROR(I48/I49, 0)</f>
+        <f t="shared" ref="N48" si="112">IFERROR(I48/I49, 0)</f>
         <v>1.2859090517476126</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:O79" si="113">IFERROR(J48/J49, 0)</f>
+        <f t="shared" ref="O48" si="113">IFERROR(J48/J49, 0)</f>
         <v>3.9388370316726923E-31</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" ref="Q48:Q79" si="114">_xlfn.CONCAT(ROUND(L48, 2), " (", ROUND(N48,2), " - ", ROUND(M48,2),  ")", IF(AND(O48 &lt;0.05, NOT(ISBLANK(O48))), "*", " ") )</f>
+        <f t="shared" ref="Q48" si="114">_xlfn.CONCAT(ROUND(L48, 2), " (", ROUND(N48,2), " - ", ROUND(M48,2),  ")", IF(AND(O48 &lt;0.05, NOT(ISBLANK(O48))), "*", " ") )</f>
         <v>1.46 (1.29 - 1.78)*</v>
       </c>
     </row>
@@ -16799,23 +16798,23 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50:L81" si="115">IFERROR(G50/G51,0)</f>
+        <f t="shared" ref="L50" si="115">IFERROR(G50/G51,0)</f>
         <v>1.0629573212192529</v>
       </c>
       <c r="M50">
-        <f t="shared" ref="M50:M81" si="116">IFERROR(H50/H51, 0)</f>
+        <f t="shared" ref="M50" si="116">IFERROR(H50/H51, 0)</f>
         <v>1.0865511965874297</v>
       </c>
       <c r="N50">
-        <f t="shared" ref="N50:N81" si="117">IFERROR(I50/I51, 0)</f>
+        <f t="shared" ref="N50" si="117">IFERROR(I50/I51, 0)</f>
         <v>1.042289534802328</v>
       </c>
       <c r="O50">
-        <f t="shared" ref="O50:O81" si="118">IFERROR(J50/J51, 0)</f>
+        <f t="shared" ref="O50" si="118">IFERROR(J50/J51, 0)</f>
         <v>0</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" ref="Q50:Q81" si="119">_xlfn.CONCAT(ROUND(L50, 2), " (", ROUND(N50,2), " - ", ROUND(M50,2),  ")", IF(AND(O50 &lt;0.05, NOT(ISBLANK(O50))), "*", " ") )</f>
+        <f t="shared" ref="Q50" si="119">_xlfn.CONCAT(ROUND(L50, 2), " (", ROUND(N50,2), " - ", ROUND(M50,2),  ")", IF(AND(O50 &lt;0.05, NOT(ISBLANK(O50))), "*", " ") )</f>
         <v>1.06 (1.04 - 1.09)*</v>
       </c>
     </row>
@@ -16903,23 +16902,23 @@
         <v>3.0941930923561102E-82</v>
       </c>
       <c r="L52">
-        <f t="shared" ref="L52:L83" si="120">IFERROR(G52/G53,0)</f>
+        <f t="shared" ref="L52" si="120">IFERROR(G52/G53,0)</f>
         <v>1.198250728864753</v>
       </c>
       <c r="M52">
-        <f t="shared" ref="M52:M83" si="121">IFERROR(H52/H53, 0)</f>
+        <f t="shared" ref="M52" si="121">IFERROR(H52/H53, 0)</f>
         <v>1.3049185986517602</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N83" si="122">IFERROR(I52/I53, 0)</f>
+        <f t="shared" ref="N52" si="122">IFERROR(I52/I53, 0)</f>
         <v>1.1234233934540225</v>
       </c>
       <c r="O52">
-        <f t="shared" ref="O52:O83" si="123">IFERROR(J52/J53, 0)</f>
+        <f t="shared" ref="O52" si="123">IFERROR(J52/J53, 0)</f>
         <v>5.5376340334540013E-54</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" ref="Q52:Q83" si="124">_xlfn.CONCAT(ROUND(L52, 2), " (", ROUND(N52,2), " - ", ROUND(M52,2),  ")", IF(AND(O52 &lt;0.05, NOT(ISBLANK(O52))), "*", " ") )</f>
+        <f t="shared" ref="Q52" si="124">_xlfn.CONCAT(ROUND(L52, 2), " (", ROUND(N52,2), " - ", ROUND(M52,2),  ")", IF(AND(O52 &lt;0.05, NOT(ISBLANK(O52))), "*", " ") )</f>
         <v>1.2 (1.12 - 1.3)*</v>
       </c>
     </row>
@@ -17007,23 +17006,23 @@
         <v>4.0980857948529698E-289</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54:L85" si="125">IFERROR(G54/G55,0)</f>
+        <f t="shared" ref="L54" si="125">IFERROR(G54/G55,0)</f>
         <v>0.96119402985107494</v>
       </c>
       <c r="M54">
-        <f t="shared" ref="M54:M85" si="126">IFERROR(H54/H55, 0)</f>
+        <f t="shared" ref="M54" si="126">IFERROR(H54/H55, 0)</f>
         <v>0.99291587271291815</v>
       </c>
       <c r="N54">
-        <f t="shared" ref="N54:N85" si="127">IFERROR(I54/I55, 0)</f>
+        <f t="shared" ref="N54" si="127">IFERROR(I54/I55, 0)</f>
         <v>0.93439725047205591</v>
       </c>
       <c r="O54">
-        <f t="shared" ref="O54:O85" si="128">IFERROR(J54/J55, 0)</f>
+        <f t="shared" ref="O54" si="128">IFERROR(J54/J55, 0)</f>
         <v>6.970081641867964E-170</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" ref="Q54:Q85" si="129">_xlfn.CONCAT(ROUND(L54, 2), " (", ROUND(N54,2), " - ", ROUND(M54,2),  ")", IF(AND(O54 &lt;0.05, NOT(ISBLANK(O54))), "*", " ") )</f>
+        <f t="shared" ref="Q54" si="129">_xlfn.CONCAT(ROUND(L54, 2), " (", ROUND(N54,2), " - ", ROUND(M54,2),  ")", IF(AND(O54 &lt;0.05, NOT(ISBLANK(O54))), "*", " ") )</f>
         <v>0.96 (0.93 - 0.99)*</v>
       </c>
     </row>
@@ -17111,23 +17110,23 @@
         <v>2.1169174738636902E-73</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56:L87" si="130">IFERROR(G56/G57,0)</f>
+        <f t="shared" ref="L56" si="130">IFERROR(G56/G57,0)</f>
         <v>1.1462785564570992</v>
       </c>
       <c r="M56">
-        <f t="shared" ref="M56:M87" si="131">IFERROR(H56/H57, 0)</f>
+        <f t="shared" ref="M56" si="131">IFERROR(H56/H57, 0)</f>
         <v>1.3214928584224741</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:N87" si="132">IFERROR(I56/I57, 0)</f>
+        <f t="shared" ref="N56" si="132">IFERROR(I56/I57, 0)</f>
         <v>1.0357551128668727</v>
       </c>
       <c r="O56">
-        <f t="shared" ref="O56:O87" si="133">IFERROR(J56/J57, 0)</f>
+        <f t="shared" ref="O56" si="133">IFERROR(J56/J57, 0)</f>
         <v>4.3748093231211315E-56</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" ref="Q56:Q87" si="134">_xlfn.CONCAT(ROUND(L56, 2), " (", ROUND(N56,2), " - ", ROUND(M56,2),  ")", IF(AND(O56 &lt;0.05, NOT(ISBLANK(O56))), "*", " ") )</f>
+        <f t="shared" ref="Q56" si="134">_xlfn.CONCAT(ROUND(L56, 2), " (", ROUND(N56,2), " - ", ROUND(M56,2),  ")", IF(AND(O56 &lt;0.05, NOT(ISBLANK(O56))), "*", " ") )</f>
         <v>1.15 (1.04 - 1.32)*</v>
       </c>
     </row>
@@ -17215,23 +17214,23 @@
         <v>2.7820948046816102E-122</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58:L89" si="135">IFERROR(G58/G59,0)</f>
+        <f t="shared" ref="L58" si="135">IFERROR(G58/G59,0)</f>
         <v>1.0557951017587985</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58:M89" si="136">IFERROR(H58/H59, 0)</f>
+        <f t="shared" ref="M58" si="136">IFERROR(H58/H59, 0)</f>
         <v>1.1453408118450696</v>
       </c>
       <c r="N58">
-        <f t="shared" ref="N58:N89" si="137">IFERROR(I58/I59, 0)</f>
+        <f t="shared" ref="N58" si="137">IFERROR(I58/I59, 0)</f>
         <v>0.99028485714820214</v>
       </c>
       <c r="O58">
-        <f t="shared" ref="O58:O89" si="138">IFERROR(J58/J59, 0)</f>
+        <f t="shared" ref="O58" si="138">IFERROR(J58/J59, 0)</f>
         <v>2.3035786174036447E-86</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" ref="Q58:Q89" si="139">_xlfn.CONCAT(ROUND(L58, 2), " (", ROUND(N58,2), " - ", ROUND(M58,2),  ")", IF(AND(O58 &lt;0.05, NOT(ISBLANK(O58))), "*", " ") )</f>
+        <f t="shared" ref="Q58" si="139">_xlfn.CONCAT(ROUND(L58, 2), " (", ROUND(N58,2), " - ", ROUND(M58,2),  ")", IF(AND(O58 &lt;0.05, NOT(ISBLANK(O58))), "*", " ") )</f>
         <v>1.06 (0.99 - 1.15)*</v>
       </c>
     </row>
@@ -17319,23 +17318,23 @@
         <v>7.3429598082326996E-25</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60:L91" si="140">IFERROR(G60/G61,0)</f>
+        <f t="shared" ref="L60" si="140">IFERROR(G60/G61,0)</f>
         <v>0.93749999999940259</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M91" si="141">IFERROR(H60/H61, 0)</f>
+        <f t="shared" ref="M60" si="141">IFERROR(H60/H61, 0)</f>
         <v>1.1840488957407367</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:N91" si="142">IFERROR(I60/I61, 0)</f>
+        <f t="shared" ref="N60" si="142">IFERROR(I60/I61, 0)</f>
         <v>0.82119642184562514</v>
       </c>
       <c r="O60">
-        <f t="shared" ref="O60:O91" si="143">IFERROR(J60/J61, 0)</f>
+        <f t="shared" ref="O60" si="143">IFERROR(J60/J61, 0)</f>
         <v>1.544762222307857E-17</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" ref="Q60:Q91" si="144">_xlfn.CONCAT(ROUND(L60, 2), " (", ROUND(N60,2), " - ", ROUND(M60,2),  ")", IF(AND(O60 &lt;0.05, NOT(ISBLANK(O60))), "*", " ") )</f>
+        <f t="shared" ref="Q60" si="144">_xlfn.CONCAT(ROUND(L60, 2), " (", ROUND(N60,2), " - ", ROUND(M60,2),  ")", IF(AND(O60 &lt;0.05, NOT(ISBLANK(O60))), "*", " ") )</f>
         <v>0.94 (0.82 - 1.18)*</v>
       </c>
     </row>
@@ -17423,23 +17422,23 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" ref="L62:L93" si="145">IFERROR(G62/G63,0)</f>
+        <f t="shared" ref="L62" si="145">IFERROR(G62/G63,0)</f>
         <v>0.92177924328403849</v>
       </c>
       <c r="M62">
-        <f t="shared" ref="M62:M93" si="146">IFERROR(H62/H63, 0)</f>
+        <f t="shared" ref="M62" si="146">IFERROR(H62/H63, 0)</f>
         <v>0.93525479936324085</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N93" si="147">IFERROR(I62/I63, 0)</f>
+        <f t="shared" ref="N62" si="147">IFERROR(I62/I63, 0)</f>
         <v>0.90908137453988014</v>
       </c>
       <c r="O62">
-        <f t="shared" ref="O62:O93" si="148">IFERROR(J62/J63, 0)</f>
+        <f t="shared" ref="O62" si="148">IFERROR(J62/J63, 0)</f>
         <v>0</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" ref="Q62:Q93" si="149">_xlfn.CONCAT(ROUND(L62, 2), " (", ROUND(N62,2), " - ", ROUND(M62,2),  ")", IF(AND(O62 &lt;0.05, NOT(ISBLANK(O62))), "*", " ") )</f>
+        <f t="shared" ref="Q62" si="149">_xlfn.CONCAT(ROUND(L62, 2), " (", ROUND(N62,2), " - ", ROUND(M62,2),  ")", IF(AND(O62 &lt;0.05, NOT(ISBLANK(O62))), "*", " ") )</f>
         <v>0.92 (0.91 - 0.94)*</v>
       </c>
     </row>
@@ -17527,23 +17526,23 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" ref="L64:L95" si="150">IFERROR(G64/G65,0)</f>
+        <f t="shared" ref="L64" si="150">IFERROR(G64/G65,0)</f>
         <v>1.0248255859873261</v>
       </c>
       <c r="M64">
-        <f t="shared" ref="M64:M95" si="151">IFERROR(H64/H65, 0)</f>
+        <f t="shared" ref="M64" si="151">IFERROR(H64/H65, 0)</f>
         <v>1.0589279032683525</v>
       </c>
       <c r="N64">
-        <f t="shared" ref="N64:N95" si="152">IFERROR(I64/I65, 0)</f>
+        <f t="shared" ref="N64" si="152">IFERROR(I64/I65, 0)</f>
         <v>0.9945006203970127</v>
       </c>
       <c r="O64">
-        <f t="shared" ref="O64:O95" si="153">IFERROR(J64/J65, 0)</f>
+        <f t="shared" ref="O64" si="153">IFERROR(J64/J65, 0)</f>
         <v>0</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" ref="Q64:Q95" si="154">_xlfn.CONCAT(ROUND(L64, 2), " (", ROUND(N64,2), " - ", ROUND(M64,2),  ")", IF(AND(O64 &lt;0.05, NOT(ISBLANK(O64))), "*", " ") )</f>
+        <f t="shared" ref="Q64" si="154">_xlfn.CONCAT(ROUND(L64, 2), " (", ROUND(N64,2), " - ", ROUND(M64,2),  ")", IF(AND(O64 &lt;0.05, NOT(ISBLANK(O64))), "*", " ") )</f>
         <v>1.02 (0.99 - 1.06)*</v>
       </c>
     </row>
@@ -17631,23 +17630,23 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L97" si="155">IFERROR(G66/G67,0)</f>
+        <f t="shared" ref="L66" si="155">IFERROR(G66/G67,0)</f>
         <v>0.93439844254720539</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M97" si="156">IFERROR(H66/H67, 0)</f>
+        <f t="shared" ref="M66" si="156">IFERROR(H66/H67, 0)</f>
         <v>0.95819996078842606</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="157">IFERROR(I66/I67, 0)</f>
+        <f t="shared" ref="N66" si="157">IFERROR(I66/I67, 0)</f>
         <v>0.91280784693580808</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O97" si="158">IFERROR(J66/J67, 0)</f>
+        <f t="shared" ref="O66" si="158">IFERROR(J66/J67, 0)</f>
         <v>0</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" ref="Q66:Q97" si="159">_xlfn.CONCAT(ROUND(L66, 2), " (", ROUND(N66,2), " - ", ROUND(M66,2),  ")", IF(AND(O66 &lt;0.05, NOT(ISBLANK(O66))), "*", " ") )</f>
+        <f t="shared" ref="Q66" si="159">_xlfn.CONCAT(ROUND(L66, 2), " (", ROUND(N66,2), " - ", ROUND(M66,2),  ")", IF(AND(O66 &lt;0.05, NOT(ISBLANK(O66))), "*", " ") )</f>
         <v>0.93 (0.91 - 0.96)*</v>
       </c>
     </row>
@@ -17735,23 +17734,23 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L99" si="160">IFERROR(G68/G69,0)</f>
+        <f t="shared" ref="L68" si="160">IFERROR(G68/G69,0)</f>
         <v>1.0761460678154944</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M99" si="161">IFERROR(H68/H69, 0)</f>
+        <f t="shared" ref="M68" si="161">IFERROR(H68/H69, 0)</f>
         <v>1.136147129708754</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N99" si="162">IFERROR(I68/I69, 0)</f>
+        <f t="shared" ref="N68" si="162">IFERROR(I68/I69, 0)</f>
         <v>1.0261654116398404</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O99" si="163">IFERROR(J68/J69, 0)</f>
+        <f t="shared" ref="O68" si="163">IFERROR(J68/J69, 0)</f>
         <v>0</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" ref="Q68:Q99" si="164">_xlfn.CONCAT(ROUND(L68, 2), " (", ROUND(N68,2), " - ", ROUND(M68,2),  ")", IF(AND(O68 &lt;0.05, NOT(ISBLANK(O68))), "*", " ") )</f>
+        <f t="shared" ref="Q68" si="164">_xlfn.CONCAT(ROUND(L68, 2), " (", ROUND(N68,2), " - ", ROUND(M68,2),  ")", IF(AND(O68 &lt;0.05, NOT(ISBLANK(O68))), "*", " ") )</f>
         <v>1.08 (1.03 - 1.14)*</v>
       </c>
     </row>
@@ -17839,23 +17838,23 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" ref="L70:L101" si="165">IFERROR(G70/G71,0)</f>
+        <f t="shared" ref="L70" si="165">IFERROR(G70/G71,0)</f>
         <v>0.89717431869998443</v>
       </c>
       <c r="M70">
-        <f t="shared" ref="M70:M101" si="166">IFERROR(H70/H71, 0)</f>
+        <f t="shared" ref="M70" si="166">IFERROR(H70/H71, 0)</f>
         <v>0.9159515128586988</v>
       </c>
       <c r="N70">
-        <f t="shared" ref="N70:N101" si="167">IFERROR(I70/I71, 0)</f>
+        <f t="shared" ref="N70" si="167">IFERROR(I70/I71, 0)</f>
         <v>0.87997107976259259</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:O101" si="168">IFERROR(J70/J71, 0)</f>
+        <f t="shared" ref="O70" si="168">IFERROR(J70/J71, 0)</f>
         <v>0</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ref="Q70:Q101" si="169">_xlfn.CONCAT(ROUND(L70, 2), " (", ROUND(N70,2), " - ", ROUND(M70,2),  ")", IF(AND(O70 &lt;0.05, NOT(ISBLANK(O70))), "*", " ") )</f>
+        <f t="shared" ref="Q70" si="169">_xlfn.CONCAT(ROUND(L70, 2), " (", ROUND(N70,2), " - ", ROUND(M70,2),  ")", IF(AND(O70 &lt;0.05, NOT(ISBLANK(O70))), "*", " ") )</f>
         <v>0.9 (0.88 - 0.92)*</v>
       </c>
     </row>
@@ -17943,23 +17942,23 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L103" si="170">IFERROR(G72/G73,0)</f>
+        <f t="shared" ref="L72" si="170">IFERROR(G72/G73,0)</f>
         <v>1.0874773983286028</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M103" si="171">IFERROR(H72/H73, 0)</f>
+        <f t="shared" ref="M72" si="171">IFERROR(H72/H73, 0)</f>
         <v>1.1441826800033177</v>
       </c>
       <c r="N72">
-        <f t="shared" ref="N72:N103" si="172">IFERROR(I72/I73, 0)</f>
+        <f t="shared" ref="N72" si="172">IFERROR(I72/I73, 0)</f>
         <v>1.0401034467307779</v>
       </c>
       <c r="O72">
-        <f t="shared" ref="O72:O103" si="173">IFERROR(J72/J73, 0)</f>
+        <f t="shared" ref="O72" si="173">IFERROR(J72/J73, 0)</f>
         <v>0</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" ref="Q72:Q103" si="174">_xlfn.CONCAT(ROUND(L72, 2), " (", ROUND(N72,2), " - ", ROUND(M72,2),  ")", IF(AND(O72 &lt;0.05, NOT(ISBLANK(O72))), "*", " ") )</f>
+        <f t="shared" ref="Q72" si="174">_xlfn.CONCAT(ROUND(L72, 2), " (", ROUND(N72,2), " - ", ROUND(M72,2),  ")", IF(AND(O72 &lt;0.05, NOT(ISBLANK(O72))), "*", " ") )</f>
         <v>1.09 (1.04 - 1.14)*</v>
       </c>
     </row>
@@ -18047,23 +18046,23 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L121" si="175">IFERROR(G74/G75,0)</f>
+        <f t="shared" ref="L74" si="175">IFERROR(G74/G75,0)</f>
         <v>1.0258512382615368</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74:M120" si="176">IFERROR(H74/H75, 0)</f>
+        <f t="shared" ref="M74" si="176">IFERROR(H74/H75, 0)</f>
         <v>1.0627169760214794</v>
       </c>
       <c r="N74">
-        <f t="shared" ref="N74:N120" si="177">IFERROR(I74/I75, 0)</f>
+        <f t="shared" ref="N74" si="177">IFERROR(I74/I75, 0)</f>
         <v>0.99364255586587502</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:O120" si="178">IFERROR(J74/J75, 0)</f>
+        <f t="shared" ref="O74" si="178">IFERROR(J74/J75, 0)</f>
         <v>0</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" ref="Q74:Q120" si="179">_xlfn.CONCAT(ROUND(L74, 2), " (", ROUND(N74,2), " - ", ROUND(M74,2),  ")", IF(AND(O74 &lt;0.05, NOT(ISBLANK(O74))), "*", " ") )</f>
+        <f t="shared" ref="Q74" si="179">_xlfn.CONCAT(ROUND(L74, 2), " (", ROUND(N74,2), " - ", ROUND(M74,2),  ")", IF(AND(O74 &lt;0.05, NOT(ISBLANK(O74))), "*", " ") )</f>
         <v>1.03 (0.99 - 1.06)*</v>
       </c>
     </row>
@@ -18151,23 +18150,23 @@
         <v>7.2943952030367593E-251</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76:L121" si="180">IFERROR(G76/G77,0)</f>
+        <f t="shared" ref="L76" si="180">IFERROR(G76/G77,0)</f>
         <v>0.92314060111927043</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76:M120" si="181">IFERROR(H76/H77, 0)</f>
+        <f t="shared" ref="M76" si="181">IFERROR(H76/H77, 0)</f>
         <v>0.97157781228591689</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76:N120" si="182">IFERROR(I76/I77, 0)</f>
+        <f t="shared" ref="N76" si="182">IFERROR(I76/I77, 0)</f>
         <v>0.88390091668631821</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76:O120" si="183">IFERROR(J76/J77, 0)</f>
+        <f t="shared" ref="O76" si="183">IFERROR(J76/J77, 0)</f>
         <v>1.084939084261182E-173</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" ref="Q76:Q120" si="184">_xlfn.CONCAT(ROUND(L76, 2), " (", ROUND(N76,2), " - ", ROUND(M76,2),  ")", IF(AND(O76 &lt;0.05, NOT(ISBLANK(O76))), "*", " ") )</f>
+        <f t="shared" ref="Q76" si="184">_xlfn.CONCAT(ROUND(L76, 2), " (", ROUND(N76,2), " - ", ROUND(M76,2),  ")", IF(AND(O76 &lt;0.05, NOT(ISBLANK(O76))), "*", " ") )</f>
         <v>0.92 (0.88 - 0.97)*</v>
       </c>
     </row>
@@ -18255,23 +18254,23 @@
         <v>1.4301001472263699E-172</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L121" si="185">IFERROR(G78/G79,0)</f>
+        <f t="shared" ref="L78" si="185">IFERROR(G78/G79,0)</f>
         <v>1.0146315789477189</v>
       </c>
       <c r="M78">
-        <f t="shared" ref="M78:M120" si="186">IFERROR(H78/H79, 0)</f>
+        <f t="shared" ref="M78" si="186">IFERROR(H78/H79, 0)</f>
         <v>1.0796881736601824</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N78:N120" si="187">IFERROR(I78/I79, 0)</f>
+        <f t="shared" ref="N78" si="187">IFERROR(I78/I79, 0)</f>
         <v>0.96413730912602147</v>
       </c>
       <c r="O78">
-        <f t="shared" ref="O78:O120" si="188">IFERROR(J78/J79, 0)</f>
+        <f t="shared" ref="O78" si="188">IFERROR(J78/J79, 0)</f>
         <v>9.2959534633768579E-119</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" ref="Q78:Q120" si="189">_xlfn.CONCAT(ROUND(L78, 2), " (", ROUND(N78,2), " - ", ROUND(M78,2),  ")", IF(AND(O78 &lt;0.05, NOT(ISBLANK(O78))), "*", " ") )</f>
+        <f t="shared" ref="Q78" si="189">_xlfn.CONCAT(ROUND(L78, 2), " (", ROUND(N78,2), " - ", ROUND(M78,2),  ")", IF(AND(O78 &lt;0.05, NOT(ISBLANK(O78))), "*", " ") )</f>
         <v>1.01 (0.96 - 1.08)*</v>
       </c>
     </row>
@@ -18359,23 +18358,23 @@
         <v>5.7722744401177402E-63</v>
       </c>
       <c r="L80">
-        <f t="shared" ref="L80:L121" si="190">IFERROR(G80/G81,0)</f>
+        <f t="shared" ref="L80" si="190">IFERROR(G80/G81,0)</f>
         <v>1.3242009132415242</v>
       </c>
       <c r="M80">
-        <f t="shared" ref="M80:M120" si="191">IFERROR(H80/H81, 0)</f>
+        <f t="shared" ref="M80" si="191">IFERROR(H80/H81, 0)</f>
         <v>2.3747207090102829</v>
       </c>
       <c r="N80">
-        <f t="shared" ref="N80:N120" si="192">IFERROR(I80/I81, 0)</f>
+        <f t="shared" ref="N80" si="192">IFERROR(I80/I81, 0)</f>
         <v>0.98111617636475645</v>
       </c>
       <c r="O80">
-        <f t="shared" ref="O80:O120" si="193">IFERROR(J80/J81, 0)</f>
+        <f t="shared" ref="O80" si="193">IFERROR(J80/J81, 0)</f>
         <v>5.1118843147823643E-59</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" ref="Q80:Q120" si="194">_xlfn.CONCAT(ROUND(L80, 2), " (", ROUND(N80,2), " - ", ROUND(M80,2),  ")", IF(AND(O80 &lt;0.05, NOT(ISBLANK(O80))), "*", " ") )</f>
+        <f t="shared" ref="Q80" si="194">_xlfn.CONCAT(ROUND(L80, 2), " (", ROUND(N80,2), " - ", ROUND(M80,2),  ")", IF(AND(O80 &lt;0.05, NOT(ISBLANK(O80))), "*", " ") )</f>
         <v>1.32 (0.98 - 2.37)*</v>
       </c>
     </row>
@@ -18463,23 +18462,23 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" ref="L82:L121" si="195">IFERROR(G82/G83,0)</f>
+        <f t="shared" ref="L82" si="195">IFERROR(G82/G83,0)</f>
         <v>0.88336108324441998</v>
       </c>
       <c r="M82">
-        <f t="shared" ref="M82:M120" si="196">IFERROR(H82/H83, 0)</f>
+        <f t="shared" ref="M82" si="196">IFERROR(H82/H83, 0)</f>
         <v>0.90043517651829319</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82:N120" si="197">IFERROR(I82/I83, 0)</f>
+        <f t="shared" ref="N82" si="197">IFERROR(I82/I83, 0)</f>
         <v>0.86757481377795453</v>
       </c>
       <c r="O82">
-        <f t="shared" ref="O82:O120" si="198">IFERROR(J82/J83, 0)</f>
+        <f t="shared" ref="O82" si="198">IFERROR(J82/J83, 0)</f>
         <v>0</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" ref="Q82:Q120" si="199">_xlfn.CONCAT(ROUND(L82, 2), " (", ROUND(N82,2), " - ", ROUND(M82,2),  ")", IF(AND(O82 &lt;0.05, NOT(ISBLANK(O82))), "*", " ") )</f>
+        <f t="shared" ref="Q82" si="199">_xlfn.CONCAT(ROUND(L82, 2), " (", ROUND(N82,2), " - ", ROUND(M82,2),  ")", IF(AND(O82 &lt;0.05, NOT(ISBLANK(O82))), "*", " ") )</f>
         <v>0.88 (0.87 - 0.9)*</v>
       </c>
     </row>
@@ -18567,23 +18566,23 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" ref="L84:L121" si="200">IFERROR(G84/G85,0)</f>
+        <f t="shared" ref="L84" si="200">IFERROR(G84/G85,0)</f>
         <v>0.95226979249042254</v>
       </c>
       <c r="M84">
-        <f t="shared" ref="M84:M120" si="201">IFERROR(H84/H85, 0)</f>
+        <f t="shared" ref="M84" si="201">IFERROR(H84/H85, 0)</f>
         <v>0.98158356811466829</v>
       </c>
       <c r="N84">
-        <f t="shared" ref="N84:N120" si="202">IFERROR(I84/I85, 0)</f>
+        <f t="shared" ref="N84" si="202">IFERROR(I84/I85, 0)</f>
         <v>0.9261243794246915</v>
       </c>
       <c r="O84">
-        <f t="shared" ref="O84:O120" si="203">IFERROR(J84/J85, 0)</f>
+        <f t="shared" ref="O84" si="203">IFERROR(J84/J85, 0)</f>
         <v>0</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" ref="Q84:Q120" si="204">_xlfn.CONCAT(ROUND(L84, 2), " (", ROUND(N84,2), " - ", ROUND(M84,2),  ")", IF(AND(O84 &lt;0.05, NOT(ISBLANK(O84))), "*", " ") )</f>
+        <f t="shared" ref="Q84" si="204">_xlfn.CONCAT(ROUND(L84, 2), " (", ROUND(N84,2), " - ", ROUND(M84,2),  ")", IF(AND(O84 &lt;0.05, NOT(ISBLANK(O84))), "*", " ") )</f>
         <v>0.95 (0.93 - 0.98)*</v>
       </c>
     </row>
@@ -18671,23 +18670,23 @@
         <v>2.2859721815000399E-282</v>
       </c>
       <c r="L86">
-        <f t="shared" ref="L86:L121" si="205">IFERROR(G86/G87,0)</f>
+        <f t="shared" ref="L86" si="205">IFERROR(G86/G87,0)</f>
         <v>0.98635582822087542</v>
       </c>
       <c r="M86">
-        <f t="shared" ref="M86:M120" si="206">IFERROR(H86/H87, 0)</f>
+        <f t="shared" ref="M86" si="206">IFERROR(H86/H87, 0)</f>
         <v>1.0781796976857136</v>
       </c>
       <c r="N86">
-        <f t="shared" ref="N86:N120" si="207">IFERROR(I86/I87, 0)</f>
+        <f t="shared" ref="N86" si="207">IFERROR(I86/I87, 0)</f>
         <v>0.91638976183440757</v>
       </c>
       <c r="O86">
-        <f t="shared" ref="O86:O120" si="208">IFERROR(J86/J87, 0)</f>
+        <f t="shared" ref="O86" si="208">IFERROR(J86/J87, 0)</f>
         <v>2.1053244919759608E-235</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" ref="Q86:Q120" si="209">_xlfn.CONCAT(ROUND(L86, 2), " (", ROUND(N86,2), " - ", ROUND(M86,2),  ")", IF(AND(O86 &lt;0.05, NOT(ISBLANK(O86))), "*", " ") )</f>
+        <f t="shared" ref="Q86" si="209">_xlfn.CONCAT(ROUND(L86, 2), " (", ROUND(N86,2), " - ", ROUND(M86,2),  ")", IF(AND(O86 &lt;0.05, NOT(ISBLANK(O86))), "*", " ") )</f>
         <v>0.99 (0.92 - 1.08)*</v>
       </c>
     </row>
@@ -18775,23 +18774,23 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" ref="L88:L121" si="210">IFERROR(G88/G89,0)</f>
+        <f t="shared" ref="L88" si="210">IFERROR(G88/G89,0)</f>
         <v>0.95055270511126289</v>
       </c>
       <c r="M88">
-        <f t="shared" ref="M88:M120" si="211">IFERROR(H88/H89, 0)</f>
+        <f t="shared" ref="M88" si="211">IFERROR(H88/H89, 0)</f>
         <v>1.0128068536363386</v>
       </c>
       <c r="N88">
-        <f t="shared" ref="N88:N120" si="212">IFERROR(I88/I89, 0)</f>
+        <f t="shared" ref="N88" si="212">IFERROR(I88/I89, 0)</f>
         <v>0.90049718229083053</v>
       </c>
       <c r="O88">
-        <f t="shared" ref="O88:O120" si="213">IFERROR(J88/J89, 0)</f>
+        <f t="shared" ref="O88" si="213">IFERROR(J88/J89, 0)</f>
         <v>0</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ref="Q88:Q120" si="214">_xlfn.CONCAT(ROUND(L88, 2), " (", ROUND(N88,2), " - ", ROUND(M88,2),  ")", IF(AND(O88 &lt;0.05, NOT(ISBLANK(O88))), "*", " ") )</f>
+        <f t="shared" ref="Q88" si="214">_xlfn.CONCAT(ROUND(L88, 2), " (", ROUND(N88,2), " - ", ROUND(M88,2),  ")", IF(AND(O88 &lt;0.05, NOT(ISBLANK(O88))), "*", " ") )</f>
         <v>0.95 (0.9 - 1.01)*</v>
       </c>
     </row>
@@ -18879,23 +18878,23 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" ref="L90:L121" si="215">IFERROR(G90/G91,0)</f>
+        <f t="shared" ref="L90" si="215">IFERROR(G90/G91,0)</f>
         <v>0.89541346939310495</v>
       </c>
       <c r="M90">
-        <f t="shared" ref="M90:M120" si="216">IFERROR(H90/H91, 0)</f>
+        <f t="shared" ref="M90" si="216">IFERROR(H90/H91, 0)</f>
         <v>0.92230695762096448</v>
       </c>
       <c r="N90">
-        <f t="shared" ref="N90:N120" si="217">IFERROR(I90/I91, 0)</f>
+        <f t="shared" ref="N90" si="217">IFERROR(I90/I91, 0)</f>
         <v>0.87149745534439615</v>
       </c>
       <c r="O90">
-        <f t="shared" ref="O90:O120" si="218">IFERROR(J90/J91, 0)</f>
+        <f t="shared" ref="O90" si="218">IFERROR(J90/J91, 0)</f>
         <v>0</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" ref="Q90:Q120" si="219">_xlfn.CONCAT(ROUND(L90, 2), " (", ROUND(N90,2), " - ", ROUND(M90,2),  ")", IF(AND(O90 &lt;0.05, NOT(ISBLANK(O90))), "*", " ") )</f>
+        <f t="shared" ref="Q90" si="219">_xlfn.CONCAT(ROUND(L90, 2), " (", ROUND(N90,2), " - ", ROUND(M90,2),  ")", IF(AND(O90 &lt;0.05, NOT(ISBLANK(O90))), "*", " ") )</f>
         <v>0.9 (0.87 - 0.92)*</v>
       </c>
     </row>
@@ -18983,23 +18982,23 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" ref="L92:L121" si="220">IFERROR(G92/G93,0)</f>
+        <f t="shared" ref="L92" si="220">IFERROR(G92/G93,0)</f>
         <v>1.0111537128096928</v>
       </c>
       <c r="M92">
-        <f t="shared" ref="M92:M120" si="221">IFERROR(H92/H93, 0)</f>
+        <f t="shared" ref="M92" si="221">IFERROR(H92/H93, 0)</f>
         <v>1.0584763611025949</v>
       </c>
       <c r="N92">
-        <f t="shared" ref="N92:N120" si="222">IFERROR(I92/I93, 0)</f>
+        <f t="shared" ref="N92" si="222">IFERROR(I92/I93, 0)</f>
         <v>0.97124187897000092</v>
       </c>
       <c r="O92">
-        <f t="shared" ref="O92:O120" si="223">IFERROR(J92/J93, 0)</f>
+        <f t="shared" ref="O92" si="223">IFERROR(J92/J93, 0)</f>
         <v>0</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" ref="Q92:Q120" si="224">_xlfn.CONCAT(ROUND(L92, 2), " (", ROUND(N92,2), " - ", ROUND(M92,2),  ")", IF(AND(O92 &lt;0.05, NOT(ISBLANK(O92))), "*", " ") )</f>
+        <f t="shared" ref="Q92" si="224">_xlfn.CONCAT(ROUND(L92, 2), " (", ROUND(N92,2), " - ", ROUND(M92,2),  ")", IF(AND(O92 &lt;0.05, NOT(ISBLANK(O92))), "*", " ") )</f>
         <v>1.01 (0.97 - 1.06)*</v>
       </c>
     </row>
@@ -19087,23 +19086,23 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" ref="L94:L121" si="225">IFERROR(G94/G95,0)</f>
+        <f t="shared" ref="L94" si="225">IFERROR(G94/G95,0)</f>
         <v>0.97692379923945527</v>
       </c>
       <c r="M94">
-        <f t="shared" ref="M94:M120" si="226">IFERROR(H94/H95, 0)</f>
+        <f t="shared" ref="M94" si="226">IFERROR(H94/H95, 0)</f>
         <v>1.0025524217527779</v>
       </c>
       <c r="N94">
-        <f t="shared" ref="N94:N120" si="227">IFERROR(I94/I95, 0)</f>
+        <f t="shared" ref="N94" si="227">IFERROR(I94/I95, 0)</f>
         <v>0.95398032084906148</v>
       </c>
       <c r="O94">
-        <f t="shared" ref="O94:O120" si="228">IFERROR(J94/J95, 0)</f>
+        <f t="shared" ref="O94" si="228">IFERROR(J94/J95, 0)</f>
         <v>0</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" ref="Q94:Q120" si="229">_xlfn.CONCAT(ROUND(L94, 2), " (", ROUND(N94,2), " - ", ROUND(M94,2),  ")", IF(AND(O94 &lt;0.05, NOT(ISBLANK(O94))), "*", " ") )</f>
+        <f t="shared" ref="Q94" si="229">_xlfn.CONCAT(ROUND(L94, 2), " (", ROUND(N94,2), " - ", ROUND(M94,2),  ")", IF(AND(O94 &lt;0.05, NOT(ISBLANK(O94))), "*", " ") )</f>
         <v>0.98 (0.95 - 1)*</v>
       </c>
     </row>
@@ -19191,23 +19190,23 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" ref="L96:L121" si="230">IFERROR(G96/G97,0)</f>
+        <f t="shared" ref="L96" si="230">IFERROR(G96/G97,0)</f>
         <v>0.96251778100099461</v>
       </c>
       <c r="M96">
-        <f t="shared" ref="M96:M120" si="231">IFERROR(H96/H97, 0)</f>
+        <f t="shared" ref="M96" si="231">IFERROR(H96/H97, 0)</f>
         <v>1.0102592567033009</v>
       </c>
       <c r="N96">
-        <f t="shared" ref="N96:N120" si="232">IFERROR(I96/I97, 0)</f>
+        <f t="shared" ref="N96" si="232">IFERROR(I96/I97, 0)</f>
         <v>0.92316577479430117</v>
       </c>
       <c r="O96">
-        <f t="shared" ref="O96:O120" si="233">IFERROR(J96/J97, 0)</f>
+        <f t="shared" ref="O96" si="233">IFERROR(J96/J97, 0)</f>
         <v>0</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" ref="Q96:Q120" si="234">_xlfn.CONCAT(ROUND(L96, 2), " (", ROUND(N96,2), " - ", ROUND(M96,2),  ")", IF(AND(O96 &lt;0.05, NOT(ISBLANK(O96))), "*", " ") )</f>
+        <f t="shared" ref="Q96" si="234">_xlfn.CONCAT(ROUND(L96, 2), " (", ROUND(N96,2), " - ", ROUND(M96,2),  ")", IF(AND(O96 &lt;0.05, NOT(ISBLANK(O96))), "*", " ") )</f>
         <v>0.96 (0.92 - 1.01)*</v>
       </c>
     </row>
@@ -19295,23 +19294,23 @@
         <v>1.1685646151133201E-271</v>
       </c>
       <c r="L98">
-        <f t="shared" ref="L98:L121" si="235">IFERROR(G98/G99,0)</f>
+        <f t="shared" ref="L98" si="235">IFERROR(G98/G99,0)</f>
         <v>1.0325615763546705</v>
       </c>
       <c r="M98">
-        <f t="shared" ref="M98:M120" si="236">IFERROR(H98/H99, 0)</f>
+        <f t="shared" ref="M98" si="236">IFERROR(H98/H99, 0)</f>
         <v>1.0857872106688966</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N120" si="237">IFERROR(I98/I99, 0)</f>
+        <f t="shared" ref="N98" si="237">IFERROR(I98/I99, 0)</f>
         <v>0.98918446633315726</v>
       </c>
       <c r="O98">
-        <f t="shared" ref="O98:O120" si="238">IFERROR(J98/J99, 0)</f>
+        <f t="shared" ref="O98" si="238">IFERROR(J98/J99, 0)</f>
         <v>5.1111583618310273E-190</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" ref="Q98:Q120" si="239">_xlfn.CONCAT(ROUND(L98, 2), " (", ROUND(N98,2), " - ", ROUND(M98,2),  ")", IF(AND(O98 &lt;0.05, NOT(ISBLANK(O98))), "*", " ") )</f>
+        <f t="shared" ref="Q98" si="239">_xlfn.CONCAT(ROUND(L98, 2), " (", ROUND(N98,2), " - ", ROUND(M98,2),  ")", IF(AND(O98 &lt;0.05, NOT(ISBLANK(O98))), "*", " ") )</f>
         <v>1.03 (0.99 - 1.09)*</v>
       </c>
     </row>
@@ -19399,23 +19398,23 @@
         <v>2.19129240016169E-76</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100:L121" si="240">IFERROR(G100/G101,0)</f>
+        <f t="shared" ref="L100" si="240">IFERROR(G100/G101,0)</f>
         <v>1.1177007299264181</v>
       </c>
       <c r="M100">
-        <f t="shared" ref="M100:M120" si="241">IFERROR(H100/H101, 0)</f>
+        <f t="shared" ref="M100" si="241">IFERROR(H100/H101, 0)</f>
         <v>1.4172107749115466</v>
       </c>
       <c r="N100">
-        <f t="shared" ref="N100:N120" si="242">IFERROR(I100/I101, 0)</f>
+        <f t="shared" ref="N100" si="242">IFERROR(I100/I101, 0)</f>
         <v>0.95461349521427574</v>
       </c>
       <c r="O100">
-        <f t="shared" ref="O100:O120" si="243">IFERROR(J100/J101, 0)</f>
+        <f t="shared" ref="O100" si="243">IFERROR(J100/J101, 0)</f>
         <v>7.278948099459065E-66</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" ref="Q100:Q120" si="244">_xlfn.CONCAT(ROUND(L100, 2), " (", ROUND(N100,2), " - ", ROUND(M100,2),  ")", IF(AND(O100 &lt;0.05, NOT(ISBLANK(O100))), "*", " ") )</f>
+        <f t="shared" ref="Q100" si="244">_xlfn.CONCAT(ROUND(L100, 2), " (", ROUND(N100,2), " - ", ROUND(M100,2),  ")", IF(AND(O100 &lt;0.05, NOT(ISBLANK(O100))), "*", " ") )</f>
         <v>1.12 (0.95 - 1.42)*</v>
       </c>
     </row>
@@ -19503,23 +19502,23 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" ref="L102:L121" si="245">IFERROR(G102/G103,0)</f>
+        <f t="shared" ref="L102" si="245">IFERROR(G102/G103,0)</f>
         <v>0.93216690975601835</v>
       </c>
       <c r="M102">
-        <f t="shared" ref="M102:M120" si="246">IFERROR(H102/H103, 0)</f>
+        <f t="shared" ref="M102" si="246">IFERROR(H102/H103, 0)</f>
         <v>0.94599255916892344</v>
       </c>
       <c r="N102">
-        <f t="shared" ref="N102:N120" si="247">IFERROR(I102/I103, 0)</f>
+        <f t="shared" ref="N102" si="247">IFERROR(I102/I103, 0)</f>
         <v>0.91925181168217507</v>
       </c>
       <c r="O102">
-        <f t="shared" ref="O102:O120" si="248">IFERROR(J102/J103, 0)</f>
+        <f t="shared" ref="O102" si="248">IFERROR(J102/J103, 0)</f>
         <v>0</v>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" ref="Q102:Q120" si="249">_xlfn.CONCAT(ROUND(L102, 2), " (", ROUND(N102,2), " - ", ROUND(M102,2),  ")", IF(AND(O102 &lt;0.05, NOT(ISBLANK(O102))), "*", " ") )</f>
+        <f t="shared" ref="Q102" si="249">_xlfn.CONCAT(ROUND(L102, 2), " (", ROUND(N102,2), " - ", ROUND(M102,2),  ")", IF(AND(O102 &lt;0.05, NOT(ISBLANK(O102))), "*", " ") )</f>
         <v>0.93 (0.92 - 0.95)*</v>
       </c>
     </row>
@@ -19607,23 +19606,23 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" ref="L104:L121" si="250">IFERROR(G104/G105,0)</f>
+        <f t="shared" ref="L104" si="250">IFERROR(G104/G105,0)</f>
         <v>1.1806348481308344</v>
       </c>
       <c r="M104">
-        <f t="shared" ref="M104:M120" si="251">IFERROR(H104/H105, 0)</f>
+        <f t="shared" ref="M104" si="251">IFERROR(H104/H105, 0)</f>
         <v>1.2607372613151104</v>
       </c>
       <c r="N104">
-        <f t="shared" ref="N104:N120" si="252">IFERROR(I104/I105, 0)</f>
+        <f t="shared" ref="N104" si="252">IFERROR(I104/I105, 0)</f>
         <v>1.1163649954262882</v>
       </c>
       <c r="O104">
-        <f t="shared" ref="O104:O120" si="253">IFERROR(J104/J105, 0)</f>
+        <f t="shared" ref="O104" si="253">IFERROR(J104/J105, 0)</f>
         <v>0</v>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" ref="Q104:Q120" si="254">_xlfn.CONCAT(ROUND(L104, 2), " (", ROUND(N104,2), " - ", ROUND(M104,2),  ")", IF(AND(O104 &lt;0.05, NOT(ISBLANK(O104))), "*", " ") )</f>
+        <f t="shared" ref="Q104" si="254">_xlfn.CONCAT(ROUND(L104, 2), " (", ROUND(N104,2), " - ", ROUND(M104,2),  ")", IF(AND(O104 &lt;0.05, NOT(ISBLANK(O104))), "*", " ") )</f>
         <v>1.18 (1.12 - 1.26)*</v>
       </c>
     </row>
@@ -19711,23 +19710,23 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" ref="L106:L121" si="255">IFERROR(G106/G107,0)</f>
+        <f t="shared" ref="L106" si="255">IFERROR(G106/G107,0)</f>
         <v>0.94978071918837192</v>
       </c>
       <c r="M106">
-        <f t="shared" ref="M106:M120" si="256">IFERROR(H106/H107, 0)</f>
+        <f t="shared" ref="M106" si="256">IFERROR(H106/H107, 0)</f>
         <v>0.97204813765557285</v>
       </c>
       <c r="N106">
-        <f t="shared" ref="N106:N120" si="257">IFERROR(I106/I107, 0)</f>
+        <f t="shared" ref="N106" si="257">IFERROR(I106/I107, 0)</f>
         <v>0.92957422737617668</v>
       </c>
       <c r="O106">
-        <f t="shared" ref="O106:O120" si="258">IFERROR(J106/J107, 0)</f>
+        <f t="shared" ref="O106" si="258">IFERROR(J106/J107, 0)</f>
         <v>0</v>
       </c>
       <c r="Q106" t="str">
-        <f t="shared" ref="Q106:Q120" si="259">_xlfn.CONCAT(ROUND(L106, 2), " (", ROUND(N106,2), " - ", ROUND(M106,2),  ")", IF(AND(O106 &lt;0.05, NOT(ISBLANK(O106))), "*", " ") )</f>
+        <f t="shared" ref="Q106" si="259">_xlfn.CONCAT(ROUND(L106, 2), " (", ROUND(N106,2), " - ", ROUND(M106,2),  ")", IF(AND(O106 &lt;0.05, NOT(ISBLANK(O106))), "*", " ") )</f>
         <v>0.95 (0.93 - 0.97)*</v>
       </c>
     </row>
@@ -19815,23 +19814,23 @@
         <v>6.7313073975867797E-240</v>
       </c>
       <c r="L108">
-        <f t="shared" ref="L108:L121" si="260">IFERROR(G108/G109,0)</f>
+        <f t="shared" ref="L108" si="260">IFERROR(G108/G109,0)</f>
         <v>1.1942616723432535</v>
       </c>
       <c r="M108">
-        <f t="shared" ref="M108:M120" si="261">IFERROR(H108/H109, 0)</f>
+        <f t="shared" ref="M108" si="261">IFERROR(H108/H109, 0)</f>
         <v>1.3011056561509595</v>
       </c>
       <c r="N108">
-        <f t="shared" ref="N108:N120" si="262">IFERROR(I108/I109, 0)</f>
+        <f t="shared" ref="N108" si="262">IFERROR(I108/I109, 0)</f>
         <v>1.1130843527818368</v>
       </c>
       <c r="O108">
-        <f t="shared" ref="O108:O120" si="263">IFERROR(J108/J109, 0)</f>
+        <f t="shared" ref="O108" si="263">IFERROR(J108/J109, 0)</f>
         <v>7.0632437846777763E-194</v>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" ref="Q108:Q120" si="264">_xlfn.CONCAT(ROUND(L108, 2), " (", ROUND(N108,2), " - ", ROUND(M108,2),  ")", IF(AND(O108 &lt;0.05, NOT(ISBLANK(O108))), "*", " ") )</f>
+        <f t="shared" ref="Q108" si="264">_xlfn.CONCAT(ROUND(L108, 2), " (", ROUND(N108,2), " - ", ROUND(M108,2),  ")", IF(AND(O108 &lt;0.05, NOT(ISBLANK(O108))), "*", " ") )</f>
         <v>1.19 (1.11 - 1.3)*</v>
       </c>
     </row>
@@ -19919,23 +19918,23 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L121" si="265">IFERROR(G110/G111,0)</f>
+        <f t="shared" ref="L110" si="265">IFERROR(G110/G111,0)</f>
         <v>0.93270544584350623</v>
       </c>
       <c r="M110">
-        <f t="shared" ref="M110:M120" si="266">IFERROR(H110/H111, 0)</f>
+        <f t="shared" ref="M110" si="266">IFERROR(H110/H111, 0)</f>
         <v>0.94917382274114692</v>
       </c>
       <c r="N110">
-        <f t="shared" ref="N110:N120" si="267">IFERROR(I110/I111, 0)</f>
+        <f t="shared" ref="N110" si="267">IFERROR(I110/I111, 0)</f>
         <v>0.91771441798786002</v>
       </c>
       <c r="O110">
-        <f t="shared" ref="O110:O120" si="268">IFERROR(J110/J111, 0)</f>
+        <f t="shared" ref="O110" si="268">IFERROR(J110/J111, 0)</f>
         <v>0</v>
       </c>
       <c r="Q110" t="str">
-        <f t="shared" ref="Q110:Q120" si="269">_xlfn.CONCAT(ROUND(L110, 2), " (", ROUND(N110,2), " - ", ROUND(M110,2),  ")", IF(AND(O110 &lt;0.05, NOT(ISBLANK(O110))), "*", " ") )</f>
+        <f t="shared" ref="Q110" si="269">_xlfn.CONCAT(ROUND(L110, 2), " (", ROUND(N110,2), " - ", ROUND(M110,2),  ")", IF(AND(O110 &lt;0.05, NOT(ISBLANK(O110))), "*", " ") )</f>
         <v>0.93 (0.92 - 0.95)*</v>
       </c>
     </row>
@@ -20023,23 +20022,23 @@
         <v>6.2742425957564903E-103</v>
       </c>
       <c r="L112">
-        <f t="shared" ref="L112:L121" si="270">IFERROR(G112/G113,0)</f>
+        <f t="shared" ref="L112" si="270">IFERROR(G112/G113,0)</f>
         <v>1.2818787388171773</v>
       </c>
       <c r="M112">
-        <f t="shared" ref="M112:M120" si="271">IFERROR(H112/H113, 0)</f>
+        <f t="shared" ref="M112" si="271">IFERROR(H112/H113, 0)</f>
         <v>1.4370543543580165</v>
       </c>
       <c r="N112">
-        <f t="shared" ref="N112:N120" si="272">IFERROR(I112/I113, 0)</f>
+        <f t="shared" ref="N112" si="272">IFERROR(I112/I113, 0)</f>
         <v>1.1760663974561005</v>
       </c>
       <c r="O112">
-        <f t="shared" ref="O112:O120" si="273">IFERROR(J112/J113, 0)</f>
+        <f t="shared" ref="O112" si="273">IFERROR(J112/J113, 0)</f>
         <v>1.7085291087078754E-78</v>
       </c>
       <c r="Q112" t="str">
-        <f t="shared" ref="Q112:Q120" si="274">_xlfn.CONCAT(ROUND(L112, 2), " (", ROUND(N112,2), " - ", ROUND(M112,2),  ")", IF(AND(O112 &lt;0.05, NOT(ISBLANK(O112))), "*", " ") )</f>
+        <f t="shared" ref="Q112" si="274">_xlfn.CONCAT(ROUND(L112, 2), " (", ROUND(N112,2), " - ", ROUND(M112,2),  ")", IF(AND(O112 &lt;0.05, NOT(ISBLANK(O112))), "*", " ") )</f>
         <v>1.28 (1.18 - 1.44)*</v>
       </c>
     </row>
@@ -20127,23 +20126,23 @@
         <v>2.7294197558717899E-114</v>
       </c>
       <c r="L114">
-        <f t="shared" ref="L114:L121" si="275">IFERROR(G114/G115,0)</f>
+        <f t="shared" ref="L114" si="275">IFERROR(G114/G115,0)</f>
         <v>1.196635600436859</v>
       </c>
       <c r="M114">
-        <f t="shared" ref="M114:M120" si="276">IFERROR(H114/H115, 0)</f>
+        <f t="shared" ref="M114" si="276">IFERROR(H114/H115, 0)</f>
         <v>1.329914889234068</v>
       </c>
       <c r="N114">
-        <f t="shared" ref="N114:N120" si="277">IFERROR(I114/I115, 0)</f>
+        <f t="shared" ref="N114" si="277">IFERROR(I114/I115, 0)</f>
         <v>1.1036018117990072</v>
       </c>
       <c r="O114">
-        <f t="shared" ref="O114:O120" si="278">IFERROR(J114/J115, 0)</f>
+        <f t="shared" ref="O114" si="278">IFERROR(J114/J115, 0)</f>
         <v>9.0670657710544292E-87</v>
       </c>
       <c r="Q114" t="str">
-        <f t="shared" ref="Q114:Q120" si="279">_xlfn.CONCAT(ROUND(L114, 2), " (", ROUND(N114,2), " - ", ROUND(M114,2),  ")", IF(AND(O114 &lt;0.05, NOT(ISBLANK(O114))), "*", " ") )</f>
+        <f t="shared" ref="Q114" si="279">_xlfn.CONCAT(ROUND(L114, 2), " (", ROUND(N114,2), " - ", ROUND(M114,2),  ")", IF(AND(O114 &lt;0.05, NOT(ISBLANK(O114))), "*", " ") )</f>
         <v>1.2 (1.1 - 1.33)*</v>
       </c>
     </row>
@@ -20231,23 +20230,23 @@
         <v>6.2116372798042703E-12</v>
       </c>
       <c r="L116">
-        <f t="shared" ref="L116:L121" si="280">IFERROR(G116/G117,0)</f>
+        <f t="shared" ref="L116" si="280">IFERROR(G116/G117,0)</f>
         <v>1.3648170011823164</v>
       </c>
       <c r="M116">
-        <f t="shared" ref="M116:M120" si="281">IFERROR(H116/H117, 0)</f>
+        <f t="shared" ref="M116" si="281">IFERROR(H116/H117, 0)</f>
         <v>2.8725081636660255</v>
       </c>
       <c r="N116">
-        <f t="shared" ref="N116:N120" si="282">IFERROR(I116/I117, 0)</f>
+        <f t="shared" ref="N116" si="282">IFERROR(I116/I117, 0)</f>
         <v>1.0563715664330831</v>
       </c>
       <c r="O116">
-        <f t="shared" ref="O116:O120" si="283">IFERROR(J116/J117, 0)</f>
+        <f t="shared" ref="O116" si="283">IFERROR(J116/J117, 0)</f>
         <v>2.0734421893003796E-9</v>
       </c>
       <c r="Q116" t="str">
-        <f t="shared" ref="Q116:Q120" si="284">_xlfn.CONCAT(ROUND(L116, 2), " (", ROUND(N116,2), " - ", ROUND(M116,2),  ")", IF(AND(O116 &lt;0.05, NOT(ISBLANK(O116))), "*", " ") )</f>
+        <f t="shared" ref="Q116" si="284">_xlfn.CONCAT(ROUND(L116, 2), " (", ROUND(N116,2), " - ", ROUND(M116,2),  ")", IF(AND(O116 &lt;0.05, NOT(ISBLANK(O116))), "*", " ") )</f>
         <v>1.36 (1.06 - 2.87)*</v>
       </c>
     </row>
@@ -20335,23 +20334,23 @@
         <v>9.4888310316540696E-11</v>
       </c>
       <c r="L118">
-        <f t="shared" ref="L118:L121" si="285">IFERROR(G118/G119,0)</f>
+        <f t="shared" ref="L118" si="285">IFERROR(G118/G119,0)</f>
         <v>1.2857142857141197</v>
       </c>
       <c r="M118">
-        <f t="shared" ref="M118:M120" si="286">IFERROR(H118/H119, 0)</f>
+        <f t="shared" ref="M118" si="286">IFERROR(H118/H119, 0)</f>
         <v>0</v>
       </c>
       <c r="N118">
-        <f t="shared" ref="N118:N120" si="287">IFERROR(I118/I119, 0)</f>
+        <f t="shared" ref="N118" si="287">IFERROR(I118/I119, 0)</f>
         <v>1</v>
       </c>
       <c r="O118">
-        <f t="shared" ref="O118:O120" si="288">IFERROR(J118/J119, 0)</f>
+        <f t="shared" ref="O118" si="288">IFERROR(J118/J119, 0)</f>
         <v>5.1597294843696462E-10</v>
       </c>
       <c r="Q118" t="str">
-        <f t="shared" ref="Q118:Q120" si="289">_xlfn.CONCAT(ROUND(L118, 2), " (", ROUND(N118,2), " - ", ROUND(M118,2),  ")", IF(AND(O118 &lt;0.05, NOT(ISBLANK(O118))), "*", " ") )</f>
+        <f t="shared" ref="Q118" si="289">_xlfn.CONCAT(ROUND(L118, 2), " (", ROUND(N118,2), " - ", ROUND(M118,2),  ")", IF(AND(O118 &lt;0.05, NOT(ISBLANK(O118))), "*", " ") )</f>
         <v>1.29 (1 - 0)*</v>
       </c>
     </row>
@@ -20423,7 +20422,7 @@
         <v>100</v>
       </c>
       <c r="L120">
-        <f t="shared" ref="L120:L121" si="290">IFERROR(G120/G121,0)</f>
+        <f t="shared" ref="L120" si="290">IFERROR(G120/G121,0)</f>
         <v>0</v>
       </c>
       <c r="M120">
@@ -20485,7 +20484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F568E0-A4E8-4E96-9684-88B9155E643F}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -20499,17 +20498,17 @@
   <sheetData>
     <row r="2" spans="2:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -20545,7 +20544,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -20578,7 +20577,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -20609,7 +20608,7 @@
     </row>
     <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -20642,7 +20641,7 @@
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -20673,7 +20672,7 @@
     </row>
     <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -20706,7 +20705,7 @@
     </row>
     <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -20737,7 +20736,7 @@
     </row>
     <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -20770,7 +20769,7 @@
     </row>
     <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
@@ -20801,7 +20800,7 @@
     </row>
     <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -20834,7 +20833,7 @@
     </row>
     <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
@@ -20865,7 +20864,7 @@
     </row>
     <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -20898,7 +20897,7 @@
     </row>
     <row r="15" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
@@ -21111,14 +21110,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/Paper/table_4.xlsx
+++ b/results/Paper/table_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\Race Disparities in Sepsis\mit-tmle\results\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BB2A3-D236-4A0B-8B5D-6BDB4FA48B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31531E9B-BBB4-4C8F-98DF-26D273201B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="52">
   <si>
     <t>cohort</t>
   </si>
@@ -195,12 +195,6 @@
     <t>race</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-white </t>
-  </si>
-  <si>
-    <t xml:space="preserve">White </t>
-  </si>
-  <si>
     <t>No Ventilation</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Average of psi</t>
-  </si>
-  <si>
     <t>ratio_psi</t>
   </si>
   <si>
@@ -231,11 +222,20 @@
     <t>ATE Ratio
 White vs. Non-White</t>
   </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Average of ATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,8 +787,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,12 +799,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -847,7 +845,64 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2251,8 +2306,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable29" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N4:O47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N4:O23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -2267,15 +2322,15 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item x="0"/>
-        <item x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item x="0"/>
-        <item x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2307,26 +2362,14 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i>
@@ -2335,19 +2378,7 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i>
@@ -2356,19 +2387,7 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i>
@@ -2377,19 +2396,7 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i>
@@ -2398,19 +2405,7 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i>
@@ -2419,19 +2414,7 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i t="grand">
@@ -2442,12 +2425,20 @@
     <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="3" item="1" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Average of psi" fld="5" subtotal="average" baseField="2" baseItem="0"/>
+    <dataField name="Average of ATE" fld="5" subtotal="average" baseField="2" baseItem="0" numFmtId="169"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7377,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7389,8 +7380,8 @@
     <col min="5" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7427,8 +7418,8 @@
       <c r="N1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="9">
-        <v>6</v>
+      <c r="O1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -7479,8 +7470,8 @@
       <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="9">
-        <v>10</v>
+      <c r="O2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -7575,10 +7566,10 @@
         <v>0.51 (0.48 - 0.54)*</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -7629,8 +7620,8 @@
       <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5">
-        <v>0.38408227893435404</v>
+      <c r="O5" s="15">
+        <v>0.45735875431667772</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -7681,8 +7672,8 @@
       <c r="N6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O6">
-        <v>0.48164705582437051</v>
+      <c r="O6" s="15">
+        <v>0.52703305678788903</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -7730,11 +7721,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G7, 2), " (", ROUND(temp!H7,2), " - ", ROUND(temp!I7,2),  ")", IF(AND(temp!J7 &lt;0.05, NOT(ISBLANK(temp!J7))), "*", " ") )</f>
         <v>0.27 (0.25 - 0.29)*</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7">
-        <v>0.51160443995962901</v>
+      <c r="N7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.38768445184546652</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -7782,11 +7773,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G8, 2), " (", ROUND(temp!H8,2), " - ", ROUND(temp!I8,2),  ")", IF(AND(temp!J8 &lt;0.05, NOT(ISBLANK(temp!J8))), "*", " ") )</f>
         <v>0.19 (0.16 - 0.21)*</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8">
-        <v>0.451689671689112</v>
+      <c r="N8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.48861975555631554</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -7835,10 +7826,10 @@
         <v>0.29 (0.26 - 0.31)*</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9">
-        <v>0.28651750204433751</v>
+        <v>20</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.63211375225250666</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -7886,11 +7877,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G10, 2), " (", ROUND(temp!H10,2), " - ", ROUND(temp!I10,2),  ")", IF(AND(temp!J10 &lt;0.05, NOT(ISBLANK(temp!J10))), "*", " ") )</f>
         <v>0.53 (0.48 - 0.59)*</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10">
-        <v>0.28655959425226002</v>
+      <c r="N10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.34512575886012442</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -7938,11 +7929,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G11, 2), " (", ROUND(temp!H11,2), " - ", ROUND(temp!I11,2),  ")", IF(AND(temp!J11 &lt;0.05, NOT(ISBLANK(temp!J11))), "*", " ") )</f>
         <v>0.64 (0.45 - 0.83)*</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11">
-        <v>0.28647540983641501</v>
+      <c r="N11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.50744104716905869</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -7990,11 +7981,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G12, 2), " (", ROUND(temp!H12,2), " - ", ROUND(temp!I12,2),  ")", IF(AND(temp!J12 &lt;0.05, NOT(ISBLANK(temp!J12))), "*", " ") )</f>
         <v>0.45 (0.44 - 0.46)*</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12">
-        <v>0.37191644982658001</v>
+      <c r="N12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.67427941842462968</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -8043,10 +8034,10 @@
         <v>0.29 (0.27 - 0.31)*</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13">
-        <v>0.59614733495410555</v>
+        <v>11</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.34060267591348747</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -8094,11 +8085,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G14, 2), " (", ROUND(temp!H14,2), " - ", ROUND(temp!I14,2),  ")", IF(AND(temp!J14 &lt;0.05, NOT(ISBLANK(temp!J14))), "*", " ") )</f>
         <v>0.45 (0.44 - 0.47)*</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14">
-        <v>0.61925795053003196</v>
+      <c r="N14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.45324760017548016</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -8146,11 +8137,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G15, 2), " (", ROUND(temp!H15,2), " - ", ROUND(temp!I15,2),  ")", IF(AND(temp!J15 &lt;0.05, NOT(ISBLANK(temp!J15))), "*", " ") )</f>
         <v>0.63 (0.61 - 0.65)*</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15">
-        <v>0.57303671937817902</v>
+      <c r="N15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.56245659823410554</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -8201,8 +8192,8 @@
       <c r="N16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O16">
-        <v>0.1476855646990545</v>
+      <c r="O16" s="15">
+        <v>0.34403860211685494</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -8250,11 +8241,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G17, 2), " (", ROUND(temp!H17,2), " - ", ROUND(temp!I17,2),  ")", IF(AND(temp!J17 &lt;0.05, NOT(ISBLANK(temp!J17))), "*", " ") )</f>
         <v>0.27 (0.26 - 0.27)*</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17">
-        <v>0.1321499013812</v>
+      <c r="N17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.46469298913159279</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -8302,11 +8293,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G18, 2), " (", ROUND(temp!H18,2), " - ", ROUND(temp!I18,2),  ")", IF(AND(temp!J18 &lt;0.05, NOT(ISBLANK(temp!J18))), "*", " ") )</f>
         <v>0.19 (0.18 - 0.2)*</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18">
-        <v>0.163221228016909</v>
+      <c r="N18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.53498412385747296</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -8354,11 +8345,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G19, 2), " (", ROUND(temp!H19,2), " - ", ROUND(temp!I19,2),  ")", IF(AND(temp!J19 &lt;0.05, NOT(ISBLANK(temp!J19))), "*", " ") )</f>
         <v>0.29 (0.27 - 0.3)*</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19">
-        <v>0.46311959728281249</v>
+      <c r="N19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.39440185440571246</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -8406,11 +8397,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G20, 2), " (", ROUND(temp!H20,2), " - ", ROUND(temp!I20,2),  ")", IF(AND(temp!J20 &lt;0.05, NOT(ISBLANK(temp!J20))), "*", " ") )</f>
         <v>0.5 (0.48 - 0.53)*</v>
       </c>
-      <c r="N20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20">
-        <v>0.69002365571811208</v>
+      <c r="N20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.40878609454430637</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -8458,11 +8449,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G21, 2), " (", ROUND(temp!H21,2), " - ", ROUND(temp!I21,2),  ")", IF(AND(temp!J21 &lt;0.05, NOT(ISBLANK(temp!J21))), "*", " ") )</f>
         <v>0.71 (0.63 - 0.79)*</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21">
-        <v>0.66896551724132902</v>
+      <c r="N21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.58090065261797685</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -8510,11 +8501,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G22, 2), " (", ROUND(temp!H22,2), " - ", ROUND(temp!I22,2),  ")", IF(AND(temp!J22 &lt;0.05, NOT(ISBLANK(temp!J22))), "*", " ") )</f>
         <v>0.52 (0.5 - 0.54)*</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22">
-        <v>0.71108179419489503</v>
+      <c r="N22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.23667153647063582</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -8562,11 +8553,11 @@
         <f>_xlfn.CONCAT(ROUND(temp!G23, 2), " (", ROUND(temp!H23,2), " - ", ROUND(temp!I23,2),  ")", IF(AND(temp!J23 &lt;0.05, NOT(ISBLANK(temp!J23))), "*", " ") )</f>
         <v>0.44 (0.42 - 0.47)*</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23">
-        <v>0.23621553884751301</v>
+      <c r="N23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.46335770681557215</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -8614,12 +8605,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G24, 2), " (", ROUND(temp!H24,2), " - ", ROUND(temp!I24,2),  ")", IF(AND(temp!J24 &lt;0.05, NOT(ISBLANK(temp!J24))), "*", " ") )</f>
         <v>0.62 (0.59 - 0.65)*</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24">
-        <v>0.21491228070193999</v>
-      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -8666,12 +8651,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G25, 2), " (", ROUND(temp!H25,2), " - ", ROUND(temp!I25,2),  ")", IF(AND(temp!J25 &lt;0.05, NOT(ISBLANK(temp!J25))), "*", " ") )</f>
         <v>0.8 (0.73 - 0.87)*</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25">
-        <v>0.257518796993086</v>
-      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -8718,12 +8697,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G26, 2), " (", ROUND(temp!H26,2), " - ", ROUND(temp!I26,2),  ")", IF(AND(temp!J26 &lt;0.05, NOT(ISBLANK(temp!J26))), "*", " ") )</f>
         <v>0.8 (0.55 - 1)*</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26">
-        <v>0.37006554197770503</v>
-      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -8770,12 +8743,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G27, 2), " (", ROUND(temp!H27,2), " - ", ROUND(temp!I27,2),  ")", IF(AND(temp!J27 &lt;0.05, NOT(ISBLANK(temp!J27))), "*", " ") )</f>
         <v>0.08 (0.07 - 0.09)*</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27">
-        <v>0.51531660251544653</v>
-      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -8822,12 +8789,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G28, 2), " (", ROUND(temp!H28,2), " - ", ROUND(temp!I28,2),  ")", IF(AND(temp!J28 &lt;0.05, NOT(ISBLANK(temp!J28))), "*", " ") )</f>
         <v>0.06 (0.05 - 0.07)*</v>
       </c>
-      <c r="N28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28">
-        <v>0.54324644544899903</v>
-      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -8874,12 +8835,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G29, 2), " (", ROUND(temp!H29,2), " - ", ROUND(temp!I29,2),  ")", IF(AND(temp!J29 &lt;0.05, NOT(ISBLANK(temp!J29))), "*", " ") )</f>
         <v>0.13 (0.11 - 0.15)*</v>
       </c>
-      <c r="N29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29">
-        <v>0.48738675958189398</v>
-      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -8926,12 +8881,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G30, 2), " (", ROUND(temp!H30,2), " - ", ROUND(temp!I30,2),  ")", IF(AND(temp!J30 &lt;0.05, NOT(ISBLANK(temp!J30))), "*", " ") )</f>
         <v>0.37 (0.23 - 0.5)*</v>
       </c>
-      <c r="N30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O30">
-        <v>0.22481448143996349</v>
-      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -8978,12 +8927,6 @@
         <f>_xlfn.CONCAT(ROUND(temp!G31, 2), " (", ROUND(temp!H31,2), " - ", ROUND(temp!I31,2),  ")", IF(AND(temp!J31 &lt;0.05, NOT(ISBLANK(temp!J31))), "*", " ") )</f>
         <v xml:space="preserve">1 (0 - 1) </v>
       </c>
-      <c r="N31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31">
-        <v>0.215393452039258</v>
-      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -9030,14 +8973,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G32, 2), " (", ROUND(temp!H32,2), " - ", ROUND(temp!I32,2),  ")", IF(AND(temp!J32 &lt;0.05, NOT(ISBLANK(temp!J32))), "*", " ") )</f>
         <v>0.48 (0.48 - 0.49)*</v>
       </c>
-      <c r="N32" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32">
-        <v>0.23423551084066899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>LTMLE!A73</f>
         <v>72</v>
@@ -9082,14 +9019,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G33, 2), " (", ROUND(temp!H33,2), " - ", ROUND(temp!I33,2),  ")", IF(AND(temp!J33 &lt;0.05, NOT(ISBLANK(temp!J33))), "*", " ") )</f>
         <v>0.42 (0.41 - 0.43)*</v>
       </c>
-      <c r="N33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33">
-        <v>0.3935388940891873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>LTMLE!A74</f>
         <v>73</v>
@@ -9134,14 +9065,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G34, 2), " (", ROUND(temp!H34,2), " - ", ROUND(temp!I34,2),  ")", IF(AND(temp!J34 &lt;0.05, NOT(ISBLANK(temp!J34))), "*", " ") )</f>
         <v>0.57 (0.56 - 0.59)*</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34">
-        <v>0.49365482001656452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>LTMLE!A75</f>
         <v>74</v>
@@ -9186,14 +9111,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G35, 2), " (", ROUND(temp!H35,2), " - ", ROUND(temp!I35,2),  ")", IF(AND(temp!J35 &lt;0.05, NOT(ISBLANK(temp!J35))), "*", " ") )</f>
         <v>0.77 (0.73 - 0.81)*</v>
       </c>
-      <c r="N35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35">
-        <v>0.52089407191416504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>LTMLE!A76</f>
         <v>75</v>
@@ -9238,14 +9157,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G36, 2), " (", ROUND(temp!H36,2), " - ", ROUND(temp!I36,2),  ")", IF(AND(temp!J36 &lt;0.05, NOT(ISBLANK(temp!J36))), "*", " ") )</f>
         <v>0.88 (0.75 - 1)*</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O36">
-        <v>0.46641556811896401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>LTMLE!A12</f>
         <v>11</v>
@@ -9290,14 +9203,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G37, 2), " (", ROUND(temp!H37,2), " - ", ROUND(temp!I37,2),  ")", IF(AND(temp!J37 &lt;0.05, NOT(ISBLANK(temp!J37))), "*", " ") )</f>
         <v>0.09 (0.09 - 0.1)*</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37">
-        <v>0.29342296816181002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>LTMLE!A13</f>
         <v>12</v>
@@ -9342,14 +9249,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G38, 2), " (", ROUND(temp!H38,2), " - ", ROUND(temp!I38,2),  ")", IF(AND(temp!J38 &lt;0.05, NOT(ISBLANK(temp!J38))), "*", " ") )</f>
         <v>0.07 (0.07 - 0.08)*</v>
       </c>
-      <c r="N38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O38">
-        <v>0.29179566563500697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>LTMLE!A14</f>
         <v>13</v>
@@ -9394,14 +9295,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G39, 2), " (", ROUND(temp!H39,2), " - ", ROUND(temp!I39,2),  ")", IF(AND(temp!J39 &lt;0.05, NOT(ISBLANK(temp!J39))), "*", " ") )</f>
         <v>0.16 (0.15 - 0.18)*</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O39">
-        <v>0.295050270688613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>LTMLE!A15</f>
         <v>14</v>
@@ -9446,14 +9341,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G40, 2), " (", ROUND(temp!H40,2), " - ", ROUND(temp!I40,2),  ")", IF(AND(temp!J40 &lt;0.05, NOT(ISBLANK(temp!J40))), "*", " ") )</f>
         <v>0.48 (0.41 - 0.55)*</v>
       </c>
-      <c r="N40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40">
-        <v>0.35730962902056324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>LTMLE!A16</f>
         <v>15</v>
@@ -9498,14 +9387,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G41, 2), " (", ROUND(temp!H41,2), " - ", ROUND(temp!I41,2),  ")", IF(AND(temp!J41 &lt;0.05, NOT(ISBLANK(temp!J41))), "*", " ") )</f>
         <v>1 (1 - 1)*</v>
       </c>
-      <c r="N41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41">
-        <v>0.59359143492087996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>LTMLE!A87</f>
         <v>86</v>
@@ -9550,14 +9433,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G42, 2), " (", ROUND(temp!H42,2), " - ", ROUND(temp!I42,2),  ")", IF(AND(temp!J42 &lt;0.05, NOT(ISBLANK(temp!J42))), "*", " ") )</f>
         <v>0.67 (0.64 - 0.7)*</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42">
-        <v>0.61425959780623896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>LTMLE!A88</f>
         <v>87</v>
@@ -9602,14 +9479,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G43, 2), " (", ROUND(temp!H43,2), " - ", ROUND(temp!I43,2),  ")", IF(AND(temp!J43 &lt;0.05, NOT(ISBLANK(temp!J43))), "*", " ") )</f>
         <v>0.6 (0.52 - 0.68)*</v>
       </c>
-      <c r="N43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O43">
-        <v>0.57292327203552096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>LTMLE!A89</f>
         <v>88</v>
@@ -9654,14 +9525,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G44, 2), " (", ROUND(temp!H44,2), " - ", ROUND(temp!I44,2),  ")", IF(AND(temp!J44 &lt;0.05, NOT(ISBLANK(temp!J44))), "*", " ") )</f>
         <v>0.67 (0.62 - 0.71)*</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44">
-        <v>0.12102782312024651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>LTMLE!A90</f>
         <v>89</v>
@@ -9706,14 +9571,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G45, 2), " (", ROUND(temp!H45,2), " - ", ROUND(temp!I45,2),  ")", IF(AND(temp!J45 &lt;0.05, NOT(ISBLANK(temp!J45))), "*", " ") )</f>
         <v>0.71 (0.65 - 0.77)*</v>
       </c>
-      <c r="N45" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O45">
-        <v>0.106077348512377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>LTMLE!A91</f>
         <v>90</v>
@@ -9758,14 +9617,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G46, 2), " (", ROUND(temp!H46,2), " - ", ROUND(temp!I46,2),  ")", IF(AND(temp!J46 &lt;0.05, NOT(ISBLANK(temp!J46))), "*", " ") )</f>
         <v>0.68 (0.57 - 0.78)*</v>
       </c>
-      <c r="N46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O46">
-        <v>0.13597829772811601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>LTMLE!A27</f>
         <v>26</v>
@@ -9810,14 +9663,8 @@
         <f>_xlfn.CONCAT(ROUND(temp!G47, 2), " (", ROUND(temp!H47,2), " - ", ROUND(temp!I47,2),  ")", IF(AND(temp!J47 &lt;0.05, NOT(ISBLANK(temp!J47))), "*", " ") )</f>
         <v>0.22 (0.19 - 0.25)*</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O47">
-        <v>0.390005398521867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>LTMLE!A28</f>
         <v>27</v>
@@ -13197,6 +13044,7 @@
     <sortCondition ref="E2:E122"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13218,18 +13066,18 @@
   <sheetData>
     <row r="3" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -13268,10 +13116,10 @@
     </row>
     <row r="5" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -13300,8 +13148,8 @@
     </row>
     <row r="6" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
@@ -13328,8 +13176,8 @@
     </row>
     <row r="7" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -13358,8 +13206,8 @@
     </row>
     <row r="8" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
@@ -13386,10 +13234,10 @@
     </row>
     <row r="9" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -13418,8 +13266,8 @@
     </row>
     <row r="10" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
@@ -13446,8 +13294,8 @@
     </row>
     <row r="11" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -13476,8 +13324,8 @@
     </row>
     <row r="12" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
@@ -13504,10 +13352,10 @@
     </row>
     <row r="13" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -13536,8 +13384,8 @@
     </row>
     <row r="14" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
@@ -13564,8 +13412,8 @@
     </row>
     <row r="15" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -13594,8 +13442,8 @@
     </row>
     <row r="16" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
@@ -13622,10 +13470,10 @@
     </row>
     <row r="17" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -13654,8 +13502,8 @@
     </row>
     <row r="18" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
@@ -13682,8 +13530,8 @@
     </row>
     <row r="19" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -13712,8 +13560,8 @@
     </row>
     <row r="20" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
@@ -13740,10 +13588,10 @@
     </row>
     <row r="21" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -13772,8 +13620,8 @@
     </row>
     <row r="22" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
@@ -13800,8 +13648,8 @@
     </row>
     <row r="23" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -13830,8 +13678,8 @@
     </row>
     <row r="24" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
@@ -13858,10 +13706,10 @@
     </row>
     <row r="25" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -13890,8 +13738,8 @@
     </row>
     <row r="26" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
@@ -13918,8 +13766,8 @@
     </row>
     <row r="27" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -13948,8 +13796,8 @@
     </row>
     <row r="28" spans="2:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
@@ -14171,6 +14019,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C17:C20"/>
@@ -14187,10 +14039,6 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14248,13 +14096,13 @@
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>7</v>
@@ -20485,7 +20333,7 @@
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E4" sqref="E4:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20498,17 +20346,17 @@
   <sheetData>
     <row r="2" spans="2:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -20544,7 +20392,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -20577,7 +20425,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
@@ -20608,7 +20456,7 @@
     </row>
     <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -20641,7 +20489,7 @@
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -20672,7 +20520,7 @@
     </row>
     <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -20705,7 +20553,7 @@
     </row>
     <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -20736,7 +20584,7 @@
     </row>
     <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -20769,7 +20617,7 @@
     </row>
     <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
@@ -20800,7 +20648,7 @@
     </row>
     <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -20833,7 +20681,7 @@
     </row>
     <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
@@ -20864,7 +20712,7 @@
     </row>
     <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -20897,7 +20745,7 @@
     </row>
     <row r="15" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>

--- a/results/Paper/table_4.xlsx
+++ b/results/Paper/table_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\Race Disparities in Sepsis\mit-tmle\results\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B4A4AF-0ED7-4C5D-80AF-4709C755C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622E18A-5669-4122-B0D8-56F04FD88D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -770,7 +770,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -797,12 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -834,25 +828,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11288,17 +11282,17 @@
   <sheetData>
     <row r="3" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -11334,7 +11328,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -11363,7 +11357,7 @@
     </row>
     <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="12" t="s">
         <v>46</v>
       </c>
@@ -11390,7 +11384,7 @@
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -11419,7 +11413,7 @@
     </row>
     <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="12" t="s">
         <v>46</v>
       </c>
@@ -11446,7 +11440,7 @@
     </row>
     <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -11475,7 +11469,7 @@
     </row>
     <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
@@ -11502,7 +11496,7 @@
     </row>
     <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -11531,7 +11525,7 @@
     </row>
     <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="12" t="s">
         <v>46</v>
       </c>
@@ -11558,7 +11552,7 @@
     </row>
     <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -11587,7 +11581,7 @@
     </row>
     <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="12" t="s">
         <v>46</v>
       </c>
@@ -11614,7 +11608,7 @@
     </row>
     <row r="15" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -11643,7 +11637,7 @@
     </row>
     <row r="16" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="12" t="s">
         <v>46</v>
       </c>
@@ -11852,14 +11846,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11871,735 +11865,723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5414F4A-3CCF-48B8-9041-E473F806DC9D}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="17" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="2" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="17" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="17" customWidth="1"/>
-    <col min="11" max="12" width="17.44140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="2" style="15" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="17" customWidth="1"/>
-    <col min="15" max="16" width="17.44140625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="2" style="15" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" style="17" customWidth="1"/>
-    <col min="19" max="20" width="17.44140625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="2" style="15" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="2" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="15" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="2" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="15" customWidth="1"/>
+    <col min="7" max="8" width="17.44140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="2" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="15" customWidth="1"/>
+    <col min="11" max="12" width="17.44140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="2" style="13" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="15" customWidth="1"/>
+    <col min="15" max="16" width="17.44140625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="2" style="13" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" style="15" customWidth="1"/>
+    <col min="19" max="20" width="17.44140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="2" style="13" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="18"/>
-      <c r="P1" s="22"/>
-      <c r="R1" s="18"/>
-      <c r="T1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="23" t="s">
+      <c r="B1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="L1" s="20"/>
+      <c r="N1" s="16"/>
+      <c r="P1" s="20"/>
+      <c r="R1" s="16"/>
+      <c r="T1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" s="18" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="24" t="str">
+      <c r="C2" s="28" t="str">
         <f>table_4!E4</f>
         <v>All</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="24" t="str">
+      <c r="G2" s="28" t="str">
         <f>table_4!F4</f>
         <v>0 - 5</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="21" t="s">
         <v>51</v>
       </c>
       <c r="K2" s="29" t="str">
         <f>table_4!G4</f>
         <v>6 - 10</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="24" t="str">
+      <c r="O2" s="28" t="str">
         <f>table_4!H4</f>
         <v>11 - 15</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="23" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="24" t="str">
+      <c r="S2" s="28" t="str">
         <f>table_4!I4</f>
         <v>&gt; 15</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="23" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" s="19" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="27"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="23" t="str">
         <f>table_4!E8</f>
         <v>0.246 (0.241 - 0.251)*</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="23" t="str">
         <f>table_4!E6</f>
         <v>0.346 (0.340 - 0.353)*</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="23" t="str">
         <f>table_4!F8</f>
         <v>0.190 (0.185 - 0.195)*</v>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="23" t="str">
         <f>table_4!F6</f>
         <v>0.227 (0.218 - 0.235)*</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="23" t="str">
         <f>table_4!G8</f>
         <v>0.383 (0.371 - 0.394)*</v>
       </c>
-      <c r="L4" s="30" t="str">
+      <c r="L4" s="24" t="str">
         <f>table_4!G6</f>
         <v>0.363 (0.353 - 0.373)*</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="26" t="str">
+      <c r="O4" s="23" t="str">
         <f>table_4!H8</f>
         <v>0.679 (0.642 - 0.715)*</v>
       </c>
-      <c r="P4" s="30" t="str">
+      <c r="P4" s="24" t="str">
         <f>table_4!H6</f>
         <v>0.583 (0.566 - 0.600)*</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="26" t="str">
+      <c r="S4" s="23" t="str">
         <f>table_4!I8</f>
         <v>0.889 (0.770 - 1.000)*</v>
       </c>
-      <c r="T4" s="30" t="str">
+      <c r="T4" s="24" t="str">
         <f>table_4!I6</f>
         <v>0.738 (0.700 - 0.776)*</v>
       </c>
-      <c r="U4" s="28"/>
     </row>
     <row r="5" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="23" t="str">
         <f>table_4!E7</f>
         <v>0.268 (0.258 - 0.278)*</v>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="23" t="str">
         <f>table_4!E5</f>
         <v>0.374 (0.361 - 0.387)*</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="26" t="str">
+      <c r="G5" s="23" t="str">
         <f>table_4!F7</f>
         <v>0.202 (0.191 - 0.213)*</v>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="23" t="str">
         <f>table_4!F5</f>
         <v>0.233 (0.215 - 0.252)*</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="23" t="str">
         <f>table_4!G7</f>
         <v>0.389 (0.368 - 0.410)*</v>
       </c>
-      <c r="L5" s="30" t="str">
+      <c r="L5" s="24" t="str">
         <f>table_4!G5</f>
         <v>0.389 (0.369 - 0.410)*</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="26" t="str">
+      <c r="O5" s="23" t="str">
         <f>table_4!H7</f>
         <v>0.680 (0.611 - 0.750)*</v>
       </c>
-      <c r="P5" s="30" t="str">
+      <c r="P5" s="24" t="str">
         <f>table_4!H5</f>
         <v>0.592 (0.560 - 0.624)*</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="26" t="str">
+      <c r="S5" s="23" t="str">
         <f>table_4!I7</f>
         <v>0.800 (0.552 - 1.000)*</v>
       </c>
-      <c r="T5" s="30" t="str">
+      <c r="T5" s="24" t="str">
         <f>table_4!I5</f>
         <v>0.710 (0.638 - 0.781)*</v>
       </c>
-      <c r="U5" s="28"/>
     </row>
     <row r="6" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="L6" s="22"/>
-      <c r="N6" s="18"/>
-      <c r="P6" s="22"/>
-      <c r="R6" s="18"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:21" s="21" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23" t="s">
+      <c r="B6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="L6" s="20"/>
+      <c r="N6" s="16"/>
+      <c r="P6" s="20"/>
+      <c r="R6" s="16"/>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" s="19" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="23" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="23" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="23" t="s">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" s="21" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="23" t="s">
+      <c r="T7" s="28"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" s="19" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="19"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="23" t="str">
         <f>table_4!E12</f>
         <v>0.274 (0.270 - 0.278)*</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="23" t="str">
         <f>table_4!E10</f>
         <v>0.459 (0.444 - 0.474)*</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="23" t="str">
         <f>table_4!F12</f>
         <v>0.198 (0.194 - 0.203)*</v>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H9" s="23" t="str">
         <f>table_4!F10</f>
         <v>0.286 (0.258 - 0.313)*</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="23" t="str">
         <f>table_4!G12</f>
         <v>0.362 (0.354 - 0.370)*</v>
       </c>
-      <c r="L9" s="26" t="str">
+      <c r="L9" s="23" t="str">
         <f>table_4!G10</f>
         <v>0.446 (0.423 - 0.469)*</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="26" t="str">
+      <c r="O9" s="23" t="str">
         <f>table_4!H12</f>
         <v>0.603 (0.585 - 0.621)*</v>
       </c>
-      <c r="P9" s="26" t="str">
+      <c r="P9" s="23" t="str">
         <f>table_4!H10</f>
         <v>0.588 (0.557 - 0.618)*</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="S9" s="23" t="str">
         <f>table_4!I12</f>
         <v>0.802 (0.754 - 0.850)*</v>
       </c>
-      <c r="T9" s="26" t="str">
+      <c r="T9" s="23" t="str">
         <f>table_4!I10</f>
         <v>0.693 (0.640 - 0.747)*</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="23" t="str">
         <f>table_4!E11</f>
         <v>0.291 (0.282 - 0.299)*</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="23" t="str">
         <f>table_4!E9</f>
         <v>0.443 (0.420 - 0.466)*</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="23" t="str">
         <f>table_4!F11</f>
         <v>0.206 (0.196 - 0.216)*</v>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H10" s="23" t="str">
         <f>table_4!F9</f>
         <v>0.284 (0.242 - 0.327)*</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="23" t="str">
         <f>table_4!G11</f>
         <v>0.377 (0.361 - 0.393)*</v>
       </c>
-      <c r="L10" s="26" t="str">
+      <c r="L10" s="23" t="str">
         <f>table_4!G9</f>
         <v>0.437 (0.404 - 0.469)*</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="26" t="str">
+      <c r="O10" s="23" t="str">
         <f>table_4!H11</f>
         <v>0.609 (0.575 - 0.644)*</v>
       </c>
-      <c r="P10" s="26" t="str">
+      <c r="P10" s="23" t="str">
         <f>table_4!H9</f>
         <v>0.598 (0.546 - 0.651)*</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="26" t="str">
+      <c r="S10" s="23" t="str">
         <f>table_4!I11</f>
         <v>0.767 (0.670 - 0.864)*</v>
       </c>
-      <c r="T10" s="26" t="str">
+      <c r="T10" s="23" t="str">
         <f>table_4!I9</f>
         <v>0.674 (0.578 - 0.770)*</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="23" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="23" t="s">
+      <c r="L12" s="28"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="23" t="s">
+      <c r="P12" s="28"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" s="21" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23" t="s">
+      <c r="T12" s="28"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" s="19" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="23" t="s">
+      <c r="M13" s="17"/>
+      <c r="N13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="23" t="s">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="19"/>
+      <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="23" t="str">
         <f>table_4!E16</f>
         <v>0.233 (0.228 - 0.238)*</v>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="23" t="str">
         <f>table_4!E14</f>
         <v>0.354 (0.348 - 0.360)*</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="23" t="str">
         <f>table_4!F16</f>
         <v>0.192 (0.187 - 0.197)*</v>
       </c>
-      <c r="H14" s="26" t="str">
+      <c r="H14" s="23" t="str">
         <f>table_4!F14</f>
         <v>0.220 (0.212 - 0.228)*</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="26" t="str">
+      <c r="K14" s="23" t="str">
         <f>table_4!G16</f>
         <v>0.362 (0.350 - 0.374)*</v>
       </c>
-      <c r="L14" s="26" t="str">
+      <c r="L14" s="23" t="str">
         <f>table_4!G14</f>
         <v>0.377 (0.368 - 0.387)*</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="26" t="str">
+      <c r="O14" s="23" t="str">
         <f>table_4!H16</f>
         <v>0.546 (0.495 - 0.597)*</v>
       </c>
-      <c r="P14" s="26" t="str">
+      <c r="P14" s="23" t="str">
         <f>table_4!H14</f>
         <v>0.604 (0.588 - 0.621)*</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="31" t="str">
+      <c r="S14" s="25" t="str">
         <f>table_4!I16</f>
         <v xml:space="preserve">0.000 (0.000 - 0.000) </v>
       </c>
-      <c r="T14" s="26" t="str">
+      <c r="T14" s="23" t="str">
         <f>table_4!I14</f>
         <v>0.744 (0.707 - 0.781)*</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="23" t="str">
         <f>table_4!E15</f>
         <v>0.259 (0.249 - 0.269)*</v>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="23" t="str">
         <f>table_4!E13</f>
         <v>0.386 (0.373 - 0.399)*</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="23" t="str">
         <f>table_4!F15</f>
         <v>0.206 (0.195 - 0.217)*</v>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H15" s="23" t="str">
         <f>table_4!F13</f>
         <v>0.223 (0.204 - 0.243)*</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="26" t="str">
+      <c r="K15" s="23" t="str">
         <f>table_4!G15</f>
         <v>0.384 (0.363 - 0.406)*</v>
       </c>
-      <c r="L15" s="26" t="str">
+      <c r="L15" s="23" t="str">
         <f>table_4!G13</f>
         <v>0.393 (0.373 - 0.413)*</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="26" t="str">
+      <c r="O15" s="23" t="str">
         <f>table_4!H15</f>
         <v>0.469 (0.382 - 0.555)*</v>
       </c>
-      <c r="P15" s="26" t="str">
+      <c r="P15" s="23" t="str">
         <f>table_4!H13</f>
         <v>0.624 (0.594 - 0.655)*</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="31" t="str">
+      <c r="S15" s="25" t="str">
         <f>table_4!I15</f>
         <v xml:space="preserve">0.000 (0.000 - 0.000) </v>
       </c>
-      <c r="T15" s="26" t="str">
+      <c r="T15" s="23" t="str">
         <f>table_4!I13</f>
         <v>0.716 (0.647 - 0.786)*</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="L16" s="22"/>
-      <c r="N16" s="18"/>
-      <c r="P16" s="22"/>
-      <c r="R16" s="18"/>
-      <c r="T16" s="22"/>
+      <c r="B16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="L16" s="20"/>
+      <c r="N16" s="16"/>
+      <c r="P16" s="20"/>
+      <c r="R16" s="16"/>
+      <c r="T16" s="20"/>
     </row>
     <row r="17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Paper/table_4.xlsx
+++ b/results/Paper/table_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\Race Disparities in Sepsis\mit-tmle\results\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622E18A-5669-4122-B0D8-56F04FD88D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEBA599-F058-4CF4-8640-4C113831732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,10 +838,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2804,12 +2804,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B29" sqref="B29"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2869,22 +2869,22 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>0.267581013849996</v>
+        <v>0.263061411549813</v>
       </c>
       <c r="H2">
-        <v>5.1334802541377804E-3</v>
+        <v>5.0383246952220902E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.25751957743653803</v>
+        <v>0.25318647660475901</v>
       </c>
       <c r="K2">
-        <v>0.27764245026345302</v>
+        <v>0.27293634649486698</v>
       </c>
       <c r="L2">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2907,22 +2907,22 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.20160501076547299</v>
+        <v>0.19806854762380099</v>
       </c>
       <c r="H3">
-        <v>5.6130277675092198E-3</v>
+        <v>5.4843333442314004E-3</v>
       </c>
       <c r="I3" s="1">
-        <v>1.63829665640852E-282</v>
+        <v>1.30302637155767E-285</v>
       </c>
       <c r="J3">
-        <v>0.19060367849693199</v>
+        <v>0.18731945178989501</v>
       </c>
       <c r="K3">
-        <v>0.21260634303401399</v>
+        <v>0.20881764345770701</v>
       </c>
       <c r="L3">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2945,22 +2945,22 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>0.38909599254423</v>
+        <v>0.38564196962722502</v>
       </c>
       <c r="H4">
-        <v>1.0524722768977901E-2</v>
+        <v>1.0441999504744901E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>3.5128897251377402E-299</v>
+        <v>1.42670504055995E-298</v>
       </c>
       <c r="J4">
-        <v>0.368467914969765</v>
+        <v>0.36517602667134003</v>
       </c>
       <c r="K4">
-        <v>0.40972407011869599</v>
+        <v>0.40610791258311002</v>
       </c>
       <c r="L4">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2983,22 +2983,22 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>0.68023255813942496</v>
+        <v>0.67630057803459798</v>
       </c>
       <c r="H5">
-        <v>3.5565208788707697E-2</v>
+        <v>3.5576356438974298E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>1.5238289820205599E-81</v>
+        <v>1.41403164234582E-80</v>
       </c>
       <c r="J5">
-        <v>0.61052602981091098</v>
+        <v>0.60657220071304896</v>
       </c>
       <c r="K5">
-        <v>0.74993908646794005</v>
+        <v>0.74602895535614699</v>
       </c>
       <c r="L5">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3027,10 +3027,10 @@
         <v>0.126579654597442</v>
       </c>
       <c r="I6" s="1">
-        <v>2.6134164840618701E-10</v>
+        <v>2.6134164840616602E-10</v>
       </c>
       <c r="J6">
-        <v>0.55190843581349003</v>
+        <v>0.55190843581349103</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3059,22 +3059,22 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <v>0.37417155841713101</v>
+        <v>0.37138115434253799</v>
       </c>
       <c r="H7">
-        <v>6.6589889320234101E-3</v>
+        <v>6.5612585608125903E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.36112017993691398</v>
+        <v>0.35852132387009</v>
       </c>
       <c r="K7">
-        <v>0.38722293689734799</v>
+        <v>0.38424098481498598</v>
       </c>
       <c r="L7">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3097,22 +3097,22 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>0.233497536946326</v>
+        <v>0.231024667931923</v>
       </c>
       <c r="H8">
-        <v>9.3897815781120407E-3</v>
+        <v>9.1802735792126007E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>1.68523980579514E-136</v>
+        <v>9.6024356537959992E-140</v>
       </c>
       <c r="J8">
-        <v>0.21509390323052799</v>
+        <v>0.21303166234844101</v>
       </c>
       <c r="K8">
-        <v>0.25190117066212298</v>
+        <v>0.24901767351540399</v>
       </c>
       <c r="L8">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3135,22 +3135,22 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>0.38914443422261102</v>
+        <v>0.38761776581424301</v>
       </c>
       <c r="H9">
-        <v>1.0456962900129801E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.0661203346100198E-303</v>
+        <v>1.03197389110656E-2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.368649163550685</v>
+        <v>0.36739144921869799</v>
       </c>
       <c r="K9">
-        <v>0.40963970489453699</v>
+        <v>0.40784408240978798</v>
       </c>
       <c r="L9">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3173,22 +3173,22 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>0.592190889370934</v>
+        <v>0.59398496240601895</v>
       </c>
       <c r="H10">
-        <v>1.6185928586388301E-2</v>
+        <v>1.6096357997978102E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>4.6424482670517398E-293</v>
+        <v>4.3201160234144198E-298</v>
       </c>
       <c r="J10">
-        <v>0.56046705228527505</v>
+        <v>0.562436680447718</v>
       </c>
       <c r="K10">
-        <v>0.62391472645659196</v>
+        <v>0.62553324436431901</v>
       </c>
       <c r="L10">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3217,7 +3217,7 @@
         <v>3.6484547747652099E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>2.8329592146442998E-84</v>
+        <v>2.8329592146445001E-84</v>
       </c>
       <c r="J11">
         <v>0.63816901977688301</v>
@@ -3249,22 +3249,22 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>0.24568234002249301</v>
+        <v>0.245723224390129</v>
       </c>
       <c r="H12">
-        <v>2.48335030278921E-3</v>
+        <v>2.4836961527657602E-3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.24081506286803001</v>
+        <v>0.240855269382168</v>
       </c>
       <c r="K12">
-        <v>0.25054961717695701</v>
+        <v>0.250591179398091</v>
       </c>
       <c r="L12">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -3287,22 +3287,22 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>0.1900789579337</v>
+        <v>0.19012136355524101</v>
       </c>
       <c r="H13">
-        <v>2.6206269088848901E-3</v>
+        <v>2.6211427294069701E-3</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.184942623575369</v>
+        <v>0.18498401820726501</v>
       </c>
       <c r="K13">
-        <v>0.195215292292031</v>
+        <v>0.195258708903218</v>
       </c>
       <c r="L13">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -3325,22 +3325,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>0.38253012048186902</v>
+        <v>0.382530120481894</v>
       </c>
       <c r="H14">
-        <v>5.8206659411506496E-3</v>
+        <v>5.8206653755547202E-3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.37112182487117401</v>
+        <v>0.37112182597974802</v>
       </c>
       <c r="K14">
-        <v>0.39393841609256303</v>
+        <v>0.39393841498404097</v>
       </c>
       <c r="L14">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -3363,22 +3363,22 @@
         <v>15</v>
       </c>
       <c r="G15">
-        <v>0.67874015748023198</v>
+        <v>0.67874015748021599</v>
       </c>
       <c r="H15">
-        <v>1.8532622883856702E-2</v>
+        <v>1.8532619503464898E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>1.1838617597897701E-293</v>
+        <v>1.18357193566411E-293</v>
       </c>
       <c r="J15">
-        <v>0.64241688408881004</v>
+        <v>0.64241689071424002</v>
       </c>
       <c r="K15">
-        <v>0.71506343087165403</v>
+        <v>0.71506342424619196</v>
       </c>
       <c r="L15">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3439,22 +3439,22 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <v>0.34636519232492002</v>
+        <v>0.34642937598557699</v>
       </c>
       <c r="H17">
-        <v>3.1933167537723899E-3</v>
+        <v>3.19395923100139E-3</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.34010640649629797</v>
+        <v>0.34016933092472601</v>
       </c>
       <c r="K17">
-        <v>0.35262397815354202</v>
+        <v>0.35268942104642897</v>
       </c>
       <c r="L17">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3477,22 +3477,22 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>0.226660969878414</v>
+        <v>0.22667521641591501</v>
       </c>
       <c r="H18">
-        <v>4.3270767396595602E-3</v>
+        <v>4.3283285033755498E-3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.21818005531033999</v>
+        <v>0.218191848436041</v>
       </c>
       <c r="K18">
-        <v>0.23514188444648801</v>
+        <v>0.23515858439578899</v>
       </c>
       <c r="L18">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3515,22 +3515,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>0.36287570186062301</v>
+        <v>0.36291565734424702</v>
       </c>
       <c r="H19">
-        <v>5.0453004043894897E-3</v>
+        <v>5.0456972205993296E-3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.35298709477683399</v>
+        <v>0.35302627251497898</v>
       </c>
       <c r="K19">
-        <v>0.37276430894441098</v>
+        <v>0.37280504217351601</v>
       </c>
       <c r="L19">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3553,22 +3553,22 @@
         <v>15</v>
       </c>
       <c r="G20">
-        <v>0.58317872603586796</v>
+        <v>0.58335910918652001</v>
       </c>
       <c r="H20">
-        <v>8.6706074500802199E-3</v>
+        <v>8.6714108510491297E-3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.56618464770962595</v>
+        <v>0.56636345622331397</v>
       </c>
       <c r="K20">
-        <v>0.60017280436210996</v>
+        <v>0.60035476214972605</v>
       </c>
       <c r="L20">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3629,22 +3629,22 @@
         <v>100</v>
       </c>
       <c r="G22">
-        <v>0.29097538742072798</v>
+        <v>0.28721897681020497</v>
       </c>
       <c r="H22">
-        <v>4.3366943245621596E-3</v>
+        <v>4.2568384613447799E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.282475622732627</v>
+        <v>0.27887572673796401</v>
       </c>
       <c r="K22">
-        <v>0.29947515210882902</v>
+        <v>0.29556222688244599</v>
       </c>
       <c r="L22">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3667,22 +3667,22 @@
         <v>5</v>
       </c>
       <c r="G23">
-        <v>0.20596125186314801</v>
+        <v>0.20287562904379799</v>
       </c>
       <c r="H23">
-        <v>4.9369409080146399E-3</v>
+        <v>4.8220861120220901E-3</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.196285025489637</v>
+        <v>0.19342451393388399</v>
       </c>
       <c r="K23">
-        <v>0.21563747823665899</v>
+        <v>0.212326744153712</v>
       </c>
       <c r="L23">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3705,22 +3705,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>0.37678623505395298</v>
+        <v>0.37414383561644698</v>
       </c>
       <c r="H24">
-        <v>8.2754753241396709E-3</v>
+        <v>8.1749504883337609E-3</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.36056660146369002</v>
+        <v>0.35812122708391397</v>
       </c>
       <c r="K24">
-        <v>0.39300586864421699</v>
+        <v>0.390166444148979</v>
       </c>
       <c r="L24">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3743,22 +3743,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>0.609498680738781</v>
+        <v>0.60966057441253796</v>
       </c>
       <c r="H25">
-        <v>1.77217576225315E-2</v>
+        <v>1.7627655661335302E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>3.2444784839637702E-259</v>
+        <v>4.1796361144807801E-262</v>
       </c>
       <c r="J25">
-        <v>0.57476467405587095</v>
+        <v>0.57511100418444805</v>
       </c>
       <c r="K25">
-        <v>0.64423268742169104</v>
+        <v>0.64421014464062898</v>
       </c>
       <c r="L25">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3784,10 +3784,10 @@
         <v>0.76712328767087901</v>
       </c>
       <c r="H26">
-        <v>4.9503749988604101E-2</v>
+        <v>4.9503749988603997E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>3.6764575341360002E-54</v>
+        <v>3.6764575341355997E-54</v>
       </c>
       <c r="J26">
         <v>0.67009772059354</v>
@@ -3819,22 +3819,22 @@
         <v>100</v>
       </c>
       <c r="G27">
-        <v>0.442791762343683</v>
+        <v>0.44154370072270799</v>
       </c>
       <c r="H27">
-        <v>1.18806761710528E-2</v>
+        <v>1.1829920251566E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>5.04289278267337E-304</v>
+        <v>6.6190909164391803E-305</v>
       </c>
       <c r="J27">
-        <v>0.419506064936436</v>
+        <v>0.41835748308965798</v>
       </c>
       <c r="K27">
-        <v>0.46607745975092901</v>
+        <v>0.464729918355759</v>
       </c>
       <c r="L27">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3857,22 +3857,22 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>0.28438228438282298</v>
+        <v>0.28110599078375698</v>
       </c>
       <c r="H28">
-        <v>2.1780545093657198E-2</v>
+        <v>2.1578843412380099E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>5.8187804997023801E-39</v>
+        <v>8.6003537453470002E-39</v>
       </c>
       <c r="J28">
-        <v>0.24169320043560399</v>
+        <v>0.238812234867462</v>
       </c>
       <c r="K28">
-        <v>0.32707136833004202</v>
+        <v>0.32339974670005101</v>
       </c>
       <c r="L28">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3895,22 +3895,22 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>0.43658810391669101</v>
+        <v>0.43541202747528601</v>
       </c>
       <c r="H29">
-        <v>1.6615781057976401E-2</v>
+        <v>1.6545826612920998E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>3.6541991404680901E-152</v>
+        <v>1.27411837118882E-152</v>
       </c>
       <c r="J29">
-        <v>0.40402177146805501</v>
+        <v>0.40298280321951602</v>
       </c>
       <c r="K29">
-        <v>0.469154436365328</v>
+        <v>0.46784125173105501</v>
       </c>
       <c r="L29">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3933,22 +3933,22 @@
         <v>15</v>
       </c>
       <c r="G30">
-        <v>0.59821428571427704</v>
+        <v>0.60059171597632699</v>
       </c>
       <c r="H30">
-        <v>2.67485198192811E-2</v>
+        <v>2.6643024933053799E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>8.7474386323952896E-111</v>
+        <v>1.6025213538914399E-112</v>
       </c>
       <c r="J30">
-        <v>0.54578815022872995</v>
+        <v>0.54837234666833901</v>
       </c>
       <c r="K30">
-        <v>0.65064042119982302</v>
+        <v>0.65281108528431497</v>
       </c>
       <c r="L30">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
         <v>4.8907858424989299E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>3.3983813634471899E-43</v>
+        <v>3.3983813634472799E-43</v>
       </c>
       <c r="J31">
         <v>0.57805540240423403</v>
@@ -4009,22 +4009,22 @@
         <v>100</v>
       </c>
       <c r="G32">
-        <v>0.27381744118447998</v>
+        <v>0.27386495925531001</v>
       </c>
       <c r="H32">
-        <v>2.0328814125810798E-3</v>
+        <v>2.0332447587947801E-3</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.26983306683098002</v>
+        <v>0.26987987275631697</v>
       </c>
       <c r="K32">
-        <v>0.27780181553798</v>
+        <v>0.277850045754303</v>
       </c>
       <c r="L32">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -4047,22 +4047,22 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <v>0.198069360028757</v>
+        <v>0.19810124524514</v>
       </c>
       <c r="H33">
-        <v>2.2721659989428399E-3</v>
+        <v>2.27267289010056E-3</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.19361599650393199</v>
+        <v>0.19364688823190199</v>
       </c>
       <c r="K33">
-        <v>0.202522723553581</v>
+        <v>0.20255560225837799</v>
       </c>
       <c r="L33">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -4085,22 +4085,22 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>0.36183517178385999</v>
+        <v>0.36186059584035102</v>
       </c>
       <c r="H34">
-        <v>4.0279517113229303E-3</v>
+        <v>4.0281540987808697E-3</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.35394053149820098</v>
+        <v>0.35396555888256298</v>
       </c>
       <c r="K34">
-        <v>0.36972981206951899</v>
+        <v>0.369755632798139</v>
       </c>
       <c r="L34">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -4123,22 +4123,22 @@
         <v>15</v>
       </c>
       <c r="G35">
-        <v>0.60287416754293399</v>
+        <v>0.60308555399720698</v>
       </c>
       <c r="H35">
-        <v>9.1615778960800892E-3</v>
+        <v>9.1623490675868408E-3</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.58491780482505795</v>
+        <v>0.58512767981095204</v>
       </c>
       <c r="K35">
-        <v>0.62083053026080903</v>
+        <v>0.62104342818346103</v>
       </c>
       <c r="L35">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -4167,7 +4167,7 @@
         <v>2.4576112803011901E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>9.5089761965421896E-234</v>
+        <v>9.5089761965466099E-234</v>
       </c>
       <c r="J36">
         <v>0.75411307284737505</v>
@@ -4199,22 +4199,22 @@
         <v>100</v>
       </c>
       <c r="G37">
-        <v>0.45878656034431903</v>
+        <v>0.45878656034430298</v>
       </c>
       <c r="H37">
-        <v>7.7472971134105702E-3</v>
+        <v>7.7472968121199996E-3</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.44360213702450302</v>
+        <v>0.443602137615006</v>
       </c>
       <c r="K37">
-        <v>0.47397098366413498</v>
+        <v>0.47397098307360103</v>
       </c>
       <c r="L37">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -4237,22 +4237,22 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>0.28557312253</v>
+        <v>0.28557312253010297</v>
       </c>
       <c r="H38">
-        <v>1.4198840509784901E-2</v>
+        <v>1.41988393917294E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>5.7444926173705797E-90</v>
+        <v>5.7443091946002702E-90</v>
       </c>
       <c r="J38">
-        <v>0.25774390650859302</v>
+        <v>0.25774390870004499</v>
       </c>
       <c r="K38">
-        <v>0.31340233855140698</v>
+        <v>0.31340233636016201</v>
       </c>
       <c r="L38">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -4275,22 +4275,22 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <v>0.44621295301602298</v>
+        <v>0.44621295301601799</v>
       </c>
       <c r="H39">
-        <v>1.1646058154575501E-2</v>
+        <v>1.16460570228838E-2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.42338709847119599</v>
+        <v>0.42338710068926599</v>
       </c>
       <c r="K39">
-        <v>0.46903880756084998</v>
+        <v>0.46903880534277098</v>
       </c>
       <c r="L39">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -4313,22 +4313,22 @@
         <v>15</v>
       </c>
       <c r="G40">
-        <v>0.58759842519685501</v>
+        <v>0.58759842519685601</v>
       </c>
       <c r="H40">
-        <v>1.5445336437888001E-2</v>
+        <v>1.5445333620657699E-2</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.55732612204949095</v>
+        <v>0.55732612757116196</v>
       </c>
       <c r="K40">
-        <v>0.61787072834421997</v>
+        <v>0.61787072282255096</v>
       </c>
       <c r="L40">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -4357,7 +4357,7 @@
         <v>2.7236352368079E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>5.7747031350764403E-143</v>
+        <v>5.7747031350753997E-143</v>
       </c>
       <c r="J41">
         <v>0.63999752122890596</v>
@@ -4389,22 +4389,22 @@
         <v>100</v>
       </c>
       <c r="G42">
-        <v>0.25881561238299999</v>
+        <v>0.25489423203334</v>
       </c>
       <c r="H42">
-        <v>5.0812118848052798E-3</v>
+        <v>4.9954133940102799E-3</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.24885662009096399</v>
+        <v>0.245103401693191</v>
       </c>
       <c r="K42">
-        <v>0.268774604675035</v>
+        <v>0.26468506237348899</v>
       </c>
       <c r="L42">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4427,22 +4427,22 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <v>0.206226415094172</v>
+        <v>0.20264074821218001</v>
       </c>
       <c r="H43">
-        <v>5.5576105752864098E-3</v>
+        <v>5.4434997294429896E-3</v>
       </c>
       <c r="I43" s="1">
-        <v>2.16409227406359E-301</v>
+        <v>2.57331713978483E-303</v>
       </c>
       <c r="J43">
-        <v>0.195333698526511</v>
+        <v>0.191971684792618</v>
       </c>
       <c r="K43">
-        <v>0.217119131661832</v>
+        <v>0.21330981163174101</v>
       </c>
       <c r="L43">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4465,22 +4465,22 @@
         <v>10</v>
       </c>
       <c r="G44">
-        <v>0.38419209604801002</v>
+        <v>0.38135175135671201</v>
       </c>
       <c r="H44">
-        <v>1.0879303767000401E-2</v>
+        <v>1.0788684867922799E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>3.5764926934609001E-273</v>
+        <v>1.0999388037909501E-273</v>
       </c>
       <c r="J44">
-        <v>0.36286905248781798</v>
+        <v>0.36020631757503102</v>
       </c>
       <c r="K44">
-        <v>0.40551513960820201</v>
+        <v>0.402497185138393</v>
       </c>
       <c r="L44">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -4503,22 +4503,22 @@
         <v>15</v>
       </c>
       <c r="G45">
-        <v>0.46875000000505901</v>
+        <v>0.46875000000506001</v>
       </c>
       <c r="H45">
-        <v>4.4112216951608003E-2</v>
+        <v>4.4112208905540497E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>2.24838098668191E-26</v>
+        <v>2.2483342756422099E-26</v>
       </c>
       <c r="J45">
-        <v>0.38229164350168998</v>
+        <v>0.38229165927169401</v>
       </c>
       <c r="K45">
-        <v>0.55520835650842704</v>
+        <v>0.55520834073842695</v>
       </c>
       <c r="L45">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4579,22 +4579,22 @@
         <v>100</v>
       </c>
       <c r="G47">
-        <v>0.386346444780578</v>
+        <v>0.38227197650932299</v>
       </c>
       <c r="H47">
-        <v>6.6958806163403698E-3</v>
+        <v>6.5830901163333299E-3</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.37322275992777099</v>
+        <v>0.36936935697432799</v>
       </c>
       <c r="K47">
-        <v>0.39947012963338502</v>
+        <v>0.39517459604431798</v>
       </c>
       <c r="L47">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4617,22 +4617,22 @@
         <v>5</v>
       </c>
       <c r="G48">
-        <v>0.223491027732622</v>
+        <v>0.22107438016539299</v>
       </c>
       <c r="H48">
-        <v>9.7144451497559892E-3</v>
+        <v>9.4312676808822795E-3</v>
       </c>
       <c r="I48" s="1">
-        <v>4.0544635767012797E-117</v>
+        <v>1.64928200400835E-121</v>
       </c>
       <c r="J48">
-        <v>0.20445106510930999</v>
+        <v>0.20258943518230699</v>
       </c>
       <c r="K48">
-        <v>0.24253099035593301</v>
+        <v>0.239559325148479</v>
       </c>
       <c r="L48">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4655,22 +4655,22 @@
         <v>10</v>
       </c>
       <c r="G49">
-        <v>0.39336492890990599</v>
+        <v>0.39115789473681201</v>
       </c>
       <c r="H49">
-        <v>1.01399231445908E-2</v>
+        <v>1.0013991031875599E-2</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.37349104474050399</v>
+        <v>0.37153083297282902</v>
       </c>
       <c r="K49">
-        <v>0.41323881307930799</v>
+        <v>0.410784956500795</v>
       </c>
       <c r="L49">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4693,22 +4693,22 @@
         <v>15</v>
       </c>
       <c r="G50">
-        <v>0.62422360248446396</v>
+        <v>0.625000000000006</v>
       </c>
       <c r="H50">
-        <v>1.55843982063035E-2</v>
+        <v>1.5497955591662E-2</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.59367874327937897</v>
+        <v>0.59462456520634699</v>
       </c>
       <c r="K50">
-        <v>0.65476846168955005</v>
+        <v>0.655375434793665</v>
       </c>
       <c r="L50">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4769,22 +4769,22 @@
         <v>100</v>
       </c>
       <c r="G52">
-        <v>0.23335676625714999</v>
+        <v>0.23341419681507</v>
       </c>
       <c r="H52">
-        <v>2.5076623493316499E-3</v>
+        <v>2.5081854516422202E-3</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.22844183836707299</v>
+        <v>0.22849824366330401</v>
       </c>
       <c r="K52">
-        <v>0.23827169414722699</v>
+        <v>0.23833014996683699</v>
       </c>
       <c r="L52">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4807,22 +4807,22 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>0.19221665908053301</v>
+        <v>0.19227792195981699</v>
       </c>
       <c r="H53">
-        <v>2.6584806870725E-3</v>
+        <v>2.65922693830155E-3</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.18700613268027599</v>
+        <v>0.18706593293402801</v>
       </c>
       <c r="K53">
-        <v>0.197427185480791</v>
+        <v>0.197489910985607</v>
       </c>
       <c r="L53">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4845,22 +4845,22 @@
         <v>10</v>
       </c>
       <c r="G54">
-        <v>0.36178928395867799</v>
+        <v>0.36178928395871901</v>
       </c>
       <c r="H54">
-        <v>6.1510444920041202E-3</v>
+        <v>6.1510438942708702E-3</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.34973345828704699</v>
+        <v>0.349733459458623</v>
       </c>
       <c r="K54">
-        <v>0.37384510963030998</v>
+        <v>0.37384510845881502</v>
       </c>
       <c r="L54">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4883,22 +4883,22 @@
         <v>15</v>
       </c>
       <c r="G55">
-        <v>0.54594594587254097</v>
+        <v>0.54594594587254197</v>
       </c>
       <c r="H55">
-        <v>2.5886390430477701E-2</v>
+        <v>2.5886385708807001E-2</v>
       </c>
       <c r="I55" s="1">
-        <v>9.8103517765932908E-99</v>
+        <v>9.8095541153119094E-99</v>
       </c>
       <c r="J55">
-        <v>0.49520955293906199</v>
+        <v>0.49520956219336798</v>
       </c>
       <c r="K55">
-        <v>0.59668233880601995</v>
+        <v>0.59668232955171696</v>
       </c>
       <c r="L55">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4959,22 +4959,22 @@
         <v>100</v>
       </c>
       <c r="G57">
-        <v>0.35432508507327898</v>
+        <v>0.354357509034324</v>
       </c>
       <c r="H57">
-        <v>3.10024061092688E-3</v>
+        <v>3.1006301625025202E-3</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.34824872513245397</v>
+        <v>0.34828038558643998</v>
       </c>
       <c r="K57">
-        <v>0.36040144501410398</v>
+        <v>0.36043463248220697</v>
       </c>
       <c r="L57">
-        <v>64971</v>
+        <v>65301</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4997,22 +4997,22 @@
         <v>5</v>
       </c>
       <c r="G58">
-        <v>0.22020593332682001</v>
+        <v>0.22017132367940501</v>
       </c>
       <c r="H58">
-        <v>4.18405788211728E-3</v>
+        <v>4.1844615190959897E-3</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.21200533056863899</v>
+        <v>0.21196992980728299</v>
       </c>
       <c r="K58">
-        <v>0.228406536085001</v>
+        <v>0.22837271755152699</v>
       </c>
       <c r="L58">
-        <v>38918</v>
+        <v>39158</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5035,22 +5035,22 @@
         <v>10</v>
       </c>
       <c r="G59">
-        <v>0.37731109324756501</v>
+        <v>0.37734901014977501</v>
       </c>
       <c r="H59">
-        <v>4.8589320480872302E-3</v>
+        <v>4.8592719090206904E-3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.36778776142998698</v>
+        <v>0.36782501221700697</v>
       </c>
       <c r="K59">
-        <v>0.38683442506514398</v>
+        <v>0.38687300808254299</v>
       </c>
       <c r="L59">
-        <v>20375</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5073,22 +5073,22 @@
         <v>15</v>
       </c>
       <c r="G60">
-        <v>0.60445841669049205</v>
+        <v>0.60463121783877505</v>
       </c>
       <c r="H60">
-        <v>8.2670597181894699E-3</v>
+        <v>8.26761503960129E-3</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.58825527738479799</v>
+        <v>0.58842699012311495</v>
       </c>
       <c r="K60">
-        <v>0.620661555996185</v>
+        <v>0.62083544555443604</v>
       </c>
       <c r="L60">
-        <v>4963</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5127,306 +5127,6 @@
       </c>
       <c r="L61">
         <v>715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5498,7 +5198,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>LTMLE!A67</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D67)), "", "No "),IF(LTMLE!C67="ventilation_bin","Ventilation",IF(LTMLE!C67="rrt","RRT",IF(LTMLE!C67="pressor","Vasopressor",""))))</f>
@@ -5512,33 +5212,33 @@
         <f>LTMLE!B67</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f>VLOOKUP($A2,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
         <f>VLOOKUP($A2,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
         <f>VLOOKUP($A2,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="e">
         <f>VLOOKUP($A2,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
         <f>VLOOKUP($A2,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
         <f>VLOOKUP($A2,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G2, 3), " (", FIXED(temp!H2,3), " - ", FIXED(temp!I2,3),  ")", IF(AND(temp!J2 &lt;0.05, NOT(ISBLANK(temp!J2))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>4</v>
@@ -5550,7 +5250,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>LTMLE!A68</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D68)), "", "No "),IF(LTMLE!C68="ventilation_bin","Ventilation",IF(LTMLE!C68="rrt","RRT",IF(LTMLE!C68="pressor","Vasopressor",""))))</f>
@@ -5564,39 +5264,39 @@
         <f>LTMLE!B68</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f>VLOOKUP($A3,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
         <f>VLOOKUP($A3,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
         <f>VLOOKUP($A3,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
         <f>VLOOKUP($A3,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
         <f>VLOOKUP($A3,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
         <f>VLOOKUP($A3,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G3, 3), " (", FIXED(temp!H3,3), " - ", FIXED(temp!I3,3),  ")", IF(AND(temp!J3 &lt;0.05, NOT(ISBLANK(temp!J3))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>LTMLE!A69</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D69)), "", "No "),IF(LTMLE!C69="ventilation_bin","Ventilation",IF(LTMLE!C69="rrt","RRT",IF(LTMLE!C69="pressor","Vasopressor",""))))</f>
@@ -5610,33 +5310,33 @@
         <f>LTMLE!B69</f>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f>VLOOKUP($A4,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="e">
         <f>VLOOKUP($A4,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
         <f>VLOOKUP($A4,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
         <f>VLOOKUP($A4,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
         <f>VLOOKUP($A4,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
         <f>VLOOKUP($A4,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G4, 3), " (", FIXED(temp!H4,3), " - ", FIXED(temp!I4,3),  ")", IF(AND(temp!J4 &lt;0.05, NOT(ISBLANK(temp!J4))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>42</v>
@@ -5648,7 +5348,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>LTMLE!A70</f>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D70)), "", "No "),IF(LTMLE!C70="ventilation_bin","Ventilation",IF(LTMLE!C70="rrt","RRT",IF(LTMLE!C70="pressor","Vasopressor",""))))</f>
@@ -5662,33 +5362,33 @@
         <f>LTMLE!B70</f>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f>VLOOKUP($A5,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
         <f>VLOOKUP($A5,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
         <f>VLOOKUP($A5,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
         <f>VLOOKUP($A5,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
         <f>VLOOKUP($A5,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
         <f>VLOOKUP($A5,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G5, 3), " (", FIXED(temp!H5,3), " - ", FIXED(temp!I5,3),  ")", IF(AND(temp!J5 &lt;0.05, NOT(ISBLANK(temp!J5))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>21</v>
@@ -5700,7 +5400,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>LTMLE!A71</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D71)), "", "No "),IF(LTMLE!C71="ventilation_bin","Ventilation",IF(LTMLE!C71="rrt","RRT",IF(LTMLE!C71="pressor","Vasopressor",""))))</f>
@@ -5714,33 +5414,33 @@
         <f>LTMLE!B71</f>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="e">
         <f>VLOOKUP($A6,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
         <f>VLOOKUP($A6,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
         <f>VLOOKUP($A6,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
         <f>VLOOKUP($A6,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
         <f>VLOOKUP($A6,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
         <f>VLOOKUP($A6,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G6, 3), " (", FIXED(temp!H6,3), " - ", FIXED(temp!I6,3),  ")", IF(AND(temp!J6 &lt;0.05, NOT(ISBLANK(temp!J6))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>19</v>
@@ -5776,15 +5476,15 @@
       </c>
       <c r="G7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 7)</f>
-        <v>0.37417155841713101</v>
+        <v>0.37138115434253799</v>
       </c>
       <c r="H7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 10)</f>
-        <v>0.36112017993691398</v>
+        <v>0.35852132387009</v>
       </c>
       <c r="I7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 11)</f>
-        <v>0.38722293689734799</v>
+        <v>0.38424098481498598</v>
       </c>
       <c r="J7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 9)</f>
@@ -5792,7 +5492,7 @@
       </c>
       <c r="L7" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G7, 3), " (", FIXED(temp!H7,3), " - ", FIXED(temp!I7,3),  ")", IF(AND(temp!J7 &lt;0.05, NOT(ISBLANK(temp!J7))), "*", " ") )</f>
-        <v>0.374 (0.361 - 0.387)*</v>
+        <v>0.371 (0.359 - 0.384)*</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>37</v>
@@ -5828,23 +5528,23 @@
       </c>
       <c r="G8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 7)</f>
-        <v>0.233497536946326</v>
+        <v>0.231024667931923</v>
       </c>
       <c r="H8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 10)</f>
-        <v>0.21509390323052799</v>
+        <v>0.21303166234844101</v>
       </c>
       <c r="I8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 11)</f>
-        <v>0.25190117066212298</v>
+        <v>0.24901767351540399</v>
       </c>
       <c r="J8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 9)</f>
-        <v>1.68523980579514E-136</v>
+        <v>9.6024356537959992E-140</v>
       </c>
       <c r="L8" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G8, 3), " (", FIXED(temp!H8,3), " - ", FIXED(temp!I8,3),  ")", IF(AND(temp!J8 &lt;0.05, NOT(ISBLANK(temp!J8))), "*", " ") )</f>
-        <v>0.233 (0.215 - 0.252)*</v>
+        <v>0.231 (0.213 - 0.249)*</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>38</v>
@@ -5880,23 +5580,23 @@
       </c>
       <c r="G9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 7)</f>
-        <v>0.38914443422261102</v>
+        <v>0.38761776581424301</v>
       </c>
       <c r="H9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 10)</f>
-        <v>0.368649163550685</v>
+        <v>0.36739144921869799</v>
       </c>
       <c r="I9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 11)</f>
-        <v>0.40963970489453699</v>
+        <v>0.40784408240978798</v>
       </c>
       <c r="J9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 9)</f>
-        <v>4.0661203346100198E-303</v>
+        <v>0</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G9, 3), " (", FIXED(temp!H9,3), " - ", FIXED(temp!I9,3),  ")", IF(AND(temp!J9 &lt;0.05, NOT(ISBLANK(temp!J9))), "*", " ") )</f>
-        <v>0.389 (0.369 - 0.410)*</v>
+        <v>0.388 (0.367 - 0.408)*</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>11</v>
@@ -5932,23 +5632,23 @@
       </c>
       <c r="G10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 7)</f>
-        <v>0.592190889370934</v>
+        <v>0.59398496240601895</v>
       </c>
       <c r="H10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 10)</f>
-        <v>0.56046705228527505</v>
+        <v>0.562436680447718</v>
       </c>
       <c r="I10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 11)</f>
-        <v>0.62391472645659196</v>
+        <v>0.62553324436431901</v>
       </c>
       <c r="J10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 9)</f>
-        <v>4.6424482670517398E-293</v>
+        <v>4.3201160234144198E-298</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G10, 3), " (", FIXED(temp!H10,3), " - ", FIXED(temp!I10,3),  ")", IF(AND(temp!J10 &lt;0.05, NOT(ISBLANK(temp!J10))), "*", " ") )</f>
-        <v>0.592 (0.560 - 0.624)*</v>
+        <v>0.594 (0.562 - 0.626)*</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>37</v>
@@ -5996,7 +5696,7 @@
       </c>
       <c r="J11">
         <f>VLOOKUP($A11,LTMLE!$A:$L, 9)</f>
-        <v>2.8329592146442998E-84</v>
+        <v>2.8329592146445001E-84</v>
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G11, 3), " (", FIXED(temp!H11,3), " - ", FIXED(temp!I11,3),  ")", IF(AND(temp!J11 &lt;0.05, NOT(ISBLANK(temp!J11))), "*", " ") )</f>
@@ -6012,7 +5712,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>LTMLE!A77</f>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D77)), "", "No "),IF(LTMLE!C77="ventilation_bin","Ventilation",IF(LTMLE!C77="rrt","RRT",IF(LTMLE!C77="pressor","Vasopressor",""))))</f>
@@ -6026,33 +5726,33 @@
         <f>LTMLE!B77</f>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f>VLOOKUP($A12,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
         <f>VLOOKUP($A12,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
         <f>VLOOKUP($A12,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
         <f>VLOOKUP($A12,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
         <f>VLOOKUP($A12,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
         <f>VLOOKUP($A12,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G12, 3), " (", FIXED(temp!H12,3), " - ", FIXED(temp!I12,3),  ")", IF(AND(temp!J12 &lt;0.05, NOT(ISBLANK(temp!J12))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>39</v>
@@ -6064,7 +5764,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>LTMLE!A78</f>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D78)), "", "No "),IF(LTMLE!C78="ventilation_bin","Ventilation",IF(LTMLE!C78="rrt","RRT",IF(LTMLE!C78="pressor","Vasopressor",""))))</f>
@@ -6078,33 +5778,33 @@
         <f>LTMLE!B78</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="e">
         <f>VLOOKUP($A13,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="e">
         <f>VLOOKUP($A13,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
         <f>VLOOKUP($A13,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
         <f>VLOOKUP($A13,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="e">
         <f>VLOOKUP($A13,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
         <f>VLOOKUP($A13,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G13, 3), " (", FIXED(temp!H13,3), " - ", FIXED(temp!I13,3),  ")", IF(AND(temp!J13 &lt;0.05, NOT(ISBLANK(temp!J13))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>19</v>
@@ -6116,7 +5816,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>LTMLE!A79</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D79)), "", "No "),IF(LTMLE!C79="ventilation_bin","Ventilation",IF(LTMLE!C79="rrt","RRT",IF(LTMLE!C79="pressor","Vasopressor",""))))</f>
@@ -6130,33 +5830,33 @@
         <f>LTMLE!B79</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="e">
         <f>VLOOKUP($A14,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="e">
         <f>VLOOKUP($A14,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="e">
         <f>VLOOKUP($A14,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="e">
         <f>VLOOKUP($A14,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="e">
         <f>VLOOKUP($A14,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="e">
         <f>VLOOKUP($A14,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G14, 3), " (", FIXED(temp!H14,3), " - ", FIXED(temp!I14,3),  ")", IF(AND(temp!J14 &lt;0.05, NOT(ISBLANK(temp!J14))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>37</v>
@@ -6168,7 +5868,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>LTMLE!A80</f>
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D80)), "", "No "),IF(LTMLE!C80="ventilation_bin","Ventilation",IF(LTMLE!C80="rrt","RRT",IF(LTMLE!C80="pressor","Vasopressor",""))))</f>
@@ -6182,33 +5882,33 @@
         <f>LTMLE!B80</f>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="e">
         <f>VLOOKUP($A15,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="e">
         <f>VLOOKUP($A15,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="e">
         <f>VLOOKUP($A15,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="e">
         <f>VLOOKUP($A15,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="e">
         <f>VLOOKUP($A15,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
         <f>VLOOKUP($A15,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G15, 3), " (", FIXED(temp!H15,3), " - ", FIXED(temp!I15,3),  ")", IF(AND(temp!J15 &lt;0.05, NOT(ISBLANK(temp!J15))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>38</v>
@@ -6220,7 +5920,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>LTMLE!A81</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D81)), "", "No "),IF(LTMLE!C81="ventilation_bin","Ventilation",IF(LTMLE!C81="rrt","RRT",IF(LTMLE!C81="pressor","Vasopressor",""))))</f>
@@ -6234,33 +5934,33 @@
         <f>LTMLE!B81</f>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="e">
         <f>VLOOKUP($A16,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="e">
         <f>VLOOKUP($A16,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="e">
         <f>VLOOKUP($A16,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
         <f>VLOOKUP($A16,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="e">
         <f>VLOOKUP($A16,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
         <f>VLOOKUP($A16,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G16, 3), " (", FIXED(temp!H16,3), " - ", FIXED(temp!I16,3),  ")", IF(AND(temp!J16 &lt;0.05, NOT(ISBLANK(temp!J16))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>11</v>
@@ -6296,15 +5996,15 @@
       </c>
       <c r="G17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 7)</f>
-        <v>0.34636519232492002</v>
+        <v>0.34642937598557699</v>
       </c>
       <c r="H17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 10)</f>
-        <v>0.34010640649629797</v>
+        <v>0.34016933092472601</v>
       </c>
       <c r="I17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 11)</f>
-        <v>0.35262397815354202</v>
+        <v>0.35268942104642897</v>
       </c>
       <c r="J17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 9)</f>
@@ -6348,15 +6048,15 @@
       </c>
       <c r="G18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 7)</f>
-        <v>0.226660969878414</v>
+        <v>0.22667521641591501</v>
       </c>
       <c r="H18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 10)</f>
-        <v>0.21818005531033999</v>
+        <v>0.218191848436041</v>
       </c>
       <c r="I18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 11)</f>
-        <v>0.23514188444648801</v>
+        <v>0.23515858439578899</v>
       </c>
       <c r="J18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 9)</f>
@@ -6400,15 +6100,15 @@
       </c>
       <c r="G19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 7)</f>
-        <v>0.36287570186062301</v>
+        <v>0.36291565734424702</v>
       </c>
       <c r="H19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 10)</f>
-        <v>0.35298709477683399</v>
+        <v>0.35302627251497898</v>
       </c>
       <c r="I19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 11)</f>
-        <v>0.37276430894441098</v>
+        <v>0.37280504217351601</v>
       </c>
       <c r="J19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 9)</f>
@@ -6452,15 +6152,15 @@
       </c>
       <c r="G20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 7)</f>
-        <v>0.58317872603586796</v>
+        <v>0.58335910918652001</v>
       </c>
       <c r="H20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 10)</f>
-        <v>0.56618464770962595</v>
+        <v>0.56636345622331397</v>
       </c>
       <c r="I20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 11)</f>
-        <v>0.60017280436210996</v>
+        <v>0.60035476214972605</v>
       </c>
       <c r="J20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 9)</f>
@@ -6532,7 +6232,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>LTMLE!A62</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B22" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D62)), "", "No "),IF(LTMLE!C62="ventilation_bin","Ventilation",IF(LTMLE!C62="rrt","RRT",IF(LTMLE!C62="pressor","Vasopressor",""))))</f>
@@ -6546,33 +6246,33 @@
         <f>LTMLE!B62</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="e">
         <f>VLOOKUP($A22,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
         <f>VLOOKUP($A22,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
         <f>VLOOKUP($A22,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
         <f>VLOOKUP($A22,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="e">
         <f>VLOOKUP($A22,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
         <f>VLOOKUP($A22,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G22, 3), " (", FIXED(temp!H22,3), " - ", FIXED(temp!I22,3),  ")", IF(AND(temp!J22 &lt;0.05, NOT(ISBLANK(temp!J22))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>38</v>
@@ -6584,7 +6284,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>LTMLE!A63</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B23" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D63)), "", "No "),IF(LTMLE!C63="ventilation_bin","Ventilation",IF(LTMLE!C63="rrt","RRT",IF(LTMLE!C63="pressor","Vasopressor",""))))</f>
@@ -6598,33 +6298,33 @@
         <f>LTMLE!B63</f>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="e">
         <f>VLOOKUP($A23,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
         <f>VLOOKUP($A23,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="e">
         <f>VLOOKUP($A23,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="e">
         <f>VLOOKUP($A23,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="e">
         <f>VLOOKUP($A23,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="e">
         <f>VLOOKUP($A23,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G23, 3), " (", FIXED(temp!H23,3), " - ", FIXED(temp!I23,3),  ")", IF(AND(temp!J23 &lt;0.05, NOT(ISBLANK(temp!J23))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>11</v>
@@ -6636,7 +6336,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>LTMLE!A64</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B24" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D64)), "", "No "),IF(LTMLE!C64="ventilation_bin","Ventilation",IF(LTMLE!C64="rrt","RRT",IF(LTMLE!C64="pressor","Vasopressor",""))))</f>
@@ -6650,33 +6350,33 @@
         <f>LTMLE!B64</f>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="e">
         <f>VLOOKUP($A24,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="e">
         <f>VLOOKUP($A24,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
         <f>VLOOKUP($A24,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
         <f>VLOOKUP($A24,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="e">
         <f>VLOOKUP($A24,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
         <f>VLOOKUP($A24,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G24, 3), " (", FIXED(temp!H24,3), " - ", FIXED(temp!I24,3),  ")", IF(AND(temp!J24 &lt;0.05, NOT(ISBLANK(temp!J24))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>37</v>
@@ -6688,7 +6388,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>LTMLE!A65</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B25" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D65)), "", "No "),IF(LTMLE!C65="ventilation_bin","Ventilation",IF(LTMLE!C65="rrt","RRT",IF(LTMLE!C65="pressor","Vasopressor",""))))</f>
@@ -6702,33 +6402,33 @@
         <f>LTMLE!B65</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="e">
         <f>VLOOKUP($A25,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="e">
         <f>VLOOKUP($A25,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G25">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
         <f>VLOOKUP($A25,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H25">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
         <f>VLOOKUP($A25,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I25">
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
         <f>VLOOKUP($A25,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
         <f>VLOOKUP($A25,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G25, 3), " (", FIXED(temp!H25,3), " - ", FIXED(temp!I25,3),  ")", IF(AND(temp!J25 &lt;0.05, NOT(ISBLANK(temp!J25))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>38</v>
@@ -6740,7 +6440,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>LTMLE!A66</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B26" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D66)), "", "No "),IF(LTMLE!C66="ventilation_bin","Ventilation",IF(LTMLE!C66="rrt","RRT",IF(LTMLE!C66="pressor","Vasopressor",""))))</f>
@@ -6754,33 +6454,33 @@
         <f>LTMLE!B66</f>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="e">
         <f>VLOOKUP($A26,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
         <f>VLOOKUP($A26,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
         <f>VLOOKUP($A26,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
         <f>VLOOKUP($A26,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I26">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
         <f>VLOOKUP($A26,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
         <f>VLOOKUP($A26,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G26, 3), " (", FIXED(temp!H26,3), " - ", FIXED(temp!I26,3),  ")", IF(AND(temp!J26 &lt;0.05, NOT(ISBLANK(temp!J26))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>40</v>
@@ -6816,15 +6516,15 @@
       </c>
       <c r="G27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 7)</f>
-        <v>0.267581013849996</v>
+        <v>0.263061411549813</v>
       </c>
       <c r="H27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 10)</f>
-        <v>0.25751957743653803</v>
+        <v>0.25318647660475901</v>
       </c>
       <c r="I27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 11)</f>
-        <v>0.27764245026345302</v>
+        <v>0.27293634649486698</v>
       </c>
       <c r="J27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 9)</f>
@@ -6832,7 +6532,7 @@
       </c>
       <c r="L27" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G27, 3), " (", FIXED(temp!H27,3), " - ", FIXED(temp!I27,3),  ")", IF(AND(temp!J27 &lt;0.05, NOT(ISBLANK(temp!J27))), "*", " ") )</f>
-        <v>0.268 (0.258 - 0.278)*</v>
+        <v>0.263 (0.253 - 0.273)*</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>19</v>
@@ -6868,23 +6568,23 @@
       </c>
       <c r="G28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 7)</f>
-        <v>0.20160501076547299</v>
+        <v>0.19806854762380099</v>
       </c>
       <c r="H28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 10)</f>
-        <v>0.19060367849693199</v>
+        <v>0.18731945178989501</v>
       </c>
       <c r="I28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 11)</f>
-        <v>0.21260634303401399</v>
+        <v>0.20881764345770701</v>
       </c>
       <c r="J28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 9)</f>
-        <v>1.63829665640852E-282</v>
+        <v>1.30302637155767E-285</v>
       </c>
       <c r="L28" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G28, 3), " (", FIXED(temp!H28,3), " - ", FIXED(temp!I28,3),  ")", IF(AND(temp!J28 &lt;0.05, NOT(ISBLANK(temp!J28))), "*", " ") )</f>
-        <v>0.202 (0.191 - 0.213)*</v>
+        <v>0.198 (0.187 - 0.209)*</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>37</v>
@@ -6920,23 +6620,23 @@
       </c>
       <c r="G29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 7)</f>
-        <v>0.38909599254423</v>
+        <v>0.38564196962722502</v>
       </c>
       <c r="H29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 10)</f>
-        <v>0.368467914969765</v>
+        <v>0.36517602667134003</v>
       </c>
       <c r="I29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 11)</f>
-        <v>0.40972407011869599</v>
+        <v>0.40610791258311002</v>
       </c>
       <c r="J29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 9)</f>
-        <v>3.5128897251377402E-299</v>
+        <v>1.42670504055995E-298</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G29, 3), " (", FIXED(temp!H29,3), " - ", FIXED(temp!I29,3),  ")", IF(AND(temp!J29 &lt;0.05, NOT(ISBLANK(temp!J29))), "*", " ") )</f>
-        <v>0.389 (0.368 - 0.410)*</v>
+        <v>0.386 (0.365 - 0.406)*</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>38</v>
@@ -6972,23 +6672,23 @@
       </c>
       <c r="G30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 7)</f>
-        <v>0.68023255813942496</v>
+        <v>0.67630057803459798</v>
       </c>
       <c r="H30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 10)</f>
-        <v>0.61052602981091098</v>
+        <v>0.60657220071304896</v>
       </c>
       <c r="I30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 11)</f>
-        <v>0.74993908646794005</v>
+        <v>0.74602895535614699</v>
       </c>
       <c r="J30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 9)</f>
-        <v>1.5238289820205599E-81</v>
+        <v>1.41403164234582E-80</v>
       </c>
       <c r="L30" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G30, 3), " (", FIXED(temp!H30,3), " - ", FIXED(temp!I30,3),  ")", IF(AND(temp!J30 &lt;0.05, NOT(ISBLANK(temp!J30))), "*", " ") )</f>
-        <v>0.680 (0.611 - 0.750)*</v>
+        <v>0.676 (0.607 - 0.746)*</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>11</v>
@@ -7028,7 +6728,7 @@
       </c>
       <c r="H31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 10)</f>
-        <v>0.55190843581349003</v>
+        <v>0.55190843581349103</v>
       </c>
       <c r="I31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 11)</f>
@@ -7036,7 +6736,7 @@
       </c>
       <c r="J31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 9)</f>
-        <v>2.6134164840618701E-10</v>
+        <v>2.6134164840616602E-10</v>
       </c>
       <c r="L31" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G31, 3), " (", FIXED(temp!H31,3), " - ", FIXED(temp!I31,3),  ")", IF(AND(temp!J31 &lt;0.05, NOT(ISBLANK(temp!J31))), "*", " ") )</f>
@@ -7052,7 +6752,7 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>LTMLE!A72</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B32" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D72)), "", "No "),IF(LTMLE!C72="ventilation_bin","Ventilation",IF(LTMLE!C72="rrt","RRT",IF(LTMLE!C72="pressor","Vasopressor",""))))</f>
@@ -7066,33 +6766,33 @@
         <f>LTMLE!B72</f>
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="e">
         <f>VLOOKUP($A32,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F32">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
         <f>VLOOKUP($A32,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="e">
         <f>VLOOKUP($A32,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
         <f>VLOOKUP($A32,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I32">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
         <f>VLOOKUP($A32,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J32">
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
         <f>VLOOKUP($A32,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G32, 3), " (", FIXED(temp!H32,3), " - ", FIXED(temp!I32,3),  ")", IF(AND(temp!J32 &lt;0.05, NOT(ISBLANK(temp!J32))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>38</v>
@@ -7104,7 +6804,7 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>LTMLE!A73</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B33" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D73)), "", "No "),IF(LTMLE!C73="ventilation_bin","Ventilation",IF(LTMLE!C73="rrt","RRT",IF(LTMLE!C73="pressor","Vasopressor",""))))</f>
@@ -7118,33 +6818,33 @@
         <f>LTMLE!B73</f>
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="e">
         <f>VLOOKUP($A33,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
         <f>VLOOKUP($A33,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G33">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
         <f>VLOOKUP($A33,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H33">
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
         <f>VLOOKUP($A33,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
         <f>VLOOKUP($A33,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J33">
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
         <f>VLOOKUP($A33,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G33, 3), " (", FIXED(temp!H33,3), " - ", FIXED(temp!I33,3),  ")", IF(AND(temp!J33 &lt;0.05, NOT(ISBLANK(temp!J33))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>23</v>
@@ -7156,7 +6856,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>LTMLE!A74</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B34" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D74)), "", "No "),IF(LTMLE!C74="ventilation_bin","Ventilation",IF(LTMLE!C74="rrt","RRT",IF(LTMLE!C74="pressor","Vasopressor",""))))</f>
@@ -7170,33 +6870,33 @@
         <f>LTMLE!B74</f>
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="e">
         <f>VLOOKUP($A34,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F34">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
         <f>VLOOKUP($A34,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G34">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
         <f>VLOOKUP($A34,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H34">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
         <f>VLOOKUP($A34,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I34">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
         <f>VLOOKUP($A34,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J34">
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
         <f>VLOOKUP($A34,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G34, 3), " (", FIXED(temp!H34,3), " - ", FIXED(temp!I34,3),  ")", IF(AND(temp!J34 &lt;0.05, NOT(ISBLANK(temp!J34))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>19</v>
@@ -7208,7 +6908,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>LTMLE!A75</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B35" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D75)), "", "No "),IF(LTMLE!C75="ventilation_bin","Ventilation",IF(LTMLE!C75="rrt","RRT",IF(LTMLE!C75="pressor","Vasopressor",""))))</f>
@@ -7222,33 +6922,33 @@
         <f>LTMLE!B75</f>
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="e">
         <f>VLOOKUP($A35,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F35">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
         <f>VLOOKUP($A35,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G35">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="e">
         <f>VLOOKUP($A35,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H35">
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
         <f>VLOOKUP($A35,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" t="e">
         <f>VLOOKUP($A35,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J35">
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="e">
         <f>VLOOKUP($A35,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G35, 3), " (", FIXED(temp!H35,3), " - ", FIXED(temp!I35,3),  ")", IF(AND(temp!J35 &lt;0.05, NOT(ISBLANK(temp!J35))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>37</v>
@@ -7260,7 +6960,7 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>LTMLE!A76</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B36" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D76)), "", "No "),IF(LTMLE!C76="ventilation_bin","Ventilation",IF(LTMLE!C76="rrt","RRT",IF(LTMLE!C76="pressor","Vasopressor",""))))</f>
@@ -7274,33 +6974,33 @@
         <f>LTMLE!B76</f>
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="e">
         <f>VLOOKUP($A36,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F36">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" t="e">
         <f>VLOOKUP($A36,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G36">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="e">
         <f>VLOOKUP($A36,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
         <f>VLOOKUP($A36,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I36">
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="e">
         <f>VLOOKUP($A36,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J36">
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="e">
         <f>VLOOKUP($A36,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G36, 3), " (", FIXED(temp!H36,3), " - ", FIXED(temp!I36,3),  ")", IF(AND(temp!J36 &lt;0.05, NOT(ISBLANK(temp!J36))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>38</v>
@@ -7336,15 +7036,15 @@
       </c>
       <c r="G37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 7)</f>
-        <v>0.24568234002249301</v>
+        <v>0.245723224390129</v>
       </c>
       <c r="H37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 10)</f>
-        <v>0.24081506286803001</v>
+        <v>0.240855269382168</v>
       </c>
       <c r="I37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 11)</f>
-        <v>0.25054961717695701</v>
+        <v>0.250591179398091</v>
       </c>
       <c r="J37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 9)</f>
@@ -7388,15 +7088,15 @@
       </c>
       <c r="G38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 7)</f>
-        <v>0.1900789579337</v>
+        <v>0.19012136355524101</v>
       </c>
       <c r="H38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 10)</f>
-        <v>0.184942623575369</v>
+        <v>0.18498401820726501</v>
       </c>
       <c r="I38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 11)</f>
-        <v>0.195215292292031</v>
+        <v>0.195258708903218</v>
       </c>
       <c r="J38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 9)</f>
@@ -7440,15 +7140,15 @@
       </c>
       <c r="G39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 7)</f>
-        <v>0.38253012048186902</v>
+        <v>0.382530120481894</v>
       </c>
       <c r="H39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 10)</f>
-        <v>0.37112182487117401</v>
+        <v>0.37112182597974802</v>
       </c>
       <c r="I39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 11)</f>
-        <v>0.39393841609256303</v>
+        <v>0.39393841498404097</v>
       </c>
       <c r="J39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 9)</f>
@@ -7492,19 +7192,19 @@
       </c>
       <c r="G40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 7)</f>
-        <v>0.67874015748023198</v>
+        <v>0.67874015748021599</v>
       </c>
       <c r="H40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 10)</f>
-        <v>0.64241688408881004</v>
+        <v>0.64241689071424002</v>
       </c>
       <c r="I40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 11)</f>
-        <v>0.71506343087165403</v>
+        <v>0.71506342424619196</v>
       </c>
       <c r="J40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 9)</f>
-        <v>1.1838617597897701E-293</v>
+        <v>1.18357193566411E-293</v>
       </c>
       <c r="L40" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G40, 3), " (", FIXED(temp!H40,3), " - ", FIXED(temp!I40,3),  ")", IF(AND(temp!J40 &lt;0.05, NOT(ISBLANK(temp!J40))), "*", " ") )</f>
@@ -7572,7 +7272,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>LTMLE!A87</f>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B42" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D87)), "", "No "),IF(LTMLE!C87="ventilation_bin","Ventilation",IF(LTMLE!C87="rrt","RRT",IF(LTMLE!C87="pressor","Vasopressor",""))))</f>
@@ -7586,33 +7286,33 @@
         <f>LTMLE!B87</f>
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="e">
         <f>VLOOKUP($A42,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F42">
+        <v>#N/A</v>
+      </c>
+      <c r="F42" t="e">
         <f>VLOOKUP($A42,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
+        <v>#N/A</v>
+      </c>
+      <c r="G42" t="e">
         <f>VLOOKUP($A42,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H42">
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="e">
         <f>VLOOKUP($A42,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I42">
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="e">
         <f>VLOOKUP($A42,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J42">
+        <v>#N/A</v>
+      </c>
+      <c r="J42" t="e">
         <f>VLOOKUP($A42,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G42, 3), " (", FIXED(temp!H42,3), " - ", FIXED(temp!I42,3),  ")", IF(AND(temp!J42 &lt;0.05, NOT(ISBLANK(temp!J42))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>37</v>
@@ -7624,7 +7324,7 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>LTMLE!A88</f>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B43" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D88)), "", "No "),IF(LTMLE!C88="ventilation_bin","Ventilation",IF(LTMLE!C88="rrt","RRT",IF(LTMLE!C88="pressor","Vasopressor",""))))</f>
@@ -7638,33 +7338,33 @@
         <f>LTMLE!B88</f>
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="e">
         <f>VLOOKUP($A43,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
+        <v>#N/A</v>
+      </c>
+      <c r="F43" t="e">
         <f>VLOOKUP($A43,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G43">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" t="e">
         <f>VLOOKUP($A43,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H43">
+        <v>#N/A</v>
+      </c>
+      <c r="H43" t="e">
         <f>VLOOKUP($A43,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I43">
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="e">
         <f>VLOOKUP($A43,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J43">
+        <v>#N/A</v>
+      </c>
+      <c r="J43" t="e">
         <f>VLOOKUP($A43,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G43, 3), " (", FIXED(temp!H43,3), " - ", FIXED(temp!I43,3),  ")", IF(AND(temp!J43 &lt;0.05, NOT(ISBLANK(temp!J43))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>38</v>
@@ -7676,7 +7376,7 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>LTMLE!A89</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B44" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D89)), "", "No "),IF(LTMLE!C89="ventilation_bin","Ventilation",IF(LTMLE!C89="rrt","RRT",IF(LTMLE!C89="pressor","Vasopressor",""))))</f>
@@ -7690,33 +7390,33 @@
         <f>LTMLE!B89</f>
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="e">
         <f>VLOOKUP($A44,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F44">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" t="e">
         <f>VLOOKUP($A44,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G44">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="e">
         <f>VLOOKUP($A44,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H44">
+        <v>#N/A</v>
+      </c>
+      <c r="H44" t="e">
         <f>VLOOKUP($A44,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I44">
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="e">
         <f>VLOOKUP($A44,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J44">
+        <v>#N/A</v>
+      </c>
+      <c r="J44" t="e">
         <f>VLOOKUP($A44,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G44, 3), " (", FIXED(temp!H44,3), " - ", FIXED(temp!I44,3),  ")", IF(AND(temp!J44 &lt;0.05, NOT(ISBLANK(temp!J44))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>11</v>
@@ -7728,7 +7428,7 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>LTMLE!A90</f>
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B45" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D90)), "", "No "),IF(LTMLE!C90="ventilation_bin","Ventilation",IF(LTMLE!C90="rrt","RRT",IF(LTMLE!C90="pressor","Vasopressor",""))))</f>
@@ -7742,33 +7442,33 @@
         <f>LTMLE!B90</f>
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="e">
         <f>VLOOKUP($A45,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F45">
+        <v>#N/A</v>
+      </c>
+      <c r="F45" t="e">
         <f>VLOOKUP($A45,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G45">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="e">
         <f>VLOOKUP($A45,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H45">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
         <f>VLOOKUP($A45,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I45">
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="e">
         <f>VLOOKUP($A45,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J45">
+        <v>#N/A</v>
+      </c>
+      <c r="J45" t="e">
         <f>VLOOKUP($A45,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G45, 3), " (", FIXED(temp!H45,3), " - ", FIXED(temp!I45,3),  ")", IF(AND(temp!J45 &lt;0.05, NOT(ISBLANK(temp!J45))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>37</v>
@@ -7780,7 +7480,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>LTMLE!A91</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B46" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D91)), "", "No "),IF(LTMLE!C91="ventilation_bin","Ventilation",IF(LTMLE!C91="rrt","RRT",IF(LTMLE!C91="pressor","Vasopressor",""))))</f>
@@ -7794,33 +7494,33 @@
         <f>LTMLE!B91</f>
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="e">
         <f>VLOOKUP($A46,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F46">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" t="e">
         <f>VLOOKUP($A46,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G46">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="e">
         <f>VLOOKUP($A46,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H46">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
         <f>VLOOKUP($A46,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I46">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="e">
         <f>VLOOKUP($A46,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J46">
+        <v>#N/A</v>
+      </c>
+      <c r="J46" t="e">
         <f>VLOOKUP($A46,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G46, 3), " (", FIXED(temp!H46,3), " - ", FIXED(temp!I46,3),  ")", IF(AND(temp!J46 &lt;0.05, NOT(ISBLANK(temp!J46))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>38</v>
@@ -7856,23 +7556,23 @@
       </c>
       <c r="G47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 7)</f>
-        <v>0.442791762343683</v>
+        <v>0.44154370072270799</v>
       </c>
       <c r="H47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 10)</f>
-        <v>0.419506064936436</v>
+        <v>0.41835748308965798</v>
       </c>
       <c r="I47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 11)</f>
-        <v>0.46607745975092901</v>
+        <v>0.464729918355759</v>
       </c>
       <c r="J47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 9)</f>
-        <v>5.04289278267337E-304</v>
+        <v>6.6190909164391803E-305</v>
       </c>
       <c r="L47" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G47, 3), " (", FIXED(temp!H47,3), " - ", FIXED(temp!I47,3),  ")", IF(AND(temp!J47 &lt;0.05, NOT(ISBLANK(temp!J47))), "*", " ") )</f>
-        <v>0.443 (0.420 - 0.466)*</v>
+        <v>0.442 (0.418 - 0.465)*</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>43</v>
@@ -7908,23 +7608,23 @@
       </c>
       <c r="G48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 7)</f>
-        <v>0.28438228438282298</v>
+        <v>0.28110599078375698</v>
       </c>
       <c r="H48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 10)</f>
-        <v>0.24169320043560399</v>
+        <v>0.238812234867462</v>
       </c>
       <c r="I48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 11)</f>
-        <v>0.32707136833004202</v>
+        <v>0.32339974670005101</v>
       </c>
       <c r="J48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 9)</f>
-        <v>5.8187804997023801E-39</v>
+        <v>8.6003537453470002E-39</v>
       </c>
       <c r="L48" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G48, 3), " (", FIXED(temp!H48,3), " - ", FIXED(temp!I48,3),  ")", IF(AND(temp!J48 &lt;0.05, NOT(ISBLANK(temp!J48))), "*", " ") )</f>
-        <v>0.284 (0.242 - 0.327)*</v>
+        <v>0.281 (0.239 - 0.323)*</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -7954,23 +7654,23 @@
       </c>
       <c r="G49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 7)</f>
-        <v>0.43658810391669101</v>
+        <v>0.43541202747528601</v>
       </c>
       <c r="H49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 10)</f>
-        <v>0.40402177146805501</v>
+        <v>0.40298280321951602</v>
       </c>
       <c r="I49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 11)</f>
-        <v>0.469154436365328</v>
+        <v>0.46784125173105501</v>
       </c>
       <c r="J49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 9)</f>
-        <v>3.6541991404680901E-152</v>
+        <v>1.27411837118882E-152</v>
       </c>
       <c r="L49" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G49, 3), " (", FIXED(temp!H49,3), " - ", FIXED(temp!I49,3),  ")", IF(AND(temp!J49 &lt;0.05, NOT(ISBLANK(temp!J49))), "*", " ") )</f>
-        <v>0.437 (0.404 - 0.469)*</v>
+        <v>0.435 (0.403 - 0.468)*</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -8000,23 +7700,23 @@
       </c>
       <c r="G50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 7)</f>
-        <v>0.59821428571427704</v>
+        <v>0.60059171597632699</v>
       </c>
       <c r="H50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 10)</f>
-        <v>0.54578815022872995</v>
+        <v>0.54837234666833901</v>
       </c>
       <c r="I50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 11)</f>
-        <v>0.65064042119982302</v>
+        <v>0.65281108528431497</v>
       </c>
       <c r="J50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 9)</f>
-        <v>8.7474386323952896E-111</v>
+        <v>1.6025213538914399E-112</v>
       </c>
       <c r="L50" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G50, 3), " (", FIXED(temp!H50,3), " - ", FIXED(temp!I50,3),  ")", IF(AND(temp!J50 &lt;0.05, NOT(ISBLANK(temp!J50))), "*", " ") )</f>
-        <v>0.598 (0.546 - 0.651)*</v>
+        <v>0.601 (0.548 - 0.653)*</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -8058,7 +7758,7 @@
       </c>
       <c r="J51">
         <f>VLOOKUP($A51,LTMLE!$A:$L, 9)</f>
-        <v>3.3983813634471899E-43</v>
+        <v>3.3983813634472799E-43</v>
       </c>
       <c r="L51" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G51, 3), " (", FIXED(temp!H51,3), " - ", FIXED(temp!I51,3),  ")", IF(AND(temp!J51 &lt;0.05, NOT(ISBLANK(temp!J51))), "*", " ") )</f>
@@ -8068,7 +7768,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>LTMLE!A97</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B52" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D97)), "", "No "),IF(LTMLE!C97="ventilation_bin","Ventilation",IF(LTMLE!C97="rrt","RRT",IF(LTMLE!C97="pressor","Vasopressor",""))))</f>
@@ -8082,39 +7782,39 @@
         <f>LTMLE!B97</f>
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="e">
         <f>VLOOKUP($A52,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F52">
+        <v>#N/A</v>
+      </c>
+      <c r="F52" t="e">
         <f>VLOOKUP($A52,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G52">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="e">
         <f>VLOOKUP($A52,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" t="e">
         <f>VLOOKUP($A52,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I52">
+        <v>#N/A</v>
+      </c>
+      <c r="I52" t="e">
         <f>VLOOKUP($A52,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J52">
+        <v>#N/A</v>
+      </c>
+      <c r="J52" t="e">
         <f>VLOOKUP($A52,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L52" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G52, 3), " (", FIXED(temp!H52,3), " - ", FIXED(temp!I52,3),  ")", IF(AND(temp!J52 &lt;0.05, NOT(ISBLANK(temp!J52))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>LTMLE!A98</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B53" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D98)), "", "No "),IF(LTMLE!C98="ventilation_bin","Ventilation",IF(LTMLE!C98="rrt","RRT",IF(LTMLE!C98="pressor","Vasopressor",""))))</f>
@@ -8128,39 +7828,39 @@
         <f>LTMLE!B98</f>
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="e">
         <f>VLOOKUP($A53,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="e">
         <f>VLOOKUP($A53,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G53">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
         <f>VLOOKUP($A53,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" t="e">
         <f>VLOOKUP($A53,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I53">
+        <v>#N/A</v>
+      </c>
+      <c r="I53" t="e">
         <f>VLOOKUP($A53,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" t="e">
         <f>VLOOKUP($A53,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G53, 3), " (", FIXED(temp!H53,3), " - ", FIXED(temp!I53,3),  ")", IF(AND(temp!J53 &lt;0.05, NOT(ISBLANK(temp!J53))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>LTMLE!A99</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B54" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D99)), "", "No "),IF(LTMLE!C99="ventilation_bin","Ventilation",IF(LTMLE!C99="rrt","RRT",IF(LTMLE!C99="pressor","Vasopressor",""))))</f>
@@ -8174,39 +7874,39 @@
         <f>LTMLE!B99</f>
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="e">
         <f>VLOOKUP($A54,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
+        <v>#N/A</v>
+      </c>
+      <c r="F54" t="e">
         <f>VLOOKUP($A54,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G54">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="e">
         <f>VLOOKUP($A54,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
+        <v>#N/A</v>
+      </c>
+      <c r="H54" t="e">
         <f>VLOOKUP($A54,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I54">
+        <v>#N/A</v>
+      </c>
+      <c r="I54" t="e">
         <f>VLOOKUP($A54,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
+        <v>#N/A</v>
+      </c>
+      <c r="J54" t="e">
         <f>VLOOKUP($A54,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G54, 3), " (", FIXED(temp!H54,3), " - ", FIXED(temp!I54,3),  ")", IF(AND(temp!J54 &lt;0.05, NOT(ISBLANK(temp!J54))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>LTMLE!A100</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B55" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D100)), "", "No "),IF(LTMLE!C100="ventilation_bin","Ventilation",IF(LTMLE!C100="rrt","RRT",IF(LTMLE!C100="pressor","Vasopressor",""))))</f>
@@ -8220,39 +7920,39 @@
         <f>LTMLE!B100</f>
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="e">
         <f>VLOOKUP($A55,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F55">
+        <v>#N/A</v>
+      </c>
+      <c r="F55" t="e">
         <f>VLOOKUP($A55,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G55">
+        <v>#N/A</v>
+      </c>
+      <c r="G55" t="e">
         <f>VLOOKUP($A55,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H55">
+        <v>#N/A</v>
+      </c>
+      <c r="H55" t="e">
         <f>VLOOKUP($A55,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I55">
+        <v>#N/A</v>
+      </c>
+      <c r="I55" t="e">
         <f>VLOOKUP($A55,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J55">
+        <v>#N/A</v>
+      </c>
+      <c r="J55" t="e">
         <f>VLOOKUP($A55,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L55" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G55, 3), " (", FIXED(temp!H55,3), " - ", FIXED(temp!I55,3),  ")", IF(AND(temp!J55 &lt;0.05, NOT(ISBLANK(temp!J55))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>LTMLE!A101</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B56" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D101)), "", "No "),IF(LTMLE!C101="ventilation_bin","Ventilation",IF(LTMLE!C101="rrt","RRT",IF(LTMLE!C101="pressor","Vasopressor",""))))</f>
@@ -8266,33 +7966,33 @@
         <f>LTMLE!B101</f>
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="e">
         <f>VLOOKUP($A56,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F56">
+        <v>#N/A</v>
+      </c>
+      <c r="F56" t="e">
         <f>VLOOKUP($A56,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G56">
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="e">
         <f>VLOOKUP($A56,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H56">
+        <v>#N/A</v>
+      </c>
+      <c r="H56" t="e">
         <f>VLOOKUP($A56,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I56">
+        <v>#N/A</v>
+      </c>
+      <c r="I56" t="e">
         <f>VLOOKUP($A56,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J56">
+        <v>#N/A</v>
+      </c>
+      <c r="J56" t="e">
         <f>VLOOKUP($A56,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L56" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L56" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G56, 3), " (", FIXED(temp!H56,3), " - ", FIXED(temp!I56,3),  ")", IF(AND(temp!J56 &lt;0.05, NOT(ISBLANK(temp!J56))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -8322,15 +8022,15 @@
       </c>
       <c r="G57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 7)</f>
-        <v>0.45878656034431903</v>
+        <v>0.45878656034430298</v>
       </c>
       <c r="H57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 10)</f>
-        <v>0.44360213702450302</v>
+        <v>0.443602137615006</v>
       </c>
       <c r="I57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 11)</f>
-        <v>0.47397098366413498</v>
+        <v>0.47397098307360103</v>
       </c>
       <c r="J57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 9)</f>
@@ -8368,19 +8068,19 @@
       </c>
       <c r="G58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 7)</f>
-        <v>0.28557312253</v>
+        <v>0.28557312253010297</v>
       </c>
       <c r="H58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 10)</f>
-        <v>0.25774390650859302</v>
+        <v>0.25774390870004499</v>
       </c>
       <c r="I58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 11)</f>
-        <v>0.31340233855140698</v>
+        <v>0.31340233636016201</v>
       </c>
       <c r="J58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 9)</f>
-        <v>5.7444926173705797E-90</v>
+        <v>5.7443091946002702E-90</v>
       </c>
       <c r="L58" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G58, 3), " (", FIXED(temp!H58,3), " - ", FIXED(temp!I58,3),  ")", IF(AND(temp!J58 &lt;0.05, NOT(ISBLANK(temp!J58))), "*", " ") )</f>
@@ -8414,15 +8114,15 @@
       </c>
       <c r="G59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 7)</f>
-        <v>0.44621295301602298</v>
+        <v>0.44621295301601799</v>
       </c>
       <c r="H59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 10)</f>
-        <v>0.42338709847119599</v>
+        <v>0.42338710068926599</v>
       </c>
       <c r="I59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 11)</f>
-        <v>0.46903880756084998</v>
+        <v>0.46903880534277098</v>
       </c>
       <c r="J59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 9)</f>
@@ -8460,15 +8160,15 @@
       </c>
       <c r="G60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 7)</f>
-        <v>0.58759842519685501</v>
+        <v>0.58759842519685601</v>
       </c>
       <c r="H60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 10)</f>
-        <v>0.55732612204949095</v>
+        <v>0.55732612757116196</v>
       </c>
       <c r="I60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 11)</f>
-        <v>0.61787072834421997</v>
+        <v>0.61787072282255096</v>
       </c>
       <c r="J60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 9)</f>
@@ -8518,7 +8218,7 @@
       </c>
       <c r="J61">
         <f>VLOOKUP($A61,LTMLE!$A:$L, 9)</f>
-        <v>5.7747031350764403E-143</v>
+        <v>5.7747031350753997E-143</v>
       </c>
       <c r="L61" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G61, 3), " (", FIXED(temp!H61,3), " - ", FIXED(temp!I61,3),  ")", IF(AND(temp!J61 &lt;0.05, NOT(ISBLANK(temp!J61))), "*", " ") )</f>
@@ -8528,7 +8228,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>LTMLE!A82</f>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B62" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D82)), "", "No "),IF(LTMLE!C82="ventilation_bin","Ventilation",IF(LTMLE!C82="rrt","RRT",IF(LTMLE!C82="pressor","Vasopressor",""))))</f>
@@ -8542,39 +8242,39 @@
         <f>LTMLE!B82</f>
         <v>0</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="e">
         <f>VLOOKUP($A62,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F62">
+        <v>#N/A</v>
+      </c>
+      <c r="F62" t="e">
         <f>VLOOKUP($A62,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G62">
+        <v>#N/A</v>
+      </c>
+      <c r="G62" t="e">
         <f>VLOOKUP($A62,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H62">
+        <v>#N/A</v>
+      </c>
+      <c r="H62" t="e">
         <f>VLOOKUP($A62,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I62">
+        <v>#N/A</v>
+      </c>
+      <c r="I62" t="e">
         <f>VLOOKUP($A62,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J62">
+        <v>#N/A</v>
+      </c>
+      <c r="J62" t="e">
         <f>VLOOKUP($A62,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L62" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L62" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G62, 3), " (", FIXED(temp!H62,3), " - ", FIXED(temp!I62,3),  ")", IF(AND(temp!J62 &lt;0.05, NOT(ISBLANK(temp!J62))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>LTMLE!A83</f>
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B63" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D83)), "", "No "),IF(LTMLE!C83="ventilation_bin","Ventilation",IF(LTMLE!C83="rrt","RRT",IF(LTMLE!C83="pressor","Vasopressor",""))))</f>
@@ -8588,39 +8288,39 @@
         <f>LTMLE!B83</f>
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="e">
         <f>VLOOKUP($A63,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F63">
+        <v>#N/A</v>
+      </c>
+      <c r="F63" t="e">
         <f>VLOOKUP($A63,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G63">
+        <v>#N/A</v>
+      </c>
+      <c r="G63" t="e">
         <f>VLOOKUP($A63,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H63">
+        <v>#N/A</v>
+      </c>
+      <c r="H63" t="e">
         <f>VLOOKUP($A63,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I63">
+        <v>#N/A</v>
+      </c>
+      <c r="I63" t="e">
         <f>VLOOKUP($A63,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J63">
+        <v>#N/A</v>
+      </c>
+      <c r="J63" t="e">
         <f>VLOOKUP($A63,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L63" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G63, 3), " (", FIXED(temp!H63,3), " - ", FIXED(temp!I63,3),  ")", IF(AND(temp!J63 &lt;0.05, NOT(ISBLANK(temp!J63))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>LTMLE!A84</f>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B64" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D84)), "", "No "),IF(LTMLE!C84="ventilation_bin","Ventilation",IF(LTMLE!C84="rrt","RRT",IF(LTMLE!C84="pressor","Vasopressor",""))))</f>
@@ -8634,39 +8334,39 @@
         <f>LTMLE!B84</f>
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="e">
         <f>VLOOKUP($A64,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
+        <v>#N/A</v>
+      </c>
+      <c r="F64" t="e">
         <f>VLOOKUP($A64,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G64">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" t="e">
         <f>VLOOKUP($A64,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H64">
+        <v>#N/A</v>
+      </c>
+      <c r="H64" t="e">
         <f>VLOOKUP($A64,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I64">
+        <v>#N/A</v>
+      </c>
+      <c r="I64" t="e">
         <f>VLOOKUP($A64,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J64">
+        <v>#N/A</v>
+      </c>
+      <c r="J64" t="e">
         <f>VLOOKUP($A64,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L64" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L64" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G64, 3), " (", FIXED(temp!H64,3), " - ", FIXED(temp!I64,3),  ")", IF(AND(temp!J64 &lt;0.05, NOT(ISBLANK(temp!J64))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>LTMLE!A85</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B65" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D85)), "", "No "),IF(LTMLE!C85="ventilation_bin","Ventilation",IF(LTMLE!C85="rrt","RRT",IF(LTMLE!C85="pressor","Vasopressor",""))))</f>
@@ -8680,39 +8380,39 @@
         <f>LTMLE!B85</f>
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="e">
         <f>VLOOKUP($A65,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F65">
+        <v>#N/A</v>
+      </c>
+      <c r="F65" t="e">
         <f>VLOOKUP($A65,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G65">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="e">
         <f>VLOOKUP($A65,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H65">
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
         <f>VLOOKUP($A65,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I65">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" t="e">
         <f>VLOOKUP($A65,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J65">
+        <v>#N/A</v>
+      </c>
+      <c r="J65" t="e">
         <f>VLOOKUP($A65,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L65" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G65, 3), " (", FIXED(temp!H65,3), " - ", FIXED(temp!I65,3),  ")", IF(AND(temp!J65 &lt;0.05, NOT(ISBLANK(temp!J65))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>LTMLE!A86</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B66" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D86)), "", "No "),IF(LTMLE!C86="ventilation_bin","Ventilation",IF(LTMLE!C86="rrt","RRT",IF(LTMLE!C86="pressor","Vasopressor",""))))</f>
@@ -8726,33 +8426,33 @@
         <f>LTMLE!B86</f>
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="e">
         <f>VLOOKUP($A66,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F66">
+        <v>#N/A</v>
+      </c>
+      <c r="F66" t="e">
         <f>VLOOKUP($A66,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G66">
+        <v>#N/A</v>
+      </c>
+      <c r="G66" t="e">
         <f>VLOOKUP($A66,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H66">
+        <v>#N/A</v>
+      </c>
+      <c r="H66" t="e">
         <f>VLOOKUP($A66,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I66">
+        <v>#N/A</v>
+      </c>
+      <c r="I66" t="e">
         <f>VLOOKUP($A66,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J66">
+        <v>#N/A</v>
+      </c>
+      <c r="J66" t="e">
         <f>VLOOKUP($A66,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L66" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G66, 3), " (", FIXED(temp!H66,3), " - ", FIXED(temp!I66,3),  ")", IF(AND(temp!J66 &lt;0.05, NOT(ISBLANK(temp!J66))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -8782,15 +8482,15 @@
       </c>
       <c r="G67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 7)</f>
-        <v>0.29097538742072798</v>
+        <v>0.28721897681020497</v>
       </c>
       <c r="H67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 10)</f>
-        <v>0.282475622732627</v>
+        <v>0.27887572673796401</v>
       </c>
       <c r="I67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 11)</f>
-        <v>0.29947515210882902</v>
+        <v>0.29556222688244599</v>
       </c>
       <c r="J67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 9)</f>
@@ -8798,7 +8498,7 @@
       </c>
       <c r="L67" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G67, 3), " (", FIXED(temp!H67,3), " - ", FIXED(temp!I67,3),  ")", IF(AND(temp!J67 &lt;0.05, NOT(ISBLANK(temp!J67))), "*", " ") )</f>
-        <v>0.291 (0.282 - 0.299)*</v>
+        <v>0.287 (0.279 - 0.296)*</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -8828,15 +8528,15 @@
       </c>
       <c r="G68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 7)</f>
-        <v>0.20596125186314801</v>
+        <v>0.20287562904379799</v>
       </c>
       <c r="H68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 10)</f>
-        <v>0.196285025489637</v>
+        <v>0.19342451393388399</v>
       </c>
       <c r="I68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 11)</f>
-        <v>0.21563747823665899</v>
+        <v>0.212326744153712</v>
       </c>
       <c r="J68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 9)</f>
@@ -8844,7 +8544,7 @@
       </c>
       <c r="L68" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G68, 3), " (", FIXED(temp!H68,3), " - ", FIXED(temp!I68,3),  ")", IF(AND(temp!J68 &lt;0.05, NOT(ISBLANK(temp!J68))), "*", " ") )</f>
-        <v>0.206 (0.196 - 0.216)*</v>
+        <v>0.203 (0.193 - 0.212)*</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -8874,15 +8574,15 @@
       </c>
       <c r="G69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 7)</f>
-        <v>0.37678623505395298</v>
+        <v>0.37414383561644698</v>
       </c>
       <c r="H69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 10)</f>
-        <v>0.36056660146369002</v>
+        <v>0.35812122708391397</v>
       </c>
       <c r="I69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 11)</f>
-        <v>0.39300586864421699</v>
+        <v>0.390166444148979</v>
       </c>
       <c r="J69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 9)</f>
@@ -8890,7 +8590,7 @@
       </c>
       <c r="L69" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G69, 3), " (", FIXED(temp!H69,3), " - ", FIXED(temp!I69,3),  ")", IF(AND(temp!J69 &lt;0.05, NOT(ISBLANK(temp!J69))), "*", " ") )</f>
-        <v>0.377 (0.361 - 0.393)*</v>
+        <v>0.374 (0.358 - 0.390)*</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -8920,23 +8620,23 @@
       </c>
       <c r="G70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 7)</f>
-        <v>0.609498680738781</v>
+        <v>0.60966057441253796</v>
       </c>
       <c r="H70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 10)</f>
-        <v>0.57476467405587095</v>
+        <v>0.57511100418444805</v>
       </c>
       <c r="I70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 11)</f>
-        <v>0.64423268742169104</v>
+        <v>0.64421014464062898</v>
       </c>
       <c r="J70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 9)</f>
-        <v>3.2444784839637702E-259</v>
+        <v>4.1796361144807801E-262</v>
       </c>
       <c r="L70" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G70, 3), " (", FIXED(temp!H70,3), " - ", FIXED(temp!I70,3),  ")", IF(AND(temp!J70 &lt;0.05, NOT(ISBLANK(temp!J70))), "*", " ") )</f>
-        <v>0.609 (0.575 - 0.644)*</v>
+        <v>0.610 (0.575 - 0.644)*</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -8978,7 +8678,7 @@
       </c>
       <c r="J71">
         <f>VLOOKUP($A71,LTMLE!$A:$L, 9)</f>
-        <v>3.6764575341360002E-54</v>
+        <v>3.6764575341355997E-54</v>
       </c>
       <c r="L71" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G71, 3), " (", FIXED(temp!H71,3), " - ", FIXED(temp!I71,3),  ")", IF(AND(temp!J71 &lt;0.05, NOT(ISBLANK(temp!J71))), "*", " ") )</f>
@@ -8988,7 +8688,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>LTMLE!A92</f>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B72" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D92)), "", "No "),IF(LTMLE!C92="ventilation_bin","Ventilation",IF(LTMLE!C92="rrt","RRT",IF(LTMLE!C92="pressor","Vasopressor",""))))</f>
@@ -9002,39 +8702,39 @@
         <f>LTMLE!B92</f>
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="e">
         <f>VLOOKUP($A72,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F72">
+        <v>#N/A</v>
+      </c>
+      <c r="F72" t="e">
         <f>VLOOKUP($A72,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G72">
+        <v>#N/A</v>
+      </c>
+      <c r="G72" t="e">
         <f>VLOOKUP($A72,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H72">
+        <v>#N/A</v>
+      </c>
+      <c r="H72" t="e">
         <f>VLOOKUP($A72,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I72">
+        <v>#N/A</v>
+      </c>
+      <c r="I72" t="e">
         <f>VLOOKUP($A72,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J72">
+        <v>#N/A</v>
+      </c>
+      <c r="J72" t="e">
         <f>VLOOKUP($A72,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L72" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L72" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G72, 3), " (", FIXED(temp!H72,3), " - ", FIXED(temp!I72,3),  ")", IF(AND(temp!J72 &lt;0.05, NOT(ISBLANK(temp!J72))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>LTMLE!A93</f>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B73" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D93)), "", "No "),IF(LTMLE!C93="ventilation_bin","Ventilation",IF(LTMLE!C93="rrt","RRT",IF(LTMLE!C93="pressor","Vasopressor",""))))</f>
@@ -9048,39 +8748,39 @@
         <f>LTMLE!B93</f>
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="e">
         <f>VLOOKUP($A73,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F73">
+        <v>#N/A</v>
+      </c>
+      <c r="F73" t="e">
         <f>VLOOKUP($A73,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G73">
+        <v>#N/A</v>
+      </c>
+      <c r="G73" t="e">
         <f>VLOOKUP($A73,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H73">
+        <v>#N/A</v>
+      </c>
+      <c r="H73" t="e">
         <f>VLOOKUP($A73,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I73">
+        <v>#N/A</v>
+      </c>
+      <c r="I73" t="e">
         <f>VLOOKUP($A73,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J73">
+        <v>#N/A</v>
+      </c>
+      <c r="J73" t="e">
         <f>VLOOKUP($A73,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L73" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L73" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G73, 3), " (", FIXED(temp!H73,3), " - ", FIXED(temp!I73,3),  ")", IF(AND(temp!J73 &lt;0.05, NOT(ISBLANK(temp!J73))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>LTMLE!A94</f>
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B74" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D94)), "", "No "),IF(LTMLE!C94="ventilation_bin","Ventilation",IF(LTMLE!C94="rrt","RRT",IF(LTMLE!C94="pressor","Vasopressor",""))))</f>
@@ -9094,39 +8794,39 @@
         <f>LTMLE!B94</f>
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="e">
         <f>VLOOKUP($A74,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
+        <v>#N/A</v>
+      </c>
+      <c r="F74" t="e">
         <f>VLOOKUP($A74,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G74">
+        <v>#N/A</v>
+      </c>
+      <c r="G74" t="e">
         <f>VLOOKUP($A74,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H74">
+        <v>#N/A</v>
+      </c>
+      <c r="H74" t="e">
         <f>VLOOKUP($A74,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I74">
+        <v>#N/A</v>
+      </c>
+      <c r="I74" t="e">
         <f>VLOOKUP($A74,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J74">
+        <v>#N/A</v>
+      </c>
+      <c r="J74" t="e">
         <f>VLOOKUP($A74,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L74" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G74, 3), " (", FIXED(temp!H74,3), " - ", FIXED(temp!I74,3),  ")", IF(AND(temp!J74 &lt;0.05, NOT(ISBLANK(temp!J74))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>LTMLE!A95</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B75" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D95)), "", "No "),IF(LTMLE!C95="ventilation_bin","Ventilation",IF(LTMLE!C95="rrt","RRT",IF(LTMLE!C95="pressor","Vasopressor",""))))</f>
@@ -9140,39 +8840,39 @@
         <f>LTMLE!B95</f>
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="e">
         <f>VLOOKUP($A75,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F75">
+        <v>#N/A</v>
+      </c>
+      <c r="F75" t="e">
         <f>VLOOKUP($A75,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G75">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="e">
         <f>VLOOKUP($A75,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H75">
+        <v>#N/A</v>
+      </c>
+      <c r="H75" t="e">
         <f>VLOOKUP($A75,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I75">
+        <v>#N/A</v>
+      </c>
+      <c r="I75" t="e">
         <f>VLOOKUP($A75,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J75">
+        <v>#N/A</v>
+      </c>
+      <c r="J75" t="e">
         <f>VLOOKUP($A75,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L75" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L75" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G75, 3), " (", FIXED(temp!H75,3), " - ", FIXED(temp!I75,3),  ")", IF(AND(temp!J75 &lt;0.05, NOT(ISBLANK(temp!J75))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>LTMLE!A96</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B76" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D96)), "", "No "),IF(LTMLE!C96="ventilation_bin","Ventilation",IF(LTMLE!C96="rrt","RRT",IF(LTMLE!C96="pressor","Vasopressor",""))))</f>
@@ -9186,33 +8886,33 @@
         <f>LTMLE!B96</f>
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="e">
         <f>VLOOKUP($A76,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F76">
+        <v>#N/A</v>
+      </c>
+      <c r="F76" t="e">
         <f>VLOOKUP($A76,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G76">
+        <v>#N/A</v>
+      </c>
+      <c r="G76" t="e">
         <f>VLOOKUP($A76,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H76">
+        <v>#N/A</v>
+      </c>
+      <c r="H76" t="e">
         <f>VLOOKUP($A76,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I76">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" t="e">
         <f>VLOOKUP($A76,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J76">
+        <v>#N/A</v>
+      </c>
+      <c r="J76" t="e">
         <f>VLOOKUP($A76,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L76" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L76" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G76, 3), " (", FIXED(temp!H76,3), " - ", FIXED(temp!I76,3),  ")", IF(AND(temp!J76 &lt;0.05, NOT(ISBLANK(temp!J76))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -9242,15 +8942,15 @@
       </c>
       <c r="G77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 7)</f>
-        <v>0.27381744118447998</v>
+        <v>0.27386495925531001</v>
       </c>
       <c r="H77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 10)</f>
-        <v>0.26983306683098002</v>
+        <v>0.26987987275631697</v>
       </c>
       <c r="I77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 11)</f>
-        <v>0.27780181553798</v>
+        <v>0.277850045754303</v>
       </c>
       <c r="J77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 9)</f>
@@ -9288,15 +8988,15 @@
       </c>
       <c r="G78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 7)</f>
-        <v>0.198069360028757</v>
+        <v>0.19810124524514</v>
       </c>
       <c r="H78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 10)</f>
-        <v>0.19361599650393199</v>
+        <v>0.19364688823190199</v>
       </c>
       <c r="I78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 11)</f>
-        <v>0.202522723553581</v>
+        <v>0.20255560225837799</v>
       </c>
       <c r="J78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 9)</f>
@@ -9334,15 +9034,15 @@
       </c>
       <c r="G79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 7)</f>
-        <v>0.36183517178385999</v>
+        <v>0.36186059584035102</v>
       </c>
       <c r="H79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 10)</f>
-        <v>0.35394053149820098</v>
+        <v>0.35396555888256298</v>
       </c>
       <c r="I79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 11)</f>
-        <v>0.36972981206951899</v>
+        <v>0.369755632798139</v>
       </c>
       <c r="J79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 9)</f>
@@ -9380,15 +9080,15 @@
       </c>
       <c r="G80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 7)</f>
-        <v>0.60287416754293399</v>
+        <v>0.60308555399720698</v>
       </c>
       <c r="H80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 10)</f>
-        <v>0.58491780482505795</v>
+        <v>0.58512767981095204</v>
       </c>
       <c r="I80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 11)</f>
-        <v>0.62083053026080903</v>
+        <v>0.62104342818346103</v>
       </c>
       <c r="J80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 9)</f>
@@ -9438,7 +9138,7 @@
       </c>
       <c r="J81">
         <f>VLOOKUP($A81,LTMLE!$A:$L, 9)</f>
-        <v>9.5089761965421896E-234</v>
+        <v>9.5089761965466099E-234</v>
       </c>
       <c r="L81" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G81, 3), " (", FIXED(temp!H81,3), " - ", FIXED(temp!I81,3),  ")", IF(AND(temp!J81 &lt;0.05, NOT(ISBLANK(temp!J81))), "*", " ") )</f>
@@ -9448,7 +9148,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>LTMLE!A107</f>
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="B82" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D107)), "", "No "),IF(LTMLE!C107="ventilation_bin","Ventilation",IF(LTMLE!C107="rrt","RRT",IF(LTMLE!C107="pressor","Vasopressor",""))))</f>
@@ -9462,39 +9162,39 @@
         <f>LTMLE!B107</f>
         <v>0</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="e">
         <f>VLOOKUP($A82,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F82">
+        <v>#N/A</v>
+      </c>
+      <c r="F82" t="e">
         <f>VLOOKUP($A82,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G82">
+        <v>#N/A</v>
+      </c>
+      <c r="G82" t="e">
         <f>VLOOKUP($A82,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H82">
+        <v>#N/A</v>
+      </c>
+      <c r="H82" t="e">
         <f>VLOOKUP($A82,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I82">
+        <v>#N/A</v>
+      </c>
+      <c r="I82" t="e">
         <f>VLOOKUP($A82,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J82">
+        <v>#N/A</v>
+      </c>
+      <c r="J82" t="e">
         <f>VLOOKUP($A82,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L82" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L82" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G82, 3), " (", FIXED(temp!H82,3), " - ", FIXED(temp!I82,3),  ")", IF(AND(temp!J82 &lt;0.05, NOT(ISBLANK(temp!J82))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>LTMLE!A108</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="B83" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D108)), "", "No "),IF(LTMLE!C108="ventilation_bin","Ventilation",IF(LTMLE!C108="rrt","RRT",IF(LTMLE!C108="pressor","Vasopressor",""))))</f>
@@ -9508,39 +9208,39 @@
         <f>LTMLE!B108</f>
         <v>0</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="e">
         <f>VLOOKUP($A83,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F83">
+        <v>#N/A</v>
+      </c>
+      <c r="F83" t="e">
         <f>VLOOKUP($A83,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G83">
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="e">
         <f>VLOOKUP($A83,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H83">
+        <v>#N/A</v>
+      </c>
+      <c r="H83" t="e">
         <f>VLOOKUP($A83,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I83">
+        <v>#N/A</v>
+      </c>
+      <c r="I83" t="e">
         <f>VLOOKUP($A83,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J83">
+        <v>#N/A</v>
+      </c>
+      <c r="J83" t="e">
         <f>VLOOKUP($A83,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L83" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L83" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G83, 3), " (", FIXED(temp!H83,3), " - ", FIXED(temp!I83,3),  ")", IF(AND(temp!J83 &lt;0.05, NOT(ISBLANK(temp!J83))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>LTMLE!A109</f>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="B84" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D109)), "", "No "),IF(LTMLE!C109="ventilation_bin","Ventilation",IF(LTMLE!C109="rrt","RRT",IF(LTMLE!C109="pressor","Vasopressor",""))))</f>
@@ -9554,39 +9254,39 @@
         <f>LTMLE!B109</f>
         <v>0</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="e">
         <f>VLOOKUP($A84,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F84">
+        <v>#N/A</v>
+      </c>
+      <c r="F84" t="e">
         <f>VLOOKUP($A84,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G84">
+        <v>#N/A</v>
+      </c>
+      <c r="G84" t="e">
         <f>VLOOKUP($A84,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H84">
+        <v>#N/A</v>
+      </c>
+      <c r="H84" t="e">
         <f>VLOOKUP($A84,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I84">
+        <v>#N/A</v>
+      </c>
+      <c r="I84" t="e">
         <f>VLOOKUP($A84,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J84">
+        <v>#N/A</v>
+      </c>
+      <c r="J84" t="e">
         <f>VLOOKUP($A84,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L84" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L84" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G84, 3), " (", FIXED(temp!H84,3), " - ", FIXED(temp!I84,3),  ")", IF(AND(temp!J84 &lt;0.05, NOT(ISBLANK(temp!J84))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>LTMLE!A110</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B85" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D110)), "", "No "),IF(LTMLE!C110="ventilation_bin","Ventilation",IF(LTMLE!C110="rrt","RRT",IF(LTMLE!C110="pressor","Vasopressor",""))))</f>
@@ -9600,39 +9300,39 @@
         <f>LTMLE!B110</f>
         <v>0</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="e">
         <f>VLOOKUP($A85,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F85">
+        <v>#N/A</v>
+      </c>
+      <c r="F85" t="e">
         <f>VLOOKUP($A85,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G85">
+        <v>#N/A</v>
+      </c>
+      <c r="G85" t="e">
         <f>VLOOKUP($A85,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H85">
+        <v>#N/A</v>
+      </c>
+      <c r="H85" t="e">
         <f>VLOOKUP($A85,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I85">
+        <v>#N/A</v>
+      </c>
+      <c r="I85" t="e">
         <f>VLOOKUP($A85,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J85">
+        <v>#N/A</v>
+      </c>
+      <c r="J85" t="e">
         <f>VLOOKUP($A85,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L85" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L85" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G85, 3), " (", FIXED(temp!H85,3), " - ", FIXED(temp!I85,3),  ")", IF(AND(temp!J85 &lt;0.05, NOT(ISBLANK(temp!J85))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>LTMLE!A111</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B86" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D111)), "", "No "),IF(LTMLE!C111="ventilation_bin","Ventilation",IF(LTMLE!C111="rrt","RRT",IF(LTMLE!C111="pressor","Vasopressor",""))))</f>
@@ -9646,33 +9346,33 @@
         <f>LTMLE!B111</f>
         <v>0</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="e">
         <f>VLOOKUP($A86,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F86">
+        <v>#N/A</v>
+      </c>
+      <c r="F86" t="e">
         <f>VLOOKUP($A86,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G86">
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="e">
         <f>VLOOKUP($A86,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H86">
+        <v>#N/A</v>
+      </c>
+      <c r="H86" t="e">
         <f>VLOOKUP($A86,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I86">
+        <v>#N/A</v>
+      </c>
+      <c r="I86" t="e">
         <f>VLOOKUP($A86,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J86">
+        <v>#N/A</v>
+      </c>
+      <c r="J86" t="e">
         <f>VLOOKUP($A86,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L86" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L86" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G86, 3), " (", FIXED(temp!H86,3), " - ", FIXED(temp!I86,3),  ")", IF(AND(temp!J86 &lt;0.05, NOT(ISBLANK(temp!J86))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -9702,15 +9402,15 @@
       </c>
       <c r="G87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 7)</f>
-        <v>0.386346444780578</v>
+        <v>0.38227197650932299</v>
       </c>
       <c r="H87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 10)</f>
-        <v>0.37322275992777099</v>
+        <v>0.36936935697432799</v>
       </c>
       <c r="I87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 11)</f>
-        <v>0.39947012963338502</v>
+        <v>0.39517459604431798</v>
       </c>
       <c r="J87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 9)</f>
@@ -9718,7 +9418,7 @@
       </c>
       <c r="L87" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G87, 3), " (", FIXED(temp!H87,3), " - ", FIXED(temp!I87,3),  ")", IF(AND(temp!J87 &lt;0.05, NOT(ISBLANK(temp!J87))), "*", " ") )</f>
-        <v>0.386 (0.373 - 0.399)*</v>
+        <v>0.382 (0.369 - 0.395)*</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -9748,23 +9448,23 @@
       </c>
       <c r="G88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 7)</f>
-        <v>0.223491027732622</v>
+        <v>0.22107438016539299</v>
       </c>
       <c r="H88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 10)</f>
-        <v>0.20445106510930999</v>
+        <v>0.20258943518230699</v>
       </c>
       <c r="I88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 11)</f>
-        <v>0.24253099035593301</v>
+        <v>0.239559325148479</v>
       </c>
       <c r="J88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 9)</f>
-        <v>4.0544635767012797E-117</v>
+        <v>1.64928200400835E-121</v>
       </c>
       <c r="L88" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G88, 3), " (", FIXED(temp!H88,3), " - ", FIXED(temp!I88,3),  ")", IF(AND(temp!J88 &lt;0.05, NOT(ISBLANK(temp!J88))), "*", " ") )</f>
-        <v>0.223 (0.204 - 0.243)*</v>
+        <v>0.221 (0.203 - 0.240)*</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -9794,15 +9494,15 @@
       </c>
       <c r="G89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 7)</f>
-        <v>0.39336492890990599</v>
+        <v>0.39115789473681201</v>
       </c>
       <c r="H89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 10)</f>
-        <v>0.37349104474050399</v>
+        <v>0.37153083297282902</v>
       </c>
       <c r="I89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 11)</f>
-        <v>0.41323881307930799</v>
+        <v>0.410784956500795</v>
       </c>
       <c r="J89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 9)</f>
@@ -9810,7 +9510,7 @@
       </c>
       <c r="L89" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G89, 3), " (", FIXED(temp!H89,3), " - ", FIXED(temp!I89,3),  ")", IF(AND(temp!J89 &lt;0.05, NOT(ISBLANK(temp!J89))), "*", " ") )</f>
-        <v>0.393 (0.373 - 0.413)*</v>
+        <v>0.391 (0.372 - 0.411)*</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -9840,15 +9540,15 @@
       </c>
       <c r="G90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 7)</f>
-        <v>0.62422360248446396</v>
+        <v>0.625000000000006</v>
       </c>
       <c r="H90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 10)</f>
-        <v>0.59367874327937897</v>
+        <v>0.59462456520634699</v>
       </c>
       <c r="I90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 11)</f>
-        <v>0.65476846168955005</v>
+        <v>0.655375434793665</v>
       </c>
       <c r="J90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 9)</f>
@@ -9856,7 +9556,7 @@
       </c>
       <c r="L90" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G90, 3), " (", FIXED(temp!H90,3), " - ", FIXED(temp!I90,3),  ")", IF(AND(temp!J90 &lt;0.05, NOT(ISBLANK(temp!J90))), "*", " ") )</f>
-        <v>0.624 (0.594 - 0.655)*</v>
+        <v>0.625 (0.595 - 0.655)*</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -9908,7 +9608,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>LTMLE!A117</f>
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="B92" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D117)), "", "No "),IF(LTMLE!C117="ventilation_bin","Ventilation",IF(LTMLE!C117="rrt","RRT",IF(LTMLE!C117="pressor","Vasopressor",""))))</f>
@@ -9922,39 +9622,39 @@
         <f>LTMLE!B117</f>
         <v>0</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="e">
         <f>VLOOKUP($A92,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F92">
+        <v>#N/A</v>
+      </c>
+      <c r="F92" t="e">
         <f>VLOOKUP($A92,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G92">
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="e">
         <f>VLOOKUP($A92,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H92">
+        <v>#N/A</v>
+      </c>
+      <c r="H92" t="e">
         <f>VLOOKUP($A92,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I92">
+        <v>#N/A</v>
+      </c>
+      <c r="I92" t="e">
         <f>VLOOKUP($A92,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J92">
+        <v>#N/A</v>
+      </c>
+      <c r="J92" t="e">
         <f>VLOOKUP($A92,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L92" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L92" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G92, 3), " (", FIXED(temp!H92,3), " - ", FIXED(temp!I92,3),  ")", IF(AND(temp!J92 &lt;0.05, NOT(ISBLANK(temp!J92))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>LTMLE!A118</f>
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B93" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D118)), "", "No "),IF(LTMLE!C118="ventilation_bin","Ventilation",IF(LTMLE!C118="rrt","RRT",IF(LTMLE!C118="pressor","Vasopressor",""))))</f>
@@ -9968,39 +9668,39 @@
         <f>LTMLE!B118</f>
         <v>0</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="e">
         <f>VLOOKUP($A93,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F93">
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
         <f>VLOOKUP($A93,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G93">
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="e">
         <f>VLOOKUP($A93,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H93">
+        <v>#N/A</v>
+      </c>
+      <c r="H93" t="e">
         <f>VLOOKUP($A93,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I93">
+        <v>#N/A</v>
+      </c>
+      <c r="I93" t="e">
         <f>VLOOKUP($A93,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J93">
+        <v>#N/A</v>
+      </c>
+      <c r="J93" t="e">
         <f>VLOOKUP($A93,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L93" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L93" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G93, 3), " (", FIXED(temp!H93,3), " - ", FIXED(temp!I93,3),  ")", IF(AND(temp!J93 &lt;0.05, NOT(ISBLANK(temp!J93))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>LTMLE!A119</f>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B94" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D119)), "", "No "),IF(LTMLE!C119="ventilation_bin","Ventilation",IF(LTMLE!C119="rrt","RRT",IF(LTMLE!C119="pressor","Vasopressor",""))))</f>
@@ -10014,39 +9714,39 @@
         <f>LTMLE!B119</f>
         <v>0</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="e">
         <f>VLOOKUP($A94,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F94">
+        <v>#N/A</v>
+      </c>
+      <c r="F94" t="e">
         <f>VLOOKUP($A94,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G94">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="e">
         <f>VLOOKUP($A94,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H94">
+        <v>#N/A</v>
+      </c>
+      <c r="H94" t="e">
         <f>VLOOKUP($A94,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I94">
+        <v>#N/A</v>
+      </c>
+      <c r="I94" t="e">
         <f>VLOOKUP($A94,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J94">
+        <v>#N/A</v>
+      </c>
+      <c r="J94" t="e">
         <f>VLOOKUP($A94,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L94" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G94, 3), " (", FIXED(temp!H94,3), " - ", FIXED(temp!I94,3),  ")", IF(AND(temp!J94 &lt;0.05, NOT(ISBLANK(temp!J94))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>LTMLE!A120</f>
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B95" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D120)), "", "No "),IF(LTMLE!C120="ventilation_bin","Ventilation",IF(LTMLE!C120="rrt","RRT",IF(LTMLE!C120="pressor","Vasopressor",""))))</f>
@@ -10060,39 +9760,39 @@
         <f>LTMLE!B120</f>
         <v>0</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="e">
         <f>VLOOKUP($A95,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F95">
+        <v>#N/A</v>
+      </c>
+      <c r="F95" t="e">
         <f>VLOOKUP($A95,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G95">
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="e">
         <f>VLOOKUP($A95,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H95">
+        <v>#N/A</v>
+      </c>
+      <c r="H95" t="e">
         <f>VLOOKUP($A95,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I95">
+        <v>#N/A</v>
+      </c>
+      <c r="I95" t="e">
         <f>VLOOKUP($A95,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J95">
+        <v>#N/A</v>
+      </c>
+      <c r="J95" t="e">
         <f>VLOOKUP($A95,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L95" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L95" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G95, 3), " (", FIXED(temp!H95,3), " - ", FIXED(temp!I95,3),  ")", IF(AND(temp!J95 &lt;0.05, NOT(ISBLANK(temp!J95))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>LTMLE!A121</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B96" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D121)), "", "No "),IF(LTMLE!C121="ventilation_bin","Ventilation",IF(LTMLE!C121="rrt","RRT",IF(LTMLE!C121="pressor","Vasopressor",""))))</f>
@@ -10106,33 +9806,33 @@
         <f>LTMLE!B121</f>
         <v>0</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="e">
         <f>VLOOKUP($A96,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F96">
+        <v>#N/A</v>
+      </c>
+      <c r="F96" t="e">
         <f>VLOOKUP($A96,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G96">
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="e">
         <f>VLOOKUP($A96,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H96">
+        <v>#N/A</v>
+      </c>
+      <c r="H96" t="e">
         <f>VLOOKUP($A96,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I96">
+        <v>#N/A</v>
+      </c>
+      <c r="I96" t="e">
         <f>VLOOKUP($A96,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J96">
+        <v>#N/A</v>
+      </c>
+      <c r="J96" t="e">
         <f>VLOOKUP($A96,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L96" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L96" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G96, 3), " (", FIXED(temp!H96,3), " - ", FIXED(temp!I96,3),  ")", IF(AND(temp!J96 &lt;0.05, NOT(ISBLANK(temp!J96))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -10162,15 +9862,15 @@
       </c>
       <c r="G97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 7)</f>
-        <v>0.35432508507327898</v>
+        <v>0.354357509034324</v>
       </c>
       <c r="H97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 10)</f>
-        <v>0.34824872513245397</v>
+        <v>0.34828038558643998</v>
       </c>
       <c r="I97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 11)</f>
-        <v>0.36040144501410398</v>
+        <v>0.36043463248220697</v>
       </c>
       <c r="J97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 9)</f>
@@ -10208,15 +9908,15 @@
       </c>
       <c r="G98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 7)</f>
-        <v>0.22020593332682001</v>
+        <v>0.22017132367940501</v>
       </c>
       <c r="H98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 10)</f>
-        <v>0.21200533056863899</v>
+        <v>0.21196992980728299</v>
       </c>
       <c r="I98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 11)</f>
-        <v>0.228406536085001</v>
+        <v>0.22837271755152699</v>
       </c>
       <c r="J98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 9)</f>
@@ -10254,15 +9954,15 @@
       </c>
       <c r="G99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 7)</f>
-        <v>0.37731109324756501</v>
+        <v>0.37734901014977501</v>
       </c>
       <c r="H99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 10)</f>
-        <v>0.36778776142998698</v>
+        <v>0.36782501221700697</v>
       </c>
       <c r="I99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 11)</f>
-        <v>0.38683442506514398</v>
+        <v>0.38687300808254299</v>
       </c>
       <c r="J99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 9)</f>
@@ -10300,15 +10000,15 @@
       </c>
       <c r="G100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 7)</f>
-        <v>0.60445841669049205</v>
+        <v>0.60463121783877505</v>
       </c>
       <c r="H100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 10)</f>
-        <v>0.58825527738479799</v>
+        <v>0.58842699012311495</v>
       </c>
       <c r="I100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 11)</f>
-        <v>0.620661555996185</v>
+        <v>0.62083544555443604</v>
       </c>
       <c r="J100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 9)</f>
@@ -10316,7 +10016,7 @@
       </c>
       <c r="L100" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G100, 3), " (", FIXED(temp!H100,3), " - ", FIXED(temp!I100,3),  ")", IF(AND(temp!J100 &lt;0.05, NOT(ISBLANK(temp!J100))), "*", " ") )</f>
-        <v>0.604 (0.588 - 0.621)*</v>
+        <v>0.605 (0.588 - 0.621)*</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -10368,7 +10068,7 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>LTMLE!A102</f>
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B102" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D102)), "", "No "),IF(LTMLE!C102="ventilation_bin","Ventilation",IF(LTMLE!C102="rrt","RRT",IF(LTMLE!C102="pressor","Vasopressor",""))))</f>
@@ -10382,39 +10082,39 @@
         <f>LTMLE!B102</f>
         <v>0</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="e">
         <f>VLOOKUP($A102,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F102">
+        <v>#N/A</v>
+      </c>
+      <c r="F102" t="e">
         <f>VLOOKUP($A102,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G102">
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="e">
         <f>VLOOKUP($A102,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H102">
+        <v>#N/A</v>
+      </c>
+      <c r="H102" t="e">
         <f>VLOOKUP($A102,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I102">
+        <v>#N/A</v>
+      </c>
+      <c r="I102" t="e">
         <f>VLOOKUP($A102,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J102">
+        <v>#N/A</v>
+      </c>
+      <c r="J102" t="e">
         <f>VLOOKUP($A102,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L102" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L102" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G102, 3), " (", FIXED(temp!H102,3), " - ", FIXED(temp!I102,3),  ")", IF(AND(temp!J102 &lt;0.05, NOT(ISBLANK(temp!J102))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>LTMLE!A103</f>
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B103" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D103)), "", "No "),IF(LTMLE!C103="ventilation_bin","Ventilation",IF(LTMLE!C103="rrt","RRT",IF(LTMLE!C103="pressor","Vasopressor",""))))</f>
@@ -10428,39 +10128,39 @@
         <f>LTMLE!B103</f>
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="e">
         <f>VLOOKUP($A103,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F103">
+        <v>#N/A</v>
+      </c>
+      <c r="F103" t="e">
         <f>VLOOKUP($A103,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G103">
+        <v>#N/A</v>
+      </c>
+      <c r="G103" t="e">
         <f>VLOOKUP($A103,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H103">
+        <v>#N/A</v>
+      </c>
+      <c r="H103" t="e">
         <f>VLOOKUP($A103,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I103">
+        <v>#N/A</v>
+      </c>
+      <c r="I103" t="e">
         <f>VLOOKUP($A103,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J103">
+        <v>#N/A</v>
+      </c>
+      <c r="J103" t="e">
         <f>VLOOKUP($A103,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L103" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L103" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G103, 3), " (", FIXED(temp!H103,3), " - ", FIXED(temp!I103,3),  ")", IF(AND(temp!J103 &lt;0.05, NOT(ISBLANK(temp!J103))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>LTMLE!A104</f>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B104" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D104)), "", "No "),IF(LTMLE!C104="ventilation_bin","Ventilation",IF(LTMLE!C104="rrt","RRT",IF(LTMLE!C104="pressor","Vasopressor",""))))</f>
@@ -10474,39 +10174,39 @@
         <f>LTMLE!B104</f>
         <v>0</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="e">
         <f>VLOOKUP($A104,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F104">
+        <v>#N/A</v>
+      </c>
+      <c r="F104" t="e">
         <f>VLOOKUP($A104,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G104">
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="e">
         <f>VLOOKUP($A104,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H104">
+        <v>#N/A</v>
+      </c>
+      <c r="H104" t="e">
         <f>VLOOKUP($A104,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I104">
+        <v>#N/A</v>
+      </c>
+      <c r="I104" t="e">
         <f>VLOOKUP($A104,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J104">
+        <v>#N/A</v>
+      </c>
+      <c r="J104" t="e">
         <f>VLOOKUP($A104,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L104" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L104" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G104, 3), " (", FIXED(temp!H104,3), " - ", FIXED(temp!I104,3),  ")", IF(AND(temp!J104 &lt;0.05, NOT(ISBLANK(temp!J104))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>LTMLE!A105</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="B105" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D105)), "", "No "),IF(LTMLE!C105="ventilation_bin","Ventilation",IF(LTMLE!C105="rrt","RRT",IF(LTMLE!C105="pressor","Vasopressor",""))))</f>
@@ -10520,39 +10220,39 @@
         <f>LTMLE!B105</f>
         <v>0</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="e">
         <f>VLOOKUP($A105,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F105">
+        <v>#N/A</v>
+      </c>
+      <c r="F105" t="e">
         <f>VLOOKUP($A105,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G105">
+        <v>#N/A</v>
+      </c>
+      <c r="G105" t="e">
         <f>VLOOKUP($A105,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H105">
+        <v>#N/A</v>
+      </c>
+      <c r="H105" t="e">
         <f>VLOOKUP($A105,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I105">
+        <v>#N/A</v>
+      </c>
+      <c r="I105" t="e">
         <f>VLOOKUP($A105,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J105">
+        <v>#N/A</v>
+      </c>
+      <c r="J105" t="e">
         <f>VLOOKUP($A105,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L105" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L105" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G105, 3), " (", FIXED(temp!H105,3), " - ", FIXED(temp!I105,3),  ")", IF(AND(temp!J105 &lt;0.05, NOT(ISBLANK(temp!J105))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>LTMLE!A106</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="B106" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D106)), "", "No "),IF(LTMLE!C106="ventilation_bin","Ventilation",IF(LTMLE!C106="rrt","RRT",IF(LTMLE!C106="pressor","Vasopressor",""))))</f>
@@ -10566,33 +10266,33 @@
         <f>LTMLE!B106</f>
         <v>0</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="e">
         <f>VLOOKUP($A106,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F106">
+        <v>#N/A</v>
+      </c>
+      <c r="F106" t="e">
         <f>VLOOKUP($A106,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G106">
+        <v>#N/A</v>
+      </c>
+      <c r="G106" t="e">
         <f>VLOOKUP($A106,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H106">
+        <v>#N/A</v>
+      </c>
+      <c r="H106" t="e">
         <f>VLOOKUP($A106,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I106">
+        <v>#N/A</v>
+      </c>
+      <c r="I106" t="e">
         <f>VLOOKUP($A106,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J106">
+        <v>#N/A</v>
+      </c>
+      <c r="J106" t="e">
         <f>VLOOKUP($A106,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L106" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L106" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G106, 3), " (", FIXED(temp!H106,3), " - ", FIXED(temp!I106,3),  ")", IF(AND(temp!J106 &lt;0.05, NOT(ISBLANK(temp!J106))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -10622,15 +10322,15 @@
       </c>
       <c r="G107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 7)</f>
-        <v>0.25881561238299999</v>
+        <v>0.25489423203334</v>
       </c>
       <c r="H107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 10)</f>
-        <v>0.24885662009096399</v>
+        <v>0.245103401693191</v>
       </c>
       <c r="I107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 11)</f>
-        <v>0.268774604675035</v>
+        <v>0.26468506237348899</v>
       </c>
       <c r="J107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 9)</f>
@@ -10638,7 +10338,7 @@
       </c>
       <c r="L107" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G107, 3), " (", FIXED(temp!H107,3), " - ", FIXED(temp!I107,3),  ")", IF(AND(temp!J107 &lt;0.05, NOT(ISBLANK(temp!J107))), "*", " ") )</f>
-        <v>0.259 (0.249 - 0.269)*</v>
+        <v>0.255 (0.245 - 0.265)*</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -10668,23 +10368,23 @@
       </c>
       <c r="G108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 7)</f>
-        <v>0.206226415094172</v>
+        <v>0.20264074821218001</v>
       </c>
       <c r="H108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 10)</f>
-        <v>0.195333698526511</v>
+        <v>0.191971684792618</v>
       </c>
       <c r="I108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 11)</f>
-        <v>0.217119131661832</v>
+        <v>0.21330981163174101</v>
       </c>
       <c r="J108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 9)</f>
-        <v>2.16409227406359E-301</v>
+        <v>2.57331713978483E-303</v>
       </c>
       <c r="L108" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G108, 3), " (", FIXED(temp!H108,3), " - ", FIXED(temp!I108,3),  ")", IF(AND(temp!J108 &lt;0.05, NOT(ISBLANK(temp!J108))), "*", " ") )</f>
-        <v>0.206 (0.195 - 0.217)*</v>
+        <v>0.203 (0.192 - 0.213)*</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -10714,23 +10414,23 @@
       </c>
       <c r="G109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 7)</f>
-        <v>0.38419209604801002</v>
+        <v>0.38135175135671201</v>
       </c>
       <c r="H109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 10)</f>
-        <v>0.36286905248781798</v>
+        <v>0.36020631757503102</v>
       </c>
       <c r="I109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 11)</f>
-        <v>0.40551513960820201</v>
+        <v>0.402497185138393</v>
       </c>
       <c r="J109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 9)</f>
-        <v>3.5764926934609001E-273</v>
+        <v>1.0999388037909501E-273</v>
       </c>
       <c r="L109" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G109, 3), " (", FIXED(temp!H109,3), " - ", FIXED(temp!I109,3),  ")", IF(AND(temp!J109 &lt;0.05, NOT(ISBLANK(temp!J109))), "*", " ") )</f>
-        <v>0.384 (0.363 - 0.406)*</v>
+        <v>0.381 (0.360 - 0.402)*</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -10760,19 +10460,19 @@
       </c>
       <c r="G110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 7)</f>
-        <v>0.46875000000505901</v>
+        <v>0.46875000000506001</v>
       </c>
       <c r="H110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 10)</f>
-        <v>0.38229164350168998</v>
+        <v>0.38229165927169401</v>
       </c>
       <c r="I110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 11)</f>
-        <v>0.55520835650842704</v>
+        <v>0.55520834073842695</v>
       </c>
       <c r="J110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 9)</f>
-        <v>2.24838098668191E-26</v>
+        <v>2.2483342756422099E-26</v>
       </c>
       <c r="L110" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G110, 3), " (", FIXED(temp!H110,3), " - ", FIXED(temp!I110,3),  ")", IF(AND(temp!J110 &lt;0.05, NOT(ISBLANK(temp!J110))), "*", " ") )</f>
@@ -10812,7 +10512,7 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>LTMLE!A112</f>
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="B112" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D112)), "", "No "),IF(LTMLE!C112="ventilation_bin","Ventilation",IF(LTMLE!C112="rrt","RRT",IF(LTMLE!C112="pressor","Vasopressor",""))))</f>
@@ -10826,39 +10526,39 @@
         <f>LTMLE!B112</f>
         <v>0</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="e">
         <f>VLOOKUP($A112,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F112">
+        <v>#N/A</v>
+      </c>
+      <c r="F112" t="e">
         <f>VLOOKUP($A112,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G112">
+        <v>#N/A</v>
+      </c>
+      <c r="G112" t="e">
         <f>VLOOKUP($A112,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H112">
+        <v>#N/A</v>
+      </c>
+      <c r="H112" t="e">
         <f>VLOOKUP($A112,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I112">
+        <v>#N/A</v>
+      </c>
+      <c r="I112" t="e">
         <f>VLOOKUP($A112,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J112">
+        <v>#N/A</v>
+      </c>
+      <c r="J112" t="e">
         <f>VLOOKUP($A112,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L112" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L112" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G112, 3), " (", FIXED(temp!H112,3), " - ", FIXED(temp!I112,3),  ")", IF(AND(temp!J112 &lt;0.05, NOT(ISBLANK(temp!J112))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>LTMLE!A113</f>
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="B113" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D113)), "", "No "),IF(LTMLE!C113="ventilation_bin","Ventilation",IF(LTMLE!C113="rrt","RRT",IF(LTMLE!C113="pressor","Vasopressor",""))))</f>
@@ -10872,39 +10572,39 @@
         <f>LTMLE!B113</f>
         <v>0</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="e">
         <f>VLOOKUP($A113,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F113">
+        <v>#N/A</v>
+      </c>
+      <c r="F113" t="e">
         <f>VLOOKUP($A113,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G113">
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
         <f>VLOOKUP($A113,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H113">
+        <v>#N/A</v>
+      </c>
+      <c r="H113" t="e">
         <f>VLOOKUP($A113,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I113">
+        <v>#N/A</v>
+      </c>
+      <c r="I113" t="e">
         <f>VLOOKUP($A113,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J113">
+        <v>#N/A</v>
+      </c>
+      <c r="J113" t="e">
         <f>VLOOKUP($A113,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L113" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L113" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G113, 3), " (", FIXED(temp!H113,3), " - ", FIXED(temp!I113,3),  ")", IF(AND(temp!J113 &lt;0.05, NOT(ISBLANK(temp!J113))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>LTMLE!A114</f>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="B114" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D114)), "", "No "),IF(LTMLE!C114="ventilation_bin","Ventilation",IF(LTMLE!C114="rrt","RRT",IF(LTMLE!C114="pressor","Vasopressor",""))))</f>
@@ -10918,39 +10618,39 @@
         <f>LTMLE!B114</f>
         <v>0</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="e">
         <f>VLOOKUP($A114,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F114">
+        <v>#N/A</v>
+      </c>
+      <c r="F114" t="e">
         <f>VLOOKUP($A114,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G114">
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
         <f>VLOOKUP($A114,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H114">
+        <v>#N/A</v>
+      </c>
+      <c r="H114" t="e">
         <f>VLOOKUP($A114,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I114">
+        <v>#N/A</v>
+      </c>
+      <c r="I114" t="e">
         <f>VLOOKUP($A114,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J114">
+        <v>#N/A</v>
+      </c>
+      <c r="J114" t="e">
         <f>VLOOKUP($A114,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L114" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L114" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G114, 3), " (", FIXED(temp!H114,3), " - ", FIXED(temp!I114,3),  ")", IF(AND(temp!J114 &lt;0.05, NOT(ISBLANK(temp!J114))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>LTMLE!A115</f>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B115" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D115)), "", "No "),IF(LTMLE!C115="ventilation_bin","Ventilation",IF(LTMLE!C115="rrt","RRT",IF(LTMLE!C115="pressor","Vasopressor",""))))</f>
@@ -10964,39 +10664,39 @@
         <f>LTMLE!B115</f>
         <v>0</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="e">
         <f>VLOOKUP($A115,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F115">
+        <v>#N/A</v>
+      </c>
+      <c r="F115" t="e">
         <f>VLOOKUP($A115,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G115">
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="e">
         <f>VLOOKUP($A115,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H115">
+        <v>#N/A</v>
+      </c>
+      <c r="H115" t="e">
         <f>VLOOKUP($A115,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I115">
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="e">
         <f>VLOOKUP($A115,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J115">
+        <v>#N/A</v>
+      </c>
+      <c r="J115" t="e">
         <f>VLOOKUP($A115,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L115" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L115" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G115, 3), " (", FIXED(temp!H115,3), " - ", FIXED(temp!I115,3),  ")", IF(AND(temp!J115 &lt;0.05, NOT(ISBLANK(temp!J115))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>LTMLE!A116</f>
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="B116" t="str">
         <f>_xlfn.CONCAT(IF(ISNUMBER(SEARCH("Yes-Treatment",LTMLE!D116)), "", "No "),IF(LTMLE!C116="ventilation_bin","Ventilation",IF(LTMLE!C116="rrt","RRT",IF(LTMLE!C116="pressor","Vasopressor",""))))</f>
@@ -11010,33 +10710,33 @@
         <f>LTMLE!B116</f>
         <v>0</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="e">
         <f>VLOOKUP($A116,LTMLE!$A:$L, 5)</f>
-        <v>0</v>
-      </c>
-      <c r="F116">
+        <v>#N/A</v>
+      </c>
+      <c r="F116" t="e">
         <f>VLOOKUP($A116,LTMLE!$A:$L, 6)</f>
-        <v>0</v>
-      </c>
-      <c r="G116">
+        <v>#N/A</v>
+      </c>
+      <c r="G116" t="e">
         <f>VLOOKUP($A116,LTMLE!$A:$L, 7)</f>
-        <v>0</v>
-      </c>
-      <c r="H116">
+        <v>#N/A</v>
+      </c>
+      <c r="H116" t="e">
         <f>VLOOKUP($A116,LTMLE!$A:$L, 10)</f>
-        <v>0</v>
-      </c>
-      <c r="I116">
+        <v>#N/A</v>
+      </c>
+      <c r="I116" t="e">
         <f>VLOOKUP($A116,LTMLE!$A:$L, 11)</f>
-        <v>0</v>
-      </c>
-      <c r="J116">
+        <v>#N/A</v>
+      </c>
+      <c r="J116" t="e">
         <f>VLOOKUP($A116,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
-      </c>
-      <c r="L116" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L116" t="e">
         <f>_xlfn.CONCAT(FIXED(temp!G116, 3), " (", FIXED(temp!H116,3), " - ", FIXED(temp!I116,3),  ")", IF(AND(temp!J116 &lt;0.05, NOT(ISBLANK(temp!J116))), "*", " ") )</f>
-        <v>0.000 (0.000 - 0.000)*</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -11066,15 +10766,15 @@
       </c>
       <c r="G117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 7)</f>
-        <v>0.23335676625714999</v>
+        <v>0.23341419681507</v>
       </c>
       <c r="H117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 10)</f>
-        <v>0.22844183836707299</v>
+        <v>0.22849824366330401</v>
       </c>
       <c r="I117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 11)</f>
-        <v>0.23827169414722699</v>
+        <v>0.23833014996683699</v>
       </c>
       <c r="J117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 9)</f>
@@ -11112,15 +10812,15 @@
       </c>
       <c r="G118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 7)</f>
-        <v>0.19221665908053301</v>
+        <v>0.19227792195981699</v>
       </c>
       <c r="H118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 10)</f>
-        <v>0.18700613268027599</v>
+        <v>0.18706593293402801</v>
       </c>
       <c r="I118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 11)</f>
-        <v>0.197427185480791</v>
+        <v>0.197489910985607</v>
       </c>
       <c r="J118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 9)</f>
@@ -11158,15 +10858,15 @@
       </c>
       <c r="G119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 7)</f>
-        <v>0.36178928395867799</v>
+        <v>0.36178928395871901</v>
       </c>
       <c r="H119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 10)</f>
-        <v>0.34973345828704699</v>
+        <v>0.349733459458623</v>
       </c>
       <c r="I119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 11)</f>
-        <v>0.37384510963030998</v>
+        <v>0.37384510845881502</v>
       </c>
       <c r="J119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 9)</f>
@@ -11204,19 +10904,19 @@
       </c>
       <c r="G120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 7)</f>
-        <v>0.54594594587254097</v>
+        <v>0.54594594587254197</v>
       </c>
       <c r="H120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 10)</f>
-        <v>0.49520955293906199</v>
+        <v>0.49520956219336798</v>
       </c>
       <c r="I120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 11)</f>
-        <v>0.59668233880601995</v>
+        <v>0.59668232955171696</v>
       </c>
       <c r="J120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 9)</f>
-        <v>9.8103517765932908E-99</v>
+        <v>9.8095541153119094E-99</v>
       </c>
       <c r="L120" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G120, 3), " (", FIXED(temp!H120,3), " - ", FIXED(temp!I120,3),  ")", IF(AND(temp!J120 &lt;0.05, NOT(ISBLANK(temp!J120))), "*", " ") )</f>
@@ -11268,31 +10968,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:M29"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B1" zoomScale="123" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="5" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -11328,7 +11028,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -11336,16 +11036,16 @@
       </c>
       <c r="E5" s="4" t="str" cm="1">
         <f t="array" ref="E5:I5">TRANSPOSE(temp!L7:L11)</f>
-        <v>0.374 (0.361 - 0.387)*</v>
+        <v>0.371 (0.359 - 0.384)*</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>0.233 (0.215 - 0.252)*</v>
+        <v>0.231 (0.213 - 0.249)*</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>0.389 (0.369 - 0.410)*</v>
+        <v>0.388 (0.367 - 0.408)*</v>
       </c>
       <c r="H5" s="6" t="str">
-        <v>0.592 (0.560 - 0.624)*</v>
+        <v>0.594 (0.562 - 0.626)*</v>
       </c>
       <c r="I5" s="6" t="str">
         <v>0.710 (0.638 - 0.781)*</v>
@@ -11357,7 +11057,7 @@
     </row>
     <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="12" t="s">
         <v>46</v>
       </c>
@@ -11384,7 +11084,7 @@
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -11392,16 +11092,16 @@
       </c>
       <c r="E7" s="4" t="str" cm="1">
         <f t="array" ref="E7:I7">TRANSPOSE(temp!L27:L31)</f>
-        <v>0.268 (0.258 - 0.278)*</v>
+        <v>0.263 (0.253 - 0.273)*</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>0.202 (0.191 - 0.213)*</v>
+        <v>0.198 (0.187 - 0.209)*</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>0.389 (0.368 - 0.410)*</v>
+        <v>0.386 (0.365 - 0.406)*</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>0.680 (0.611 - 0.750)*</v>
+        <v>0.676 (0.607 - 0.746)*</v>
       </c>
       <c r="I7" s="4" t="str">
         <v>0.800 (0.552 - 1.000)*</v>
@@ -11413,7 +11113,7 @@
     </row>
     <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="12" t="s">
         <v>46</v>
       </c>
@@ -11440,7 +11140,7 @@
     </row>
     <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -11448,16 +11148,16 @@
       </c>
       <c r="E9" s="4" t="str" cm="1">
         <f t="array" ref="E9:I9">TRANSPOSE(temp!L47:L51)</f>
-        <v>0.443 (0.420 - 0.466)*</v>
+        <v>0.442 (0.418 - 0.465)*</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>0.284 (0.242 - 0.327)*</v>
+        <v>0.281 (0.239 - 0.323)*</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>0.437 (0.404 - 0.469)*</v>
+        <v>0.435 (0.403 - 0.468)*</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>0.598 (0.546 - 0.651)*</v>
+        <v>0.601 (0.548 - 0.653)*</v>
       </c>
       <c r="I9" s="4" t="str">
         <v>0.674 (0.578 - 0.770)*</v>
@@ -11469,7 +11169,7 @@
     </row>
     <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
@@ -11496,7 +11196,7 @@
     </row>
     <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -11504,16 +11204,16 @@
       </c>
       <c r="E11" s="4" t="str" cm="1">
         <f t="array" ref="E11:I11">TRANSPOSE(temp!L67:L71)</f>
-        <v>0.291 (0.282 - 0.299)*</v>
+        <v>0.287 (0.279 - 0.296)*</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>0.206 (0.196 - 0.216)*</v>
+        <v>0.203 (0.193 - 0.212)*</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>0.377 (0.361 - 0.393)*</v>
+        <v>0.374 (0.358 - 0.390)*</v>
       </c>
       <c r="H11" s="4" t="str">
-        <v>0.609 (0.575 - 0.644)*</v>
+        <v>0.610 (0.575 - 0.644)*</v>
       </c>
       <c r="I11" s="4" t="str">
         <v>0.767 (0.670 - 0.864)*</v>
@@ -11525,7 +11225,7 @@
     </row>
     <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="12" t="s">
         <v>46</v>
       </c>
@@ -11552,7 +11252,7 @@
     </row>
     <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -11560,16 +11260,16 @@
       </c>
       <c r="E13" s="4" t="str" cm="1">
         <f t="array" ref="E13:I13">TRANSPOSE(temp!L87:L91)</f>
-        <v>0.386 (0.373 - 0.399)*</v>
+        <v>0.382 (0.369 - 0.395)*</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>0.223 (0.204 - 0.243)*</v>
+        <v>0.221 (0.203 - 0.240)*</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>0.393 (0.373 - 0.413)*</v>
+        <v>0.391 (0.372 - 0.411)*</v>
       </c>
       <c r="H13" s="4" t="str">
-        <v>0.624 (0.594 - 0.655)*</v>
+        <v>0.625 (0.595 - 0.655)*</v>
       </c>
       <c r="I13" s="4" t="str">
         <v>0.716 (0.647 - 0.786)*</v>
@@ -11581,7 +11281,7 @@
     </row>
     <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="12" t="s">
         <v>46</v>
       </c>
@@ -11596,7 +11296,7 @@
         <v>0.377 (0.368 - 0.387)*</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>0.604 (0.588 - 0.621)*</v>
+        <v>0.605 (0.588 - 0.621)*</v>
       </c>
       <c r="I14" s="4" t="str">
         <v>0.744 (0.707 - 0.781)*</v>
@@ -11608,7 +11308,7 @@
     </row>
     <row r="15" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -11616,13 +11316,13 @@
       </c>
       <c r="E15" s="4" t="str" cm="1">
         <f t="array" ref="E15:I15">TRANSPOSE(temp!L107:L111)</f>
-        <v>0.259 (0.249 - 0.269)*</v>
+        <v>0.255 (0.245 - 0.265)*</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>0.206 (0.195 - 0.217)*</v>
+        <v>0.203 (0.192 - 0.213)*</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>0.384 (0.363 - 0.406)*</v>
+        <v>0.381 (0.360 - 0.402)*</v>
       </c>
       <c r="H15" s="4" t="str">
         <v>0.469 (0.382 - 0.555)*</v>
@@ -11637,7 +11337,7 @@
     </row>
     <row r="16" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
         <v>46</v>
       </c>
@@ -11846,14 +11546,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11865,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5414F4A-3CCF-48B8-9041-E473F806DC9D}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12064,44 +11764,44 @@
       </c>
       <c r="C5" s="23" t="str">
         <f>table_4!E7</f>
-        <v>0.268 (0.258 - 0.278)*</v>
+        <v>0.263 (0.253 - 0.273)*</v>
       </c>
       <c r="D5" s="23" t="str">
         <f>table_4!E5</f>
-        <v>0.374 (0.361 - 0.387)*</v>
+        <v>0.371 (0.359 - 0.384)*</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="23" t="str">
         <f>table_4!F7</f>
-        <v>0.202 (0.191 - 0.213)*</v>
+        <v>0.198 (0.187 - 0.209)*</v>
       </c>
       <c r="H5" s="23" t="str">
         <f>table_4!F5</f>
-        <v>0.233 (0.215 - 0.252)*</v>
+        <v>0.231 (0.213 - 0.249)*</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="23" t="str">
         <f>table_4!G7</f>
-        <v>0.389 (0.368 - 0.410)*</v>
+        <v>0.386 (0.365 - 0.406)*</v>
       </c>
       <c r="L5" s="24" t="str">
         <f>table_4!G5</f>
-        <v>0.389 (0.369 - 0.410)*</v>
+        <v>0.388 (0.367 - 0.408)*</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="23" t="str">
         <f>table_4!H7</f>
-        <v>0.680 (0.611 - 0.750)*</v>
+        <v>0.676 (0.607 - 0.746)*</v>
       </c>
       <c r="P5" s="24" t="str">
         <f>table_4!H5</f>
-        <v>0.592 (0.560 - 0.624)*</v>
+        <v>0.594 (0.562 - 0.626)*</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>24</v>
@@ -12284,44 +11984,44 @@
       </c>
       <c r="C10" s="23" t="str">
         <f>table_4!E11</f>
-        <v>0.291 (0.282 - 0.299)*</v>
+        <v>0.287 (0.279 - 0.296)*</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>table_4!E9</f>
-        <v>0.443 (0.420 - 0.466)*</v>
+        <v>0.442 (0.418 - 0.465)*</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="23" t="str">
         <f>table_4!F11</f>
-        <v>0.206 (0.196 - 0.216)*</v>
+        <v>0.203 (0.193 - 0.212)*</v>
       </c>
       <c r="H10" s="23" t="str">
         <f>table_4!F9</f>
-        <v>0.284 (0.242 - 0.327)*</v>
+        <v>0.281 (0.239 - 0.323)*</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="23" t="str">
         <f>table_4!G11</f>
-        <v>0.377 (0.361 - 0.393)*</v>
+        <v>0.374 (0.358 - 0.390)*</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>table_4!G9</f>
-        <v>0.437 (0.404 - 0.469)*</v>
+        <v>0.435 (0.403 - 0.468)*</v>
       </c>
       <c r="N10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="23" t="str">
         <f>table_4!H11</f>
-        <v>0.609 (0.575 - 0.644)*</v>
+        <v>0.610 (0.575 - 0.644)*</v>
       </c>
       <c r="P10" s="23" t="str">
         <f>table_4!H9</f>
-        <v>0.598 (0.546 - 0.651)*</v>
+        <v>0.601 (0.548 - 0.653)*</v>
       </c>
       <c r="R10" s="21" t="s">
         <v>24</v>
@@ -12481,7 +12181,7 @@
       </c>
       <c r="P14" s="23" t="str">
         <f>table_4!H14</f>
-        <v>0.604 (0.588 - 0.621)*</v>
+        <v>0.605 (0.588 - 0.621)*</v>
       </c>
       <c r="R14" s="21" t="s">
         <v>46</v>
@@ -12501,33 +12201,33 @@
       </c>
       <c r="C15" s="23" t="str">
         <f>table_4!E15</f>
-        <v>0.259 (0.249 - 0.269)*</v>
+        <v>0.255 (0.245 - 0.265)*</v>
       </c>
       <c r="D15" s="23" t="str">
         <f>table_4!E13</f>
-        <v>0.386 (0.373 - 0.399)*</v>
+        <v>0.382 (0.369 - 0.395)*</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="23" t="str">
         <f>table_4!F15</f>
-        <v>0.206 (0.195 - 0.217)*</v>
+        <v>0.203 (0.192 - 0.213)*</v>
       </c>
       <c r="H15" s="23" t="str">
         <f>table_4!F13</f>
-        <v>0.223 (0.204 - 0.243)*</v>
+        <v>0.221 (0.203 - 0.240)*</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="23" t="str">
         <f>table_4!G15</f>
-        <v>0.384 (0.363 - 0.406)*</v>
+        <v>0.381 (0.360 - 0.402)*</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>table_4!G13</f>
-        <v>0.393 (0.373 - 0.413)*</v>
+        <v>0.391 (0.372 - 0.411)*</v>
       </c>
       <c r="N15" s="21" t="s">
         <v>24</v>
@@ -12538,7 +12238,7 @@
       </c>
       <c r="P15" s="23" t="str">
         <f>table_4!H13</f>
-        <v>0.624 (0.594 - 0.655)*</v>
+        <v>0.625 (0.595 - 0.655)*</v>
       </c>
       <c r="R15" s="21" t="s">
         <v>24</v>
@@ -12567,21 +12267,21 @@
     <row r="19" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Paper/table_4.xlsx
+++ b/results/Paper/table_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\Race Disparities in Sepsis\mit-tmle\results\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Matos\Documents\Education\MIT\Projects\TMLE\mit-tmle-sepsis\results\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEBA599-F058-4CF4-8640-4C113831732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409A4DE-433A-411F-9867-AA5C9C9C3D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTMLE" sheetId="1" r:id="rId1"/>
@@ -838,10 +838,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2809,43 +2809,44 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B29" sqref="B29"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2869,22 +2870,22 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>0.263061411549813</v>
+        <v>0.18621769772910099</v>
       </c>
       <c r="H2">
-        <v>5.0383246952220902E-3</v>
+        <v>4.8717827204900702E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.25318647660475901</v>
+        <v>0.176669179056436</v>
       </c>
       <c r="K2">
-        <v>0.27293634649486698</v>
+        <v>0.195766216401766</v>
       </c>
       <c r="L2">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2907,22 +2908,22 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.19806854762380099</v>
+        <v>0.14298112388808101</v>
       </c>
       <c r="H3">
-        <v>5.4843333442314004E-3</v>
+        <v>5.1562893657720902E-3</v>
       </c>
       <c r="I3" s="1">
-        <v>1.30302637155767E-285</v>
+        <v>3.0826796970518002E-169</v>
       </c>
       <c r="J3">
-        <v>0.18731945178989501</v>
+        <v>0.132874982437301</v>
       </c>
       <c r="K3">
-        <v>0.20881764345770701</v>
+        <v>0.15308726533886099</v>
       </c>
       <c r="L3">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2945,22 +2946,22 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>0.38564196962722502</v>
+        <v>0.27487864077711199</v>
       </c>
       <c r="H4">
-        <v>1.0441999504744901E-2</v>
+        <v>1.09978986552177E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>1.42670504055995E-298</v>
+        <v>7.1503670855277799E-138</v>
       </c>
       <c r="J4">
-        <v>0.36517602667134003</v>
+        <v>0.25332315550726298</v>
       </c>
       <c r="K4">
-        <v>0.40610791258311002</v>
+        <v>0.29643412604696001</v>
       </c>
       <c r="L4">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2983,22 +2984,22 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>0.67630057803459798</v>
+        <v>0.58823529411764397</v>
       </c>
       <c r="H5">
-        <v>3.5576356438974298E-2</v>
+        <v>4.5121191652004601E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>1.41403164234582E-80</v>
+        <v>7.5576882218843103E-39</v>
       </c>
       <c r="J5">
-        <v>0.60657220071304896</v>
+        <v>0.49979938354018599</v>
       </c>
       <c r="K5">
-        <v>0.74602895535614699</v>
+        <v>0.676671204695103</v>
       </c>
       <c r="L5">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3021,22 +3022,22 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>0.79999999999999605</v>
+        <v>0.77777777777768098</v>
       </c>
       <c r="H6">
-        <v>0.126579654597442</v>
+        <v>0.13869993779912501</v>
       </c>
       <c r="I6" s="1">
-        <v>2.6134164840616602E-10</v>
+        <v>2.0511725611566E-8</v>
       </c>
       <c r="J6">
-        <v>0.55190843581349103</v>
+        <v>0.50593089503345001</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3059,22 +3060,22 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <v>0.37138115434253799</v>
+        <v>0.32145144076858001</v>
       </c>
       <c r="H7">
-        <v>6.5612585608125903E-3</v>
+        <v>6.8233417184829399E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.35852132387009</v>
+        <v>0.30807793674614398</v>
       </c>
       <c r="K7">
-        <v>0.38424098481498598</v>
+        <v>0.33482494479101599</v>
       </c>
       <c r="L7">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3097,22 +3098,22 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>0.231024667931923</v>
+        <v>0.20306905370856701</v>
       </c>
       <c r="H8">
-        <v>9.1802735792126007E-3</v>
+        <v>9.0983979034128196E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>9.6024356537959992E-140</v>
+        <v>2.4050136334884401E-110</v>
       </c>
       <c r="J8">
-        <v>0.21303166234844101</v>
+        <v>0.18523652150086301</v>
       </c>
       <c r="K8">
-        <v>0.24901767351540399</v>
+        <v>0.22090158591627099</v>
       </c>
       <c r="L8">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3135,22 +3136,22 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>0.38761776581424301</v>
+        <v>0.33439321674617301</v>
       </c>
       <c r="H9">
-        <v>1.03197389110656E-2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.08608576069166E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.6963357163557299E-208</v>
       </c>
       <c r="J9">
-        <v>0.36739144921869799</v>
+        <v>0.31310632699539898</v>
       </c>
       <c r="K9">
-        <v>0.40784408240978798</v>
+        <v>0.35568010649694798</v>
       </c>
       <c r="L9">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3173,22 +3174,22 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>0.59398496240601895</v>
+        <v>0.55281207113949804</v>
       </c>
       <c r="H10">
-        <v>1.6096357997978102E-2</v>
+        <v>1.8417215658540601E-2</v>
       </c>
       <c r="I10" s="1">
-        <v>4.3201160234144198E-298</v>
+        <v>6.0592188243311898E-198</v>
       </c>
       <c r="J10">
-        <v>0.562436680447718</v>
+        <v>0.51671499175325197</v>
       </c>
       <c r="K10">
-        <v>0.62553324436431901</v>
+        <v>0.588909150525745</v>
       </c>
       <c r="L10">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3211,22 +3212,22 @@
         <v>100</v>
       </c>
       <c r="G11">
-        <v>0.70967741935451301</v>
+        <v>0.65789473684208299</v>
       </c>
       <c r="H11">
-        <v>3.6484547747652099E-2</v>
+        <v>4.4471489004265598E-2</v>
       </c>
       <c r="I11" s="1">
-        <v>2.8329592146445001E-84</v>
+        <v>1.6103067258616101E-49</v>
       </c>
       <c r="J11">
-        <v>0.63816901977688301</v>
+        <v>0.57073222005485302</v>
       </c>
       <c r="K11">
-        <v>0.78118581893214301</v>
+        <v>0.74505725362931197</v>
       </c>
       <c r="L11">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3249,22 +3250,22 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>0.245723224390129</v>
+        <v>0.19535426549205301</v>
       </c>
       <c r="H12">
-        <v>2.4836961527657602E-3</v>
+        <v>2.4326923211158702E-3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.240855269382168</v>
+        <v>0.190586276157199</v>
       </c>
       <c r="K12">
-        <v>0.250591179398091</v>
+        <v>0.20012225482690801</v>
       </c>
       <c r="L12">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -3287,22 +3288,22 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>0.19012136355524101</v>
+        <v>0.14987932817831201</v>
       </c>
       <c r="H13">
-        <v>2.6211427294069701E-3</v>
+        <v>2.5051696323493801E-3</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.18498401820726501</v>
+        <v>0.144969285923744</v>
       </c>
       <c r="K13">
-        <v>0.195258708903218</v>
+        <v>0.15478937043287999</v>
       </c>
       <c r="L13">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -3325,22 +3326,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>0.382530120481894</v>
+        <v>0.31534041441771399</v>
       </c>
       <c r="H14">
-        <v>5.8206653755547202E-3</v>
+        <v>6.1315493222604597E-3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.37112182597974802</v>
+        <v>0.30332279857665201</v>
       </c>
       <c r="K14">
-        <v>0.39393841498404097</v>
+        <v>0.32735803025877502</v>
       </c>
       <c r="L14">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -3363,22 +3364,22 @@
         <v>15</v>
       </c>
       <c r="G15">
-        <v>0.67874015748021599</v>
+        <v>0.63838383838383195</v>
       </c>
       <c r="H15">
-        <v>1.8532619503464898E-2</v>
+        <v>2.1598132508589801E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>1.18357193566411E-293</v>
+        <v>5.2815750784399501E-192</v>
       </c>
       <c r="J15">
-        <v>0.64241689071424002</v>
+        <v>0.59605227653367199</v>
       </c>
       <c r="K15">
-        <v>0.71506342424619196</v>
+        <v>0.68071540023399102</v>
       </c>
       <c r="L15">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3401,22 +3402,22 @@
         <v>100</v>
       </c>
       <c r="G16">
-        <v>0.88888888869718297</v>
+        <v>0.90476190476187801</v>
       </c>
       <c r="H16">
-        <v>6.0523566742933799E-2</v>
+        <v>6.4111931391019103E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>7.8491291280456599E-49</v>
+        <v>3.1934784751403901E-45</v>
       </c>
       <c r="J16">
-        <v>0.77026487766512697</v>
+        <v>0.77910482825617799</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3439,22 +3440,22 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <v>0.34642937598557699</v>
+        <v>0.31511221945129098</v>
       </c>
       <c r="H17">
-        <v>3.19395923100139E-3</v>
+        <v>3.2808691306111699E-3</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.34016933092472601</v>
+        <v>0.30868183411730399</v>
       </c>
       <c r="K17">
-        <v>0.35268942104642897</v>
+        <v>0.32154260478527902</v>
       </c>
       <c r="L17">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3477,22 +3478,22 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>0.22667521641591501</v>
+        <v>0.21004773812258401</v>
       </c>
       <c r="H18">
-        <v>4.3283285033755498E-3</v>
+        <v>4.3428370862232104E-3</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.218191848436041</v>
+        <v>0.201535933842862</v>
       </c>
       <c r="K18">
-        <v>0.23515858439578899</v>
+        <v>0.21855954240230599</v>
       </c>
       <c r="L18">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3515,22 +3516,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>0.36291565734424702</v>
+        <v>0.329194837123642</v>
       </c>
       <c r="H19">
-        <v>5.0456972205993296E-3</v>
+        <v>5.2102480303487702E-3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.35302627251497898</v>
+        <v>0.31898293863363802</v>
       </c>
       <c r="K19">
-        <v>0.37280504217351601</v>
+        <v>0.33940673561364598</v>
       </c>
       <c r="L19">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3553,22 +3554,22 @@
         <v>15</v>
       </c>
       <c r="G20">
-        <v>0.58335910918652001</v>
+        <v>0.55199403635412303</v>
       </c>
       <c r="H20">
-        <v>8.6714108510491297E-3</v>
+        <v>9.6018009150598202E-3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.56636345622331397</v>
+        <v>0.53317485237388196</v>
       </c>
       <c r="K20">
-        <v>0.60035476214972605</v>
+        <v>0.57081322033436399</v>
       </c>
       <c r="L20">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3591,22 +3592,22 @@
         <v>100</v>
       </c>
       <c r="G21">
-        <v>0.73804971319255697</v>
+        <v>0.71658986175074602</v>
       </c>
       <c r="H21">
-        <v>1.9240011079553001E-2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.1650811006635101E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.2178971141747298E-240</v>
       </c>
       <c r="J21">
-        <v>0.70033998441448098</v>
+        <v>0.67415505194165704</v>
       </c>
       <c r="K21">
-        <v>0.77575944197063196</v>
+        <v>0.759024671559834</v>
       </c>
       <c r="L21">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3629,22 +3630,22 @@
         <v>100</v>
       </c>
       <c r="G22">
-        <v>0.28721897681020497</v>
+        <v>0.23311190597911</v>
       </c>
       <c r="H22">
-        <v>4.2568384613447799E-3</v>
+        <v>4.2743647036519398E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.27887572673796401</v>
+        <v>0.224734305103163</v>
       </c>
       <c r="K22">
-        <v>0.29556222688244599</v>
+        <v>0.24148950685505699</v>
       </c>
       <c r="L22">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3667,22 +3668,22 @@
         <v>5</v>
       </c>
       <c r="G23">
-        <v>0.20287562904379799</v>
+        <v>0.160475960765949</v>
       </c>
       <c r="H23">
-        <v>4.8220861120220901E-3</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.6544392971377604E-3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.7115977608198101E-260</v>
       </c>
       <c r="J23">
-        <v>0.19342451393388399</v>
+        <v>0.151353427375331</v>
       </c>
       <c r="K23">
-        <v>0.212326744153712</v>
+        <v>0.169598494156567</v>
       </c>
       <c r="L23">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3705,22 +3706,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>0.37414383561644698</v>
+        <v>0.30782488796991903</v>
       </c>
       <c r="H24">
-        <v>8.1749504883337609E-3</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>8.5703480865147105E-3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.6327661329371899E-282</v>
       </c>
       <c r="J24">
-        <v>0.35812122708391397</v>
+        <v>0.29102731438537899</v>
       </c>
       <c r="K24">
-        <v>0.390166444148979</v>
+        <v>0.32462246155446001</v>
       </c>
       <c r="L24">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3743,22 +3744,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>0.60966057441253796</v>
+        <v>0.57307060755336703</v>
       </c>
       <c r="H25">
-        <v>1.7627655661335302E-2</v>
+        <v>2.0045984556512499E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>4.1796361144807801E-262</v>
+        <v>9.5272527524488795E-180</v>
       </c>
       <c r="J25">
-        <v>0.57511100418444805</v>
+        <v>0.53378119978795602</v>
       </c>
       <c r="K25">
-        <v>0.64421014464062898</v>
+        <v>0.61236001531877804</v>
       </c>
       <c r="L25">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3781,22 +3782,22 @@
         <v>100</v>
       </c>
       <c r="G26">
-        <v>0.76712328767087901</v>
+        <v>0.73214285714237604</v>
       </c>
       <c r="H26">
-        <v>4.9503749988603997E-2</v>
+        <v>5.9228608552060899E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>3.6764575341355997E-54</v>
+        <v>4.2323294050268402E-35</v>
       </c>
       <c r="J26">
-        <v>0.67009772059354</v>
+        <v>0.61605691752591496</v>
       </c>
       <c r="K26">
-        <v>0.86414885474821801</v>
+        <v>0.848228796758836</v>
       </c>
       <c r="L26">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3819,22 +3820,22 @@
         <v>100</v>
       </c>
       <c r="G27">
-        <v>0.44154370072270799</v>
+        <v>0.32217898832677899</v>
       </c>
       <c r="H27">
-        <v>1.1829920251566E-2</v>
+        <v>1.3036419318090299E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>6.6190909164391803E-305</v>
+        <v>7.6075692941535097E-135</v>
       </c>
       <c r="J27">
-        <v>0.41835748308965798</v>
+        <v>0.29662807597596003</v>
       </c>
       <c r="K27">
-        <v>0.464729918355759</v>
+        <v>0.34772990067759801</v>
       </c>
       <c r="L27">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3857,22 +3858,22 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>0.28110599078375698</v>
+        <v>0.16811594227662399</v>
       </c>
       <c r="H28">
-        <v>2.1578843412380099E-2</v>
+        <v>2.0813706975304901E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>8.6003537453470002E-39</v>
+        <v>6.6284687366342398E-16</v>
       </c>
       <c r="J28">
-        <v>0.238812234867462</v>
+        <v>0.12732182622025601</v>
       </c>
       <c r="K28">
-        <v>0.32339974670005101</v>
+        <v>0.20891005833299101</v>
       </c>
       <c r="L28">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3895,22 +3896,22 @@
         <v>10</v>
       </c>
       <c r="G29">
-        <v>0.43541202747528601</v>
+        <v>0.30126182965329801</v>
       </c>
       <c r="H29">
-        <v>1.6545826612920998E-2</v>
+        <v>1.82220456659168E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>1.27411837118882E-152</v>
+        <v>2.12938142697507E-61</v>
       </c>
       <c r="J29">
-        <v>0.40298280321951602</v>
+        <v>0.26554727642345699</v>
       </c>
       <c r="K29">
-        <v>0.46784125173105501</v>
+        <v>0.33697638288313903</v>
       </c>
       <c r="L29">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3933,22 +3934,22 @@
         <v>15</v>
       </c>
       <c r="G30">
-        <v>0.60059171597632699</v>
+        <v>0.518828451882695</v>
       </c>
       <c r="H30">
-        <v>2.6643024933053799E-2</v>
+        <v>3.2323386427441002E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>1.6025213538914399E-112</v>
+        <v>5.6088652886523903E-58</v>
       </c>
       <c r="J30">
-        <v>0.54837234666833901</v>
+        <v>0.45547577862653998</v>
       </c>
       <c r="K30">
-        <v>0.65281108528431497</v>
+        <v>0.58218112513885001</v>
       </c>
       <c r="L30">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3971,22 +3972,22 @@
         <v>100</v>
       </c>
       <c r="G31">
-        <v>0.67391304347819703</v>
+        <v>0.61194029850738296</v>
       </c>
       <c r="H31">
-        <v>4.8907858424989299E-2</v>
+        <v>5.9585750114914397E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>3.3983813634472799E-43</v>
+        <v>9.6294325772434206E-25</v>
       </c>
       <c r="J31">
-        <v>0.57805540240423403</v>
+        <v>0.49515437429034798</v>
       </c>
       <c r="K31">
-        <v>0.76977068455216002</v>
+        <v>0.728726222724419</v>
       </c>
       <c r="L31">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -4009,22 +4010,22 @@
         <v>100</v>
       </c>
       <c r="G32">
-        <v>0.27386495925531001</v>
+        <v>0.23461137495706699</v>
       </c>
       <c r="H32">
-        <v>2.0332447587947801E-3</v>
+        <v>2.0396395569846301E-3</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.26987987275631697</v>
+        <v>0.23061375488393401</v>
       </c>
       <c r="K32">
-        <v>0.277850045754303</v>
+        <v>0.2386089950302</v>
       </c>
       <c r="L32">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -4047,22 +4048,22 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <v>0.19810124524514</v>
+        <v>0.165827720716161</v>
       </c>
       <c r="H33">
-        <v>2.27267289010056E-3</v>
+        <v>2.2144250619542099E-3</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.19364688823190199</v>
+        <v>0.16148752734826799</v>
       </c>
       <c r="K33">
-        <v>0.20255560225837799</v>
+        <v>0.17016791408405399</v>
       </c>
       <c r="L33">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -4085,22 +4086,22 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>0.36186059584035102</v>
+        <v>0.31688605346047999</v>
       </c>
       <c r="H34">
-        <v>4.0281540987808697E-3</v>
+        <v>4.1811685337911804E-3</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.35396555888256298</v>
+        <v>0.30869111372095698</v>
       </c>
       <c r="K34">
-        <v>0.369755632798139</v>
+        <v>0.325080993200003</v>
       </c>
       <c r="L34">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -4123,22 +4124,22 @@
         <v>15</v>
       </c>
       <c r="G35">
-        <v>0.60308555399720698</v>
+        <v>0.57495741056217498</v>
       </c>
       <c r="H35">
-        <v>9.1623490675868408E-3</v>
+        <v>1.0203260127916799E-2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.58512767981095204</v>
+        <v>0.55495938818656498</v>
       </c>
       <c r="K35">
-        <v>0.62104342818346103</v>
+        <v>0.59495543293778597</v>
       </c>
       <c r="L35">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -4161,22 +4162,22 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <v>0.80228136882127199</v>
+        <v>0.78124999999976397</v>
       </c>
       <c r="H36">
-        <v>2.4576112803011901E-2</v>
+        <v>2.7645283597937598E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>9.5089761965466099E-234</v>
+        <v>1.0789119837098701E-175</v>
       </c>
       <c r="J36">
-        <v>0.75411307284737505</v>
+        <v>0.72706623980540996</v>
       </c>
       <c r="K36">
-        <v>0.85044966479516904</v>
+        <v>0.83543376019411697</v>
       </c>
       <c r="L36">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -4199,22 +4200,22 @@
         <v>100</v>
       </c>
       <c r="G37">
-        <v>0.45878656034430298</v>
+        <v>0.40034812880775</v>
       </c>
       <c r="H37">
-        <v>7.7472968121199996E-3</v>
+        <v>8.3454857707509194E-3</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.443602137615006</v>
+        <v>0.38399127726358701</v>
       </c>
       <c r="K37">
-        <v>0.47397098307360103</v>
+        <v>0.416704980351913</v>
       </c>
       <c r="L37">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -4237,22 +4238,22 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>0.28557312253010297</v>
+        <v>0.23905723905757401</v>
       </c>
       <c r="H38">
-        <v>1.41988393917294E-2</v>
+        <v>1.4288748139329399E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>5.7443091946002702E-90</v>
+        <v>7.8637002587142704E-63</v>
       </c>
       <c r="J38">
-        <v>0.25774390870004499</v>
+        <v>0.211051807320324</v>
       </c>
       <c r="K38">
-        <v>0.31340233636016201</v>
+        <v>0.26706267079482299</v>
       </c>
       <c r="L38">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -4275,22 +4276,22 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <v>0.44621295301601799</v>
+        <v>0.37792642140465998</v>
       </c>
       <c r="H39">
-        <v>1.16460570228838E-2</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
+        <v>1.25405440696802E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.6185723595992901E-199</v>
       </c>
       <c r="J39">
-        <v>0.42338710068926599</v>
+        <v>0.35334740668154901</v>
       </c>
       <c r="K39">
-        <v>0.46903880534277098</v>
+        <v>0.40250543612777001</v>
       </c>
       <c r="L39">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -4313,22 +4314,22 @@
         <v>15</v>
       </c>
       <c r="G40">
-        <v>0.58759842519685601</v>
+        <v>0.538554216845476</v>
       </c>
       <c r="H40">
-        <v>1.5445333620657699E-2</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
+        <v>1.7305731165148601E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.2922881161660801E-212</v>
       </c>
       <c r="J40">
-        <v>0.55732612757116196</v>
+        <v>0.50463560703565302</v>
       </c>
       <c r="K40">
-        <v>0.61787072282255096</v>
+        <v>0.57247282665529997</v>
       </c>
       <c r="L40">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -4351,22 +4352,22 @@
         <v>100</v>
       </c>
       <c r="G41">
-        <v>0.693379790940583</v>
+        <v>0.67099567099561397</v>
       </c>
       <c r="H41">
-        <v>2.7236352368079E-2</v>
+        <v>3.0940739404898901E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>5.7747031350753997E-143</v>
+        <v>2.75270932411086E-104</v>
       </c>
       <c r="J41">
-        <v>0.63999752122890596</v>
+        <v>0.61035293610697305</v>
       </c>
       <c r="K41">
-        <v>0.74676206065226003</v>
+        <v>0.73163840588425599</v>
       </c>
       <c r="L41">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -4389,22 +4390,22 @@
         <v>100</v>
       </c>
       <c r="G42">
-        <v>0.25489423203334</v>
+        <v>0.177972740091007</v>
       </c>
       <c r="H42">
-        <v>4.9954133940102799E-3</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
+        <v>4.7875265727983403E-3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.77873137430605E-302</v>
       </c>
       <c r="J42">
-        <v>0.245103401693191</v>
+        <v>0.16858936043329401</v>
       </c>
       <c r="K42">
-        <v>0.26468506237348899</v>
+        <v>0.18735611974871999</v>
       </c>
       <c r="L42">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4427,22 +4428,22 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <v>0.20264074821218001</v>
+        <v>0.14342965619082099</v>
       </c>
       <c r="H43">
-        <v>5.4434997294429896E-3</v>
+        <v>5.0906367303114103E-3</v>
       </c>
       <c r="I43" s="1">
-        <v>2.57331713978483E-303</v>
+        <v>1.1778096990820701E-174</v>
       </c>
       <c r="J43">
-        <v>0.191971684792618</v>
+        <v>0.13345219154103399</v>
       </c>
       <c r="K43">
-        <v>0.21330981163174101</v>
+        <v>0.15340712084060801</v>
       </c>
       <c r="L43">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4465,22 +4466,22 @@
         <v>10</v>
       </c>
       <c r="G44">
-        <v>0.38135175135671201</v>
+        <v>0.27178825048468203</v>
       </c>
       <c r="H44">
-        <v>1.0788684867922799E-2</v>
+        <v>1.13039685845136E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>1.0999388037909501E-273</v>
+        <v>9.7360567017965805E-128</v>
       </c>
       <c r="J44">
-        <v>0.36020631757503102</v>
+        <v>0.24963287917666299</v>
       </c>
       <c r="K44">
-        <v>0.402497185138393</v>
+        <v>0.293943621792701</v>
       </c>
       <c r="L44">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -4503,22 +4504,22 @@
         <v>15</v>
       </c>
       <c r="G45">
-        <v>0.46875000000506001</v>
+        <v>0.36956521739131198</v>
       </c>
       <c r="H45">
-        <v>4.4112208905540497E-2</v>
+        <v>5.0329852451508603E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>2.2483342756422099E-26</v>
+        <v>2.09072321829779E-13</v>
       </c>
       <c r="J45">
-        <v>0.38229165927169401</v>
+        <v>0.27092051923914001</v>
       </c>
       <c r="K45">
-        <v>0.55520834073842695</v>
+        <v>0.46820991554348401</v>
       </c>
       <c r="L45">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4541,22 +4542,22 @@
         <v>100</v>
       </c>
       <c r="G46">
-        <v>0.66666666666666197</v>
-      </c>
-      <c r="H46">
-        <v>0.648661172624449</v>
+        <v>0.99999999984162402</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7.2739176914353795E-5</v>
       </c>
       <c r="I46">
-        <v>0.30406370838083702</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>0.999857433674607</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4579,22 +4580,22 @@
         <v>100</v>
       </c>
       <c r="G47">
-        <v>0.38227197650932299</v>
+        <v>0.332622146362546</v>
       </c>
       <c r="H47">
-        <v>6.5830901163333299E-3</v>
+        <v>6.88204901945106E-3</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.36936935697432799</v>
+        <v>0.31913357814458299</v>
       </c>
       <c r="K47">
-        <v>0.39517459604431798</v>
+        <v>0.34611071458051001</v>
       </c>
       <c r="L47">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4617,22 +4618,22 @@
         <v>5</v>
       </c>
       <c r="G48">
-        <v>0.22107438016539299</v>
+        <v>0.20625342841463701</v>
       </c>
       <c r="H48">
-        <v>9.4312676808822795E-3</v>
+        <v>9.4766376161936894E-3</v>
       </c>
       <c r="I48" s="1">
-        <v>1.64928200400835E-121</v>
+        <v>5.0454737536414603E-105</v>
       </c>
       <c r="J48">
-        <v>0.20258943518230699</v>
+        <v>0.18767955999236</v>
       </c>
       <c r="K48">
-        <v>0.239559325148479</v>
+        <v>0.22482729683691399</v>
       </c>
       <c r="L48">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4655,22 +4656,22 @@
         <v>10</v>
       </c>
       <c r="G49">
-        <v>0.39115789473681201</v>
+        <v>0.333836858006059</v>
       </c>
       <c r="H49">
-        <v>1.0013991031875599E-2</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>1.0582305398246301E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.9897618901094699E-218</v>
       </c>
       <c r="J49">
-        <v>0.37153083297282902</v>
+        <v>0.31309592055209201</v>
       </c>
       <c r="K49">
-        <v>0.410784956500795</v>
+        <v>0.35457779546002499</v>
       </c>
       <c r="L49">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4693,22 +4694,22 @@
         <v>15</v>
       </c>
       <c r="G50">
-        <v>0.625000000000006</v>
+        <v>0.58068783068783303</v>
       </c>
       <c r="H50">
-        <v>1.5497955591662E-2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+        <v>1.79487058772833E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.27408689286278E-229</v>
       </c>
       <c r="J50">
-        <v>0.59462456520634699</v>
+        <v>0.54550901359925597</v>
       </c>
       <c r="K50">
-        <v>0.655375434793665</v>
+        <v>0.61586664777641098</v>
       </c>
       <c r="L50">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4731,22 +4732,22 @@
         <v>100</v>
       </c>
       <c r="G51">
-        <v>0.71604938271565599</v>
+        <v>0.66393442622946997</v>
       </c>
       <c r="H51">
-        <v>3.5451882697707597E-2</v>
+        <v>4.2802654585039998E-2</v>
       </c>
       <c r="I51" s="1">
-        <v>1.02395008381041E-90</v>
+        <v>2.8991282006107598E-54</v>
       </c>
       <c r="J51">
-        <v>0.64656496944401098</v>
+        <v>0.58004276480008399</v>
       </c>
       <c r="K51">
-        <v>0.785533795987302</v>
+        <v>0.74782608765885705</v>
       </c>
       <c r="L51">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -4769,22 +4770,22 @@
         <v>100</v>
       </c>
       <c r="G52">
-        <v>0.23341419681507</v>
+        <v>0.18529191173578699</v>
       </c>
       <c r="H52">
-        <v>2.5081854516422202E-3</v>
+        <v>2.4411231994920799E-3</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.22849824366330401</v>
+        <v>0.180507398182957</v>
       </c>
       <c r="K52">
-        <v>0.23833014996683699</v>
+        <v>0.19007642528861601</v>
       </c>
       <c r="L52">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4807,22 +4808,22 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>0.19227792195981699</v>
+        <v>0.151693595960255</v>
       </c>
       <c r="H53">
-        <v>2.65922693830155E-3</v>
+        <v>2.5449430975411601E-3</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.18706593293402801</v>
+        <v>0.14670559914637099</v>
       </c>
       <c r="K53">
-        <v>0.197489910985607</v>
+        <v>0.15668159277414001</v>
       </c>
       <c r="L53">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4845,22 +4846,22 @@
         <v>10</v>
       </c>
       <c r="G54">
-        <v>0.36178928395871901</v>
+        <v>0.29653302343629401</v>
       </c>
       <c r="H54">
-        <v>6.1510438942708702E-3</v>
+        <v>6.3565255719182298E-3</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.349733459458623</v>
+        <v>0.28407446224852601</v>
       </c>
       <c r="K54">
-        <v>0.37384510845881502</v>
+        <v>0.30899158462406101</v>
       </c>
       <c r="L54">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4883,22 +4884,22 @@
         <v>15</v>
       </c>
       <c r="G55">
-        <v>0.54594594587254197</v>
+        <v>0.486486486486502</v>
       </c>
       <c r="H55">
-        <v>2.5886385708807001E-2</v>
+        <v>2.90549020950992E-2</v>
       </c>
       <c r="I55" s="1">
-        <v>9.8095541153119094E-99</v>
+        <v>6.2953536959875999E-63</v>
       </c>
       <c r="J55">
-        <v>0.49520956219336798</v>
+        <v>0.42953992480577002</v>
       </c>
       <c r="K55">
-        <v>0.59668232955171696</v>
+        <v>0.54343304816723403</v>
       </c>
       <c r="L55">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4921,22 +4922,22 @@
         <v>100</v>
       </c>
       <c r="G56">
-        <v>0.85714285714274197</v>
-      </c>
-      <c r="H56">
-        <v>0.13509415741563199</v>
-      </c>
-      <c r="I56" s="1">
-        <v>2.2274192522867601E-10</v>
+        <v>0.99999999993898703</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4.0286478525795003E-6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.592363174086319</v>
+        <v>0.99999210393429006</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4959,22 +4960,22 @@
         <v>100</v>
       </c>
       <c r="G57">
-        <v>0.354357509034324</v>
+        <v>0.32017482024551303</v>
       </c>
       <c r="H57">
-        <v>3.1006301625025202E-3</v>
+        <v>3.19830861241303E-3</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.34828038558643998</v>
+        <v>0.313906250553739</v>
       </c>
       <c r="K57">
-        <v>0.36043463248220697</v>
+        <v>0.326443389937287</v>
       </c>
       <c r="L57">
-        <v>65301</v>
+        <v>57682</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4997,22 +4998,22 @@
         <v>5</v>
       </c>
       <c r="G58">
-        <v>0.22017132367940501</v>
+        <v>0.20331455805915499</v>
       </c>
       <c r="H58">
-        <v>4.1844615190959897E-3</v>
+        <v>4.1887637816190098E-3</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.21196992980728299</v>
+        <v>0.19510473190743599</v>
       </c>
       <c r="K58">
-        <v>0.22837271755152699</v>
+        <v>0.21152438421087399</v>
       </c>
       <c r="L58">
-        <v>39158</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5035,22 +5036,22 @@
         <v>10</v>
       </c>
       <c r="G59">
-        <v>0.37734901014977501</v>
+        <v>0.33941480206540697</v>
       </c>
       <c r="H59">
-        <v>4.8592719090206904E-3</v>
+        <v>5.0723426449196E-3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.36782501221700697</v>
+        <v>0.32947319316411799</v>
       </c>
       <c r="K59">
-        <v>0.38687300808254299</v>
+        <v>0.34935641096669601</v>
       </c>
       <c r="L59">
-        <v>20456</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5073,22 +5074,22 @@
         <v>15</v>
       </c>
       <c r="G60">
-        <v>0.60463121783877505</v>
+        <v>0.57356002775850101</v>
       </c>
       <c r="H60">
-        <v>8.26761503960129E-3</v>
+        <v>9.2135149831646702E-3</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.58842699012311495</v>
+        <v>0.55550187022047803</v>
       </c>
       <c r="K60">
-        <v>0.62083544555443604</v>
+        <v>0.59161818529652399</v>
       </c>
       <c r="L60">
-        <v>4972</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5111,22 +5112,22 @@
         <v>100</v>
       </c>
       <c r="G61">
-        <v>0.74401473296443998</v>
+        <v>0.72222222222175902</v>
       </c>
       <c r="H61">
-        <v>1.8741409638232901E-2</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
+        <v>2.1132648475633599E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>5.5607617914858802E-256</v>
       </c>
       <c r="J61">
-        <v>0.70728224505399095</v>
+        <v>0.68080299231157204</v>
       </c>
       <c r="K61">
-        <v>0.78074722087488801</v>
+        <v>0.76364145213194601</v>
       </c>
       <c r="L61">
-        <v>715</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -5476,15 +5477,15 @@
       </c>
       <c r="G7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 7)</f>
-        <v>0.37138115434253799</v>
+        <v>0.32145144076858001</v>
       </c>
       <c r="H7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 10)</f>
-        <v>0.35852132387009</v>
+        <v>0.30807793674614398</v>
       </c>
       <c r="I7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 11)</f>
-        <v>0.38424098481498598</v>
+        <v>0.33482494479101599</v>
       </c>
       <c r="J7">
         <f>VLOOKUP($A7,LTMLE!$A:$L, 9)</f>
@@ -5492,7 +5493,7 @@
       </c>
       <c r="L7" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G7, 3), " (", FIXED(temp!H7,3), " - ", FIXED(temp!I7,3),  ")", IF(AND(temp!J7 &lt;0.05, NOT(ISBLANK(temp!J7))), "*", " ") )</f>
-        <v>0.371 (0.359 - 0.384)*</v>
+        <v>0.321 (0.308 - 0.335)*</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>37</v>
@@ -5528,23 +5529,23 @@
       </c>
       <c r="G8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 7)</f>
-        <v>0.231024667931923</v>
+        <v>0.20306905370856701</v>
       </c>
       <c r="H8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 10)</f>
-        <v>0.21303166234844101</v>
+        <v>0.18523652150086301</v>
       </c>
       <c r="I8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 11)</f>
-        <v>0.24901767351540399</v>
+        <v>0.22090158591627099</v>
       </c>
       <c r="J8">
         <f>VLOOKUP($A8,LTMLE!$A:$L, 9)</f>
-        <v>9.6024356537959992E-140</v>
+        <v>2.4050136334884401E-110</v>
       </c>
       <c r="L8" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G8, 3), " (", FIXED(temp!H8,3), " - ", FIXED(temp!I8,3),  ")", IF(AND(temp!J8 &lt;0.05, NOT(ISBLANK(temp!J8))), "*", " ") )</f>
-        <v>0.231 (0.213 - 0.249)*</v>
+        <v>0.203 (0.185 - 0.221)*</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>38</v>
@@ -5580,23 +5581,23 @@
       </c>
       <c r="G9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 7)</f>
-        <v>0.38761776581424301</v>
+        <v>0.33439321674617301</v>
       </c>
       <c r="H9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 10)</f>
-        <v>0.36739144921869799</v>
+        <v>0.31310632699539898</v>
       </c>
       <c r="I9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 11)</f>
-        <v>0.40784408240978798</v>
+        <v>0.35568010649694798</v>
       </c>
       <c r="J9">
         <f>VLOOKUP($A9,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>3.6963357163557299E-208</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G9, 3), " (", FIXED(temp!H9,3), " - ", FIXED(temp!I9,3),  ")", IF(AND(temp!J9 &lt;0.05, NOT(ISBLANK(temp!J9))), "*", " ") )</f>
-        <v>0.388 (0.367 - 0.408)*</v>
+        <v>0.334 (0.313 - 0.356)*</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>11</v>
@@ -5632,23 +5633,23 @@
       </c>
       <c r="G10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 7)</f>
-        <v>0.59398496240601895</v>
+        <v>0.55281207113949804</v>
       </c>
       <c r="H10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 10)</f>
-        <v>0.562436680447718</v>
+        <v>0.51671499175325197</v>
       </c>
       <c r="I10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 11)</f>
-        <v>0.62553324436431901</v>
+        <v>0.588909150525745</v>
       </c>
       <c r="J10">
         <f>VLOOKUP($A10,LTMLE!$A:$L, 9)</f>
-        <v>4.3201160234144198E-298</v>
+        <v>6.0592188243311898E-198</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G10, 3), " (", FIXED(temp!H10,3), " - ", FIXED(temp!I10,3),  ")", IF(AND(temp!J10 &lt;0.05, NOT(ISBLANK(temp!J10))), "*", " ") )</f>
-        <v>0.594 (0.562 - 0.626)*</v>
+        <v>0.553 (0.517 - 0.589)*</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>37</v>
@@ -5684,23 +5685,23 @@
       </c>
       <c r="G11">
         <f>VLOOKUP($A11,LTMLE!$A:$L, 7)</f>
-        <v>0.70967741935451301</v>
+        <v>0.65789473684208299</v>
       </c>
       <c r="H11">
         <f>VLOOKUP($A11,LTMLE!$A:$L, 10)</f>
-        <v>0.63816901977688301</v>
+        <v>0.57073222005485302</v>
       </c>
       <c r="I11">
         <f>VLOOKUP($A11,LTMLE!$A:$L, 11)</f>
-        <v>0.78118581893214301</v>
+        <v>0.74505725362931197</v>
       </c>
       <c r="J11">
         <f>VLOOKUP($A11,LTMLE!$A:$L, 9)</f>
-        <v>2.8329592146445001E-84</v>
+        <v>1.6103067258616101E-49</v>
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G11, 3), " (", FIXED(temp!H11,3), " - ", FIXED(temp!I11,3),  ")", IF(AND(temp!J11 &lt;0.05, NOT(ISBLANK(temp!J11))), "*", " ") )</f>
-        <v>0.710 (0.638 - 0.781)*</v>
+        <v>0.658 (0.571 - 0.745)*</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>38</v>
@@ -5996,15 +5997,15 @@
       </c>
       <c r="G17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 7)</f>
-        <v>0.34642937598557699</v>
+        <v>0.31511221945129098</v>
       </c>
       <c r="H17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 10)</f>
-        <v>0.34016933092472601</v>
+        <v>0.30868183411730399</v>
       </c>
       <c r="I17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 11)</f>
-        <v>0.35268942104642897</v>
+        <v>0.32154260478527902</v>
       </c>
       <c r="J17">
         <f>VLOOKUP($A17,LTMLE!$A:$L, 9)</f>
@@ -6012,7 +6013,7 @@
       </c>
       <c r="L17" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G17, 3), " (", FIXED(temp!H17,3), " - ", FIXED(temp!I17,3),  ")", IF(AND(temp!J17 &lt;0.05, NOT(ISBLANK(temp!J17))), "*", " ") )</f>
-        <v>0.346 (0.340 - 0.353)*</v>
+        <v>0.315 (0.309 - 0.322)*</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>37</v>
@@ -6048,15 +6049,15 @@
       </c>
       <c r="G18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 7)</f>
-        <v>0.22667521641591501</v>
+        <v>0.21004773812258401</v>
       </c>
       <c r="H18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 10)</f>
-        <v>0.218191848436041</v>
+        <v>0.201535933842862</v>
       </c>
       <c r="I18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 11)</f>
-        <v>0.23515858439578899</v>
+        <v>0.21855954240230599</v>
       </c>
       <c r="J18">
         <f>VLOOKUP($A18,LTMLE!$A:$L, 9)</f>
@@ -6064,7 +6065,7 @@
       </c>
       <c r="L18" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G18, 3), " (", FIXED(temp!H18,3), " - ", FIXED(temp!I18,3),  ")", IF(AND(temp!J18 &lt;0.05, NOT(ISBLANK(temp!J18))), "*", " ") )</f>
-        <v>0.227 (0.218 - 0.235)*</v>
+        <v>0.210 (0.202 - 0.219)*</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>38</v>
@@ -6100,15 +6101,15 @@
       </c>
       <c r="G19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 7)</f>
-        <v>0.36291565734424702</v>
+        <v>0.329194837123642</v>
       </c>
       <c r="H19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 10)</f>
-        <v>0.35302627251497898</v>
+        <v>0.31898293863363802</v>
       </c>
       <c r="I19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 11)</f>
-        <v>0.37280504217351601</v>
+        <v>0.33940673561364598</v>
       </c>
       <c r="J19">
         <f>VLOOKUP($A19,LTMLE!$A:$L, 9)</f>
@@ -6116,7 +6117,7 @@
       </c>
       <c r="L19" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G19, 3), " (", FIXED(temp!H19,3), " - ", FIXED(temp!I19,3),  ")", IF(AND(temp!J19 &lt;0.05, NOT(ISBLANK(temp!J19))), "*", " ") )</f>
-        <v>0.363 (0.353 - 0.373)*</v>
+        <v>0.329 (0.319 - 0.339)*</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>22</v>
@@ -6152,15 +6153,15 @@
       </c>
       <c r="G20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 7)</f>
-        <v>0.58335910918652001</v>
+        <v>0.55199403635412303</v>
       </c>
       <c r="H20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 10)</f>
-        <v>0.56636345622331397</v>
+        <v>0.53317485237388196</v>
       </c>
       <c r="I20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 11)</f>
-        <v>0.60035476214972605</v>
+        <v>0.57081322033436399</v>
       </c>
       <c r="J20">
         <f>VLOOKUP($A20,LTMLE!$A:$L, 9)</f>
@@ -6168,7 +6169,7 @@
       </c>
       <c r="L20" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G20, 3), " (", FIXED(temp!H20,3), " - ", FIXED(temp!I20,3),  ")", IF(AND(temp!J20 &lt;0.05, NOT(ISBLANK(temp!J20))), "*", " ") )</f>
-        <v>0.583 (0.566 - 0.600)*</v>
+        <v>0.552 (0.533 - 0.571)*</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>19</v>
@@ -6204,23 +6205,23 @@
       </c>
       <c r="G21">
         <f>VLOOKUP($A21,LTMLE!$A:$L, 7)</f>
-        <v>0.73804971319255697</v>
+        <v>0.71658986175074602</v>
       </c>
       <c r="H21">
         <f>VLOOKUP($A21,LTMLE!$A:$L, 10)</f>
-        <v>0.70033998441448098</v>
+        <v>0.67415505194165704</v>
       </c>
       <c r="I21">
         <f>VLOOKUP($A21,LTMLE!$A:$L, 11)</f>
-        <v>0.77575944197063196</v>
+        <v>0.759024671559834</v>
       </c>
       <c r="J21">
         <f>VLOOKUP($A21,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>3.2178971141747298E-240</v>
       </c>
       <c r="L21" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G21, 3), " (", FIXED(temp!H21,3), " - ", FIXED(temp!I21,3),  ")", IF(AND(temp!J21 &lt;0.05, NOT(ISBLANK(temp!J21))), "*", " ") )</f>
-        <v>0.738 (0.700 - 0.776)*</v>
+        <v>0.717 (0.674 - 0.759)*</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>37</v>
@@ -6516,15 +6517,15 @@
       </c>
       <c r="G27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 7)</f>
-        <v>0.263061411549813</v>
+        <v>0.18621769772910099</v>
       </c>
       <c r="H27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 10)</f>
-        <v>0.25318647660475901</v>
+        <v>0.176669179056436</v>
       </c>
       <c r="I27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 11)</f>
-        <v>0.27293634649486698</v>
+        <v>0.195766216401766</v>
       </c>
       <c r="J27">
         <f>VLOOKUP($A27,LTMLE!$A:$L, 9)</f>
@@ -6532,7 +6533,7 @@
       </c>
       <c r="L27" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G27, 3), " (", FIXED(temp!H27,3), " - ", FIXED(temp!I27,3),  ")", IF(AND(temp!J27 &lt;0.05, NOT(ISBLANK(temp!J27))), "*", " ") )</f>
-        <v>0.263 (0.253 - 0.273)*</v>
+        <v>0.186 (0.177 - 0.196)*</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>19</v>
@@ -6568,23 +6569,23 @@
       </c>
       <c r="G28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 7)</f>
-        <v>0.19806854762380099</v>
+        <v>0.14298112388808101</v>
       </c>
       <c r="H28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 10)</f>
-        <v>0.18731945178989501</v>
+        <v>0.132874982437301</v>
       </c>
       <c r="I28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 11)</f>
-        <v>0.20881764345770701</v>
+        <v>0.15308726533886099</v>
       </c>
       <c r="J28">
         <f>VLOOKUP($A28,LTMLE!$A:$L, 9)</f>
-        <v>1.30302637155767E-285</v>
+        <v>3.0826796970518002E-169</v>
       </c>
       <c r="L28" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G28, 3), " (", FIXED(temp!H28,3), " - ", FIXED(temp!I28,3),  ")", IF(AND(temp!J28 &lt;0.05, NOT(ISBLANK(temp!J28))), "*", " ") )</f>
-        <v>0.198 (0.187 - 0.209)*</v>
+        <v>0.143 (0.133 - 0.153)*</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>37</v>
@@ -6620,23 +6621,23 @@
       </c>
       <c r="G29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 7)</f>
-        <v>0.38564196962722502</v>
+        <v>0.27487864077711199</v>
       </c>
       <c r="H29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 10)</f>
-        <v>0.36517602667134003</v>
+        <v>0.25332315550726298</v>
       </c>
       <c r="I29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 11)</f>
-        <v>0.40610791258311002</v>
+        <v>0.29643412604696001</v>
       </c>
       <c r="J29">
         <f>VLOOKUP($A29,LTMLE!$A:$L, 9)</f>
-        <v>1.42670504055995E-298</v>
+        <v>7.1503670855277799E-138</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G29, 3), " (", FIXED(temp!H29,3), " - ", FIXED(temp!I29,3),  ")", IF(AND(temp!J29 &lt;0.05, NOT(ISBLANK(temp!J29))), "*", " ") )</f>
-        <v>0.386 (0.365 - 0.406)*</v>
+        <v>0.275 (0.253 - 0.296)*</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>38</v>
@@ -6672,23 +6673,23 @@
       </c>
       <c r="G30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 7)</f>
-        <v>0.67630057803459798</v>
+        <v>0.58823529411764397</v>
       </c>
       <c r="H30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 10)</f>
-        <v>0.60657220071304896</v>
+        <v>0.49979938354018599</v>
       </c>
       <c r="I30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 11)</f>
-        <v>0.74602895535614699</v>
+        <v>0.676671204695103</v>
       </c>
       <c r="J30">
         <f>VLOOKUP($A30,LTMLE!$A:$L, 9)</f>
-        <v>1.41403164234582E-80</v>
+        <v>7.5576882218843103E-39</v>
       </c>
       <c r="L30" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G30, 3), " (", FIXED(temp!H30,3), " - ", FIXED(temp!I30,3),  ")", IF(AND(temp!J30 &lt;0.05, NOT(ISBLANK(temp!J30))), "*", " ") )</f>
-        <v>0.676 (0.607 - 0.746)*</v>
+        <v>0.588 (0.500 - 0.677)*</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>11</v>
@@ -6724,11 +6725,11 @@
       </c>
       <c r="G31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 7)</f>
-        <v>0.79999999999999605</v>
+        <v>0.77777777777768098</v>
       </c>
       <c r="H31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 10)</f>
-        <v>0.55190843581349103</v>
+        <v>0.50593089503345001</v>
       </c>
       <c r="I31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 11)</f>
@@ -6736,11 +6737,11 @@
       </c>
       <c r="J31">
         <f>VLOOKUP($A31,LTMLE!$A:$L, 9)</f>
-        <v>2.6134164840616602E-10</v>
+        <v>2.0511725611566E-8</v>
       </c>
       <c r="L31" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G31, 3), " (", FIXED(temp!H31,3), " - ", FIXED(temp!I31,3),  ")", IF(AND(temp!J31 &lt;0.05, NOT(ISBLANK(temp!J31))), "*", " ") )</f>
-        <v>0.800 (0.552 - 1.000)*</v>
+        <v>0.778 (0.506 - 1.000)*</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>37</v>
@@ -7036,15 +7037,15 @@
       </c>
       <c r="G37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 7)</f>
-        <v>0.245723224390129</v>
+        <v>0.19535426549205301</v>
       </c>
       <c r="H37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 10)</f>
-        <v>0.240855269382168</v>
+        <v>0.190586276157199</v>
       </c>
       <c r="I37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 11)</f>
-        <v>0.250591179398091</v>
+        <v>0.20012225482690801</v>
       </c>
       <c r="J37">
         <f>VLOOKUP($A37,LTMLE!$A:$L, 9)</f>
@@ -7052,7 +7053,7 @@
       </c>
       <c r="L37" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G37, 3), " (", FIXED(temp!H37,3), " - ", FIXED(temp!I37,3),  ")", IF(AND(temp!J37 &lt;0.05, NOT(ISBLANK(temp!J37))), "*", " ") )</f>
-        <v>0.246 (0.241 - 0.251)*</v>
+        <v>0.195 (0.191 - 0.200)*</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>11</v>
@@ -7088,15 +7089,15 @@
       </c>
       <c r="G38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 7)</f>
-        <v>0.19012136355524101</v>
+        <v>0.14987932817831201</v>
       </c>
       <c r="H38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 10)</f>
-        <v>0.18498401820726501</v>
+        <v>0.144969285923744</v>
       </c>
       <c r="I38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 11)</f>
-        <v>0.195258708903218</v>
+        <v>0.15478937043287999</v>
       </c>
       <c r="J38">
         <f>VLOOKUP($A38,LTMLE!$A:$L, 9)</f>
@@ -7104,7 +7105,7 @@
       </c>
       <c r="L38" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G38, 3), " (", FIXED(temp!H38,3), " - ", FIXED(temp!I38,3),  ")", IF(AND(temp!J38 &lt;0.05, NOT(ISBLANK(temp!J38))), "*", " ") )</f>
-        <v>0.190 (0.185 - 0.195)*</v>
+        <v>0.150 (0.145 - 0.155)*</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>37</v>
@@ -7140,15 +7141,15 @@
       </c>
       <c r="G39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 7)</f>
-        <v>0.382530120481894</v>
+        <v>0.31534041441771399</v>
       </c>
       <c r="H39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 10)</f>
-        <v>0.37112182597974802</v>
+        <v>0.30332279857665201</v>
       </c>
       <c r="I39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 11)</f>
-        <v>0.39393841498404097</v>
+        <v>0.32735803025877502</v>
       </c>
       <c r="J39">
         <f>VLOOKUP($A39,LTMLE!$A:$L, 9)</f>
@@ -7156,7 +7157,7 @@
       </c>
       <c r="L39" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G39, 3), " (", FIXED(temp!H39,3), " - ", FIXED(temp!I39,3),  ")", IF(AND(temp!J39 &lt;0.05, NOT(ISBLANK(temp!J39))), "*", " ") )</f>
-        <v>0.383 (0.371 - 0.394)*</v>
+        <v>0.315 (0.303 - 0.327)*</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>38</v>
@@ -7192,23 +7193,23 @@
       </c>
       <c r="G40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 7)</f>
-        <v>0.67874015748021599</v>
+        <v>0.63838383838383195</v>
       </c>
       <c r="H40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 10)</f>
-        <v>0.64241689071424002</v>
+        <v>0.59605227653367199</v>
       </c>
       <c r="I40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 11)</f>
-        <v>0.71506342424619196</v>
+        <v>0.68071540023399102</v>
       </c>
       <c r="J40">
         <f>VLOOKUP($A40,LTMLE!$A:$L, 9)</f>
-        <v>1.18357193566411E-293</v>
+        <v>5.2815750784399501E-192</v>
       </c>
       <c r="L40" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G40, 3), " (", FIXED(temp!H40,3), " - ", FIXED(temp!I40,3),  ")", IF(AND(temp!J40 &lt;0.05, NOT(ISBLANK(temp!J40))), "*", " ") )</f>
-        <v>0.679 (0.642 - 0.715)*</v>
+        <v>0.638 (0.596 - 0.681)*</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>41</v>
@@ -7244,11 +7245,11 @@
       </c>
       <c r="G41">
         <f>VLOOKUP($A41,LTMLE!$A:$L, 7)</f>
-        <v>0.88888888869718297</v>
+        <v>0.90476190476187801</v>
       </c>
       <c r="H41">
         <f>VLOOKUP($A41,LTMLE!$A:$L, 10)</f>
-        <v>0.77026487766512697</v>
+        <v>0.77910482825617799</v>
       </c>
       <c r="I41">
         <f>VLOOKUP($A41,LTMLE!$A:$L, 11)</f>
@@ -7256,11 +7257,11 @@
       </c>
       <c r="J41">
         <f>VLOOKUP($A41,LTMLE!$A:$L, 9)</f>
-        <v>7.8491291280456599E-49</v>
+        <v>3.1934784751403901E-45</v>
       </c>
       <c r="L41" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G41, 3), " (", FIXED(temp!H41,3), " - ", FIXED(temp!I41,3),  ")", IF(AND(temp!J41 &lt;0.05, NOT(ISBLANK(temp!J41))), "*", " ") )</f>
-        <v>0.889 (0.770 - 1.000)*</v>
+        <v>0.905 (0.779 - 1.000)*</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>19</v>
@@ -7556,23 +7557,23 @@
       </c>
       <c r="G47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 7)</f>
-        <v>0.44154370072270799</v>
+        <v>0.32217898832677899</v>
       </c>
       <c r="H47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 10)</f>
-        <v>0.41835748308965798</v>
+        <v>0.29662807597596003</v>
       </c>
       <c r="I47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 11)</f>
-        <v>0.464729918355759</v>
+        <v>0.34772990067759801</v>
       </c>
       <c r="J47">
         <f>VLOOKUP($A47,LTMLE!$A:$L, 9)</f>
-        <v>6.6190909164391803E-305</v>
+        <v>7.6075692941535097E-135</v>
       </c>
       <c r="L47" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G47, 3), " (", FIXED(temp!H47,3), " - ", FIXED(temp!I47,3),  ")", IF(AND(temp!J47 &lt;0.05, NOT(ISBLANK(temp!J47))), "*", " ") )</f>
-        <v>0.442 (0.418 - 0.465)*</v>
+        <v>0.322 (0.297 - 0.348)*</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>43</v>
@@ -7608,23 +7609,23 @@
       </c>
       <c r="G48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 7)</f>
-        <v>0.28110599078375698</v>
+        <v>0.16811594227662399</v>
       </c>
       <c r="H48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 10)</f>
-        <v>0.238812234867462</v>
+        <v>0.12732182622025601</v>
       </c>
       <c r="I48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 11)</f>
-        <v>0.32339974670005101</v>
+        <v>0.20891005833299101</v>
       </c>
       <c r="J48">
         <f>VLOOKUP($A48,LTMLE!$A:$L, 9)</f>
-        <v>8.6003537453470002E-39</v>
+        <v>6.6284687366342398E-16</v>
       </c>
       <c r="L48" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G48, 3), " (", FIXED(temp!H48,3), " - ", FIXED(temp!I48,3),  ")", IF(AND(temp!J48 &lt;0.05, NOT(ISBLANK(temp!J48))), "*", " ") )</f>
-        <v>0.281 (0.239 - 0.323)*</v>
+        <v>0.168 (0.127 - 0.209)*</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -7654,23 +7655,23 @@
       </c>
       <c r="G49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 7)</f>
-        <v>0.43541202747528601</v>
+        <v>0.30126182965329801</v>
       </c>
       <c r="H49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 10)</f>
-        <v>0.40298280321951602</v>
+        <v>0.26554727642345699</v>
       </c>
       <c r="I49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 11)</f>
-        <v>0.46784125173105501</v>
+        <v>0.33697638288313903</v>
       </c>
       <c r="J49">
         <f>VLOOKUP($A49,LTMLE!$A:$L, 9)</f>
-        <v>1.27411837118882E-152</v>
+        <v>2.12938142697507E-61</v>
       </c>
       <c r="L49" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G49, 3), " (", FIXED(temp!H49,3), " - ", FIXED(temp!I49,3),  ")", IF(AND(temp!J49 &lt;0.05, NOT(ISBLANK(temp!J49))), "*", " ") )</f>
-        <v>0.435 (0.403 - 0.468)*</v>
+        <v>0.301 (0.266 - 0.337)*</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -7700,23 +7701,23 @@
       </c>
       <c r="G50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 7)</f>
-        <v>0.60059171597632699</v>
+        <v>0.518828451882695</v>
       </c>
       <c r="H50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 10)</f>
-        <v>0.54837234666833901</v>
+        <v>0.45547577862653998</v>
       </c>
       <c r="I50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 11)</f>
-        <v>0.65281108528431497</v>
+        <v>0.58218112513885001</v>
       </c>
       <c r="J50">
         <f>VLOOKUP($A50,LTMLE!$A:$L, 9)</f>
-        <v>1.6025213538914399E-112</v>
+        <v>5.6088652886523903E-58</v>
       </c>
       <c r="L50" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G50, 3), " (", FIXED(temp!H50,3), " - ", FIXED(temp!I50,3),  ")", IF(AND(temp!J50 &lt;0.05, NOT(ISBLANK(temp!J50))), "*", " ") )</f>
-        <v>0.601 (0.548 - 0.653)*</v>
+        <v>0.519 (0.455 - 0.582)*</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -7746,23 +7747,23 @@
       </c>
       <c r="G51">
         <f>VLOOKUP($A51,LTMLE!$A:$L, 7)</f>
-        <v>0.67391304347819703</v>
+        <v>0.61194029850738296</v>
       </c>
       <c r="H51">
         <f>VLOOKUP($A51,LTMLE!$A:$L, 10)</f>
-        <v>0.57805540240423403</v>
+        <v>0.49515437429034798</v>
       </c>
       <c r="I51">
         <f>VLOOKUP($A51,LTMLE!$A:$L, 11)</f>
-        <v>0.76977068455216002</v>
+        <v>0.728726222724419</v>
       </c>
       <c r="J51">
         <f>VLOOKUP($A51,LTMLE!$A:$L, 9)</f>
-        <v>3.3983813634472799E-43</v>
+        <v>9.6294325772434206E-25</v>
       </c>
       <c r="L51" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G51, 3), " (", FIXED(temp!H51,3), " - ", FIXED(temp!I51,3),  ")", IF(AND(temp!J51 &lt;0.05, NOT(ISBLANK(temp!J51))), "*", " ") )</f>
-        <v>0.674 (0.578 - 0.770)*</v>
+        <v>0.612 (0.495 - 0.729)*</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -8022,15 +8023,15 @@
       </c>
       <c r="G57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 7)</f>
-        <v>0.45878656034430298</v>
+        <v>0.40034812880775</v>
       </c>
       <c r="H57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 10)</f>
-        <v>0.443602137615006</v>
+        <v>0.38399127726358701</v>
       </c>
       <c r="I57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 11)</f>
-        <v>0.47397098307360103</v>
+        <v>0.416704980351913</v>
       </c>
       <c r="J57">
         <f>VLOOKUP($A57,LTMLE!$A:$L, 9)</f>
@@ -8038,7 +8039,7 @@
       </c>
       <c r="L57" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G57, 3), " (", FIXED(temp!H57,3), " - ", FIXED(temp!I57,3),  ")", IF(AND(temp!J57 &lt;0.05, NOT(ISBLANK(temp!J57))), "*", " ") )</f>
-        <v>0.459 (0.444 - 0.474)*</v>
+        <v>0.400 (0.384 - 0.417)*</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -8068,23 +8069,23 @@
       </c>
       <c r="G58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 7)</f>
-        <v>0.28557312253010297</v>
+        <v>0.23905723905757401</v>
       </c>
       <c r="H58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 10)</f>
-        <v>0.25774390870004499</v>
+        <v>0.211051807320324</v>
       </c>
       <c r="I58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 11)</f>
-        <v>0.31340233636016201</v>
+        <v>0.26706267079482299</v>
       </c>
       <c r="J58">
         <f>VLOOKUP($A58,LTMLE!$A:$L, 9)</f>
-        <v>5.7443091946002702E-90</v>
+        <v>7.8637002587142704E-63</v>
       </c>
       <c r="L58" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G58, 3), " (", FIXED(temp!H58,3), " - ", FIXED(temp!I58,3),  ")", IF(AND(temp!J58 &lt;0.05, NOT(ISBLANK(temp!J58))), "*", " ") )</f>
-        <v>0.286 (0.258 - 0.313)*</v>
+        <v>0.239 (0.211 - 0.267)*</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -8114,23 +8115,23 @@
       </c>
       <c r="G59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 7)</f>
-        <v>0.44621295301601799</v>
+        <v>0.37792642140465998</v>
       </c>
       <c r="H59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 10)</f>
-        <v>0.42338710068926599</v>
+        <v>0.35334740668154901</v>
       </c>
       <c r="I59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 11)</f>
-        <v>0.46903880534277098</v>
+        <v>0.40250543612777001</v>
       </c>
       <c r="J59">
         <f>VLOOKUP($A59,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.6185723595992901E-199</v>
       </c>
       <c r="L59" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G59, 3), " (", FIXED(temp!H59,3), " - ", FIXED(temp!I59,3),  ")", IF(AND(temp!J59 &lt;0.05, NOT(ISBLANK(temp!J59))), "*", " ") )</f>
-        <v>0.446 (0.423 - 0.469)*</v>
+        <v>0.378 (0.353 - 0.403)*</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -8160,23 +8161,23 @@
       </c>
       <c r="G60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 7)</f>
-        <v>0.58759842519685601</v>
+        <v>0.538554216845476</v>
       </c>
       <c r="H60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 10)</f>
-        <v>0.55732612757116196</v>
+        <v>0.50463560703565302</v>
       </c>
       <c r="I60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 11)</f>
-        <v>0.61787072282255096</v>
+        <v>0.57247282665529997</v>
       </c>
       <c r="J60">
         <f>VLOOKUP($A60,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.2922881161660801E-212</v>
       </c>
       <c r="L60" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G60, 3), " (", FIXED(temp!H60,3), " - ", FIXED(temp!I60,3),  ")", IF(AND(temp!J60 &lt;0.05, NOT(ISBLANK(temp!J60))), "*", " ") )</f>
-        <v>0.588 (0.557 - 0.618)*</v>
+        <v>0.539 (0.505 - 0.572)*</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -8206,23 +8207,23 @@
       </c>
       <c r="G61">
         <f>VLOOKUP($A61,LTMLE!$A:$L, 7)</f>
-        <v>0.693379790940583</v>
+        <v>0.67099567099561397</v>
       </c>
       <c r="H61">
         <f>VLOOKUP($A61,LTMLE!$A:$L, 10)</f>
-        <v>0.63999752122890596</v>
+        <v>0.61035293610697305</v>
       </c>
       <c r="I61">
         <f>VLOOKUP($A61,LTMLE!$A:$L, 11)</f>
-        <v>0.74676206065226003</v>
+        <v>0.73163840588425599</v>
       </c>
       <c r="J61">
         <f>VLOOKUP($A61,LTMLE!$A:$L, 9)</f>
-        <v>5.7747031350753997E-143</v>
+        <v>2.75270932411086E-104</v>
       </c>
       <c r="L61" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G61, 3), " (", FIXED(temp!H61,3), " - ", FIXED(temp!I61,3),  ")", IF(AND(temp!J61 &lt;0.05, NOT(ISBLANK(temp!J61))), "*", " ") )</f>
-        <v>0.693 (0.640 - 0.747)*</v>
+        <v>0.671 (0.610 - 0.732)*</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -8482,15 +8483,15 @@
       </c>
       <c r="G67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 7)</f>
-        <v>0.28721897681020497</v>
+        <v>0.23311190597911</v>
       </c>
       <c r="H67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 10)</f>
-        <v>0.27887572673796401</v>
+        <v>0.224734305103163</v>
       </c>
       <c r="I67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 11)</f>
-        <v>0.29556222688244599</v>
+        <v>0.24148950685505699</v>
       </c>
       <c r="J67">
         <f>VLOOKUP($A67,LTMLE!$A:$L, 9)</f>
@@ -8498,7 +8499,7 @@
       </c>
       <c r="L67" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G67, 3), " (", FIXED(temp!H67,3), " - ", FIXED(temp!I67,3),  ")", IF(AND(temp!J67 &lt;0.05, NOT(ISBLANK(temp!J67))), "*", " ") )</f>
-        <v>0.287 (0.279 - 0.296)*</v>
+        <v>0.233 (0.225 - 0.241)*</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -8528,23 +8529,23 @@
       </c>
       <c r="G68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 7)</f>
-        <v>0.20287562904379799</v>
+        <v>0.160475960765949</v>
       </c>
       <c r="H68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 10)</f>
-        <v>0.19342451393388399</v>
+        <v>0.151353427375331</v>
       </c>
       <c r="I68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 11)</f>
-        <v>0.212326744153712</v>
+        <v>0.169598494156567</v>
       </c>
       <c r="J68">
         <f>VLOOKUP($A68,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.7115977608198101E-260</v>
       </c>
       <c r="L68" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G68, 3), " (", FIXED(temp!H68,3), " - ", FIXED(temp!I68,3),  ")", IF(AND(temp!J68 &lt;0.05, NOT(ISBLANK(temp!J68))), "*", " ") )</f>
-        <v>0.203 (0.193 - 0.212)*</v>
+        <v>0.160 (0.151 - 0.170)*</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -8574,23 +8575,23 @@
       </c>
       <c r="G69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 7)</f>
-        <v>0.37414383561644698</v>
+        <v>0.30782488796991903</v>
       </c>
       <c r="H69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 10)</f>
-        <v>0.35812122708391397</v>
+        <v>0.29102731438537899</v>
       </c>
       <c r="I69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 11)</f>
-        <v>0.390166444148979</v>
+        <v>0.32462246155446001</v>
       </c>
       <c r="J69">
         <f>VLOOKUP($A69,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.6327661329371899E-282</v>
       </c>
       <c r="L69" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G69, 3), " (", FIXED(temp!H69,3), " - ", FIXED(temp!I69,3),  ")", IF(AND(temp!J69 &lt;0.05, NOT(ISBLANK(temp!J69))), "*", " ") )</f>
-        <v>0.374 (0.358 - 0.390)*</v>
+        <v>0.308 (0.291 - 0.325)*</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -8620,23 +8621,23 @@
       </c>
       <c r="G70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 7)</f>
-        <v>0.60966057441253796</v>
+        <v>0.57307060755336703</v>
       </c>
       <c r="H70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 10)</f>
-        <v>0.57511100418444805</v>
+        <v>0.53378119978795602</v>
       </c>
       <c r="I70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 11)</f>
-        <v>0.64421014464062898</v>
+        <v>0.61236001531877804</v>
       </c>
       <c r="J70">
         <f>VLOOKUP($A70,LTMLE!$A:$L, 9)</f>
-        <v>4.1796361144807801E-262</v>
+        <v>9.5272527524488795E-180</v>
       </c>
       <c r="L70" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G70, 3), " (", FIXED(temp!H70,3), " - ", FIXED(temp!I70,3),  ")", IF(AND(temp!J70 &lt;0.05, NOT(ISBLANK(temp!J70))), "*", " ") )</f>
-        <v>0.610 (0.575 - 0.644)*</v>
+        <v>0.573 (0.534 - 0.612)*</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -8666,23 +8667,23 @@
       </c>
       <c r="G71">
         <f>VLOOKUP($A71,LTMLE!$A:$L, 7)</f>
-        <v>0.76712328767087901</v>
+        <v>0.73214285714237604</v>
       </c>
       <c r="H71">
         <f>VLOOKUP($A71,LTMLE!$A:$L, 10)</f>
-        <v>0.67009772059354</v>
+        <v>0.61605691752591496</v>
       </c>
       <c r="I71">
         <f>VLOOKUP($A71,LTMLE!$A:$L, 11)</f>
-        <v>0.86414885474821801</v>
+        <v>0.848228796758836</v>
       </c>
       <c r="J71">
         <f>VLOOKUP($A71,LTMLE!$A:$L, 9)</f>
-        <v>3.6764575341355997E-54</v>
+        <v>4.2323294050268402E-35</v>
       </c>
       <c r="L71" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G71, 3), " (", FIXED(temp!H71,3), " - ", FIXED(temp!I71,3),  ")", IF(AND(temp!J71 &lt;0.05, NOT(ISBLANK(temp!J71))), "*", " ") )</f>
-        <v>0.767 (0.670 - 0.864)*</v>
+        <v>0.732 (0.616 - 0.848)*</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -8942,15 +8943,15 @@
       </c>
       <c r="G77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 7)</f>
-        <v>0.27386495925531001</v>
+        <v>0.23461137495706699</v>
       </c>
       <c r="H77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 10)</f>
-        <v>0.26987987275631697</v>
+        <v>0.23061375488393401</v>
       </c>
       <c r="I77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 11)</f>
-        <v>0.277850045754303</v>
+        <v>0.2386089950302</v>
       </c>
       <c r="J77">
         <f>VLOOKUP($A77,LTMLE!$A:$L, 9)</f>
@@ -8958,7 +8959,7 @@
       </c>
       <c r="L77" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G77, 3), " (", FIXED(temp!H77,3), " - ", FIXED(temp!I77,3),  ")", IF(AND(temp!J77 &lt;0.05, NOT(ISBLANK(temp!J77))), "*", " ") )</f>
-        <v>0.274 (0.270 - 0.278)*</v>
+        <v>0.235 (0.231 - 0.239)*</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -8988,15 +8989,15 @@
       </c>
       <c r="G78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 7)</f>
-        <v>0.19810124524514</v>
+        <v>0.165827720716161</v>
       </c>
       <c r="H78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 10)</f>
-        <v>0.19364688823190199</v>
+        <v>0.16148752734826799</v>
       </c>
       <c r="I78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 11)</f>
-        <v>0.20255560225837799</v>
+        <v>0.17016791408405399</v>
       </c>
       <c r="J78">
         <f>VLOOKUP($A78,LTMLE!$A:$L, 9)</f>
@@ -9004,7 +9005,7 @@
       </c>
       <c r="L78" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G78, 3), " (", FIXED(temp!H78,3), " - ", FIXED(temp!I78,3),  ")", IF(AND(temp!J78 &lt;0.05, NOT(ISBLANK(temp!J78))), "*", " ") )</f>
-        <v>0.198 (0.194 - 0.203)*</v>
+        <v>0.166 (0.161 - 0.170)*</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -9034,15 +9035,15 @@
       </c>
       <c r="G79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 7)</f>
-        <v>0.36186059584035102</v>
+        <v>0.31688605346047999</v>
       </c>
       <c r="H79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 10)</f>
-        <v>0.35396555888256298</v>
+        <v>0.30869111372095698</v>
       </c>
       <c r="I79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 11)</f>
-        <v>0.369755632798139</v>
+        <v>0.325080993200003</v>
       </c>
       <c r="J79">
         <f>VLOOKUP($A79,LTMLE!$A:$L, 9)</f>
@@ -9050,7 +9051,7 @@
       </c>
       <c r="L79" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G79, 3), " (", FIXED(temp!H79,3), " - ", FIXED(temp!I79,3),  ")", IF(AND(temp!J79 &lt;0.05, NOT(ISBLANK(temp!J79))), "*", " ") )</f>
-        <v>0.362 (0.354 - 0.370)*</v>
+        <v>0.317 (0.309 - 0.325)*</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -9080,15 +9081,15 @@
       </c>
       <c r="G80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 7)</f>
-        <v>0.60308555399720698</v>
+        <v>0.57495741056217498</v>
       </c>
       <c r="H80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 10)</f>
-        <v>0.58512767981095204</v>
+        <v>0.55495938818656498</v>
       </c>
       <c r="I80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 11)</f>
-        <v>0.62104342818346103</v>
+        <v>0.59495543293778597</v>
       </c>
       <c r="J80">
         <f>VLOOKUP($A80,LTMLE!$A:$L, 9)</f>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="L80" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G80, 3), " (", FIXED(temp!H80,3), " - ", FIXED(temp!I80,3),  ")", IF(AND(temp!J80 &lt;0.05, NOT(ISBLANK(temp!J80))), "*", " ") )</f>
-        <v>0.603 (0.585 - 0.621)*</v>
+        <v>0.575 (0.555 - 0.595)*</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -9126,23 +9127,23 @@
       </c>
       <c r="G81">
         <f>VLOOKUP($A81,LTMLE!$A:$L, 7)</f>
-        <v>0.80228136882127199</v>
+        <v>0.78124999999976397</v>
       </c>
       <c r="H81">
         <f>VLOOKUP($A81,LTMLE!$A:$L, 10)</f>
-        <v>0.75411307284737505</v>
+        <v>0.72706623980540996</v>
       </c>
       <c r="I81">
         <f>VLOOKUP($A81,LTMLE!$A:$L, 11)</f>
-        <v>0.85044966479516904</v>
+        <v>0.83543376019411697</v>
       </c>
       <c r="J81">
         <f>VLOOKUP($A81,LTMLE!$A:$L, 9)</f>
-        <v>9.5089761965466099E-234</v>
+        <v>1.0789119837098701E-175</v>
       </c>
       <c r="L81" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G81, 3), " (", FIXED(temp!H81,3), " - ", FIXED(temp!I81,3),  ")", IF(AND(temp!J81 &lt;0.05, NOT(ISBLANK(temp!J81))), "*", " ") )</f>
-        <v>0.802 (0.754 - 0.850)*</v>
+        <v>0.781 (0.727 - 0.835)*</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -9402,15 +9403,15 @@
       </c>
       <c r="G87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 7)</f>
-        <v>0.38227197650932299</v>
+        <v>0.332622146362546</v>
       </c>
       <c r="H87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 10)</f>
-        <v>0.36936935697432799</v>
+        <v>0.31913357814458299</v>
       </c>
       <c r="I87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 11)</f>
-        <v>0.39517459604431798</v>
+        <v>0.34611071458051001</v>
       </c>
       <c r="J87">
         <f>VLOOKUP($A87,LTMLE!$A:$L, 9)</f>
@@ -9418,7 +9419,7 @@
       </c>
       <c r="L87" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G87, 3), " (", FIXED(temp!H87,3), " - ", FIXED(temp!I87,3),  ")", IF(AND(temp!J87 &lt;0.05, NOT(ISBLANK(temp!J87))), "*", " ") )</f>
-        <v>0.382 (0.369 - 0.395)*</v>
+        <v>0.333 (0.319 - 0.346)*</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -9448,23 +9449,23 @@
       </c>
       <c r="G88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 7)</f>
-        <v>0.22107438016539299</v>
+        <v>0.20625342841463701</v>
       </c>
       <c r="H88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 10)</f>
-        <v>0.20258943518230699</v>
+        <v>0.18767955999236</v>
       </c>
       <c r="I88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 11)</f>
-        <v>0.239559325148479</v>
+        <v>0.22482729683691399</v>
       </c>
       <c r="J88">
         <f>VLOOKUP($A88,LTMLE!$A:$L, 9)</f>
-        <v>1.64928200400835E-121</v>
+        <v>5.0454737536414603E-105</v>
       </c>
       <c r="L88" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G88, 3), " (", FIXED(temp!H88,3), " - ", FIXED(temp!I88,3),  ")", IF(AND(temp!J88 &lt;0.05, NOT(ISBLANK(temp!J88))), "*", " ") )</f>
-        <v>0.221 (0.203 - 0.240)*</v>
+        <v>0.206 (0.188 - 0.225)*</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -9494,23 +9495,23 @@
       </c>
       <c r="G89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 7)</f>
-        <v>0.39115789473681201</v>
+        <v>0.333836858006059</v>
       </c>
       <c r="H89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 10)</f>
-        <v>0.37153083297282902</v>
+        <v>0.31309592055209201</v>
       </c>
       <c r="I89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 11)</f>
-        <v>0.410784956500795</v>
+        <v>0.35457779546002499</v>
       </c>
       <c r="J89">
         <f>VLOOKUP($A89,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.9897618901094699E-218</v>
       </c>
       <c r="L89" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G89, 3), " (", FIXED(temp!H89,3), " - ", FIXED(temp!I89,3),  ")", IF(AND(temp!J89 &lt;0.05, NOT(ISBLANK(temp!J89))), "*", " ") )</f>
-        <v>0.391 (0.372 - 0.411)*</v>
+        <v>0.334 (0.313 - 0.355)*</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -9540,23 +9541,23 @@
       </c>
       <c r="G90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 7)</f>
-        <v>0.625000000000006</v>
+        <v>0.58068783068783303</v>
       </c>
       <c r="H90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 10)</f>
-        <v>0.59462456520634699</v>
+        <v>0.54550901359925597</v>
       </c>
       <c r="I90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 11)</f>
-        <v>0.655375434793665</v>
+        <v>0.61586664777641098</v>
       </c>
       <c r="J90">
         <f>VLOOKUP($A90,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.27408689286278E-229</v>
       </c>
       <c r="L90" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G90, 3), " (", FIXED(temp!H90,3), " - ", FIXED(temp!I90,3),  ")", IF(AND(temp!J90 &lt;0.05, NOT(ISBLANK(temp!J90))), "*", " ") )</f>
-        <v>0.625 (0.595 - 0.655)*</v>
+        <v>0.581 (0.546 - 0.616)*</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -9586,23 +9587,23 @@
       </c>
       <c r="G91">
         <f>VLOOKUP($A91,LTMLE!$A:$L, 7)</f>
-        <v>0.71604938271565599</v>
+        <v>0.66393442622946997</v>
       </c>
       <c r="H91">
         <f>VLOOKUP($A91,LTMLE!$A:$L, 10)</f>
-        <v>0.64656496944401098</v>
+        <v>0.58004276480008399</v>
       </c>
       <c r="I91">
         <f>VLOOKUP($A91,LTMLE!$A:$L, 11)</f>
-        <v>0.785533795987302</v>
+        <v>0.74782608765885705</v>
       </c>
       <c r="J91">
         <f>VLOOKUP($A91,LTMLE!$A:$L, 9)</f>
-        <v>1.02395008381041E-90</v>
+        <v>2.8991282006107598E-54</v>
       </c>
       <c r="L91" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G91, 3), " (", FIXED(temp!H91,3), " - ", FIXED(temp!I91,3),  ")", IF(AND(temp!J91 &lt;0.05, NOT(ISBLANK(temp!J91))), "*", " ") )</f>
-        <v>0.716 (0.647 - 0.786)*</v>
+        <v>0.664 (0.580 - 0.748)*</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -9862,15 +9863,15 @@
       </c>
       <c r="G97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 7)</f>
-        <v>0.354357509034324</v>
+        <v>0.32017482024551303</v>
       </c>
       <c r="H97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 10)</f>
-        <v>0.34828038558643998</v>
+        <v>0.313906250553739</v>
       </c>
       <c r="I97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 11)</f>
-        <v>0.36043463248220697</v>
+        <v>0.326443389937287</v>
       </c>
       <c r="J97">
         <f>VLOOKUP($A97,LTMLE!$A:$L, 9)</f>
@@ -9878,7 +9879,7 @@
       </c>
       <c r="L97" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G97, 3), " (", FIXED(temp!H97,3), " - ", FIXED(temp!I97,3),  ")", IF(AND(temp!J97 &lt;0.05, NOT(ISBLANK(temp!J97))), "*", " ") )</f>
-        <v>0.354 (0.348 - 0.360)*</v>
+        <v>0.320 (0.314 - 0.326)*</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -9908,15 +9909,15 @@
       </c>
       <c r="G98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 7)</f>
-        <v>0.22017132367940501</v>
+        <v>0.20331455805915499</v>
       </c>
       <c r="H98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 10)</f>
-        <v>0.21196992980728299</v>
+        <v>0.19510473190743599</v>
       </c>
       <c r="I98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 11)</f>
-        <v>0.22837271755152699</v>
+        <v>0.21152438421087399</v>
       </c>
       <c r="J98">
         <f>VLOOKUP($A98,LTMLE!$A:$L, 9)</f>
@@ -9924,7 +9925,7 @@
       </c>
       <c r="L98" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G98, 3), " (", FIXED(temp!H98,3), " - ", FIXED(temp!I98,3),  ")", IF(AND(temp!J98 &lt;0.05, NOT(ISBLANK(temp!J98))), "*", " ") )</f>
-        <v>0.220 (0.212 - 0.228)*</v>
+        <v>0.203 (0.195 - 0.212)*</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -9954,15 +9955,15 @@
       </c>
       <c r="G99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 7)</f>
-        <v>0.37734901014977501</v>
+        <v>0.33941480206540697</v>
       </c>
       <c r="H99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 10)</f>
-        <v>0.36782501221700697</v>
+        <v>0.32947319316411799</v>
       </c>
       <c r="I99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 11)</f>
-        <v>0.38687300808254299</v>
+        <v>0.34935641096669601</v>
       </c>
       <c r="J99">
         <f>VLOOKUP($A99,LTMLE!$A:$L, 9)</f>
@@ -9970,7 +9971,7 @@
       </c>
       <c r="L99" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G99, 3), " (", FIXED(temp!H99,3), " - ", FIXED(temp!I99,3),  ")", IF(AND(temp!J99 &lt;0.05, NOT(ISBLANK(temp!J99))), "*", " ") )</f>
-        <v>0.377 (0.368 - 0.387)*</v>
+        <v>0.339 (0.329 - 0.349)*</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -10000,15 +10001,15 @@
       </c>
       <c r="G100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 7)</f>
-        <v>0.60463121783877505</v>
+        <v>0.57356002775850101</v>
       </c>
       <c r="H100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 10)</f>
-        <v>0.58842699012311495</v>
+        <v>0.55550187022047803</v>
       </c>
       <c r="I100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 11)</f>
-        <v>0.62083544555443604</v>
+        <v>0.59161818529652399</v>
       </c>
       <c r="J100">
         <f>VLOOKUP($A100,LTMLE!$A:$L, 9)</f>
@@ -10016,7 +10017,7 @@
       </c>
       <c r="L100" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G100, 3), " (", FIXED(temp!H100,3), " - ", FIXED(temp!I100,3),  ")", IF(AND(temp!J100 &lt;0.05, NOT(ISBLANK(temp!J100))), "*", " ") )</f>
-        <v>0.605 (0.588 - 0.621)*</v>
+        <v>0.574 (0.556 - 0.592)*</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -10046,23 +10047,23 @@
       </c>
       <c r="G101">
         <f>VLOOKUP($A101,LTMLE!$A:$L, 7)</f>
-        <v>0.74401473296443998</v>
+        <v>0.72222222222175902</v>
       </c>
       <c r="H101">
         <f>VLOOKUP($A101,LTMLE!$A:$L, 10)</f>
-        <v>0.70728224505399095</v>
+        <v>0.68080299231157204</v>
       </c>
       <c r="I101">
         <f>VLOOKUP($A101,LTMLE!$A:$L, 11)</f>
-        <v>0.78074722087488801</v>
+        <v>0.76364145213194601</v>
       </c>
       <c r="J101">
         <f>VLOOKUP($A101,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>5.5607617914858802E-256</v>
       </c>
       <c r="L101" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G101, 3), " (", FIXED(temp!H101,3), " - ", FIXED(temp!I101,3),  ")", IF(AND(temp!J101 &lt;0.05, NOT(ISBLANK(temp!J101))), "*", " ") )</f>
-        <v>0.744 (0.707 - 0.781)*</v>
+        <v>0.722 (0.681 - 0.764)*</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -10322,23 +10323,23 @@
       </c>
       <c r="G107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 7)</f>
-        <v>0.25489423203334</v>
+        <v>0.177972740091007</v>
       </c>
       <c r="H107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 10)</f>
-        <v>0.245103401693191</v>
+        <v>0.16858936043329401</v>
       </c>
       <c r="I107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 11)</f>
-        <v>0.26468506237348899</v>
+        <v>0.18735611974871999</v>
       </c>
       <c r="J107">
         <f>VLOOKUP($A107,LTMLE!$A:$L, 9)</f>
-        <v>0</v>
+        <v>1.77873137430605E-302</v>
       </c>
       <c r="L107" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G107, 3), " (", FIXED(temp!H107,3), " - ", FIXED(temp!I107,3),  ")", IF(AND(temp!J107 &lt;0.05, NOT(ISBLANK(temp!J107))), "*", " ") )</f>
-        <v>0.255 (0.245 - 0.265)*</v>
+        <v>0.178 (0.169 - 0.187)*</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -10368,23 +10369,23 @@
       </c>
       <c r="G108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 7)</f>
-        <v>0.20264074821218001</v>
+        <v>0.14342965619082099</v>
       </c>
       <c r="H108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 10)</f>
-        <v>0.191971684792618</v>
+        <v>0.13345219154103399</v>
       </c>
       <c r="I108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 11)</f>
-        <v>0.21330981163174101</v>
+        <v>0.15340712084060801</v>
       </c>
       <c r="J108">
         <f>VLOOKUP($A108,LTMLE!$A:$L, 9)</f>
-        <v>2.57331713978483E-303</v>
+        <v>1.1778096990820701E-174</v>
       </c>
       <c r="L108" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G108, 3), " (", FIXED(temp!H108,3), " - ", FIXED(temp!I108,3),  ")", IF(AND(temp!J108 &lt;0.05, NOT(ISBLANK(temp!J108))), "*", " ") )</f>
-        <v>0.203 (0.192 - 0.213)*</v>
+        <v>0.143 (0.133 - 0.153)*</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -10414,23 +10415,23 @@
       </c>
       <c r="G109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 7)</f>
-        <v>0.38135175135671201</v>
+        <v>0.27178825048468203</v>
       </c>
       <c r="H109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 10)</f>
-        <v>0.36020631757503102</v>
+        <v>0.24963287917666299</v>
       </c>
       <c r="I109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 11)</f>
-        <v>0.402497185138393</v>
+        <v>0.293943621792701</v>
       </c>
       <c r="J109">
         <f>VLOOKUP($A109,LTMLE!$A:$L, 9)</f>
-        <v>1.0999388037909501E-273</v>
+        <v>9.7360567017965805E-128</v>
       </c>
       <c r="L109" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G109, 3), " (", FIXED(temp!H109,3), " - ", FIXED(temp!I109,3),  ")", IF(AND(temp!J109 &lt;0.05, NOT(ISBLANK(temp!J109))), "*", " ") )</f>
-        <v>0.381 (0.360 - 0.402)*</v>
+        <v>0.272 (0.250 - 0.294)*</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -10460,23 +10461,23 @@
       </c>
       <c r="G110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 7)</f>
-        <v>0.46875000000506001</v>
+        <v>0.36956521739131198</v>
       </c>
       <c r="H110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 10)</f>
-        <v>0.38229165927169401</v>
+        <v>0.27092051923914001</v>
       </c>
       <c r="I110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 11)</f>
-        <v>0.55520834073842695</v>
+        <v>0.46820991554348401</v>
       </c>
       <c r="J110">
         <f>VLOOKUP($A110,LTMLE!$A:$L, 9)</f>
-        <v>2.2483342756422099E-26</v>
+        <v>2.09072321829779E-13</v>
       </c>
       <c r="L110" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G110, 3), " (", FIXED(temp!H110,3), " - ", FIXED(temp!I110,3),  ")", IF(AND(temp!J110 &lt;0.05, NOT(ISBLANK(temp!J110))), "*", " ") )</f>
-        <v>0.469 (0.382 - 0.555)*</v>
+        <v>0.370 (0.271 - 0.468)*</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -10766,15 +10767,15 @@
       </c>
       <c r="G117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 7)</f>
-        <v>0.23341419681507</v>
+        <v>0.18529191173578699</v>
       </c>
       <c r="H117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 10)</f>
-        <v>0.22849824366330401</v>
+        <v>0.180507398182957</v>
       </c>
       <c r="I117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 11)</f>
-        <v>0.23833014996683699</v>
+        <v>0.19007642528861601</v>
       </c>
       <c r="J117">
         <f>VLOOKUP($A117,LTMLE!$A:$L, 9)</f>
@@ -10782,7 +10783,7 @@
       </c>
       <c r="L117" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G117, 3), " (", FIXED(temp!H117,3), " - ", FIXED(temp!I117,3),  ")", IF(AND(temp!J117 &lt;0.05, NOT(ISBLANK(temp!J117))), "*", " ") )</f>
-        <v>0.233 (0.228 - 0.238)*</v>
+        <v>0.185 (0.181 - 0.190)*</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -10812,15 +10813,15 @@
       </c>
       <c r="G118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 7)</f>
-        <v>0.19227792195981699</v>
+        <v>0.151693595960255</v>
       </c>
       <c r="H118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 10)</f>
-        <v>0.18706593293402801</v>
+        <v>0.14670559914637099</v>
       </c>
       <c r="I118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 11)</f>
-        <v>0.197489910985607</v>
+        <v>0.15668159277414001</v>
       </c>
       <c r="J118">
         <f>VLOOKUP($A118,LTMLE!$A:$L, 9)</f>
@@ -10828,7 +10829,7 @@
       </c>
       <c r="L118" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G118, 3), " (", FIXED(temp!H118,3), " - ", FIXED(temp!I118,3),  ")", IF(AND(temp!J118 &lt;0.05, NOT(ISBLANK(temp!J118))), "*", " ") )</f>
-        <v>0.192 (0.187 - 0.197)*</v>
+        <v>0.152 (0.147 - 0.157)*</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -10858,15 +10859,15 @@
       </c>
       <c r="G119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 7)</f>
-        <v>0.36178928395871901</v>
+        <v>0.29653302343629401</v>
       </c>
       <c r="H119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 10)</f>
-        <v>0.349733459458623</v>
+        <v>0.28407446224852601</v>
       </c>
       <c r="I119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 11)</f>
-        <v>0.37384510845881502</v>
+        <v>0.30899158462406101</v>
       </c>
       <c r="J119">
         <f>VLOOKUP($A119,LTMLE!$A:$L, 9)</f>
@@ -10874,7 +10875,7 @@
       </c>
       <c r="L119" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G119, 3), " (", FIXED(temp!H119,3), " - ", FIXED(temp!I119,3),  ")", IF(AND(temp!J119 &lt;0.05, NOT(ISBLANK(temp!J119))), "*", " ") )</f>
-        <v>0.362 (0.350 - 0.374)*</v>
+        <v>0.297 (0.284 - 0.309)*</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -10904,23 +10905,23 @@
       </c>
       <c r="G120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 7)</f>
-        <v>0.54594594587254197</v>
+        <v>0.486486486486502</v>
       </c>
       <c r="H120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 10)</f>
-        <v>0.49520956219336798</v>
+        <v>0.42953992480577002</v>
       </c>
       <c r="I120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 11)</f>
-        <v>0.59668232955171696</v>
+        <v>0.54343304816723403</v>
       </c>
       <c r="J120">
         <f>VLOOKUP($A120,LTMLE!$A:$L, 9)</f>
-        <v>9.8095541153119094E-99</v>
+        <v>6.2953536959875999E-63</v>
       </c>
       <c r="L120" t="str">
         <f>_xlfn.CONCAT(FIXED(temp!G120, 3), " (", FIXED(temp!H120,3), " - ", FIXED(temp!I120,3),  ")", IF(AND(temp!J120 &lt;0.05, NOT(ISBLANK(temp!J120))), "*", " ") )</f>
-        <v>0.546 (0.495 - 0.597)*</v>
+        <v>0.486 (0.430 - 0.543)*</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -10982,17 +10983,17 @@
   <sheetData>
     <row r="3" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -11028,7 +11029,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -11036,19 +11037,19 @@
       </c>
       <c r="E5" s="4" t="str" cm="1">
         <f t="array" ref="E5:I5">TRANSPOSE(temp!L7:L11)</f>
-        <v>0.371 (0.359 - 0.384)*</v>
+        <v>0.321 (0.308 - 0.335)*</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>0.231 (0.213 - 0.249)*</v>
+        <v>0.203 (0.185 - 0.221)*</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>0.388 (0.367 - 0.408)*</v>
+        <v>0.334 (0.313 - 0.356)*</v>
       </c>
       <c r="H5" s="6" t="str">
-        <v>0.594 (0.562 - 0.626)*</v>
+        <v>0.553 (0.517 - 0.589)*</v>
       </c>
       <c r="I5" s="6" t="str">
-        <v>0.710 (0.638 - 0.781)*</v>
+        <v>0.658 (0.571 - 0.745)*</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -11057,25 +11058,25 @@
     </row>
     <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="4" t="str" cm="1">
         <f t="array" ref="E6:I6">TRANSPOSE(temp!L17:L21)</f>
-        <v>0.346 (0.340 - 0.353)*</v>
+        <v>0.315 (0.309 - 0.322)*</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>0.227 (0.218 - 0.235)*</v>
+        <v>0.210 (0.202 - 0.219)*</v>
       </c>
       <c r="G6" s="5" t="str">
-        <v>0.363 (0.353 - 0.373)*</v>
+        <v>0.329 (0.319 - 0.339)*</v>
       </c>
       <c r="H6" s="6" t="str">
-        <v>0.583 (0.566 - 0.600)*</v>
+        <v>0.552 (0.533 - 0.571)*</v>
       </c>
       <c r="I6" s="6" t="str">
-        <v>0.738 (0.700 - 0.776)*</v>
+        <v>0.717 (0.674 - 0.759)*</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -11084,7 +11085,7 @@
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -11092,19 +11093,19 @@
       </c>
       <c r="E7" s="4" t="str" cm="1">
         <f t="array" ref="E7:I7">TRANSPOSE(temp!L27:L31)</f>
-        <v>0.263 (0.253 - 0.273)*</v>
+        <v>0.186 (0.177 - 0.196)*</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>0.198 (0.187 - 0.209)*</v>
+        <v>0.143 (0.133 - 0.153)*</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>0.386 (0.365 - 0.406)*</v>
+        <v>0.275 (0.253 - 0.296)*</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>0.676 (0.607 - 0.746)*</v>
+        <v>0.588 (0.500 - 0.677)*</v>
       </c>
       <c r="I7" s="4" t="str">
-        <v>0.800 (0.552 - 1.000)*</v>
+        <v>0.778 (0.506 - 1.000)*</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -11113,25 +11114,25 @@
     </row>
     <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="4" t="str" cm="1">
         <f t="array" ref="E8:I8">TRANSPOSE(temp!L37:L41)</f>
-        <v>0.246 (0.241 - 0.251)*</v>
+        <v>0.195 (0.191 - 0.200)*</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>0.190 (0.185 - 0.195)*</v>
+        <v>0.150 (0.145 - 0.155)*</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>0.383 (0.371 - 0.394)*</v>
+        <v>0.315 (0.303 - 0.327)*</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>0.679 (0.642 - 0.715)*</v>
+        <v>0.638 (0.596 - 0.681)*</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>0.889 (0.770 - 1.000)*</v>
+        <v>0.905 (0.779 - 1.000)*</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -11140,7 +11141,7 @@
     </row>
     <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -11148,19 +11149,19 @@
       </c>
       <c r="E9" s="4" t="str" cm="1">
         <f t="array" ref="E9:I9">TRANSPOSE(temp!L47:L51)</f>
-        <v>0.442 (0.418 - 0.465)*</v>
+        <v>0.322 (0.297 - 0.348)*</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>0.281 (0.239 - 0.323)*</v>
+        <v>0.168 (0.127 - 0.209)*</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>0.435 (0.403 - 0.468)*</v>
+        <v>0.301 (0.266 - 0.337)*</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>0.601 (0.548 - 0.653)*</v>
+        <v>0.519 (0.455 - 0.582)*</v>
       </c>
       <c r="I9" s="4" t="str">
-        <v>0.674 (0.578 - 0.770)*</v>
+        <v>0.612 (0.495 - 0.729)*</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -11169,25 +11170,25 @@
     </row>
     <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="4" t="str" cm="1">
         <f t="array" ref="E10:I10">TRANSPOSE(temp!L57:L61)</f>
-        <v>0.459 (0.444 - 0.474)*</v>
+        <v>0.400 (0.384 - 0.417)*</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>0.286 (0.258 - 0.313)*</v>
+        <v>0.239 (0.211 - 0.267)*</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>0.446 (0.423 - 0.469)*</v>
+        <v>0.378 (0.353 - 0.403)*</v>
       </c>
       <c r="H10" s="4" t="str">
-        <v>0.588 (0.557 - 0.618)*</v>
+        <v>0.539 (0.505 - 0.572)*</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>0.693 (0.640 - 0.747)*</v>
+        <v>0.671 (0.610 - 0.732)*</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -11196,7 +11197,7 @@
     </row>
     <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -11204,19 +11205,19 @@
       </c>
       <c r="E11" s="4" t="str" cm="1">
         <f t="array" ref="E11:I11">TRANSPOSE(temp!L67:L71)</f>
-        <v>0.287 (0.279 - 0.296)*</v>
+        <v>0.233 (0.225 - 0.241)*</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>0.203 (0.193 - 0.212)*</v>
+        <v>0.160 (0.151 - 0.170)*</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>0.374 (0.358 - 0.390)*</v>
+        <v>0.308 (0.291 - 0.325)*</v>
       </c>
       <c r="H11" s="4" t="str">
-        <v>0.610 (0.575 - 0.644)*</v>
+        <v>0.573 (0.534 - 0.612)*</v>
       </c>
       <c r="I11" s="4" t="str">
-        <v>0.767 (0.670 - 0.864)*</v>
+        <v>0.732 (0.616 - 0.848)*</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -11225,25 +11226,25 @@
     </row>
     <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="str" cm="1">
         <f t="array" ref="E12:I12">TRANSPOSE(temp!L77:L81)</f>
-        <v>0.274 (0.270 - 0.278)*</v>
+        <v>0.235 (0.231 - 0.239)*</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>0.198 (0.194 - 0.203)*</v>
+        <v>0.166 (0.161 - 0.170)*</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>0.362 (0.354 - 0.370)*</v>
+        <v>0.317 (0.309 - 0.325)*</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>0.603 (0.585 - 0.621)*</v>
+        <v>0.575 (0.555 - 0.595)*</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>0.802 (0.754 - 0.850)*</v>
+        <v>0.781 (0.727 - 0.835)*</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -11252,7 +11253,7 @@
     </row>
     <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -11260,19 +11261,19 @@
       </c>
       <c r="E13" s="4" t="str" cm="1">
         <f t="array" ref="E13:I13">TRANSPOSE(temp!L87:L91)</f>
-        <v>0.382 (0.369 - 0.395)*</v>
+        <v>0.333 (0.319 - 0.346)*</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>0.221 (0.203 - 0.240)*</v>
+        <v>0.206 (0.188 - 0.225)*</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>0.391 (0.372 - 0.411)*</v>
+        <v>0.334 (0.313 - 0.355)*</v>
       </c>
       <c r="H13" s="4" t="str">
-        <v>0.625 (0.595 - 0.655)*</v>
+        <v>0.581 (0.546 - 0.616)*</v>
       </c>
       <c r="I13" s="4" t="str">
-        <v>0.716 (0.647 - 0.786)*</v>
+        <v>0.664 (0.580 - 0.748)*</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -11281,25 +11282,25 @@
     </row>
     <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="4" t="str" cm="1">
         <f t="array" ref="E14:I14">TRANSPOSE(temp!L97:L101)</f>
-        <v>0.354 (0.348 - 0.360)*</v>
+        <v>0.320 (0.314 - 0.326)*</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>0.220 (0.212 - 0.228)*</v>
+        <v>0.203 (0.195 - 0.212)*</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>0.377 (0.368 - 0.387)*</v>
+        <v>0.339 (0.329 - 0.349)*</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>0.605 (0.588 - 0.621)*</v>
+        <v>0.574 (0.556 - 0.592)*</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>0.744 (0.707 - 0.781)*</v>
+        <v>0.722 (0.681 - 0.764)*</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -11308,7 +11309,7 @@
     </row>
     <row r="15" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -11316,16 +11317,16 @@
       </c>
       <c r="E15" s="4" t="str" cm="1">
         <f t="array" ref="E15:I15">TRANSPOSE(temp!L107:L111)</f>
-        <v>0.255 (0.245 - 0.265)*</v>
+        <v>0.178 (0.169 - 0.187)*</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>0.203 (0.192 - 0.213)*</v>
+        <v>0.143 (0.133 - 0.153)*</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>0.381 (0.360 - 0.402)*</v>
+        <v>0.272 (0.250 - 0.294)*</v>
       </c>
       <c r="H15" s="4" t="str">
-        <v>0.469 (0.382 - 0.555)*</v>
+        <v>0.370 (0.271 - 0.468)*</v>
       </c>
       <c r="I15" s="4" t="str">
         <v xml:space="preserve">0.000 (0.000 - 0.000) </v>
@@ -11337,22 +11338,22 @@
     </row>
     <row r="16" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="4" t="str" cm="1">
         <f t="array" ref="E16:I16">TRANSPOSE(temp!L117:L121)</f>
-        <v>0.233 (0.228 - 0.238)*</v>
+        <v>0.185 (0.181 - 0.190)*</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>0.192 (0.187 - 0.197)*</v>
+        <v>0.152 (0.147 - 0.157)*</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>0.362 (0.350 - 0.374)*</v>
+        <v>0.297 (0.284 - 0.309)*</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>0.546 (0.495 - 0.597)*</v>
+        <v>0.486 (0.430 - 0.543)*</v>
       </c>
       <c r="I16" s="4" t="str">
         <v xml:space="preserve">0.000 (0.000 - 0.000) </v>
@@ -11565,8 +11566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5414F4A-3CCF-48B8-9041-E473F806DC9D}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11707,55 +11708,55 @@
       </c>
       <c r="C4" s="23" t="str">
         <f>table_4!E8</f>
-        <v>0.246 (0.241 - 0.251)*</v>
+        <v>0.195 (0.191 - 0.200)*</v>
       </c>
       <c r="D4" s="23" t="str">
         <f>table_4!E6</f>
-        <v>0.346 (0.340 - 0.353)*</v>
+        <v>0.315 (0.309 - 0.322)*</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="23" t="str">
         <f>table_4!F8</f>
-        <v>0.190 (0.185 - 0.195)*</v>
+        <v>0.150 (0.145 - 0.155)*</v>
       </c>
       <c r="H4" s="23" t="str">
         <f>table_4!F6</f>
-        <v>0.227 (0.218 - 0.235)*</v>
+        <v>0.210 (0.202 - 0.219)*</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="23" t="str">
         <f>table_4!G8</f>
-        <v>0.383 (0.371 - 0.394)*</v>
+        <v>0.315 (0.303 - 0.327)*</v>
       </c>
       <c r="L4" s="24" t="str">
         <f>table_4!G6</f>
-        <v>0.363 (0.353 - 0.373)*</v>
+        <v>0.329 (0.319 - 0.339)*</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="23" t="str">
         <f>table_4!H8</f>
-        <v>0.679 (0.642 - 0.715)*</v>
+        <v>0.638 (0.596 - 0.681)*</v>
       </c>
       <c r="P4" s="24" t="str">
         <f>table_4!H6</f>
-        <v>0.583 (0.566 - 0.600)*</v>
+        <v>0.552 (0.533 - 0.571)*</v>
       </c>
       <c r="R4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="S4" s="23" t="str">
         <f>table_4!I8</f>
-        <v>0.889 (0.770 - 1.000)*</v>
+        <v>0.905 (0.779 - 1.000)*</v>
       </c>
       <c r="T4" s="24" t="str">
         <f>table_4!I6</f>
-        <v>0.738 (0.700 - 0.776)*</v>
+        <v>0.717 (0.674 - 0.759)*</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11764,55 +11765,55 @@
       </c>
       <c r="C5" s="23" t="str">
         <f>table_4!E7</f>
-        <v>0.263 (0.253 - 0.273)*</v>
+        <v>0.186 (0.177 - 0.196)*</v>
       </c>
       <c r="D5" s="23" t="str">
         <f>table_4!E5</f>
-        <v>0.371 (0.359 - 0.384)*</v>
+        <v>0.321 (0.308 - 0.335)*</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="23" t="str">
         <f>table_4!F7</f>
-        <v>0.198 (0.187 - 0.209)*</v>
+        <v>0.143 (0.133 - 0.153)*</v>
       </c>
       <c r="H5" s="23" t="str">
         <f>table_4!F5</f>
-        <v>0.231 (0.213 - 0.249)*</v>
+        <v>0.203 (0.185 - 0.221)*</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="23" t="str">
         <f>table_4!G7</f>
-        <v>0.386 (0.365 - 0.406)*</v>
+        <v>0.275 (0.253 - 0.296)*</v>
       </c>
       <c r="L5" s="24" t="str">
         <f>table_4!G5</f>
-        <v>0.388 (0.367 - 0.408)*</v>
+        <v>0.334 (0.313 - 0.356)*</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="23" t="str">
         <f>table_4!H7</f>
-        <v>0.676 (0.607 - 0.746)*</v>
+        <v>0.588 (0.500 - 0.677)*</v>
       </c>
       <c r="P5" s="24" t="str">
         <f>table_4!H5</f>
-        <v>0.594 (0.562 - 0.626)*</v>
+        <v>0.553 (0.517 - 0.589)*</v>
       </c>
       <c r="R5" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="23" t="str">
         <f>table_4!I7</f>
-        <v>0.800 (0.552 - 1.000)*</v>
+        <v>0.778 (0.506 - 1.000)*</v>
       </c>
       <c r="T5" s="24" t="str">
         <f>table_4!I5</f>
-        <v>0.710 (0.638 - 0.781)*</v>
+        <v>0.658 (0.571 - 0.745)*</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -11927,55 +11928,55 @@
       </c>
       <c r="C9" s="23" t="str">
         <f>table_4!E12</f>
-        <v>0.274 (0.270 - 0.278)*</v>
+        <v>0.235 (0.231 - 0.239)*</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>table_4!E10</f>
-        <v>0.459 (0.444 - 0.474)*</v>
+        <v>0.400 (0.384 - 0.417)*</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="23" t="str">
         <f>table_4!F12</f>
-        <v>0.198 (0.194 - 0.203)*</v>
+        <v>0.166 (0.161 - 0.170)*</v>
       </c>
       <c r="H9" s="23" t="str">
         <f>table_4!F10</f>
-        <v>0.286 (0.258 - 0.313)*</v>
+        <v>0.239 (0.211 - 0.267)*</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="23" t="str">
         <f>table_4!G12</f>
-        <v>0.362 (0.354 - 0.370)*</v>
+        <v>0.317 (0.309 - 0.325)*</v>
       </c>
       <c r="L9" s="23" t="str">
         <f>table_4!G10</f>
-        <v>0.446 (0.423 - 0.469)*</v>
+        <v>0.378 (0.353 - 0.403)*</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="O9" s="23" t="str">
         <f>table_4!H12</f>
-        <v>0.603 (0.585 - 0.621)*</v>
+        <v>0.575 (0.555 - 0.595)*</v>
       </c>
       <c r="P9" s="23" t="str">
         <f>table_4!H10</f>
-        <v>0.588 (0.557 - 0.618)*</v>
+        <v>0.539 (0.505 - 0.572)*</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="23" t="str">
         <f>table_4!I12</f>
-        <v>0.802 (0.754 - 0.850)*</v>
+        <v>0.781 (0.727 - 0.835)*</v>
       </c>
       <c r="T9" s="23" t="str">
         <f>table_4!I10</f>
-        <v>0.693 (0.640 - 0.747)*</v>
+        <v>0.671 (0.610 - 0.732)*</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11984,55 +11985,55 @@
       </c>
       <c r="C10" s="23" t="str">
         <f>table_4!E11</f>
-        <v>0.287 (0.279 - 0.296)*</v>
+        <v>0.233 (0.225 - 0.241)*</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>table_4!E9</f>
-        <v>0.442 (0.418 - 0.465)*</v>
+        <v>0.322 (0.297 - 0.348)*</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="23" t="str">
         <f>table_4!F11</f>
-        <v>0.203 (0.193 - 0.212)*</v>
+        <v>0.160 (0.151 - 0.170)*</v>
       </c>
       <c r="H10" s="23" t="str">
         <f>table_4!F9</f>
-        <v>0.281 (0.239 - 0.323)*</v>
+        <v>0.168 (0.127 - 0.209)*</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="23" t="str">
         <f>table_4!G11</f>
-        <v>0.374 (0.358 - 0.390)*</v>
+        <v>0.308 (0.291 - 0.325)*</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>table_4!G9</f>
-        <v>0.435 (0.403 - 0.468)*</v>
+        <v>0.301 (0.266 - 0.337)*</v>
       </c>
       <c r="N10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="23" t="str">
         <f>table_4!H11</f>
-        <v>0.610 (0.575 - 0.644)*</v>
+        <v>0.573 (0.534 - 0.612)*</v>
       </c>
       <c r="P10" s="23" t="str">
         <f>table_4!H9</f>
-        <v>0.601 (0.548 - 0.653)*</v>
+        <v>0.519 (0.455 - 0.582)*</v>
       </c>
       <c r="R10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="S10" s="23" t="str">
         <f>table_4!I11</f>
-        <v>0.767 (0.670 - 0.864)*</v>
+        <v>0.732 (0.616 - 0.848)*</v>
       </c>
       <c r="T10" s="23" t="str">
         <f>table_4!I9</f>
-        <v>0.674 (0.578 - 0.770)*</v>
+        <v>0.612 (0.495 - 0.729)*</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -12144,44 +12145,44 @@
       </c>
       <c r="C14" s="23" t="str">
         <f>table_4!E16</f>
-        <v>0.233 (0.228 - 0.238)*</v>
+        <v>0.185 (0.181 - 0.190)*</v>
       </c>
       <c r="D14" s="23" t="str">
         <f>table_4!E14</f>
-        <v>0.354 (0.348 - 0.360)*</v>
+        <v>0.320 (0.314 - 0.326)*</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="23" t="str">
         <f>table_4!F16</f>
-        <v>0.192 (0.187 - 0.197)*</v>
+        <v>0.152 (0.147 - 0.157)*</v>
       </c>
       <c r="H14" s="23" t="str">
         <f>table_4!F14</f>
-        <v>0.220 (0.212 - 0.228)*</v>
+        <v>0.203 (0.195 - 0.212)*</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="23" t="str">
         <f>table_4!G16</f>
-        <v>0.362 (0.350 - 0.374)*</v>
+        <v>0.297 (0.284 - 0.309)*</v>
       </c>
       <c r="L14" s="23" t="str">
         <f>table_4!G14</f>
-        <v>0.377 (0.368 - 0.387)*</v>
+        <v>0.339 (0.329 - 0.349)*</v>
       </c>
       <c r="N14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="O14" s="23" t="str">
         <f>table_4!H16</f>
-        <v>0.546 (0.495 - 0.597)*</v>
+        <v>0.486 (0.430 - 0.543)*</v>
       </c>
       <c r="P14" s="23" t="str">
         <f>table_4!H14</f>
-        <v>0.605 (0.588 - 0.621)*</v>
+        <v>0.574 (0.556 - 0.592)*</v>
       </c>
       <c r="R14" s="21" t="s">
         <v>46</v>
@@ -12192,7 +12193,7 @@
       </c>
       <c r="T14" s="23" t="str">
         <f>table_4!I14</f>
-        <v>0.744 (0.707 - 0.781)*</v>
+        <v>0.722 (0.681 - 0.764)*</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12201,44 +12202,44 @@
       </c>
       <c r="C15" s="23" t="str">
         <f>table_4!E15</f>
-        <v>0.255 (0.245 - 0.265)*</v>
+        <v>0.178 (0.169 - 0.187)*</v>
       </c>
       <c r="D15" s="23" t="str">
         <f>table_4!E13</f>
-        <v>0.382 (0.369 - 0.395)*</v>
+        <v>0.333 (0.319 - 0.346)*</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="23" t="str">
         <f>table_4!F15</f>
-        <v>0.203 (0.192 - 0.213)*</v>
+        <v>0.143 (0.133 - 0.153)*</v>
       </c>
       <c r="H15" s="23" t="str">
         <f>table_4!F13</f>
-        <v>0.221 (0.203 - 0.240)*</v>
+        <v>0.206 (0.188 - 0.225)*</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="23" t="str">
         <f>table_4!G15</f>
-        <v>0.381 (0.360 - 0.402)*</v>
+        <v>0.272 (0.250 - 0.294)*</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>table_4!G13</f>
-        <v>0.391 (0.372 - 0.411)*</v>
+        <v>0.334 (0.313 - 0.355)*</v>
       </c>
       <c r="N15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O15" s="23" t="str">
         <f>table_4!H15</f>
-        <v>0.469 (0.382 - 0.555)*</v>
+        <v>0.370 (0.271 - 0.468)*</v>
       </c>
       <c r="P15" s="23" t="str">
         <f>table_4!H13</f>
-        <v>0.625 (0.595 - 0.655)*</v>
+        <v>0.581 (0.546 - 0.616)*</v>
       </c>
       <c r="R15" s="21" t="s">
         <v>24</v>
@@ -12249,7 +12250,7 @@
       </c>
       <c r="T15" s="23" t="str">
         <f>table_4!I13</f>
-        <v>0.716 (0.647 - 0.786)*</v>
+        <v>0.664 (0.580 - 0.748)*</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -12267,21 +12268,21 @@
     <row r="19" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
